--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="348">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -907,9 +907,6 @@
   </si>
   <si>
     <t>monetary_bilions ($)</t>
-  </si>
-  <si>
-    <t>0,38 (2,7 CNY)</t>
   </si>
   <si>
     <t>40.7 (37.6 Euro)</t>
@@ -1297,6 +1294,21 @@
   </si>
   <si>
     <t>yll_per_capita</t>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>0,72 (5,1) billion</t>
+  </si>
+  <si>
+    <t>0,38 (2,7 CNY) = 380 ?</t>
+  </si>
+  <si>
+    <t>10.6 Million</t>
+  </si>
+  <si>
+    <t>VSL</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1757,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1827,30 +1913,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2257,33 +2319,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:U90" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:U90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W90" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:W90"/>
   <sortState ref="A2:P84">
     <sortCondition ref="A1:A84"/>
   </sortState>
-  <tableColumns count="21">
-    <tableColumn id="18" name="author_date" dataDxfId="20"/>
-    <tableColumn id="1" name="title" dataDxfId="19"/>
-    <tableColumn id="3" name="Geographical scale" dataDxfId="18"/>
-    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="17"/>
-    <tableColumn id="22" name="rank_pop" dataDxfId="16"/>
-    <tableColumn id="4" name="scenario" dataDxfId="15"/>
-    <tableColumn id="5" name="scenario_cat" dataDxfId="14"/>
-    <tableColumn id="8" name="emission_sector" dataDxfId="13"/>
-    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="12"/>
-    <tableColumn id="6" name="scenario_yr" dataDxfId="11"/>
-    <tableColumn id="2" name="n_prev" dataDxfId="10"/>
-    <tableColumn id="17" name="n_death" dataDxfId="9"/>
-    <tableColumn id="16" name="mortality_proj" dataDxfId="8"/>
-    <tableColumn id="12" name="lifexp_months" dataDxfId="7"/>
-    <tableColumn id="11" name="yll" dataDxfId="6"/>
-    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="5"/>
-    <tableColumn id="14" name="population_target" dataDxfId="4"/>
-    <tableColumn id="15" name="yll_per_capita" dataDxfId="0"/>
-    <tableColumn id="10" name="monetary_per_capita" dataDxfId="3"/>
-    <tableColumn id="23" name="Comment" dataDxfId="2"/>
-    <tableColumn id="7" name="Comment2" dataDxfId="1"/>
+  <tableColumns count="23">
+    <tableColumn id="18" name="author_date" dataDxfId="22"/>
+    <tableColumn id="1" name="title" dataDxfId="21"/>
+    <tableColumn id="3" name="Geographical scale" dataDxfId="20"/>
+    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="19"/>
+    <tableColumn id="22" name="rank_pop" dataDxfId="18"/>
+    <tableColumn id="4" name="scenario" dataDxfId="17"/>
+    <tableColumn id="5" name="scenario_cat" dataDxfId="16"/>
+    <tableColumn id="8" name="emission_sector" dataDxfId="15"/>
+    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="14"/>
+    <tableColumn id="6" name="scenario_yr" dataDxfId="13"/>
+    <tableColumn id="2" name="n_prev" dataDxfId="12"/>
+    <tableColumn id="17" name="n_death" dataDxfId="11"/>
+    <tableColumn id="16" name="mortality_proj" dataDxfId="10"/>
+    <tableColumn id="12" name="lifexp_months" dataDxfId="9"/>
+    <tableColumn id="11" name="yll" dataDxfId="8"/>
+    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="7"/>
+    <tableColumn id="19" name="monetary" dataDxfId="3"/>
+    <tableColumn id="14" name="population_target" dataDxfId="6"/>
+    <tableColumn id="15" name="yll_per_capita" dataDxfId="1">
+      <calculatedColumnFormula>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="monetary_per_capita" dataDxfId="2"/>
+    <tableColumn id="21" name="VSL" dataDxfId="0"/>
+    <tableColumn id="23" name="Comment" dataDxfId="5"/>
+    <tableColumn id="7" name="Comment2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2552,11 +2618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <selection pane="topRight" activeCell="T88" sqref="T88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2567,13 +2633,13 @@
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
     <col min="5" max="10" width="22.6640625" customWidth="1"/>
     <col min="11" max="13" width="26.21875" style="1" customWidth="1"/>
-    <col min="14" max="19" width="32.33203125" customWidth="1"/>
-    <col min="20" max="20" width="54.21875" customWidth="1"/>
-    <col min="21" max="21" width="47" customWidth="1"/>
-    <col min="22" max="22" width="44.33203125" customWidth="1"/>
+    <col min="14" max="20" width="32.33203125" customWidth="1"/>
+    <col min="21" max="21" width="54.21875" customWidth="1"/>
+    <col min="22" max="22" width="47" customWidth="1"/>
+    <col min="23" max="23" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2623,22 +2689,28 @@
         <v>264</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="T1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="V1" t="s">
         <v>150</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>39</v>
       </c>
@@ -2686,17 +2758,29 @@
         <v>204000</v>
       </c>
       <c r="P2" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="83" t="s">
-        <v>340</v>
-      </c>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:21" s="35" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>40700000000</v>
+      </c>
+      <c r="R2" s="51">
+        <v>66099100</v>
+      </c>
+      <c r="S2" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>3.0862750022314978E-3</v>
+      </c>
+      <c r="T2" s="51">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>615.74212054324494</v>
+      </c>
+      <c r="U2" s="51"/>
+      <c r="V2" s="83" t="s">
+        <v>339</v>
+      </c>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" s="35" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -2742,15 +2826,24 @@
       <c r="P3" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="Q3" s="34">
+        <v>171930000000</v>
+      </c>
+      <c r="R3" s="34">
+        <v>1312636325</v>
+      </c>
       <c r="S3" s="34"/>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="51">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>130.98068118753304</v>
+      </c>
+      <c r="U3" s="51"/>
+      <c r="V3" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="U3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" s="35" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" s="35" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
         <v>60</v>
       </c>
@@ -2796,17 +2889,26 @@
       <c r="P4" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="Q4" s="5">
+        <v>102670000000</v>
+      </c>
+      <c r="R4" s="34">
+        <v>1312636325</v>
+      </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="51">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>78.216637803315407</v>
+      </c>
+      <c r="U4" s="51"/>
+      <c r="V4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="35" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="35" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
         <v>60</v>
       </c>
@@ -2852,17 +2954,26 @@
       <c r="P5" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="Q5" s="5">
+        <v>187110000000</v>
+      </c>
+      <c r="R5" s="34">
+        <v>1312636325</v>
+      </c>
       <c r="S5" s="5"/>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="51">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>142.54519430581811</v>
+      </c>
+      <c r="U5" s="51"/>
+      <c r="V5" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>60</v>
       </c>
@@ -2908,17 +3019,26 @@
       <c r="P6" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="5">
+        <v>222840000000</v>
+      </c>
+      <c r="R6" s="34">
+        <v>1312636325</v>
+      </c>
       <c r="S6" s="5"/>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="51">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>169.76522419490411</v>
+      </c>
+      <c r="U6" s="51"/>
+      <c r="V6" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="U6" s="49" t="s">
+      <c r="W6" s="49" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>105</v>
       </c>
@@ -2966,12 +3086,14 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
-      <c r="T7" s="58" t="s">
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
@@ -3007,10 +3129,12 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" s="35" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" s="35" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>255</v>
       </c>
@@ -3047,19 +3171,21 @@
       <c r="L9" s="9"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" s="32" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" s="32" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>49</v>
       </c>
@@ -3093,12 +3219,14 @@
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
-      <c r="T10" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="U10" s="31"/>
-    </row>
-    <row r="11" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="11" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>36</v>
       </c>
@@ -3145,12 +3273,14 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="U11" s="46"/>
-    </row>
-    <row r="12" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="W11" s="46"/>
+    </row>
+    <row r="12" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>36</v>
       </c>
@@ -3197,12 +3327,14 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
-      <c r="T12" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="U12" s="46"/>
-    </row>
-    <row r="13" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="W12" s="46"/>
+    </row>
+    <row r="13" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>36</v>
       </c>
@@ -3249,12 +3381,14 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="U13" s="46"/>
-    </row>
-    <row r="14" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="W13" s="46"/>
+    </row>
+    <row r="14" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
@@ -3301,12 +3435,14 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="U14" s="31"/>
-    </row>
-    <row r="15" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="W14" s="31"/>
+    </row>
+    <row r="15" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>36</v>
       </c>
@@ -3353,12 +3489,14 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="U15" s="46"/>
-    </row>
-    <row r="16" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="W15" s="46"/>
+    </row>
+    <row r="16" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>36</v>
       </c>
@@ -3405,12 +3543,14 @@
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="U16" s="46"/>
-    </row>
-    <row r="17" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="W16" s="46"/>
+    </row>
+    <row r="17" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>56</v>
       </c>
@@ -3459,14 +3599,16 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
-      <c r="T17" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="U17" s="40" t="s">
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="W17" s="40" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="43" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="43" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>122</v>
       </c>
@@ -3514,12 +3656,14 @@
       <c r="Q18" s="63"/>
       <c r="R18" s="63"/>
       <c r="S18" s="63"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="31" t="s">
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="31" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="43" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="43" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>43</v>
       </c>
@@ -3553,10 +3697,12 @@
       <c r="Q19" s="53"/>
       <c r="R19" s="53"/>
       <c r="S19" s="53"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="31"/>
-    </row>
-    <row r="20" spans="1:21" s="43" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" s="43" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>40</v>
       </c>
@@ -3603,12 +3749,14 @@
       <c r="Q20" s="53"/>
       <c r="R20" s="53"/>
       <c r="S20" s="53"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="31" t="s">
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>40</v>
       </c>
@@ -3655,12 +3803,14 @@
       <c r="Q21" s="53"/>
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="31" t="s">
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>62</v>
       </c>
@@ -3696,12 +3846,14 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
-      <c r="T22" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="U22" s="12"/>
-    </row>
-    <row r="23" spans="1:21" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -3735,10 +3887,12 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="12"/>
-    </row>
-    <row r="24" spans="1:21" s="35" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" s="35" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
@@ -3776,12 +3930,14 @@
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
-      <c r="T24" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="1:21" s="35" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" s="35" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -3815,12 +3971,14 @@
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
-      <c r="T25" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="1:21" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="W25" s="12"/>
+    </row>
+    <row r="26" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>35</v>
       </c>
@@ -3858,14 +4016,21 @@
       </c>
       <c r="P26" s="51"/>
       <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R26" s="51">
+        <v>71684966</v>
+      </c>
+      <c r="S26" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>2.2319882246997231E-3</v>
+      </c>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="W26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>35</v>
       </c>
@@ -3903,14 +4068,21 @@
       </c>
       <c r="P27" s="51"/>
       <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="U27" s="12"/>
-    </row>
-    <row r="28" spans="1:21" s="35" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="R27" s="51">
+        <v>71684966</v>
+      </c>
+      <c r="S27" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>2.7899852808746539E-3</v>
+      </c>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W27" s="12"/>
+    </row>
+    <row r="28" spans="1:23" s="35" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -3956,15 +4128,17 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="U28" s="4" t="s">
+      <c r="S28" s="51"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="W28" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>45</v>
       </c>
@@ -4000,14 +4174,21 @@
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="4" t="s">
+      <c r="R29" s="5">
+        <v>25807197</v>
+      </c>
+      <c r="S29" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>1.3131995698719237E-4</v>
+      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="U29" s="14"/>
-    </row>
-    <row r="30" spans="1:21" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>89</v>
       </c>
@@ -4055,12 +4236,14 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
-      <c r="T30" s="27" t="s">
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="U30" s="38"/>
-    </row>
-    <row r="31" spans="1:21" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W30" s="38"/>
+    </row>
+    <row r="31" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>89</v>
       </c>
@@ -4108,12 +4291,14 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
-      <c r="T31" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="U31" s="31"/>
-    </row>
-    <row r="32" spans="1:21" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="W31" s="31"/>
+    </row>
+    <row r="32" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>89</v>
       </c>
@@ -4161,10 +4346,12 @@
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="31"/>
-    </row>
-    <row r="33" spans="1:21" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="31"/>
+    </row>
+    <row r="33" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>89</v>
       </c>
@@ -4212,10 +4399,12 @@
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="31"/>
-    </row>
-    <row r="34" spans="1:21" s="32" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="31"/>
+    </row>
+    <row r="34" spans="1:23" s="32" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>89</v>
       </c>
@@ -4263,10 +4452,12 @@
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="31"/>
-    </row>
-    <row r="35" spans="1:21" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="31"/>
+    </row>
+    <row r="35" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>89</v>
       </c>
@@ -4314,10 +4505,12 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="38"/>
-    </row>
-    <row r="36" spans="1:21" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="38"/>
+    </row>
+    <row r="36" spans="1:23" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>53</v>
       </c>
@@ -4366,12 +4559,14 @@
       <c r="Q36" s="51"/>
       <c r="R36" s="51"/>
       <c r="S36" s="51"/>
-      <c r="T36" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="U36" s="13"/>
-    </row>
-    <row r="37" spans="1:21" s="35" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:23" s="35" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>126</v>
       </c>
@@ -4420,14 +4615,16 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="U37" s="4" t="s">
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="W37" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>127</v>
       </c>
@@ -4475,14 +4672,16 @@
       <c r="Q38" s="40"/>
       <c r="R38" s="40"/>
       <c r="S38" s="40"/>
-      <c r="T38" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="U38" s="27" t="s">
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="W38" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="s">
         <v>127</v>
       </c>
@@ -4530,12 +4729,14 @@
       <c r="Q39" s="40"/>
       <c r="R39" s="40"/>
       <c r="S39" s="40"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27" t="s">
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>127</v>
       </c>
@@ -4583,12 +4784,14 @@
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
       <c r="S40" s="40"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27" t="s">
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
         <v>127</v>
       </c>
@@ -4636,12 +4839,14 @@
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27" t="s">
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="35" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="35" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
         <v>44</v>
       </c>
@@ -4688,14 +4893,16 @@
       <c r="Q42" s="34"/>
       <c r="R42" s="34"/>
       <c r="S42" s="34"/>
-      <c r="T42" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="U42" s="4" t="s">
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="W42" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="35" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="35" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>99</v>
       </c>
@@ -4742,14 +4949,16 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="U43" s="4" t="s">
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="W43" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
@@ -4796,12 +5005,14 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4" t="s">
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="32" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="32" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>50</v>
       </c>
@@ -4848,14 +5059,16 @@
       <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
       <c r="S45" s="40"/>
-      <c r="T45" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="U45" s="27" t="s">
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="W45" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="32" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="32" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>50</v>
       </c>
@@ -4902,12 +5115,14 @@
       <c r="Q46" s="40"/>
       <c r="R46" s="40"/>
       <c r="S46" s="40"/>
-      <c r="T46" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="U46" s="46"/>
-    </row>
-    <row r="47" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="W46" s="46"/>
+    </row>
+    <row r="47" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>50</v>
       </c>
@@ -4954,10 +5169,12 @@
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
       <c r="S47" s="40"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="31"/>
-    </row>
-    <row r="48" spans="1:21" s="32" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="31"/>
+    </row>
+    <row r="48" spans="1:23" s="32" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>51</v>
       </c>
@@ -5004,12 +5221,14 @@
       <c r="Q48" s="41"/>
       <c r="R48" s="41"/>
       <c r="S48" s="41"/>
-      <c r="T48" s="27" t="s">
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="U48" s="31"/>
-    </row>
-    <row r="49" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="W48" s="31"/>
+    </row>
+    <row r="49" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>51</v>
       </c>
@@ -5056,12 +5275,14 @@
       <c r="Q49" s="41"/>
       <c r="R49" s="41"/>
       <c r="S49" s="41"/>
-      <c r="T49" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="U49" s="31"/>
-    </row>
-    <row r="50" spans="1:21" s="32" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="W49" s="31"/>
+    </row>
+    <row r="50" spans="1:23" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>51</v>
       </c>
@@ -5108,12 +5329,14 @@
       <c r="Q50" s="41"/>
       <c r="R50" s="41"/>
       <c r="S50" s="41"/>
-      <c r="T50" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="U50" s="31"/>
-    </row>
-    <row r="51" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="W50" s="31"/>
+    </row>
+    <row r="51" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>51</v>
       </c>
@@ -5160,10 +5383,12 @@
       <c r="Q51" s="41"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="31"/>
-    </row>
-    <row r="52" spans="1:21" s="22" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="31"/>
+    </row>
+    <row r="52" spans="1:23" s="22" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
@@ -5211,14 +5436,16 @@
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
       <c r="S52" s="20"/>
-      <c r="T52" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="U52" s="17" t="s">
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="W52" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>48</v>
       </c>
@@ -5266,12 +5493,14 @@
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="84" t="s">
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="84" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>48</v>
       </c>
@@ -5318,10 +5547,12 @@
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="21"/>
-    </row>
-    <row r="55" spans="1:21" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="21"/>
+    </row>
+    <row r="55" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>48</v>
       </c>
@@ -5368,10 +5599,12 @@
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="21"/>
-    </row>
-    <row r="56" spans="1:21" s="32" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="21"/>
+    </row>
+    <row r="56" spans="1:23" s="32" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="40" t="s">
         <v>113</v>
       </c>
@@ -5405,12 +5638,14 @@
       <c r="Q56" s="40"/>
       <c r="R56" s="40"/>
       <c r="S56" s="40"/>
-      <c r="T56" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="U56" s="31"/>
-    </row>
-    <row r="57" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="W56" s="31"/>
+    </row>
+    <row r="57" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="40" t="s">
         <v>87</v>
       </c>
@@ -5454,15 +5689,26 @@
       <c r="N57" s="40"/>
       <c r="O57" s="40"/>
       <c r="P57" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
+        <v>345</v>
+      </c>
+      <c r="Q57" s="40">
+        <v>380000000000</v>
+      </c>
+      <c r="R57" s="40">
+        <v>1205020651</v>
+      </c>
       <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="31"/>
-    </row>
-    <row r="58" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T57" s="40">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>315.34729274942526</v>
+      </c>
+      <c r="U57" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="V57" s="40"/>
+      <c r="W57" s="31"/>
+    </row>
+    <row r="58" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="40" t="s">
         <v>77</v>
       </c>
@@ -5510,14 +5756,16 @@
       <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
       <c r="S58" s="25"/>
-      <c r="T58" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="U58" s="46" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T58" s="40"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="W58" s="46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
         <v>77</v>
       </c>
@@ -5534,7 +5782,7 @@
         <v>33</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>209</v>
@@ -5564,15 +5812,26 @@
       <c r="P59" s="25">
         <v>1100</v>
       </c>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
+      <c r="Q59" s="25">
+        <v>1100000000000</v>
+      </c>
+      <c r="R59" s="25">
+        <v>375391963</v>
+      </c>
       <c r="S59" s="25"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="46" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="T59" s="40">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>2930.2705130104237</v>
+      </c>
+      <c r="U59" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="V59" s="27"/>
+      <c r="W59" s="46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="40" t="s">
         <v>107</v>
       </c>
@@ -5606,10 +5865,12 @@
       <c r="Q60" s="25"/>
       <c r="R60" s="25"/>
       <c r="S60" s="25"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="31"/>
-    </row>
-    <row r="61" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T60" s="40"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="31"/>
+    </row>
+    <row r="61" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>52</v>
       </c>
@@ -5654,19 +5915,28 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="P61" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
+        <v>266</v>
+      </c>
+      <c r="Q61" s="25">
+        <v>167910000000</v>
+      </c>
+      <c r="R61" s="25">
+        <v>1312636325</v>
+      </c>
       <c r="S61" s="25"/>
-      <c r="T61" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="U61" s="31" t="s">
+      <c r="T61" s="40">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>127.91814214039826</v>
+      </c>
+      <c r="U61" s="25"/>
+      <c r="V61" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="W61" s="31" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
         <v>52</v>
       </c>
@@ -5714,12 +5984,14 @@
       <c r="Q62" s="25"/>
       <c r="R62" s="25"/>
       <c r="S62" s="25"/>
-      <c r="T62" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="U62" s="31"/>
-    </row>
-    <row r="63" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T62" s="40"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="W62" s="31"/>
+    </row>
+    <row r="63" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
         <v>52</v>
       </c>
@@ -5764,15 +6036,24 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
       <c r="P63" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
+        <v>267</v>
+      </c>
+      <c r="Q63" s="25">
+        <v>684030000000</v>
+      </c>
+      <c r="R63" s="25">
+        <v>1312636325</v>
+      </c>
       <c r="S63" s="25"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="31"/>
-    </row>
-    <row r="64" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T63" s="40">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>521.11158816209047</v>
+      </c>
+      <c r="U63" s="25"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="31"/>
+    </row>
+    <row r="64" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>42</v>
       </c>
@@ -5820,14 +6101,16 @@
       <c r="Q64" s="29"/>
       <c r="R64" s="29"/>
       <c r="S64" s="29"/>
-      <c r="T64" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="U64" s="27" t="s">
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="W64" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>42</v>
       </c>
@@ -5875,12 +6158,14 @@
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
       <c r="S65" s="29"/>
-      <c r="T65" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="U65" s="38"/>
-    </row>
-    <row r="66" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="W65" s="38"/>
+    </row>
+    <row r="66" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>42</v>
       </c>
@@ -5928,10 +6213,12 @@
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
-      <c r="T66" s="81"/>
-      <c r="U66" s="31"/>
-    </row>
-    <row r="67" spans="1:21" s="72" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="81"/>
+      <c r="W66" s="31"/>
+    </row>
+    <row r="67" spans="1:23" s="72" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>42</v>
       </c>
@@ -5979,10 +6266,12 @@
       <c r="Q67" s="25"/>
       <c r="R67" s="25"/>
       <c r="S67" s="25"/>
-      <c r="T67" s="81"/>
-      <c r="U67" s="31"/>
-    </row>
-    <row r="68" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="81"/>
+      <c r="W67" s="31"/>
+    </row>
+    <row r="68" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>42</v>
       </c>
@@ -6030,10 +6319,12 @@
       <c r="Q68" s="29"/>
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
-      <c r="T68" s="81"/>
-      <c r="U68" s="31"/>
-    </row>
-    <row r="69" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="81"/>
+      <c r="W68" s="31"/>
+    </row>
+    <row r="69" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
         <v>42</v>
       </c>
@@ -6081,10 +6372,12 @@
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
-      <c r="T69" s="81"/>
-      <c r="U69" s="31"/>
-    </row>
-    <row r="70" spans="1:21" s="35" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="81"/>
+      <c r="W69" s="31"/>
+    </row>
+    <row r="70" spans="1:23" s="35" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>38</v>
       </c>
@@ -6120,12 +6413,14 @@
       <c r="Q70" s="34"/>
       <c r="R70" s="34"/>
       <c r="S70" s="34"/>
-      <c r="T70" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="U70" s="12"/>
-    </row>
-    <row r="71" spans="1:21" s="35" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="W70" s="12"/>
+    </row>
+    <row r="71" spans="1:23" s="35" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>97</v>
       </c>
@@ -6171,13 +6466,24 @@
       <c r="P71" s="34">
         <v>10</v>
       </c>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
+      <c r="Q71" s="34">
+        <v>10000000000</v>
+      </c>
+      <c r="R71" s="34">
+        <v>9709491761</v>
+      </c>
       <c r="S71" s="34"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="13"/>
-    </row>
-    <row r="72" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T71" s="34">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>1.0299200252856571</v>
+      </c>
+      <c r="U71" s="34"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>46</v>
       </c>
@@ -6223,13 +6529,22 @@
       <c r="P72" s="34">
         <v>1294</v>
       </c>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
+      <c r="Q72" s="34">
+        <v>12940000000000</v>
+      </c>
+      <c r="R72" s="34">
+        <v>9709491761</v>
+      </c>
       <c r="S72" s="34"/>
-      <c r="T72" s="82"/>
-      <c r="U72" s="12"/>
-    </row>
-    <row r="73" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T72" s="34">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>1332.7165127196404</v>
+      </c>
+      <c r="U72" s="34"/>
+      <c r="V72" s="82"/>
+      <c r="W72" s="12"/>
+    </row>
+    <row r="73" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="34" t="s">
         <v>46</v>
       </c>
@@ -6275,13 +6590,22 @@
       <c r="P73" s="34">
         <v>1425</v>
       </c>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
+      <c r="Q73" s="34">
+        <v>1425000000000</v>
+      </c>
+      <c r="R73" s="34">
+        <v>9709491761</v>
+      </c>
       <c r="S73" s="34"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="12"/>
-    </row>
-    <row r="74" spans="1:21" s="32" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="T73" s="34">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>146.76360360320615</v>
+      </c>
+      <c r="U73" s="34"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="12"/>
+    </row>
+    <row r="74" spans="1:23" s="32" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
         <v>101</v>
       </c>
@@ -6315,12 +6639,14 @@
       <c r="Q74" s="25"/>
       <c r="R74" s="25"/>
       <c r="S74" s="25"/>
-      <c r="T74" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="U74" s="31"/>
-    </row>
-    <row r="75" spans="1:21" s="90" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="W74" s="31"/>
+    </row>
+    <row r="75" spans="1:23" s="90" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>73</v>
       </c>
@@ -6354,14 +6680,21 @@
       </c>
       <c r="P75" s="40"/>
       <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="U75" s="31"/>
-    </row>
-    <row r="76" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R75" s="40">
+        <v>71684966</v>
+      </c>
+      <c r="S75" s="40">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>9.7649484830612874E-4</v>
+      </c>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="W75" s="31"/>
+    </row>
+    <row r="76" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>55</v>
       </c>
@@ -6399,12 +6732,14 @@
       <c r="Q76" s="40"/>
       <c r="R76" s="40"/>
       <c r="S76" s="40"/>
-      <c r="T76" s="71" t="s">
-        <v>328</v>
-      </c>
-      <c r="U76" s="31"/>
-    </row>
-    <row r="77" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="W76" s="31"/>
+    </row>
+    <row r="77" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="69" t="s">
         <v>81</v>
       </c>
@@ -6448,19 +6783,28 @@
       <c r="N77" s="53"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
+        <v>268</v>
+      </c>
+      <c r="Q77" s="53">
+        <v>125350000000</v>
+      </c>
+      <c r="R77" s="53">
+        <v>1399547500</v>
+      </c>
       <c r="S77" s="53"/>
-      <c r="T77" s="80" t="s">
-        <v>333</v>
-      </c>
-      <c r="U77" s="40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T77" s="53">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>89.564662864247197</v>
+      </c>
+      <c r="U77" s="53"/>
+      <c r="V77" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="W77" s="40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>93</v>
       </c>
@@ -6508,10 +6852,12 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="10"/>
-    </row>
-    <row r="79" spans="1:21" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="10"/>
+    </row>
+    <row r="79" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>93</v>
       </c>
@@ -6560,11 +6906,13 @@
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="13"/>
-    </row>
-    <row r="80" spans="1:21" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="13"/>
+    </row>
+    <row r="80" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B80" s="53" t="s">
         <v>14</v>
@@ -6598,12 +6946,14 @@
       <c r="Q80" s="40"/>
       <c r="R80" s="40"/>
       <c r="S80" s="40"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="31"/>
-    </row>
-    <row r="81" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="71"/>
+      <c r="W80" s="31"/>
+    </row>
+    <row r="81" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>2</v>
@@ -6641,21 +6991,23 @@
         <v>2.8743460463529817E-2</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="T81" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="U81" s="12"/>
-    </row>
-    <row r="82" spans="1:21" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="W81" s="12"/>
+    </row>
+    <row r="82" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>2</v>
@@ -6670,7 +7022,7 @@
         <v>21</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>132</v>
@@ -6695,21 +7047,23 @@
         <v>0.10752183358579673</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
-      <c r="T82" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="U82" s="12"/>
-    </row>
-    <row r="83" spans="1:21" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="W82" s="12"/>
+    </row>
+    <row r="83" spans="1:23" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>2</v>
@@ -6724,7 +7078,7 @@
         <v>21</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>132</v>
@@ -6749,19 +7103,21 @@
         <v>6.1745211366101088E-2</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
-      <c r="T83" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="U83" s="12"/>
-    </row>
-    <row r="84" spans="1:21" s="32" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="W83" s="12"/>
+    </row>
+    <row r="84" spans="1:23" s="32" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
         <v>37</v>
       </c>
@@ -6797,12 +7153,14 @@
       <c r="Q84" s="40"/>
       <c r="R84" s="40"/>
       <c r="S84" s="40"/>
-      <c r="T84" s="71" t="s">
-        <v>336</v>
-      </c>
-      <c r="U84" s="31"/>
-    </row>
-    <row r="85" spans="1:21" s="35" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="W84" s="31"/>
+    </row>
+    <row r="85" spans="1:23" s="35" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>91</v>
       </c>
@@ -6838,12 +7196,14 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="T85" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="U85" s="12"/>
-    </row>
-    <row r="86" spans="1:21" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="W85" s="12"/>
+    </row>
+    <row r="86" spans="1:23" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>80</v>
       </c>
@@ -6860,7 +7220,7 @@
         <v>40</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="76" t="s">
@@ -6878,19 +7238,28 @@
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="R86" s="5">
+        <v>34932339</v>
+      </c>
       <c r="S86" s="5"/>
-      <c r="T86" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="U86" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="T86" s="5">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>28.626769023396918</v>
+      </c>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="W86" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>80</v>
       </c>
@@ -6907,7 +7276,7 @@
         <v>40</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="76" t="s">
@@ -6925,17 +7294,26 @@
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>1300000000</v>
+      </c>
+      <c r="R87" s="5">
+        <v>34932339</v>
+      </c>
       <c r="S87" s="5"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T87" s="5">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>37.21479973041599</v>
+      </c>
+      <c r="U87" s="5"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="40" t="s">
         <v>47</v>
       </c>
@@ -6952,13 +7330,13 @@
         <v>39</v>
       </c>
       <c r="F88" s="86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G88" s="86" t="s">
         <v>132</v>
       </c>
       <c r="H88" s="86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I88" s="88" t="s">
         <v>229</v>
@@ -6972,17 +7350,26 @@
       <c r="N88" s="86"/>
       <c r="O88" s="86"/>
       <c r="P88" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q88" s="86"/>
-      <c r="R88" s="86"/>
+        <v>288</v>
+      </c>
+      <c r="Q88" s="86">
+        <v>2291000000</v>
+      </c>
+      <c r="R88" s="5">
+        <v>34932339</v>
+      </c>
       <c r="S88" s="86"/>
-      <c r="T88" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="U88" s="89"/>
-    </row>
-    <row r="89" spans="1:21" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T88" s="5">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>65.583927832602328</v>
+      </c>
+      <c r="U88" s="86"/>
+      <c r="V88" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="W88" s="89"/>
+    </row>
+    <row r="89" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="40" t="s">
         <v>47</v>
       </c>
@@ -6999,13 +7386,13 @@
         <v>39</v>
       </c>
       <c r="F89" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G89" s="86" t="s">
         <v>132</v>
       </c>
       <c r="H89" s="86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I89" s="88" t="s">
         <v>229</v>
@@ -7019,17 +7406,26 @@
       <c r="N89" s="86"/>
       <c r="O89" s="86"/>
       <c r="P89" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q89" s="86"/>
-      <c r="R89" s="86"/>
+        <v>289</v>
+      </c>
+      <c r="Q89" s="86">
+        <v>2268000000</v>
+      </c>
+      <c r="R89" s="5">
+        <v>34932339</v>
+      </c>
       <c r="S89" s="86"/>
-      <c r="T89" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="U89" s="89"/>
-    </row>
-    <row r="90" spans="1:21" s="32" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="T89" s="5">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>64.925512145064204</v>
+      </c>
+      <c r="U89" s="86"/>
+      <c r="V89" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="W89" s="89"/>
+    </row>
+    <row r="90" spans="1:23" s="32" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="40" t="s">
         <v>47</v>
       </c>
@@ -7046,13 +7442,13 @@
         <v>39</v>
       </c>
       <c r="F90" s="86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G90" s="86" t="s">
         <v>132</v>
       </c>
       <c r="H90" s="86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I90" s="88" t="s">
         <v>229</v>
@@ -7069,15 +7465,24 @@
         <v>34158</v>
       </c>
       <c r="P90" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q90" s="86"/>
-      <c r="R90" s="86"/>
+        <v>290</v>
+      </c>
+      <c r="Q90" s="86">
+        <v>2314000000</v>
+      </c>
+      <c r="R90" s="5">
+        <v>34932339</v>
+      </c>
       <c r="S90" s="86"/>
-      <c r="T90" s="71" t="s">
-        <v>339</v>
+      <c r="T90" s="5">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>66.242343520140466</v>
       </c>
       <c r="U90" s="86"/>
+      <c r="V90" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="W90" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="353">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -717,9 +717,6 @@
   </si>
   <si>
     <t>Air &amp; Indoor pollution</t>
-  </si>
-  <si>
-    <t>Air pollution &amp; Diet &amp; Physical activity &amp; Indoor pollution</t>
   </si>
   <si>
     <t>Indoor pollution</t>
@@ -1309,6 +1306,24 @@
   </si>
   <si>
     <t>VSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milner, 2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical activity </t>
+  </si>
+  <si>
+    <t>cumulative 2021-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air &amp; Indoor pollution &amp; Diet &amp; Physical activity </t>
+  </si>
+  <si>
+    <t>LGHG</t>
+  </si>
+  <si>
+    <t>NRPO</t>
   </si>
 </sst>
 </file>
@@ -2319,8 +2334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W90" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:W90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W99" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:W99"/>
   <sortState ref="A2:P84">
     <sortCondition ref="A1:A84"/>
   </sortState>
@@ -2618,11 +2633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T88" sqref="T88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2680,28 +2695,28 @@
         <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V1" t="s">
         <v>150</v>
@@ -2758,7 +2773,7 @@
         <v>204000</v>
       </c>
       <c r="P2" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q2" s="51">
         <v>40700000000</v>
@@ -2776,7 +2791,7 @@
       </c>
       <c r="U2" s="51"/>
       <c r="V2" s="83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W2" s="13"/>
     </row>
@@ -2824,7 +2839,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="34">
         <v>171930000000</v>
@@ -2839,7 +2854,7 @@
       </c>
       <c r="U3" s="51"/>
       <c r="V3" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W3" s="13"/>
     </row>
@@ -2887,7 +2902,7 @@
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
       <c r="P4" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="5">
         <v>102670000000</v>
@@ -2902,10 +2917,10 @@
       </c>
       <c r="U4" s="51"/>
       <c r="V4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="35" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -2952,7 +2967,7 @@
       <c r="N5" s="68"/>
       <c r="O5" s="68"/>
       <c r="P5" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="5">
         <v>187110000000</v>
@@ -2967,10 +2982,10 @@
       </c>
       <c r="U5" s="51"/>
       <c r="V5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3017,7 +3032,7 @@
       <c r="N6" s="68"/>
       <c r="O6" s="68"/>
       <c r="P6" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="5">
         <v>222840000000</v>
@@ -3032,10 +3047,10 @@
       </c>
       <c r="U6" s="51"/>
       <c r="V6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W6" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3089,7 +3104,7 @@
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W7" s="12"/>
     </row>
@@ -3136,7 +3151,7 @@
     </row>
     <row r="9" spans="1:23" s="35" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>16</v>
@@ -3171,7 +3186,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -3181,7 +3196,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W9" s="12"/>
     </row>
@@ -3222,7 +3237,7 @@
       <c r="T10" s="53"/>
       <c r="U10" s="53"/>
       <c r="V10" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W10" s="31"/>
     </row>
@@ -3276,7 +3291,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
       <c r="V11" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W11" s="46"/>
     </row>
@@ -3303,10 +3318,10 @@
         <v>209</v>
       </c>
       <c r="H12" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>244</v>
       </c>
       <c r="J12" s="40">
         <v>2040</v>
@@ -3330,7 +3345,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
       <c r="V12" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W12" s="46"/>
     </row>
@@ -3357,10 +3372,10 @@
         <v>142</v>
       </c>
       <c r="H13" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>244</v>
       </c>
       <c r="J13" s="40">
         <v>2040</v>
@@ -3384,7 +3399,7 @@
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
       <c r="V13" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W13" s="46"/>
     </row>
@@ -3438,7 +3453,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W14" s="31"/>
     </row>
@@ -3465,10 +3480,10 @@
         <v>209</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J15" s="40">
         <v>2040</v>
@@ -3492,7 +3507,7 @@
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W15" s="46"/>
     </row>
@@ -3519,10 +3534,10 @@
         <v>142</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J16" s="40">
         <v>2040</v>
@@ -3546,7 +3561,7 @@
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W16" s="46"/>
     </row>
@@ -3602,7 +3617,7 @@
       <c r="T17" s="52"/>
       <c r="U17" s="52"/>
       <c r="V17" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W17" s="40" t="s">
         <v>175</v>
@@ -3849,7 +3864,7 @@
       <c r="T22" s="34"/>
       <c r="U22" s="34"/>
       <c r="V22" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W22" s="12"/>
     </row>
@@ -3933,7 +3948,7 @@
       <c r="T24" s="51"/>
       <c r="U24" s="51"/>
       <c r="V24" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W24" s="12"/>
     </row>
@@ -3974,13 +3989,13 @@
       <c r="T25" s="34"/>
       <c r="U25" s="34"/>
       <c r="V25" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>1</v>
@@ -3995,42 +4010,44 @@
         <v>20</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>255</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="H26" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="5">
-        <v>2050</v>
+        <v>229</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="K26" s="51"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
       <c r="O26" s="50">
-        <v>160000</v>
+        <v>734160</v>
       </c>
       <c r="P26" s="51"/>
       <c r="Q26" s="51"/>
       <c r="R26" s="51">
-        <v>71684966</v>
+        <v>1889026192</v>
       </c>
       <c r="S26" s="51">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>2.2319882246997231E-3</v>
+        <v>3.8864469063963088E-4</v>
       </c>
       <c r="T26" s="51"/>
       <c r="U26" s="51"/>
       <c r="V26" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W26" s="12"/>
     </row>
-    <row r="27" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>35</v>
       </c>
@@ -4047,33 +4064,35 @@
         <v>20</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="H27" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="5">
-        <v>2050</v>
+        <v>229</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="K27" s="51"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
       <c r="O27" s="50">
-        <v>200000</v>
+        <v>891345</v>
       </c>
       <c r="P27" s="51"/>
       <c r="Q27" s="51"/>
       <c r="R27" s="51">
-        <v>71684966</v>
+        <v>1889026192</v>
       </c>
       <c r="S27" s="51">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>2.7899852808746539E-3</v>
+        <v>4.7185423038327042E-4</v>
       </c>
       <c r="T27" s="51"/>
       <c r="U27" s="51"/>
@@ -4082,554 +4101,552 @@
       </c>
       <c r="W27" s="12"/>
     </row>
-    <row r="28" spans="1:23" s="35" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="4">
+        <v>70</v>
+      </c>
+      <c r="E28" s="4">
+        <v>20</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="50">
+        <v>412452</v>
+      </c>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51">
+        <v>1889026192</v>
+      </c>
+      <c r="S28" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>2.1834106998978021E-4</v>
+      </c>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W28" s="12"/>
+    </row>
+    <row r="29" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4">
+        <v>70</v>
+      </c>
+      <c r="E29" s="4">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="50">
+        <v>489015</v>
+      </c>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51">
+        <v>1889026192</v>
+      </c>
+      <c r="S29" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>2.5887147678045538E-4</v>
+      </c>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="4">
+        <v>70</v>
+      </c>
+      <c r="E30" s="4">
+        <v>20</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="50">
+        <v>124609</v>
+      </c>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51">
+        <v>1889026192</v>
+      </c>
+      <c r="S30" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>6.5964675623724753E-5</v>
+      </c>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4">
+        <v>20</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="50">
+        <v>286595</v>
+      </c>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51">
+        <v>1889026192</v>
+      </c>
+      <c r="S31" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>1.5171573650684457E-4</v>
+      </c>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="4">
+        <v>70</v>
+      </c>
+      <c r="E32" s="4">
+        <v>20</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="50">
+        <v>835882</v>
+      </c>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51">
+        <v>1889026192</v>
+      </c>
+      <c r="S32" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>4.4249359989816383E-4</v>
+      </c>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4">
+        <v>70</v>
+      </c>
+      <c r="E33" s="4">
+        <v>20</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="50">
+        <v>909426</v>
+      </c>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51">
+        <v>1889026192</v>
+      </c>
+      <c r="S33" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>4.814258287425588E-4</v>
+      </c>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:23" s="35" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="4">
+        <v>70</v>
+      </c>
+      <c r="E34" s="4">
+        <v>20</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2050</v>
+      </c>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="50">
+        <v>160000</v>
+      </c>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51">
+        <v>71684966</v>
+      </c>
+      <c r="S34" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>2.2319882246997231E-3</v>
+      </c>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="4">
+        <v>70</v>
+      </c>
+      <c r="E35" s="4">
+        <v>20</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2050</v>
+      </c>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="50">
+        <v>200000</v>
+      </c>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51">
+        <v>71684966</v>
+      </c>
+      <c r="S35" s="51">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>2.7899852808746539E-3</v>
+      </c>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:23" s="35" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C36" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D36" s="59">
         <v>4680</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E36" s="4">
         <v>14</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J36" s="5">
         <v>2040</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K36" s="44">
         <v>290000</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L36" s="34">
         <v>45405745</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M36" s="34">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.3868569935368307E-3</v>
       </c>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B37" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C37" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D37" s="49">
         <v>51</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E37" s="4">
         <v>38</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J37" s="5">
         <v>2050</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
         <v>3389</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5">
         <v>25807197</v>
       </c>
-      <c r="S29" s="51">
+      <c r="S37" s="51">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.3131995698719237E-4</v>
       </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E30" s="27">
-        <v>6</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="K30" s="31">
-        <f>6500000-6400000</f>
-        <v>100000</v>
-      </c>
-      <c r="L30" s="42">
-        <v>67172551</v>
-      </c>
-      <c r="M30" s="25">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.488703324666053E-3</v>
-      </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="W30" s="38"/>
-    </row>
-    <row r="31" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E31" s="27">
-        <v>6</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="K31" s="31">
-        <f>6500000-6400000</f>
-        <v>100000</v>
-      </c>
-      <c r="L31" s="42">
-        <v>67172551</v>
-      </c>
-      <c r="M31" s="25">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.488703324666053E-3</v>
-      </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="W31" s="31"/>
-    </row>
-    <row r="32" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E32" s="27">
-        <v>6</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="K32" s="31">
-        <f>6500000-5500000</f>
-        <v>1000000</v>
-      </c>
-      <c r="L32" s="42">
-        <v>67172551</v>
-      </c>
-      <c r="M32" s="25">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.488703324666053E-2</v>
-      </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="31"/>
-    </row>
-    <row r="33" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E33" s="27">
-        <v>6</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="J33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="K33" s="42">
-        <f>8500000-7000000</f>
-        <v>1500000</v>
-      </c>
-      <c r="L33" s="42">
-        <v>67172551</v>
-      </c>
-      <c r="M33" s="25">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.2330549869990793E-2</v>
-      </c>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="31"/>
-    </row>
-    <row r="34" spans="1:23" s="32" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E34" s="27">
-        <v>6</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="K34" s="42">
-        <f>8500000-7000000</f>
-        <v>1500000</v>
-      </c>
-      <c r="L34" s="42">
-        <v>67172551</v>
-      </c>
-      <c r="M34" s="25">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.2330549869990793E-2</v>
-      </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="31"/>
-    </row>
-    <row r="35" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E35" s="27">
-        <v>6</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I35" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="J35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="K35" s="25">
-        <f>8500000-5600000</f>
-        <v>2900000</v>
-      </c>
-      <c r="L35" s="42">
-        <v>67172551</v>
-      </c>
-      <c r="M35" s="25">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>4.3172396415315534E-2</v>
-      </c>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="38"/>
-    </row>
-    <row r="36" spans="1:23" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1380</v>
-      </c>
-      <c r="E36" s="4">
-        <v>26</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J36" s="5">
-        <v>2030</v>
-      </c>
-      <c r="K36" s="9">
-        <v>190000</v>
-      </c>
-      <c r="L36" s="9">
-        <v>12224379</v>
-      </c>
-      <c r="M36" s="51">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.5542711822007482E-2</v>
-      </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:23" s="35" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="5">
-        <v>503</v>
-      </c>
-      <c r="E37" s="4">
-        <v>18</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J37" s="5">
-        <v>2050</v>
-      </c>
-      <c r="K37" s="5">
-        <v>80000</v>
-      </c>
-      <c r="L37" s="5">
-        <v>38337222</v>
-      </c>
-      <c r="M37" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.0867448350848166E-3</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>128</v>
+        <v>89</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>27</v>
@@ -4638,476 +4655,469 @@
         <v>7662</v>
       </c>
       <c r="E38" s="27">
+        <v>6</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="K38" s="31">
+        <f>6500000-6400000</f>
+        <v>100000</v>
+      </c>
+      <c r="L38" s="42">
+        <v>67172551</v>
+      </c>
+      <c r="M38" s="25">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.488703324666053E-3</v>
+      </c>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="W38" s="38"/>
+    </row>
+    <row r="39" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="28">
+        <v>7662</v>
+      </c>
+      <c r="E39" s="27">
+        <v>6</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="K39" s="31">
+        <f>6500000-6400000</f>
+        <v>100000</v>
+      </c>
+      <c r="L39" s="42">
+        <v>67172551</v>
+      </c>
+      <c r="M39" s="25">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.488703324666053E-3</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="W39" s="31"/>
+    </row>
+    <row r="40" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="28">
+        <v>7662</v>
+      </c>
+      <c r="E40" s="27">
+        <v>6</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="K40" s="31">
+        <f>6500000-5500000</f>
+        <v>1000000</v>
+      </c>
+      <c r="L40" s="42">
+        <v>67172551</v>
+      </c>
+      <c r="M40" s="25">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.488703324666053E-2</v>
+      </c>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="31"/>
+    </row>
+    <row r="41" spans="1:23" s="32" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="28">
+        <v>7662</v>
+      </c>
+      <c r="E41" s="27">
+        <v>6</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="K41" s="42">
+        <f>8500000-7000000</f>
+        <v>1500000</v>
+      </c>
+      <c r="L41" s="42">
+        <v>67172551</v>
+      </c>
+      <c r="M41" s="25">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>2.2330549869990793E-2</v>
+      </c>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="31"/>
+    </row>
+    <row r="42" spans="1:23" s="32" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="28">
+        <v>7662</v>
+      </c>
+      <c r="E42" s="27">
+        <v>6</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="K42" s="42">
+        <f>8500000-7000000</f>
+        <v>1500000</v>
+      </c>
+      <c r="L42" s="42">
+        <v>67172551</v>
+      </c>
+      <c r="M42" s="25">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>2.2330549869990793E-2</v>
+      </c>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="31"/>
+    </row>
+    <row r="43" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="28">
+        <v>7662</v>
+      </c>
+      <c r="E43" s="27">
+        <v>6</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I43" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="K43" s="25">
+        <f>8500000-5600000</f>
+        <v>2900000</v>
+      </c>
+      <c r="L43" s="42">
+        <v>67172551</v>
+      </c>
+      <c r="M43" s="25">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>4.3172396415315534E-2</v>
+      </c>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="38"/>
+    </row>
+    <row r="44" spans="1:23" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1380</v>
+      </c>
+      <c r="E44" s="4">
+        <v>26</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2030</v>
+      </c>
+      <c r="K44" s="9">
+        <v>190000</v>
+      </c>
+      <c r="L44" s="9">
+        <v>12224379</v>
+      </c>
+      <c r="M44" s="51">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.5542711822007482E-2</v>
+      </c>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="1:23" s="35" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="5">
+        <v>503</v>
+      </c>
+      <c r="E45" s="4">
+        <v>18</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2050</v>
+      </c>
+      <c r="K45" s="5">
+        <v>80000</v>
+      </c>
+      <c r="L45" s="5">
+        <v>38337222</v>
+      </c>
+      <c r="M45" s="5">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>2.0867448350848166E-3</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="28">
+        <v>7662</v>
+      </c>
+      <c r="E46" s="27">
         <v>7</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F46" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G46" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H46" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I46" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J46" s="40">
         <v>2040</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K46" s="46">
         <f>2550000-2200000</f>
         <v>350000</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L46" s="40">
         <v>40109096</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M46" s="40">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.7262001616790364E-3</v>
-      </c>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="W38" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E39" s="27">
-        <v>7</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="J39" s="40">
-        <v>2040</v>
-      </c>
-      <c r="K39" s="40">
-        <f>1200000-650000</f>
-        <v>550000</v>
-      </c>
-      <c r="L39" s="40">
-        <v>33179734</v>
-      </c>
-      <c r="M39" s="40">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.6576383644305286E-2</v>
-      </c>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E40" s="27">
-        <v>7</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="J40" s="40">
-        <v>2040</v>
-      </c>
-      <c r="K40" s="46">
-        <f>2550000-1800000</f>
-        <v>750000</v>
-      </c>
-      <c r="L40" s="40">
-        <v>40109096</v>
-      </c>
-      <c r="M40" s="40">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.8699000346455077E-2</v>
-      </c>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="28">
-        <v>7662</v>
-      </c>
-      <c r="E41" s="27">
-        <v>7</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="J41" s="40">
-        <v>2040</v>
-      </c>
-      <c r="K41" s="40">
-        <f>1200000-400000</f>
-        <v>800000</v>
-      </c>
-      <c r="L41" s="40">
-        <v>33179734</v>
-      </c>
-      <c r="M41" s="40">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.4111103482625872E-2</v>
-      </c>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="35" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="64">
-        <v>3820</v>
-      </c>
-      <c r="E42" s="4">
-        <v>16</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J42" s="5">
-        <v>2050</v>
-      </c>
-      <c r="K42" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="L42" s="9">
-        <v>31985106</v>
-      </c>
-      <c r="M42" s="34">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>3.1264551694779437E-2</v>
-      </c>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="35" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="7">
-        <v>7405</v>
-      </c>
-      <c r="E43" s="4">
-        <v>8</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J43" s="10">
-        <v>2050</v>
-      </c>
-      <c r="K43" s="5">
-        <v>130000</v>
-      </c>
-      <c r="L43" s="11">
-        <v>91583402</v>
-      </c>
-      <c r="M43" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.4194711832172385E-3</v>
-      </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="7">
-        <v>7405</v>
-      </c>
-      <c r="E44" s="4">
-        <v>8</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J44" s="10">
-        <v>2050</v>
-      </c>
-      <c r="K44" s="5">
-        <v>1100000</v>
-      </c>
-      <c r="L44" s="11">
-        <v>91583402</v>
-      </c>
-      <c r="M44" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.2010910011838171E-2</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" s="32" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="28">
-        <v>7405</v>
-      </c>
-      <c r="E45" s="27">
-        <v>9</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="J45" s="40">
-        <v>2050</v>
-      </c>
-      <c r="K45" s="41">
-        <v>470000</v>
-      </c>
-      <c r="L45" s="29">
-        <v>91583402</v>
-      </c>
-      <c r="M45" s="40">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>5.1319342777854E-3</v>
-      </c>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="W45" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="32" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="41">
-        <v>7405</v>
-      </c>
-      <c r="E46" s="27">
-        <v>9</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J46" s="40">
-        <v>2050</v>
-      </c>
-      <c r="K46" s="41">
-        <v>1340000</v>
-      </c>
-      <c r="L46" s="29">
-        <v>91583402</v>
-      </c>
-      <c r="M46" s="40">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.4631472196239228E-2</v>
       </c>
       <c r="N46" s="40"/>
       <c r="O46" s="40"/>
@@ -5117,51 +5127,54 @@
       <c r="S46" s="40"/>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
-      <c r="V46" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="W46" s="46"/>
+      <c r="V46" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="W46" s="27" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>20</v>
+      <c r="A47" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="41">
-        <v>7405</v>
+      <c r="D47" s="28">
+        <v>7662</v>
       </c>
       <c r="E47" s="27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="J47" s="40">
-        <v>2050</v>
-      </c>
-      <c r="K47" s="41">
-        <v>1620000</v>
-      </c>
-      <c r="L47" s="29">
-        <v>91583402</v>
+        <v>2040</v>
+      </c>
+      <c r="K47" s="40">
+        <f>1200000-650000</f>
+        <v>550000</v>
+      </c>
+      <c r="L47" s="40">
+        <v>33179734</v>
       </c>
       <c r="M47" s="40">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.7688794744707127E-2</v>
+        <v>1.6576383644305286E-2</v>
       </c>
       <c r="N47" s="40"/>
       <c r="O47" s="40"/>
@@ -5172,2317 +5185,2816 @@
       <c r="T47" s="40"/>
       <c r="U47" s="40"/>
       <c r="V47" s="27"/>
-      <c r="W47" s="31"/>
-    </row>
-    <row r="48" spans="1:23" s="32" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>21</v>
+      <c r="W47" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="28">
-        <v>7821</v>
+        <v>7662</v>
       </c>
       <c r="E48" s="27">
-        <v>2</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>132</v>
+        <v>7</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J48" s="40">
+        <v>2040</v>
+      </c>
+      <c r="K48" s="46">
+        <f>2550000-1800000</f>
+        <v>750000</v>
+      </c>
+      <c r="L48" s="40">
+        <v>40109096</v>
+      </c>
+      <c r="M48" s="40">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.8699000346455077E-2</v>
+      </c>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="28">
+        <v>7662</v>
+      </c>
+      <c r="E49" s="27">
+        <v>7</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J49" s="40">
+        <v>2040</v>
+      </c>
+      <c r="K49" s="40">
+        <f>1200000-400000</f>
+        <v>800000</v>
+      </c>
+      <c r="L49" s="40">
+        <v>33179734</v>
+      </c>
+      <c r="M49" s="40">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>2.4111103482625872E-2</v>
+      </c>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="35" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="64">
+        <v>3820</v>
+      </c>
+      <c r="E50" s="4">
+        <v>16</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J48" s="29">
+      <c r="J50" s="5">
         <v>2050</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K50" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="L50" s="9">
+        <v>31985106</v>
+      </c>
+      <c r="M50" s="34">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>3.1264551694779437E-2</v>
+      </c>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="35" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="7">
+        <v>7405</v>
+      </c>
+      <c r="E51" s="4">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J51" s="10">
+        <v>2050</v>
+      </c>
+      <c r="K51" s="5">
+        <v>130000</v>
+      </c>
+      <c r="L51" s="11">
+        <v>91583402</v>
+      </c>
+      <c r="M51" s="5">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.4194711832172385E-3</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="7">
+        <v>7405</v>
+      </c>
+      <c r="E52" s="4">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J52" s="10">
+        <v>2050</v>
+      </c>
+      <c r="K52" s="5">
         <v>1100000</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L52" s="11">
         <v>91583402</v>
       </c>
-      <c r="M48" s="29">
+      <c r="M52" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2010910011838171E-2</v>
       </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="W48" s="31"/>
-    </row>
-    <row r="49" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="32" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="28">
+        <v>7405</v>
+      </c>
+      <c r="E53" s="27">
+        <v>9</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J53" s="40">
+        <v>2050</v>
+      </c>
+      <c r="K53" s="41">
+        <v>470000</v>
+      </c>
+      <c r="L53" s="29">
+        <v>91583402</v>
+      </c>
+      <c r="M53" s="40">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>5.1319342777854E-3</v>
+      </c>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="W53" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="32" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="41">
+        <v>7405</v>
+      </c>
+      <c r="E54" s="27">
+        <v>9</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J54" s="40">
+        <v>2050</v>
+      </c>
+      <c r="K54" s="41">
+        <v>1340000</v>
+      </c>
+      <c r="L54" s="29">
+        <v>91583402</v>
+      </c>
+      <c r="M54" s="40">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.4631472196239228E-2</v>
+      </c>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="W54" s="46"/>
+    </row>
+    <row r="55" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="41">
+        <v>7405</v>
+      </c>
+      <c r="E55" s="27">
+        <v>9</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="40">
+        <v>2050</v>
+      </c>
+      <c r="K55" s="41">
+        <v>1620000</v>
+      </c>
+      <c r="L55" s="29">
+        <v>91583402</v>
+      </c>
+      <c r="M55" s="40">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.7688794744707127E-2</v>
+      </c>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="31"/>
+    </row>
+    <row r="56" spans="1:23" s="32" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B56" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C56" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D56" s="28">
         <v>7821</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E56" s="27">
         <v>2</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F56" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J56" s="29">
+        <v>2050</v>
+      </c>
+      <c r="K56" s="29">
+        <v>1100000</v>
+      </c>
+      <c r="L56" s="29">
+        <v>91583402</v>
+      </c>
+      <c r="M56" s="29">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.2010910011838171E-2</v>
+      </c>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="W56" s="31"/>
+    </row>
+    <row r="57" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="28">
+        <v>7821</v>
+      </c>
+      <c r="E57" s="27">
+        <v>2</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G57" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H57" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I57" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J57" s="29">
         <v>2050</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K57" s="29">
         <v>1200000</v>
       </c>
-      <c r="L49" s="29">
+      <c r="L57" s="29">
         <v>91583402</v>
       </c>
-      <c r="M49" s="29">
+      <c r="M57" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.3102810922005277E-2</v>
       </c>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="W49" s="31"/>
-    </row>
-    <row r="50" spans="1:23" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="W57" s="31"/>
+    </row>
+    <row r="58" spans="1:23" s="32" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B58" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C58" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D58" s="28">
         <v>7821</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E58" s="27">
         <v>2</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G58" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H58" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I58" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J58" s="29">
         <v>2050</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K58" s="29">
         <v>1200000</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L58" s="29">
         <v>91583402</v>
       </c>
-      <c r="M50" s="29">
+      <c r="M58" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.3102810922005277E-2</v>
       </c>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="W50" s="31"/>
-    </row>
-    <row r="51" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="W58" s="31"/>
+    </row>
+    <row r="59" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C59" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D59" s="28">
         <v>7821</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E59" s="27">
         <v>2</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F59" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G59" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H59" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="I51" s="71" t="s">
+      <c r="I59" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J59" s="29">
         <v>2050</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K59" s="29">
         <v>1300000</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L59" s="29">
         <v>91583402</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M59" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4194711832172384E-2</v>
       </c>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="31"/>
-    </row>
-    <row r="52" spans="1:23" s="22" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="31"/>
+    </row>
+    <row r="60" spans="1:23" s="22" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D60" s="18">
         <v>7821</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E60" s="17">
         <v>3</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F60" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G60" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H60" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I52" s="91" t="s">
+      <c r="I60" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J60" s="20">
         <v>2050</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K60" s="15">
         <f xml:space="preserve"> 1854 + 3337286</f>
         <v>3339140</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L60" s="20">
         <v>91583402</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M60" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.6460100051753916E-2</v>
       </c>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="W52" s="17" t="s">
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="W60" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+    <row r="61" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D61" s="18">
         <v>7821</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E61" s="17">
         <v>3</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F61" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G61" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H61" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="91" t="s">
+      <c r="I61" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J61" s="20">
         <v>2050</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K61" s="19">
         <f xml:space="preserve"> 6261 +3671573</f>
         <v>3677834</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L61" s="20">
         <v>91583402</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M61" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.0158302920435297E-2</v>
       </c>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C62" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D62" s="18">
         <v>7821</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E62" s="17">
         <v>3</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F62" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G62" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H62" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I54" s="91" t="s">
+      <c r="I62" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J62" s="20">
         <v>2050</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K62" s="19">
         <v>3337286</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L62" s="20">
         <v>91583402</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M62" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.643985620887942E-2</v>
       </c>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="21"/>
-    </row>
-    <row r="55" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="21"/>
+    </row>
+    <row r="63" spans="1:23" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D63" s="18">
         <v>7821</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E63" s="17">
         <v>3</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F63" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G63" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H63" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I55" s="91" t="s">
+      <c r="I63" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J63" s="20">
         <v>2050</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K63" s="19">
         <v>3671573</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L63" s="20">
         <v>91583402</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M63" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.0089939004449737E-2</v>
       </c>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="21"/>
-    </row>
-    <row r="56" spans="1:23" s="32" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="21"/>
+    </row>
+    <row r="64" spans="1:23" s="32" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B64" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="77" t="s">
+      <c r="C64" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D64" s="27">
         <v>528</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E64" s="27">
         <v>17</v>
       </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="27" t="s">
+      <c r="F64" s="40"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="I56" s="71" t="s">
+      <c r="I64" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="W56" s="31"/>
-    </row>
-    <row r="57" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="40" t="s">
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="W64" s="31"/>
+    </row>
+    <row r="65" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B65" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C65" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D65" s="28">
         <v>1411</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E65" s="27">
         <v>19</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F65" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G65" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H65" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I57" s="71" t="s">
+      <c r="I65" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J57" s="40">
+      <c r="J65" s="40">
         <v>2060</v>
       </c>
-      <c r="K57" s="57">
+      <c r="K65" s="57">
         <v>1300000</v>
       </c>
-      <c r="L57" s="57">
+      <c r="L65" s="57">
         <v>18786882</v>
       </c>
-      <c r="M57" s="40">
+      <c r="M65" s="40">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.9197219634423643E-2</v>
       </c>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q57" s="40">
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q65" s="40">
         <v>380000000000</v>
       </c>
-      <c r="R57" s="40">
+      <c r="R65" s="40">
         <v>1205020651</v>
       </c>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40">
+      <c r="S65" s="40"/>
+      <c r="T65" s="40">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>315.34729274942526</v>
       </c>
-      <c r="U57" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="V57" s="40"/>
-      <c r="W57" s="31"/>
-    </row>
-    <row r="58" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
+      <c r="U65" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="V65" s="40"/>
+      <c r="W65" s="31"/>
+    </row>
+    <row r="66" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B66" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C66" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D66" s="66">
         <v>330</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E66" s="27">
         <v>33</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F66" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G66" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H58" s="40" t="s">
+      <c r="H66" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I58" s="71" t="s">
+      <c r="I66" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J58" s="40">
+      <c r="J66" s="40">
         <v>2050</v>
       </c>
-      <c r="K58" s="57">
+      <c r="K66" s="57">
         <f>(160000+40000)-(15000+0)</f>
         <v>185000</v>
       </c>
-      <c r="L58" s="57">
+      <c r="L66" s="57">
         <v>4113152</v>
       </c>
-      <c r="M58" s="25">
+      <c r="M66" s="25">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.497767162507002E-2</v>
       </c>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="W58" s="46" t="s">
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="W66" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="66">
+        <v>330</v>
+      </c>
+      <c r="E67" s="27">
+        <v>33</v>
+      </c>
+      <c r="F67" s="40" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="66">
-        <v>330</v>
-      </c>
-      <c r="E59" s="27">
-        <v>33</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="G59" s="40" t="s">
+      <c r="G67" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H59" s="40" t="s">
+      <c r="H67" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I59" s="71" t="s">
+      <c r="I67" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J59" s="40">
+      <c r="J67" s="40">
         <v>2050</v>
       </c>
-      <c r="K59" s="57">
+      <c r="K67" s="57">
         <f>(240000+115000)-(15000+0)</f>
         <v>340000</v>
       </c>
-      <c r="L59" s="57">
+      <c r="L67" s="57">
         <v>4113152</v>
       </c>
-      <c r="M59" s="25">
+      <c r="M67" s="25">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.2661666770398948E-2</v>
       </c>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25">
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25">
         <v>1100</v>
       </c>
-      <c r="Q59" s="25">
+      <c r="Q67" s="25">
         <v>1100000000000</v>
       </c>
-      <c r="R59" s="25">
+      <c r="R67" s="25">
         <v>375391963</v>
       </c>
-      <c r="S59" s="25"/>
-      <c r="T59" s="40">
+      <c r="S67" s="25"/>
+      <c r="T67" s="40">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2930.2705130104237</v>
       </c>
-      <c r="U59" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="V59" s="27"/>
-      <c r="W59" s="46" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="U67" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="V67" s="27"/>
+      <c r="W67" s="46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B68" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C68" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D68" s="27">
         <v>9</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E68" s="27">
         <v>47</v>
       </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40" t="s">
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="I60" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="31"/>
-    </row>
-    <row r="61" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="I68" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="31"/>
+    </row>
+    <row r="69" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B69" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C69" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D69" s="28">
         <v>1338</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E69" s="27">
         <v>29</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F69" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G69" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H69" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I61" s="71" t="s">
+      <c r="I69" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J61" s="40">
+      <c r="J69" s="40">
         <v>2050</v>
       </c>
-      <c r="K61" s="41">
+      <c r="K69" s="41">
         <f>7039600-6841400</f>
         <v>198200</v>
       </c>
-      <c r="L61" s="67">
+      <c r="L69" s="67">
         <v>17360484</v>
       </c>
-      <c r="M61" s="25">
+      <c r="M69" s="25">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.1416732390640722E-2</v>
       </c>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q61" s="25">
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q69" s="25">
         <v>167910000000</v>
       </c>
-      <c r="R61" s="25">
+      <c r="R69" s="25">
         <v>1312636325</v>
       </c>
-      <c r="S61" s="25"/>
-      <c r="T61" s="40">
+      <c r="S69" s="25"/>
+      <c r="T69" s="40">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>127.91814214039826</v>
       </c>
-      <c r="U61" s="25"/>
-      <c r="V61" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="W61" s="31" t="s">
+      <c r="U69" s="25"/>
+      <c r="V69" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="W69" s="31" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+    <row r="70" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B70" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C70" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D70" s="28">
         <v>1338</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E70" s="27">
         <v>29</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F70" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G70" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H70" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I62" s="71" t="s">
+      <c r="I70" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J62" s="40">
+      <c r="J70" s="40">
         <v>2050</v>
       </c>
-      <c r="K62" s="41">
+      <c r="K70" s="41">
         <f>7039600-6426000</f>
         <v>613600</v>
       </c>
-      <c r="L62" s="67">
+      <c r="L70" s="67">
         <v>17360484</v>
       </c>
-      <c r="M62" s="25">
+      <c r="M70" s="25">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.5344636704829194E-2</v>
       </c>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="25"/>
-      <c r="V62" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="W62" s="31"/>
-    </row>
-    <row r="63" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="W70" s="31"/>
+    </row>
+    <row r="71" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B71" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C71" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D71" s="28">
         <v>1338</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E71" s="27">
         <v>29</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F71" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="40" t="s">
+      <c r="G71" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H71" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I63" s="71" t="s">
+      <c r="I71" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J63" s="40">
+      <c r="J71" s="40">
         <v>2050</v>
       </c>
-      <c r="K63" s="41">
+      <c r="K71" s="41">
         <f>7525500-6380500</f>
         <v>1145000</v>
       </c>
-      <c r="L63" s="67">
+      <c r="L71" s="67">
         <v>17360484</v>
       </c>
-      <c r="M63" s="25">
+      <c r="M71" s="25">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.5954382377818505E-2</v>
       </c>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q63" s="25">
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q71" s="25">
         <v>684030000000</v>
       </c>
-      <c r="R63" s="25">
+      <c r="R71" s="25">
         <v>1312636325</v>
       </c>
-      <c r="S63" s="25"/>
-      <c r="T63" s="40">
+      <c r="S71" s="25"/>
+      <c r="T71" s="40">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>521.11158816209047</v>
       </c>
-      <c r="U63" s="25"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="31"/>
-    </row>
-    <row r="64" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
+      <c r="U71" s="25"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="31"/>
+    </row>
+    <row r="72" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B72" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C72" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D72" s="37">
         <v>7821</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E72" s="27">
         <v>4</v>
       </c>
-      <c r="F64" s="38" t="s">
+      <c r="F72" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G64" s="38" t="s">
+      <c r="G72" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H72" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I64" s="71" t="s">
+      <c r="I72" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J64" s="38">
+      <c r="J72" s="38">
         <v>2050</v>
       </c>
-      <c r="K64" s="31">
+      <c r="K72" s="31">
         <f>(5582000-5333000)+(232000-176000)</f>
         <v>305000</v>
       </c>
-      <c r="L64" s="29">
+      <c r="L72" s="29">
         <v>91583402</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M72" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.3302977760096748E-3</v>
       </c>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="W64" s="27" t="s">
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="W72" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
+    <row r="73" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B73" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C73" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D73" s="37">
         <v>7821</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E73" s="27">
         <v>4</v>
       </c>
-      <c r="F65" s="38" t="s">
+      <c r="F73" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G73" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H73" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I73" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J65" s="38">
+      <c r="J73" s="38">
         <v>2050</v>
       </c>
-      <c r="K65" s="31">
+      <c r="K73" s="31">
         <f>(6552000-6224000)+(400000-334000)</f>
         <v>394000</v>
       </c>
-      <c r="L65" s="29">
+      <c r="L73" s="29">
         <v>91583402</v>
       </c>
-      <c r="M65" s="29">
+      <c r="M73" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.3020895860583991E-3</v>
       </c>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="W65" s="38"/>
-    </row>
-    <row r="66" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="W73" s="38"/>
+    </row>
+    <row r="74" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B74" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C74" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37">
+      <c r="D74" s="37">
         <v>7821</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E74" s="27">
         <v>4</v>
       </c>
-      <c r="F66" s="38" t="s">
+      <c r="F74" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="38" t="s">
+      <c r="G74" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H66" s="40" t="s">
+      <c r="H74" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I66" s="71" t="s">
+      <c r="I74" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J66" s="38">
+      <c r="J74" s="38">
         <v>2050</v>
       </c>
-      <c r="K66" s="31">
+      <c r="K74" s="31">
         <f>(7846000-7372000)+(631000-539000)</f>
         <v>566000</v>
       </c>
-      <c r="L66" s="29">
+      <c r="L74" s="29">
         <v>91583402</v>
       </c>
-      <c r="M66" s="29">
+      <c r="M74" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.1801591515458229E-3</v>
       </c>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="81"/>
-      <c r="W66" s="31"/>
-    </row>
-    <row r="67" spans="1:23" s="72" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="81"/>
+      <c r="W74" s="31"/>
+    </row>
+    <row r="75" spans="1:23" s="72" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B75" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C75" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D75" s="52">
         <v>7821</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E75" s="27">
         <v>4</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F75" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G67" s="40" t="s">
+      <c r="G75" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="H67" s="40" t="s">
+      <c r="H75" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I67" s="71" t="s">
+      <c r="I75" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J67" s="38">
+      <c r="J75" s="38">
         <v>2050</v>
       </c>
-      <c r="K67" s="41">
+      <c r="K75" s="41">
         <f>(5582000-5019000)+(232000-126000)</f>
         <v>669000</v>
       </c>
-      <c r="L67" s="29">
+      <c r="L75" s="29">
         <v>91583402</v>
       </c>
-      <c r="M67" s="25">
+      <c r="M75" s="25">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>7.3048170890179422E-3</v>
       </c>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="81"/>
-      <c r="W67" s="31"/>
-    </row>
-    <row r="68" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="81"/>
+      <c r="W75" s="31"/>
+    </row>
+    <row r="76" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B76" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="79" t="s">
+      <c r="C76" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D76" s="52">
         <v>7821</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E76" s="27">
         <v>4</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F76" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="38" t="s">
+      <c r="G76" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H68" s="40" t="s">
+      <c r="H76" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I68" s="71" t="s">
+      <c r="I76" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J68" s="38">
+      <c r="J76" s="38">
         <v>2050</v>
       </c>
-      <c r="K68" s="31">
+      <c r="K76" s="31">
         <f>(6552000-5701000)+(400000-237000)</f>
         <v>1014000</v>
       </c>
-      <c r="L68" s="29">
+      <c r="L76" s="29">
         <v>91583402</v>
       </c>
-      <c r="M68" s="29">
+      <c r="M76" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.1071875229094461E-2</v>
       </c>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="81"/>
-      <c r="W68" s="31"/>
-    </row>
-    <row r="69" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="81"/>
+      <c r="W76" s="31"/>
+    </row>
+    <row r="77" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B77" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C77" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D77" s="52">
         <v>7821</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E77" s="27">
         <v>4</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F77" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G69" s="38" t="s">
+      <c r="G77" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H77" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I69" s="71" t="s">
+      <c r="I77" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J69" s="38">
+      <c r="J77" s="38">
         <v>2050</v>
       </c>
-      <c r="K69" s="31">
+      <c r="K77" s="31">
         <f>(7846000-6598000)+(631000-382000)</f>
         <v>1497000</v>
       </c>
-      <c r="L69" s="29">
+      <c r="L77" s="29">
         <v>91583402</v>
       </c>
-      <c r="M69" s="29">
+      <c r="M77" s="29">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.6345756625201584E-2</v>
       </c>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="81"/>
-      <c r="W69" s="31"/>
-    </row>
-    <row r="70" spans="1:23" s="35" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="81"/>
+      <c r="W77" s="31"/>
+    </row>
+    <row r="78" spans="1:23" s="35" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D78" s="5">
         <v>37.299999999999997</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E78" s="4">
         <v>44</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5" t="s">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I78" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="9">
+      <c r="J78" s="5"/>
+      <c r="K78" s="9">
         <v>14400</v>
       </c>
-      <c r="L70" s="9"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="W70" s="12"/>
-    </row>
-    <row r="71" spans="1:23" s="35" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="L78" s="9"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="W78" s="12"/>
+    </row>
+    <row r="79" spans="1:23" s="35" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B79" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D79" s="9">
         <v>7405</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E79" s="4">
         <v>10</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F79" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I79" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J79" s="5">
         <v>2050</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K79" s="9">
         <v>35550</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L79" s="11">
         <v>91583402</v>
       </c>
-      <c r="M71" s="34">
+      <c r="M79" s="34">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.8817077356440634E-4</v>
       </c>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34">
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34">
         <v>10</v>
       </c>
-      <c r="Q71" s="34">
+      <c r="Q79" s="34">
         <v>10000000000</v>
       </c>
-      <c r="R71" s="34">
+      <c r="R79" s="34">
         <v>9709491761</v>
       </c>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34">
+      <c r="S79" s="34"/>
+      <c r="T79" s="34">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.0299200252856571</v>
       </c>
-      <c r="U71" s="34"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="5" t="s">
+      <c r="U79" s="34"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="34" t="s">
+    <row r="80" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D80" s="9">
         <v>7821</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E80" s="4">
         <v>5</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F80" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G80" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I80" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J80" s="13">
         <v>2030</v>
       </c>
-      <c r="K72" s="23">
+      <c r="K80" s="23">
         <v>619000</v>
       </c>
-      <c r="L72" s="24">
+      <c r="L80" s="24">
         <v>67172551</v>
       </c>
-      <c r="M72" s="34">
+      <c r="M80" s="34">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>9.2150735796828684E-3</v>
       </c>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34">
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34">
         <v>1294</v>
       </c>
-      <c r="Q72" s="34">
+      <c r="Q80" s="34">
         <v>12940000000000</v>
       </c>
-      <c r="R72" s="34">
+      <c r="R80" s="34">
         <v>9709491761</v>
       </c>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34">
+      <c r="S80" s="34"/>
+      <c r="T80" s="34">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1332.7165127196404</v>
       </c>
-      <c r="U72" s="34"/>
-      <c r="V72" s="82"/>
-      <c r="W72" s="12"/>
-    </row>
-    <row r="73" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="34" t="s">
+      <c r="U80" s="34"/>
+      <c r="V80" s="82"/>
+      <c r="W80" s="12"/>
+    </row>
+    <row r="81" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D81" s="9">
         <v>7821</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E81" s="4">
         <v>5</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I81" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J81" s="13">
         <v>2030</v>
       </c>
-      <c r="K73" s="44">
+      <c r="K81" s="44">
         <v>731000</v>
       </c>
-      <c r="L73" s="24">
+      <c r="L81" s="24">
         <v>67172551</v>
       </c>
-      <c r="M73" s="34">
+      <c r="M81" s="34">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.0882421303308847E-2</v>
       </c>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34">
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34">
         <v>1425</v>
       </c>
-      <c r="Q73" s="34">
+      <c r="Q81" s="34">
         <v>1425000000000</v>
       </c>
-      <c r="R73" s="34">
+      <c r="R81" s="34">
         <v>9709491761</v>
       </c>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34">
+      <c r="S81" s="34"/>
+      <c r="T81" s="34">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>146.76360360320615</v>
       </c>
-      <c r="U73" s="34"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="12"/>
-    </row>
-    <row r="74" spans="1:23" s="32" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="40" t="s">
+      <c r="U81" s="34"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="12"/>
+    </row>
+    <row r="82" spans="1:23" s="32" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B82" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C82" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D82" s="28">
         <v>7405</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E82" s="27">
         <v>11</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40" t="s">
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="I74" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="J74" s="40"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="25"/>
-      <c r="V74" s="27" t="s">
+      <c r="I82" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="J82" s="40"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+      <c r="V82" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="W82" s="31"/>
+    </row>
+    <row r="83" spans="1:23" s="90" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="74">
+        <v>63.26</v>
+      </c>
+      <c r="E83" s="27">
+        <v>37</v>
+      </c>
+      <c r="F83" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="G83" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40">
+        <v>90000</v>
+      </c>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40">
+        <v>71684966</v>
+      </c>
+      <c r="S83" s="40">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>1.2554933763935941E-3</v>
+      </c>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="W74" s="31"/>
-    </row>
-    <row r="75" spans="1:23" s="90" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
+      <c r="W83" s="31"/>
+    </row>
+    <row r="84" spans="1:23" s="90" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="73" t="s">
+      <c r="C84" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D84" s="74">
         <v>63.26</v>
       </c>
-      <c r="E75" s="27">
+      <c r="E84" s="27">
         <v>37</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40" t="s">
+      <c r="F84" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="40" t="s">
         <v>214</v>
-      </c>
-      <c r="I75" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40">
-        <v>70000</v>
-      </c>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40">
-        <v>71684966</v>
-      </c>
-      <c r="S75" s="40">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>9.7649484830612874E-4</v>
-      </c>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="W75" s="31"/>
-    </row>
-    <row r="76" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="40">
-        <v>61</v>
-      </c>
-      <c r="E76" s="27">
-        <v>41</v>
-      </c>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="I76" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="J76" s="40"/>
-      <c r="K76" s="41">
-        <v>75000</v>
-      </c>
-      <c r="L76" s="41"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40">
-        <v>8</v>
-      </c>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="W76" s="31"/>
-    </row>
-    <row r="77" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A77" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="70">
-        <v>1380</v>
-      </c>
-      <c r="E77" s="27">
-        <v>27</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="I77" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="J77" s="40">
-        <v>2035</v>
-      </c>
-      <c r="K77" s="70">
-        <v>170000</v>
-      </c>
-      <c r="L77" s="40">
-        <v>13571259</v>
-      </c>
-      <c r="M77" s="53">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.2526472304448689E-2</v>
-      </c>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q77" s="53">
-        <v>125350000000</v>
-      </c>
-      <c r="R77" s="53">
-        <v>1399547500</v>
-      </c>
-      <c r="S77" s="53"/>
-      <c r="T77" s="53">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>89.564662864247197</v>
-      </c>
-      <c r="U77" s="53"/>
-      <c r="V77" s="80" t="s">
-        <v>332</v>
-      </c>
-      <c r="W77" s="40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="9">
-        <v>1338</v>
-      </c>
-      <c r="E78" s="4">
-        <v>30</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J78" s="5">
-        <v>2030</v>
-      </c>
-      <c r="K78" s="9">
-        <f>1429940-(140510+17223+1174779)</f>
-        <v>97428</v>
-      </c>
-      <c r="L78" s="60">
-        <v>12224379</v>
-      </c>
-      <c r="M78" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>7.9699754073397095E-3</v>
-      </c>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="10"/>
-    </row>
-    <row r="79" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="9">
-        <v>1338</v>
-      </c>
-      <c r="E79" s="4">
-        <v>30</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J79" s="5">
-        <v>2030</v>
-      </c>
-      <c r="K79" s="9">
-        <f>1429940-(17580+2717+177872)</f>
-        <v>1231771</v>
-      </c>
-      <c r="L79" s="60">
-        <v>12224379</v>
-      </c>
-      <c r="M79" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>0.10076348254582093</v>
-      </c>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="13"/>
-    </row>
-    <row r="80" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B80" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="40">
-        <v>80</v>
-      </c>
-      <c r="E80" s="27">
-        <v>35</v>
-      </c>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="I80" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="J80" s="40"/>
-      <c r="K80" s="41">
-        <v>14000</v>
-      </c>
-      <c r="L80" s="41"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="71"/>
-      <c r="W80" s="31"/>
-    </row>
-    <row r="81" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="9">
-        <v>1411</v>
-      </c>
-      <c r="E81" s="4">
-        <v>21</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J81" s="5">
-        <v>2060</v>
-      </c>
-      <c r="K81" s="5">
-        <v>540000</v>
-      </c>
-      <c r="L81" s="44">
-        <v>18786882</v>
-      </c>
-      <c r="M81" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.8743460463529817E-2</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="W81" s="12"/>
-    </row>
-    <row r="82" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="9">
-        <v>1411</v>
-      </c>
-      <c r="E82" s="4">
-        <v>21</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J82" s="5">
-        <v>2060</v>
-      </c>
-      <c r="K82" s="5">
-        <v>2020000</v>
-      </c>
-      <c r="L82" s="44">
-        <v>18786882</v>
-      </c>
-      <c r="M82" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>0.10752183358579673</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="W82" s="12"/>
-    </row>
-    <row r="83" spans="1:23" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="9">
-        <v>1411</v>
-      </c>
-      <c r="E83" s="4">
-        <v>21</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J83" s="5">
-        <v>2060</v>
-      </c>
-      <c r="K83" s="5">
-        <v>1160000</v>
-      </c>
-      <c r="L83" s="44">
-        <v>18786882</v>
-      </c>
-      <c r="M83" s="5">
-        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>6.1745211366101088E-2</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="W83" s="12"/>
-    </row>
-    <row r="84" spans="1:23" s="32" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="40">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E84" s="27">
-        <v>45</v>
-      </c>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="56" t="s">
-        <v>226</v>
       </c>
       <c r="I84" s="71" t="s">
         <v>229</v>
       </c>
       <c r="J84" s="40"/>
-      <c r="K84" s="40" t="s">
-        <v>118</v>
-      </c>
+      <c r="K84" s="40"/>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
       <c r="N84" s="40"/>
-      <c r="O84" s="40"/>
+      <c r="O84" s="40">
+        <v>80000</v>
+      </c>
       <c r="P84" s="40"/>
       <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
+      <c r="R84" s="40">
+        <v>71684966</v>
+      </c>
+      <c r="S84" s="40">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>1.1159941123498615E-3</v>
+      </c>
       <c r="T84" s="40"/>
       <c r="U84" s="40"/>
       <c r="V84" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="W84" s="31"/>
+    </row>
+    <row r="85" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="40">
+        <v>61</v>
+      </c>
+      <c r="E85" s="27">
+        <v>41</v>
+      </c>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="I85" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J85" s="40"/>
+      <c r="K85" s="41">
+        <v>75000</v>
+      </c>
+      <c r="L85" s="41"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40">
+        <v>8</v>
+      </c>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="W85" s="31"/>
+    </row>
+    <row r="86" spans="1:23" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A86" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="70">
+        <v>1380</v>
+      </c>
+      <c r="E86" s="27">
+        <v>27</v>
+      </c>
+      <c r="F86" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H86" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J86" s="40">
+        <v>2035</v>
+      </c>
+      <c r="K86" s="70">
+        <v>170000</v>
+      </c>
+      <c r="L86" s="40">
+        <v>13571259</v>
+      </c>
+      <c r="M86" s="53">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>1.2526472304448689E-2</v>
+      </c>
+      <c r="N86" s="53"/>
+      <c r="O86" s="53"/>
+      <c r="P86" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q86" s="53">
+        <v>125350000000</v>
+      </c>
+      <c r="R86" s="53">
+        <v>1399547500</v>
+      </c>
+      <c r="S86" s="53"/>
+      <c r="T86" s="53">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>89.564662864247197</v>
+      </c>
+      <c r="U86" s="53"/>
+      <c r="V86" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="W86" s="40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="9">
+        <v>1338</v>
+      </c>
+      <c r="E87" s="4">
+        <v>30</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J87" s="5">
+        <v>2030</v>
+      </c>
+      <c r="K87" s="9">
+        <f>1429940-(140510+17223+1174779)</f>
+        <v>97428</v>
+      </c>
+      <c r="L87" s="60">
+        <v>12224379</v>
+      </c>
+      <c r="M87" s="5">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>7.9699754073397095E-3</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="10"/>
+    </row>
+    <row r="88" spans="1:23" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="9">
+        <v>1338</v>
+      </c>
+      <c r="E88" s="4">
+        <v>30</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J88" s="5">
+        <v>2030</v>
+      </c>
+      <c r="K88" s="9">
+        <f>1429940-(17580+2717+177872)</f>
+        <v>1231771</v>
+      </c>
+      <c r="L88" s="60">
+        <v>12224379</v>
+      </c>
+      <c r="M88" s="5">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>0.10076348254582093</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="13"/>
+    </row>
+    <row r="89" spans="1:23" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="40">
+        <v>80</v>
+      </c>
+      <c r="E89" s="27">
+        <v>35</v>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="I89" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="41">
+        <v>14000</v>
+      </c>
+      <c r="L89" s="41"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="71"/>
+      <c r="W89" s="31"/>
+    </row>
+    <row r="90" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="9">
+        <v>1411</v>
+      </c>
+      <c r="E90" s="4">
+        <v>21</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J90" s="5">
+        <v>2060</v>
+      </c>
+      <c r="K90" s="5">
+        <v>540000</v>
+      </c>
+      <c r="L90" s="44">
+        <v>18786882</v>
+      </c>
+      <c r="M90" s="5">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>2.8743460463529817E-2</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="W90" s="12"/>
+    </row>
+    <row r="91" spans="1:23" s="35" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="9">
+        <v>1411</v>
+      </c>
+      <c r="E91" s="4">
+        <v>21</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J91" s="5">
+        <v>2060</v>
+      </c>
+      <c r="K91" s="5">
+        <v>2020000</v>
+      </c>
+      <c r="L91" s="44">
+        <v>18786882</v>
+      </c>
+      <c r="M91" s="5">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>0.10752183358579673</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="W91" s="12"/>
+    </row>
+    <row r="92" spans="1:23" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="9">
+        <v>1411</v>
+      </c>
+      <c r="E92" s="4">
+        <v>21</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J92" s="5">
+        <v>2060</v>
+      </c>
+      <c r="K92" s="5">
+        <v>1160000</v>
+      </c>
+      <c r="L92" s="44">
+        <v>18786882</v>
+      </c>
+      <c r="M92" s="5">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>6.1745211366101088E-2</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="W92" s="12"/>
+    </row>
+    <row r="93" spans="1:23" s="32" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="40">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E93" s="27">
+        <v>45</v>
+      </c>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="I93" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
+      <c r="U93" s="40"/>
+      <c r="V93" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="W93" s="31"/>
+    </row>
+    <row r="94" spans="1:23" s="35" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="E94" s="4">
+        <v>42</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="W84" s="31"/>
-    </row>
-    <row r="85" spans="1:23" s="35" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="4">
-        <v>39.4</v>
-      </c>
-      <c r="E85" s="4">
-        <v>42</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I85" s="8" t="s">
+      <c r="W94" s="12"/>
+    </row>
+    <row r="95" spans="1:23" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="8">
+        <v>37.97</v>
+      </c>
+      <c r="E95" s="4">
+        <v>40</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="W85" s="12"/>
-    </row>
-    <row r="86" spans="1:23" s="35" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="8">
-        <v>37.97</v>
-      </c>
-      <c r="E86" s="4">
-        <v>40</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J86" s="5">
+      <c r="J95" s="5">
         <v>2050</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q86" s="5">
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q95" s="5">
         <v>1000000000</v>
       </c>
-      <c r="R86" s="5">
+      <c r="R95" s="5">
         <v>34932339</v>
       </c>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5">
+      <c r="S95" s="5"/>
+      <c r="T95" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>28.626769023396918</v>
       </c>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="W86" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="U95" s="5"/>
+      <c r="V95" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W95" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="75" t="s">
+      <c r="B96" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D96" s="8">
         <v>37.97</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E96" s="4">
         <v>40</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="76" t="s">
+      <c r="F96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I96" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J96" s="5">
         <v>2050</v>
       </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q87" s="5">
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q96" s="5">
         <v>1300000000</v>
       </c>
-      <c r="R87" s="5">
+      <c r="R96" s="5">
         <v>34932339</v>
       </c>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5">
+      <c r="S96" s="5"/>
+      <c r="T96" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>37.21479973041599</v>
       </c>
-      <c r="U87" s="5"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="40" t="s">
+      <c r="U96" s="5"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B97" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="87" t="s">
+      <c r="C97" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="86">
+      <c r="D97" s="86">
         <v>37.99</v>
       </c>
-      <c r="E88" s="87">
+      <c r="E97" s="87">
         <v>39</v>
       </c>
-      <c r="F88" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="G88" s="86" t="s">
+      <c r="F97" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="H88" s="86" t="s">
+      <c r="H97" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="I97" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="J97" s="86">
+        <v>2050</v>
+      </c>
+      <c r="K97" s="86"/>
+      <c r="L97" s="86"/>
+      <c r="M97" s="86"/>
+      <c r="N97" s="86"/>
+      <c r="O97" s="86"/>
+      <c r="P97" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="I88" s="88" t="s">
-        <v>229</v>
-      </c>
-      <c r="J88" s="86">
-        <v>2050</v>
-      </c>
-      <c r="K88" s="86"/>
-      <c r="L88" s="86"/>
-      <c r="M88" s="86"/>
-      <c r="N88" s="86"/>
-      <c r="O88" s="86"/>
-      <c r="P88" s="86" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q88" s="86">
+      <c r="Q97" s="86">
         <v>2291000000</v>
       </c>
-      <c r="R88" s="5">
+      <c r="R97" s="5">
         <v>34932339</v>
       </c>
-      <c r="S88" s="86"/>
-      <c r="T88" s="5">
+      <c r="S97" s="86"/>
+      <c r="T97" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>65.583927832602328</v>
       </c>
-      <c r="U88" s="86"/>
-      <c r="V88" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="W88" s="89"/>
-    </row>
-    <row r="89" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
+      <c r="U97" s="86"/>
+      <c r="V97" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="W97" s="89"/>
+    </row>
+    <row r="98" spans="1:23" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B98" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="87" t="s">
+      <c r="C98" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="86">
+      <c r="D98" s="86">
         <v>37.99</v>
       </c>
-      <c r="E89" s="87">
+      <c r="E98" s="87">
         <v>39</v>
       </c>
-      <c r="F89" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="G89" s="86" t="s">
+      <c r="F98" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="H89" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="I89" s="88" t="s">
+      <c r="H98" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="I98" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="J89" s="86">
+      <c r="J98" s="86">
         <v>2050</v>
       </c>
-      <c r="K89" s="86"/>
-      <c r="L89" s="86"/>
-      <c r="M89" s="86"/>
-      <c r="N89" s="86"/>
-      <c r="O89" s="86"/>
-      <c r="P89" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q89" s="86">
+      <c r="K98" s="86"/>
+      <c r="L98" s="86"/>
+      <c r="M98" s="86"/>
+      <c r="N98" s="86"/>
+      <c r="O98" s="86"/>
+      <c r="P98" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q98" s="86">
         <v>2268000000</v>
       </c>
-      <c r="R89" s="5">
+      <c r="R98" s="5">
         <v>34932339</v>
       </c>
-      <c r="S89" s="86"/>
-      <c r="T89" s="5">
+      <c r="S98" s="86"/>
+      <c r="T98" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>64.925512145064204</v>
       </c>
-      <c r="U89" s="86"/>
-      <c r="V89" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="W89" s="89"/>
-    </row>
-    <row r="90" spans="1:23" s="32" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
+      <c r="U98" s="86"/>
+      <c r="V98" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="W98" s="89"/>
+    </row>
+    <row r="99" spans="1:23" s="32" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="53" t="s">
+      <c r="B99" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="88" t="s">
+      <c r="C99" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="86">
+      <c r="D99" s="86">
         <v>37.99</v>
       </c>
-      <c r="E90" s="88">
+      <c r="E99" s="88">
         <v>39</v>
       </c>
-      <c r="F90" s="86" t="s">
+      <c r="F99" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="G99" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="H99" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="G90" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="H90" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="I90" s="88" t="s">
+      <c r="I99" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="J90" s="86">
+      <c r="J99" s="86">
         <v>2050</v>
       </c>
-      <c r="K90" s="86"/>
-      <c r="L90" s="86"/>
-      <c r="M90" s="86"/>
-      <c r="N90" s="86"/>
-      <c r="O90" s="86">
+      <c r="K99" s="86"/>
+      <c r="L99" s="86"/>
+      <c r="M99" s="86"/>
+      <c r="N99" s="86"/>
+      <c r="O99" s="86">
         <f>218415-184257</f>
         <v>34158</v>
       </c>
-      <c r="P90" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q90" s="86">
+      <c r="P99" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q99" s="86">
         <v>2314000000</v>
       </c>
-      <c r="R90" s="5">
+      <c r="R99" s="5">
         <v>34932339</v>
       </c>
-      <c r="S90" s="86"/>
-      <c r="T90" s="5">
+      <c r="S99" s="86">
+        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>9.7783317630119196E-4</v>
+      </c>
+      <c r="T99" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>66.242343520140466</v>
       </c>
-      <c r="U90" s="86"/>
-      <c r="V90" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="W90" s="86"/>
+      <c r="U99" s="86"/>
+      <c r="V99" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="W99" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -2635,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -2636,7 +2636,7 @@
   <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="353">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1792,6 +1792,64 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
@@ -1870,64 +1928,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2356,15 +2356,15 @@
     <tableColumn id="12" name="lifexp_months" dataDxfId="9"/>
     <tableColumn id="11" name="yll" dataDxfId="8"/>
     <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="7"/>
-    <tableColumn id="19" name="monetary" dataDxfId="3"/>
-    <tableColumn id="14" name="population_target" dataDxfId="6"/>
-    <tableColumn id="15" name="yll_per_capita" dataDxfId="1">
+    <tableColumn id="19" name="monetary" dataDxfId="6"/>
+    <tableColumn id="14" name="population_target" dataDxfId="5"/>
+    <tableColumn id="15" name="yll_per_capita" dataDxfId="4">
       <calculatedColumnFormula>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="monetary_per_capita" dataDxfId="2"/>
-    <tableColumn id="21" name="VSL" dataDxfId="0"/>
-    <tableColumn id="23" name="Comment" dataDxfId="5"/>
-    <tableColumn id="7" name="Comment2" dataDxfId="4"/>
+    <tableColumn id="10" name="monetary_per_capita" dataDxfId="3"/>
+    <tableColumn id="21" name="VSL" dataDxfId="2"/>
+    <tableColumn id="23" name="Comment" dataDxfId="1"/>
+    <tableColumn id="7" name="Comment2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2635,9 +2635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O85" sqref="O85"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3125,7 +3125,9 @@
         <v>48</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>212</v>
       </c>
@@ -3217,7 +3219,9 @@
         <v>31</v>
       </c>
       <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="H10" s="27" t="s">
         <v>214</v>
       </c>
@@ -3695,7 +3699,9 @@
         <v>43</v>
       </c>
       <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="H19" s="40" t="s">
         <v>217</v>
       </c>
@@ -3842,7 +3848,9 @@
         <v>46</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>212</v>
       </c>
@@ -3885,7 +3893,9 @@
         <v>34</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>214</v>
       </c>
@@ -3969,7 +3979,9 @@
         <v>12</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>213</v>
       </c>
@@ -6074,7 +6086,9 @@
         <v>17</v>
       </c>
       <c r="F64" s="40"/>
-      <c r="G64" s="56"/>
+      <c r="G64" s="56" t="s">
+        <v>209</v>
+      </c>
       <c r="H64" s="27" t="s">
         <v>213</v>
       </c>
@@ -6301,7 +6315,9 @@
         <v>47</v>
       </c>
       <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
+      <c r="G68" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="H68" s="40" t="s">
         <v>224</v>
       </c>
@@ -6847,7 +6863,9 @@
         <v>44</v>
       </c>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H78" s="5" t="s">
         <v>213</v>
       </c>
@@ -7075,7 +7093,9 @@
         <v>11</v>
       </c>
       <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
+      <c r="G82" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="H82" s="40" t="s">
         <v>225</v>
       </c>
@@ -7220,7 +7240,9 @@
         <v>41</v>
       </c>
       <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
+      <c r="G85" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="H85" s="40" t="s">
         <v>213</v>
       </c>
@@ -7436,7 +7458,9 @@
         <v>35</v>
       </c>
       <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
+      <c r="G89" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="H89" s="40" t="s">
         <v>213</v>
       </c>
@@ -7479,7 +7503,9 @@
       <c r="F90" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H90" s="5" t="s">
         <v>213</v>
       </c>
@@ -7643,7 +7669,9 @@
         <v>45</v>
       </c>
       <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
+      <c r="G93" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="H93" s="56" t="s">
         <v>226</v>
       </c>
@@ -7686,7 +7714,9 @@
         <v>42</v>
       </c>
       <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="G94" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H94" s="5" t="s">
         <v>214</v>
       </c>
@@ -7731,7 +7761,9 @@
       <c r="F95" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G95" s="5"/>
+      <c r="G95" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H95" s="76" t="s">
         <v>213</v>
       </c>
@@ -7787,7 +7819,9 @@
       <c r="F96" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G96" s="5"/>
+      <c r="G96" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="H96" s="76" t="s">
         <v>213</v>
       </c>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="356">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1324,6 +1324,15 @@
   </si>
   <si>
     <t>NRPO</t>
+  </si>
+  <si>
+    <t>emission_sector_cat</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Food system</t>
   </si>
 </sst>
 </file>
@@ -2328,12 +2337,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W100" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:W100"/>
-  <sortState ref="A2:W100">
-    <sortCondition ref="M1:M100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:X100" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:X100"/>
+  <sortState ref="A2:X100">
+    <sortCondition ref="N1:N100"/>
   </sortState>
-  <tableColumns count="23">
+  <tableColumns count="24">
     <tableColumn id="18" name="author_date" dataDxfId="22"/>
     <tableColumn id="1" name="title" dataDxfId="21"/>
     <tableColumn id="3" name="Geographical scale" dataDxfId="20"/>
@@ -2342,6 +2351,7 @@
     <tableColumn id="4" name="scenario" dataDxfId="17"/>
     <tableColumn id="5" name="scenario_cat" dataDxfId="16"/>
     <tableColumn id="8" name="emission_sector" dataDxfId="15"/>
+    <tableColumn id="20" name="emission_sector_cat"/>
     <tableColumn id="9" name="pathway_co_benefits" dataDxfId="14"/>
     <tableColumn id="6" name="scenario_yr" dataDxfId="13"/>
     <tableColumn id="2" name="n_prev" dataDxfId="12"/>
@@ -2627,11 +2637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2640,15 +2650,15 @@
     <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="13" width="26.21875" style="1" customWidth="1"/>
-    <col min="14" max="20" width="32.33203125" customWidth="1"/>
-    <col min="21" max="21" width="54.21875" customWidth="1"/>
-    <col min="22" max="22" width="47" customWidth="1"/>
-    <col min="23" max="23" width="44.33203125" customWidth="1"/>
+    <col min="5" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="14" width="26.21875" style="1" customWidth="1"/>
+    <col min="15" max="21" width="32.33203125" customWidth="1"/>
+    <col min="22" max="22" width="54.21875" customWidth="1"/>
+    <col min="23" max="23" width="47" customWidth="1"/>
+    <col min="24" max="24" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2674,52 +2684,55 @@
         <v>211</v>
       </c>
       <c r="I1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" t="s">
         <v>227</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>150</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
@@ -2744,45 +2757,48 @@
       <c r="H2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>2050</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="9">
         <v>35550</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>91583402</v>
       </c>
-      <c r="M2" s="33">
+      <c r="N2" s="33">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.8817077356440634E-4</v>
       </c>
-      <c r="N2" s="33"/>
       <c r="O2" s="33"/>
-      <c r="P2" s="33">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33">
         <v>10</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="R2" s="33">
         <v>10000000000</v>
       </c>
-      <c r="R2" s="33">
+      <c r="S2" s="33">
         <v>9709491761</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.0299200252856571</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="5" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="34" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="34" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>99</v>
       </c>
@@ -2808,22 +2824,24 @@
         <v>214</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>2050</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>130000</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>91583402</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4194711832172385E-3</v>
       </c>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -2831,14 +2849,15 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="5"/>
+      <c r="W3" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="34" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="34" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>89</v>
       </c>
@@ -2863,24 +2882,26 @@
       <c r="H4" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="J4" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J4" s="37">
+      <c r="K4" s="37">
         <v>2030</v>
       </c>
-      <c r="K4" s="30">
+      <c r="L4" s="30">
         <f>6500000-6400000</f>
         <v>100000</v>
       </c>
-      <c r="L4" s="41">
+      <c r="M4" s="41">
         <v>67172551</v>
       </c>
-      <c r="M4" s="24">
+      <c r="N4" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.488703324666053E-3</v>
       </c>
-      <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -2888,12 +2909,13 @@
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="W4" s="37"/>
-    </row>
-    <row r="5" spans="1:23" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="X4" s="37"/>
+    </row>
+    <row r="5" spans="1:24" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>89</v>
       </c>
@@ -2919,23 +2941,25 @@
         <v>220</v>
       </c>
       <c r="I5" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J5" s="37">
+      <c r="K5" s="37">
         <v>2030</v>
       </c>
-      <c r="K5" s="30">
+      <c r="L5" s="30">
         <f>6500000-6400000</f>
         <v>100000</v>
       </c>
-      <c r="L5" s="41">
+      <c r="M5" s="41">
         <v>67172551</v>
       </c>
-      <c r="M5" s="24">
+      <c r="N5" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.488703324666053E-3</v>
       </c>
-      <c r="N5" s="24"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -2943,12 +2967,13 @@
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="24"/>
+      <c r="W5" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="W5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" s="34" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="X5" s="38"/>
+    </row>
+    <row r="6" spans="1:24" s="34" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>126</v>
       </c>
@@ -2974,39 +2999,42 @@
         <v>216</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>2050</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>80000</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>38337222</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.0867448350848166E-3</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="5"/>
+      <c r="W6" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>42</v>
       </c>
@@ -3031,24 +3059,26 @@
       <c r="H7" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="37">
+      <c r="K7" s="37">
         <v>2050</v>
       </c>
-      <c r="K7" s="30">
+      <c r="L7" s="30">
         <f>(5582000-5333000)+(232000-176000)</f>
         <v>305000</v>
       </c>
-      <c r="L7" s="28">
+      <c r="M7" s="28">
         <v>91583402</v>
       </c>
-      <c r="M7" s="28">
+      <c r="N7" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.3302977760096748E-3</v>
       </c>
-      <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -3056,14 +3086,15 @@
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
-      <c r="V7" s="26" t="s">
+      <c r="V7" s="28"/>
+      <c r="W7" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="W7" s="39" t="s">
+      <c r="X7" s="39" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>42</v>
       </c>
@@ -3089,23 +3120,25 @@
         <v>214</v>
       </c>
       <c r="I8" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="37">
+      <c r="K8" s="37">
         <v>2050</v>
       </c>
-      <c r="K8" s="30">
+      <c r="L8" s="30">
         <f>(6552000-6224000)+(400000-334000)</f>
         <v>394000</v>
       </c>
-      <c r="L8" s="28">
+      <c r="M8" s="28">
         <v>91583402</v>
       </c>
-      <c r="M8" s="28">
+      <c r="N8" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.3020895860583991E-3</v>
       </c>
-      <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
@@ -3113,12 +3146,13 @@
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="28"/>
+      <c r="W8" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="W8" s="37"/>
-    </row>
-    <row r="9" spans="1:23" s="34" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:24" s="34" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>50</v>
       </c>
@@ -3144,22 +3178,24 @@
         <v>214</v>
       </c>
       <c r="I9" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J9" s="39">
+      <c r="K9" s="39">
         <v>2050</v>
       </c>
-      <c r="K9" s="40">
+      <c r="L9" s="40">
         <v>470000</v>
       </c>
-      <c r="L9" s="28">
+      <c r="M9" s="28">
         <v>91583402</v>
       </c>
-      <c r="M9" s="39">
+      <c r="N9" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.1319342777854E-3</v>
       </c>
-      <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -3167,14 +3203,15 @@
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="39"/>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="W9" s="39" t="s">
+      <c r="X9" s="39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="31" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="31" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>42</v>
       </c>
@@ -3200,23 +3237,25 @@
         <v>214</v>
       </c>
       <c r="I10" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="37">
+      <c r="K10" s="37">
         <v>2050</v>
       </c>
-      <c r="K10" s="30">
+      <c r="L10" s="30">
         <f>(7846000-7372000)+(631000-539000)</f>
         <v>566000</v>
       </c>
-      <c r="L10" s="28">
+      <c r="M10" s="28">
         <v>91583402</v>
       </c>
-      <c r="M10" s="28">
+      <c r="N10" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.1801591515458229E-3</v>
       </c>
-      <c r="N10" s="28"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -3224,10 +3263,11 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="30"/>
-    </row>
-    <row r="11" spans="1:23" s="31" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="V10" s="28"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="30"/>
+    </row>
+    <row r="11" spans="1:24" s="31" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -3252,38 +3292,41 @@
       <c r="H11" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>2040</v>
       </c>
-      <c r="K11" s="43">
+      <c r="L11" s="43">
         <v>290000</v>
       </c>
-      <c r="L11" s="33">
+      <c r="M11" s="33">
         <v>45405745</v>
       </c>
-      <c r="M11" s="33">
+      <c r="N11" s="33">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.3868569935368307E-3</v>
       </c>
-      <c r="N11" s="33"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="50"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="33"/>
+      <c r="W11" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="X11" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>42</v>
       </c>
@@ -3308,24 +3351,26 @@
       <c r="H12" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="37">
+      <c r="K12" s="37">
         <v>2050</v>
       </c>
-      <c r="K12" s="40">
+      <c r="L12" s="40">
         <f>(5582000-5019000)+(232000-126000)</f>
         <v>669000</v>
       </c>
-      <c r="L12" s="28">
+      <c r="M12" s="28">
         <v>91583402</v>
       </c>
-      <c r="M12" s="24">
+      <c r="N12" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>7.3048170890179422E-3</v>
       </c>
-      <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
@@ -3333,10 +3378,11 @@
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="30"/>
-    </row>
-    <row r="13" spans="1:23" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V12" s="24"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
@@ -3361,24 +3407,26 @@
       <c r="H13" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>2030</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="9">
         <f>1429940-(140510+17223+1174779)</f>
         <v>97428</v>
       </c>
-      <c r="L13" s="59">
+      <c r="M13" s="59">
         <v>12224379</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>7.9699754073397095E-3</v>
       </c>
-      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -3386,10 +3434,11 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V13" s="5"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>127</v>
       </c>
@@ -3414,24 +3463,26 @@
       <c r="H14" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="39">
+      <c r="K14" s="39">
         <v>2040</v>
       </c>
-      <c r="K14" s="45">
+      <c r="L14" s="45">
         <f>2550000-2200000</f>
         <v>350000</v>
       </c>
-      <c r="L14" s="39">
+      <c r="M14" s="39">
         <v>40109096</v>
       </c>
-      <c r="M14" s="39">
+      <c r="N14" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.7262001616790364E-3</v>
       </c>
-      <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -3439,14 +3490,15 @@
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
       <c r="U14" s="39"/>
-      <c r="V14" s="26" t="s">
+      <c r="V14" s="39"/>
+      <c r="W14" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="W14" s="39" t="s">
+      <c r="X14" s="39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>46</v>
       </c>
@@ -3471,43 +3523,46 @@
       <c r="H15" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J15" s="13">
+      <c r="K15" s="13">
         <v>2030</v>
       </c>
-      <c r="K15" s="22">
+      <c r="L15" s="22">
         <v>619000</v>
       </c>
-      <c r="L15" s="23">
+      <c r="M15" s="23">
         <v>67172551</v>
       </c>
-      <c r="M15" s="33">
+      <c r="N15" s="33">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>9.2150735796828684E-3</v>
       </c>
-      <c r="N15" s="33"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="33">
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33">
         <v>1294</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="R15" s="33">
         <v>12940000000000</v>
       </c>
-      <c r="R15" s="33">
+      <c r="S15" s="33">
         <v>9709491761</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33">
+      <c r="T15" s="33"/>
+      <c r="U15" s="33">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1332.7165127196404</v>
       </c>
-      <c r="U15" s="33"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="V15" s="33"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:24" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
         <v>60</v>
       </c>
@@ -3532,47 +3587,50 @@
       <c r="H16" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>2050</v>
       </c>
-      <c r="K16" s="33">
+      <c r="L16" s="33">
         <v>160000</v>
       </c>
-      <c r="L16" s="59">
+      <c r="M16" s="59">
         <v>17360482</v>
       </c>
-      <c r="M16" s="66">
+      <c r="N16" s="66">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>9.2163339704508206E-3</v>
       </c>
-      <c r="N16" s="66"/>
       <c r="O16" s="66"/>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="66"/>
+      <c r="Q16" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>102670000000</v>
       </c>
-      <c r="R16" s="33">
+      <c r="S16" s="33">
         <v>1312636325</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="50">
+      <c r="T16" s="5"/>
+      <c r="U16" s="50">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>78.216637803315407</v>
       </c>
-      <c r="U16" s="50"/>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="50"/>
+      <c r="W16" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="X16" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>46</v>
       </c>
@@ -3598,42 +3656,45 @@
         <v>214</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <v>2030</v>
       </c>
-      <c r="K17" s="43">
+      <c r="L17" s="43">
         <v>731000</v>
       </c>
-      <c r="L17" s="23">
+      <c r="M17" s="23">
         <v>67172551</v>
       </c>
-      <c r="M17" s="33">
+      <c r="N17" s="33">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.0882421303308847E-2</v>
       </c>
-      <c r="N17" s="33"/>
       <c r="O17" s="33"/>
-      <c r="P17" s="33">
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33">
         <v>1425</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="R17" s="33">
         <v>1425000000000</v>
       </c>
-      <c r="R17" s="33">
+      <c r="S17" s="33">
         <v>9709491761</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33">
+      <c r="T17" s="33"/>
+      <c r="U17" s="33">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>146.76360360320615</v>
       </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="12"/>
-    </row>
-    <row r="18" spans="1:23" s="42" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V17" s="33"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" s="42" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>42</v>
       </c>
@@ -3659,23 +3720,25 @@
         <v>214</v>
       </c>
       <c r="I18" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J18" s="37">
+      <c r="K18" s="37">
         <v>2050</v>
       </c>
-      <c r="K18" s="30">
+      <c r="L18" s="30">
         <f>(6552000-5701000)+(400000-237000)</f>
         <v>1014000</v>
       </c>
-      <c r="L18" s="28">
+      <c r="M18" s="28">
         <v>91583402</v>
       </c>
-      <c r="M18" s="28">
+      <c r="N18" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.1071875229094461E-2</v>
       </c>
-      <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
@@ -3683,10 +3746,11 @@
       <c r="S18" s="28"/>
       <c r="T18" s="28"/>
       <c r="U18" s="28"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="30"/>
-    </row>
-    <row r="19" spans="1:23" s="42" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="28"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="30"/>
+    </row>
+    <row r="19" spans="1:24" s="42" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>52</v>
       </c>
@@ -3712,47 +3776,50 @@
         <v>214</v>
       </c>
       <c r="I19" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J19" s="39">
+      <c r="K19" s="39">
         <v>2050</v>
       </c>
-      <c r="K19" s="40">
+      <c r="L19" s="40">
         <f>7039600-6841400</f>
         <v>198200</v>
       </c>
-      <c r="L19" s="65">
+      <c r="M19" s="65">
         <v>17360484</v>
       </c>
-      <c r="M19" s="24">
+      <c r="N19" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.1416732390640722E-2</v>
       </c>
-      <c r="N19" s="24"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="R19" s="24">
         <v>167910000000</v>
       </c>
-      <c r="R19" s="24">
+      <c r="S19" s="24">
         <v>1312636325</v>
       </c>
-      <c r="S19" s="24"/>
-      <c r="T19" s="39">
+      <c r="T19" s="24"/>
+      <c r="U19" s="39">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>127.91814214039826</v>
       </c>
-      <c r="U19" s="24"/>
-      <c r="V19" s="26" t="s">
+      <c r="V19" s="24"/>
+      <c r="W19" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="W19" s="30" t="s">
+      <c r="X19" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="42" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="42" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>99</v>
       </c>
@@ -3777,23 +3844,25 @@
       <c r="H20" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J20" s="10">
+      <c r="K20" s="10">
         <v>2050</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>1100000</v>
       </c>
-      <c r="L20" s="11">
+      <c r="M20" s="11">
         <v>91583402</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2010910011838171E-2</v>
       </c>
-      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -3801,12 +3870,13 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="5" t="s">
+      <c r="V20" s="5"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>51</v>
       </c>
@@ -3831,36 +3901,39 @@
       <c r="H21" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J21" s="28">
+      <c r="K21" s="28">
         <v>2050</v>
       </c>
-      <c r="K21" s="28">
+      <c r="L21" s="28">
         <v>1100000</v>
       </c>
-      <c r="L21" s="28">
+      <c r="M21" s="28">
         <v>91583402</v>
       </c>
-      <c r="M21" s="28">
+      <c r="N21" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2010910011838171E-2</v>
       </c>
-      <c r="N21" s="28"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="40"/>
+      <c r="P21" s="28"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
-      <c r="V21" s="26" t="s">
+      <c r="V21" s="40"/>
+      <c r="W21" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="W21" s="30"/>
-    </row>
-    <row r="22" spans="1:23" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="X21" s="30"/>
+    </row>
+    <row r="22" spans="1:24" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>81</v>
       </c>
@@ -3885,47 +3958,50 @@
       <c r="H22" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J22" s="39">
+      <c r="K22" s="39">
         <v>2035</v>
       </c>
-      <c r="K22" s="68">
+      <c r="L22" s="68">
         <v>170000</v>
       </c>
-      <c r="L22" s="39">
+      <c r="M22" s="39">
         <v>13571259</v>
       </c>
-      <c r="M22" s="52">
+      <c r="N22" s="52">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2526472304448689E-2</v>
       </c>
-      <c r="N22" s="52"/>
       <c r="O22" s="52"/>
-      <c r="P22" s="52" t="s">
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="Q22" s="52">
+      <c r="R22" s="52">
         <v>125350000000</v>
       </c>
-      <c r="R22" s="52">
+      <c r="S22" s="52">
         <v>1399547500</v>
       </c>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52">
+      <c r="T22" s="52"/>
+      <c r="U22" s="52">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>89.564662864247197</v>
       </c>
-      <c r="U22" s="52"/>
-      <c r="V22" s="88" t="s">
+      <c r="V22" s="52"/>
+      <c r="W22" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="W22" s="39" t="s">
+      <c r="X22" s="39" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>39</v>
       </c>
@@ -3950,52 +4026,55 @@
       <c r="H23" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>2045</v>
       </c>
-      <c r="K23" s="49">
+      <c r="L23" s="49">
         <v>9825</v>
       </c>
-      <c r="L23" s="49">
+      <c r="M23" s="49">
         <v>758805</v>
       </c>
-      <c r="M23" s="50">
+      <c r="N23" s="50">
         <f>9825/757000</f>
         <v>1.297886393659181E-2</v>
       </c>
-      <c r="N23" s="50">
+      <c r="O23" s="50">
         <v>3.39</v>
       </c>
-      <c r="O23" s="50">
+      <c r="P23" s="50">
         <v>204000</v>
       </c>
-      <c r="P23" s="50" t="s">
+      <c r="Q23" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="R23" s="50">
         <v>40700000000</v>
       </c>
-      <c r="R23" s="50">
+      <c r="S23" s="50">
         <v>66099100</v>
       </c>
-      <c r="S23" s="50">
+      <c r="T23" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>3.0862750022314978E-3</v>
       </c>
-      <c r="T23" s="50">
+      <c r="U23" s="50">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>615.74212054324494</v>
       </c>
-      <c r="U23" s="50"/>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="50"/>
+      <c r="W23" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>51</v>
       </c>
@@ -4021,35 +4100,38 @@
         <v>213</v>
       </c>
       <c r="I24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J24" s="28">
+      <c r="K24" s="28">
         <v>2050</v>
       </c>
-      <c r="K24" s="28">
+      <c r="L24" s="28">
         <v>1200000</v>
       </c>
-      <c r="L24" s="28">
+      <c r="M24" s="28">
         <v>91583402</v>
       </c>
-      <c r="M24" s="28">
+      <c r="N24" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.3102810922005277E-2</v>
       </c>
-      <c r="N24" s="28"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="40"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
       <c r="S24" s="40"/>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
-      <c r="V24" s="26" t="s">
+      <c r="V24" s="40"/>
+      <c r="W24" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="W24" s="30"/>
-    </row>
-    <row r="25" spans="1:23" s="34" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X24" s="30"/>
+    </row>
+    <row r="25" spans="1:24" s="34" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>51</v>
       </c>
@@ -4074,36 +4156,39 @@
       <c r="H25" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J25" s="28">
+      <c r="K25" s="28">
         <v>2050</v>
       </c>
-      <c r="K25" s="28">
+      <c r="L25" s="28">
         <v>1200000</v>
       </c>
-      <c r="L25" s="28">
+      <c r="M25" s="28">
         <v>91583402</v>
       </c>
-      <c r="M25" s="28">
+      <c r="N25" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.3102810922005277E-2</v>
       </c>
-      <c r="N25" s="28"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="40"/>
+      <c r="P25" s="28"/>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
       <c r="S25" s="40"/>
       <c r="T25" s="40"/>
       <c r="U25" s="40"/>
-      <c r="V25" s="26" t="s">
+      <c r="V25" s="40"/>
+      <c r="W25" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="W25" s="30"/>
-    </row>
-    <row r="26" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X25" s="30"/>
+    </row>
+    <row r="26" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>51</v>
       </c>
@@ -4128,34 +4213,37 @@
       <c r="H26" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J26" s="28">
+      <c r="K26" s="28">
         <v>2050</v>
       </c>
-      <c r="K26" s="28">
+      <c r="L26" s="28">
         <v>1300000</v>
       </c>
-      <c r="L26" s="28">
+      <c r="M26" s="28">
         <v>91583402</v>
       </c>
-      <c r="M26" s="28">
+      <c r="N26" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4194711832172384E-2</v>
       </c>
-      <c r="N26" s="28"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="40"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
       <c r="T26" s="40"/>
       <c r="U26" s="40"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="30"/>
-    </row>
-    <row r="27" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="40"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="30"/>
+    </row>
+    <row r="27" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>50</v>
       </c>
@@ -4180,23 +4268,25 @@
       <c r="H27" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J27" s="39">
+      <c r="K27" s="39">
         <v>2050</v>
       </c>
-      <c r="K27" s="40">
+      <c r="L27" s="40">
         <v>1340000</v>
       </c>
-      <c r="L27" s="28">
+      <c r="M27" s="28">
         <v>91583402</v>
       </c>
-      <c r="M27" s="39">
+      <c r="N27" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4631472196239228E-2</v>
       </c>
-      <c r="N27" s="39"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -4204,12 +4294,13 @@
       <c r="S27" s="39"/>
       <c r="T27" s="39"/>
       <c r="U27" s="39"/>
-      <c r="V27" s="26" t="s">
+      <c r="V27" s="39"/>
+      <c r="W27" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="W27" s="45"/>
-    </row>
-    <row r="28" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X27" s="45"/>
+    </row>
+    <row r="28" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>89</v>
       </c>
@@ -4234,24 +4325,26 @@
       <c r="H28" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J28" s="37">
+      <c r="K28" s="37">
         <v>2030</v>
       </c>
-      <c r="K28" s="30">
+      <c r="L28" s="30">
         <f>6500000-5500000</f>
         <v>1000000</v>
       </c>
-      <c r="L28" s="41">
+      <c r="M28" s="41">
         <v>67172551</v>
       </c>
-      <c r="M28" s="24">
+      <c r="N28" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.488703324666053E-2</v>
       </c>
-      <c r="N28" s="24"/>
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
@@ -4259,10 +4352,11 @@
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="30"/>
-    </row>
-    <row r="29" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="24"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="30"/>
+    </row>
+    <row r="29" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>53</v>
       </c>
@@ -4287,38 +4381,41 @@
       <c r="H29" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>2030</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="9">
         <v>190000</v>
       </c>
-      <c r="L29" s="9">
+      <c r="M29" s="9">
         <v>12224379</v>
       </c>
-      <c r="M29" s="50">
+      <c r="N29" s="50">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.5542711822007482E-2</v>
       </c>
-      <c r="N29" s="50"/>
       <c r="O29" s="50"/>
-      <c r="P29" s="50" t="s">
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="Q29" s="50"/>
       <c r="R29" s="50"/>
       <c r="S29" s="50"/>
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="50"/>
+      <c r="W29" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>42</v>
       </c>
@@ -4343,24 +4440,26 @@
       <c r="H30" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J30" s="37">
+      <c r="K30" s="37">
         <v>2050</v>
       </c>
-      <c r="K30" s="30">
+      <c r="L30" s="30">
         <f>(7846000-6598000)+(631000-382000)</f>
         <v>1497000</v>
       </c>
-      <c r="L30" s="28">
+      <c r="M30" s="28">
         <v>91583402</v>
       </c>
-      <c r="M30" s="28">
+      <c r="N30" s="28">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.6345756625201584E-2</v>
       </c>
-      <c r="N30" s="28"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
@@ -4368,10 +4467,11 @@
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="30"/>
-    </row>
-    <row r="31" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V30" s="28"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="30"/>
+    </row>
+    <row r="31" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>127</v>
       </c>
@@ -4396,24 +4496,26 @@
       <c r="H31" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J31" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="39">
+      <c r="K31" s="39">
         <v>2040</v>
       </c>
-      <c r="K31" s="39">
+      <c r="L31" s="39">
         <f>1200000-650000</f>
         <v>550000</v>
       </c>
-      <c r="L31" s="39">
+      <c r="M31" s="39">
         <v>33179734</v>
       </c>
-      <c r="M31" s="39">
+      <c r="N31" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.6576383644305286E-2</v>
       </c>
-      <c r="N31" s="39"/>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -4421,12 +4523,13 @@
       <c r="S31" s="39"/>
       <c r="T31" s="39"/>
       <c r="U31" s="39"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="39" t="s">
+      <c r="V31" s="39"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="39" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
         <v>60</v>
       </c>
@@ -4451,47 +4554,50 @@
       <c r="H32" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>2050</v>
       </c>
-      <c r="K32" s="33">
+      <c r="L32" s="33">
         <v>292000</v>
       </c>
-      <c r="L32" s="59">
+      <c r="M32" s="59">
         <v>17360483</v>
       </c>
-      <c r="M32" s="66">
+      <c r="N32" s="66">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.6819808527216668E-2</v>
       </c>
-      <c r="N32" s="66"/>
       <c r="O32" s="66"/>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="66"/>
+      <c r="Q32" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="R32" s="5">
         <v>187110000000</v>
       </c>
-      <c r="R32" s="33">
+      <c r="S32" s="33">
         <v>1312636325</v>
       </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="50">
+      <c r="T32" s="5"/>
+      <c r="U32" s="50">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>142.54519430581811</v>
       </c>
-      <c r="U32" s="50"/>
-      <c r="V32" s="4" t="s">
+      <c r="V32" s="50"/>
+      <c r="W32" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="X32" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>50</v>
       </c>
@@ -4516,23 +4622,25 @@
       <c r="H33" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J33" s="39">
+      <c r="K33" s="39">
         <v>2050</v>
       </c>
-      <c r="K33" s="40">
+      <c r="L33" s="40">
         <v>1620000</v>
       </c>
-      <c r="L33" s="28">
+      <c r="M33" s="28">
         <v>91583402</v>
       </c>
-      <c r="M33" s="39">
+      <c r="N33" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.7688794744707127E-2</v>
       </c>
-      <c r="N33" s="39"/>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
@@ -4540,10 +4648,11 @@
       <c r="S33" s="39"/>
       <c r="T33" s="39"/>
       <c r="U33" s="39"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="30"/>
-    </row>
-    <row r="34" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V33" s="39"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="30"/>
+    </row>
+    <row r="34" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
         <v>127</v>
       </c>
@@ -4568,24 +4677,26 @@
       <c r="H34" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J34" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="J34" s="39">
+      <c r="K34" s="39">
         <v>2040</v>
       </c>
-      <c r="K34" s="45">
+      <c r="L34" s="45">
         <f>2550000-1800000</f>
         <v>750000</v>
       </c>
-      <c r="L34" s="39">
+      <c r="M34" s="39">
         <v>40109096</v>
       </c>
-      <c r="M34" s="39">
+      <c r="N34" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.8699000346455077E-2</v>
       </c>
-      <c r="N34" s="39"/>
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="39"/>
@@ -4593,12 +4704,13 @@
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="39" t="s">
+      <c r="V34" s="39"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="34" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
         <v>60</v>
       </c>
@@ -4623,47 +4735,50 @@
       <c r="H35" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>2050</v>
       </c>
-      <c r="K35" s="43">
+      <c r="L35" s="43">
         <v>345000</v>
       </c>
-      <c r="L35" s="59">
+      <c r="M35" s="59">
         <v>17360484</v>
       </c>
-      <c r="M35" s="66">
+      <c r="N35" s="66">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.9872717834364527E-2</v>
       </c>
-      <c r="N35" s="66"/>
       <c r="O35" s="66"/>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="66"/>
+      <c r="Q35" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="R35" s="5">
         <v>222840000000</v>
       </c>
-      <c r="R35" s="33">
+      <c r="S35" s="33">
         <v>1312636325</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="50">
+      <c r="T35" s="5"/>
+      <c r="U35" s="50">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>169.76522419490411</v>
       </c>
-      <c r="U35" s="50"/>
-      <c r="V35" s="4" t="s">
+      <c r="V35" s="50"/>
+      <c r="W35" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="W35" s="50" t="s">
+      <c r="X35" s="50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="34" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="34" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>58</v>
       </c>
@@ -4688,45 +4803,48 @@
       <c r="H36" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="I36" s="57" t="s">
+      <c r="I36" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <v>2050</v>
       </c>
-      <c r="K36" s="59">
+      <c r="L36" s="59">
         <v>368568</v>
       </c>
-      <c r="L36" s="59">
+      <c r="M36" s="59">
         <v>17360484</v>
       </c>
-      <c r="M36" s="33">
+      <c r="N36" s="33">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.1230283671814679E-2</v>
       </c>
-      <c r="N36" s="33"/>
       <c r="O36" s="33"/>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="R36" s="33">
         <v>171930000000</v>
       </c>
-      <c r="R36" s="33">
+      <c r="S36" s="33">
         <v>1312636325</v>
       </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="50">
+      <c r="T36" s="33"/>
+      <c r="U36" s="50">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>130.98068118753304</v>
       </c>
-      <c r="U36" s="50"/>
-      <c r="V36" s="48" t="s">
+      <c r="V36" s="50"/>
+      <c r="W36" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:23" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="X36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>89</v>
       </c>
@@ -4751,24 +4869,26 @@
       <c r="H37" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J37" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J37" s="37">
+      <c r="K37" s="37">
         <v>2030</v>
       </c>
-      <c r="K37" s="41">
+      <c r="L37" s="41">
         <f>8500000-7000000</f>
         <v>1500000</v>
       </c>
-      <c r="L37" s="41">
+      <c r="M37" s="41">
         <v>67172551</v>
       </c>
-      <c r="M37" s="24">
+      <c r="N37" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.2330549869990793E-2</v>
       </c>
-      <c r="N37" s="24"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
@@ -4776,10 +4896,11 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
-      <c r="V37" s="38"/>
+      <c r="V37" s="24"/>
       <c r="W37" s="38"/>
-    </row>
-    <row r="38" spans="1:23" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="X37" s="38"/>
+    </row>
+    <row r="38" spans="1:24" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>89</v>
       </c>
@@ -4804,24 +4925,26 @@
       <c r="H38" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J38" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J38" s="37">
+      <c r="K38" s="37">
         <v>2030</v>
       </c>
-      <c r="K38" s="41">
+      <c r="L38" s="41">
         <f>8500000-7000000</f>
         <v>1500000</v>
       </c>
-      <c r="L38" s="41">
+      <c r="M38" s="41">
         <v>67172551</v>
       </c>
-      <c r="M38" s="24">
+      <c r="N38" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.2330549869990793E-2</v>
       </c>
-      <c r="N38" s="24"/>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
@@ -4829,10 +4952,11 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="38"/>
+      <c r="V38" s="24"/>
       <c r="W38" s="38"/>
-    </row>
-    <row r="39" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X38" s="38"/>
+    </row>
+    <row r="39" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>127</v>
       </c>
@@ -4857,24 +4981,26 @@
       <c r="H39" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="J39" s="39">
+      <c r="K39" s="39">
         <v>2040</v>
       </c>
-      <c r="K39" s="39">
+      <c r="L39" s="39">
         <f>1200000-400000</f>
         <v>800000</v>
       </c>
-      <c r="L39" s="39">
+      <c r="M39" s="39">
         <v>33179734</v>
       </c>
-      <c r="M39" s="39">
+      <c r="N39" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.4111103482625872E-2</v>
       </c>
-      <c r="N39" s="39"/>
       <c r="O39" s="39"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
@@ -4882,12 +5008,13 @@
       <c r="S39" s="39"/>
       <c r="T39" s="39"/>
       <c r="U39" s="39"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="39" t="s">
+      <c r="V39" s="39"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="39" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="31" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="31" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>36</v>
       </c>
@@ -4912,23 +5039,25 @@
       <c r="H40" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="J40" s="39">
+      <c r="K40" s="39">
         <v>2040</v>
       </c>
-      <c r="K40" s="54">
+      <c r="L40" s="54">
         <v>1145365</v>
       </c>
-      <c r="L40" s="52">
+      <c r="M40" s="52">
         <v>41991720</v>
       </c>
-      <c r="M40" s="24">
+      <c r="N40" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.7275972501245485E-2</v>
       </c>
-      <c r="N40" s="24"/>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
@@ -4936,12 +5065,13 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="26" t="s">
+      <c r="V40" s="24"/>
+      <c r="W40" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="W40" s="45"/>
-    </row>
-    <row r="41" spans="1:23" s="31" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X40" s="45"/>
+    </row>
+    <row r="41" spans="1:24" s="31" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
@@ -4967,22 +5097,24 @@
         <v>242</v>
       </c>
       <c r="I41" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="J41" s="39">
+      <c r="K41" s="39">
         <v>2040</v>
       </c>
-      <c r="K41" s="54">
+      <c r="L41" s="54">
         <v>1183662</v>
       </c>
-      <c r="L41" s="52">
+      <c r="M41" s="52">
         <v>41991720</v>
       </c>
-      <c r="M41" s="24">
+      <c r="N41" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.8187985631453059E-2</v>
       </c>
-      <c r="N41" s="24"/>
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
@@ -4990,12 +5122,13 @@
       <c r="S41" s="24"/>
       <c r="T41" s="24"/>
       <c r="U41" s="24"/>
-      <c r="V41" s="26" t="s">
+      <c r="V41" s="24"/>
+      <c r="W41" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="W41" s="45"/>
-    </row>
-    <row r="42" spans="1:23" s="31" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X41" s="45"/>
+    </row>
+    <row r="42" spans="1:24" s="31" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>269</v>
       </c>
@@ -5021,37 +5154,40 @@
         <v>213</v>
       </c>
       <c r="I42" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J42" s="5">
+      <c r="K42" s="5">
         <v>2060</v>
       </c>
-      <c r="K42" s="5">
+      <c r="L42" s="5">
         <v>540000</v>
       </c>
-      <c r="L42" s="43">
+      <c r="M42" s="43">
         <v>18786882</v>
       </c>
-      <c r="M42" s="5">
+      <c r="N42" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.8743460463529817E-2</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="O42" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="4" t="s">
+      <c r="V42" s="5"/>
+      <c r="W42" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="W42" s="12"/>
-    </row>
-    <row r="43" spans="1:23" s="31" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X42" s="12"/>
+    </row>
+    <row r="43" spans="1:24" s="31" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>44</v>
       </c>
@@ -5076,23 +5212,25 @@
       <c r="H43" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J43" s="5">
+      <c r="K43" s="5">
         <v>2050</v>
       </c>
-      <c r="K43" s="9">
+      <c r="L43" s="9">
         <v>1000000</v>
       </c>
-      <c r="L43" s="9">
+      <c r="M43" s="9">
         <v>31985106</v>
       </c>
-      <c r="M43" s="33">
+      <c r="N43" s="33">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.1264551694779437E-2</v>
       </c>
-      <c r="N43" s="33"/>
       <c r="O43" s="33"/>
       <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
@@ -5100,14 +5238,15 @@
       <c r="S43" s="33"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="4" t="s">
+      <c r="V43" s="33"/>
+      <c r="W43" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="X43" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>52</v>
       </c>
@@ -5132,37 +5271,40 @@
       <c r="H44" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I44" s="69" t="s">
+      <c r="I44" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J44" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J44" s="39">
+      <c r="K44" s="39">
         <v>2050</v>
       </c>
-      <c r="K44" s="40">
+      <c r="L44" s="40">
         <f>7039600-6426000</f>
         <v>613600</v>
       </c>
-      <c r="L44" s="65">
+      <c r="M44" s="65">
         <v>17360484</v>
       </c>
-      <c r="M44" s="24">
+      <c r="N44" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.5344636704829194E-2</v>
       </c>
-      <c r="N44" s="24"/>
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="26" t="s">
+      <c r="T44" s="24"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="W44" s="30"/>
-    </row>
-    <row r="45" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X44" s="30"/>
+    </row>
+    <row r="45" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>105</v>
       </c>
@@ -5187,24 +5329,26 @@
       <c r="H45" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J45" s="5">
+      <c r="K45" s="5">
         <v>2050</v>
       </c>
-      <c r="K45" s="43">
+      <c r="L45" s="43">
         <f>3500000-2880000</f>
         <v>620000</v>
       </c>
-      <c r="L45" s="59">
+      <c r="M45" s="59">
         <v>17360484</v>
       </c>
-      <c r="M45" s="33">
+      <c r="N45" s="33">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.5713290021176826E-2</v>
       </c>
-      <c r="N45" s="33"/>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
       <c r="Q45" s="33"/>
@@ -5212,12 +5356,13 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="57" t="s">
+      <c r="V45" s="33"/>
+      <c r="W45" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="W45" s="13"/>
-    </row>
-    <row r="46" spans="1:23" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X45" s="13"/>
+    </row>
+    <row r="46" spans="1:24" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>122</v>
       </c>
@@ -5242,24 +5387,26 @@
       <c r="H46" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J46" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J46" s="39">
+      <c r="K46" s="39">
         <v>2050</v>
       </c>
-      <c r="K46" s="60">
+      <c r="L46" s="60">
         <f>1610000-980000</f>
         <v>630000</v>
       </c>
-      <c r="L46" s="65">
+      <c r="M46" s="65">
         <v>17360484</v>
       </c>
-      <c r="M46" s="61">
+      <c r="N46" s="61">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.6289310827970003E-2</v>
       </c>
-      <c r="N46" s="61"/>
       <c r="O46" s="61"/>
       <c r="P46" s="61"/>
       <c r="Q46" s="61"/>
@@ -5267,12 +5414,13 @@
       <c r="S46" s="61"/>
       <c r="T46" s="61"/>
       <c r="U46" s="61"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="38" t="s">
+      <c r="V46" s="61"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="38" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -5298,22 +5446,24 @@
         <v>213</v>
       </c>
       <c r="I47" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J47" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="J47" s="20">
+      <c r="K47" s="20">
         <v>2050</v>
       </c>
-      <c r="K47" s="19">
+      <c r="L47" s="19">
         <v>3337286</v>
       </c>
-      <c r="L47" s="20">
+      <c r="M47" s="20">
         <v>91583402</v>
       </c>
-      <c r="M47" s="20">
+      <c r="N47" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.643985620887942E-2</v>
       </c>
-      <c r="N47" s="20"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="20"/>
@@ -5321,10 +5471,11 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="81"/>
-    </row>
-    <row r="48" spans="1:23" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="V47" s="20"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="81"/>
+    </row>
+    <row r="48" spans="1:24" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>48</v>
       </c>
@@ -5350,23 +5501,25 @@
         <v>213</v>
       </c>
       <c r="I48" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="J48" s="20">
+      <c r="K48" s="20">
         <v>2050</v>
       </c>
-      <c r="K48" s="15">
+      <c r="L48" s="15">
         <f xml:space="preserve"> 1854 + 3337286</f>
         <v>3339140</v>
       </c>
-      <c r="L48" s="20">
+      <c r="M48" s="20">
         <v>91583402</v>
       </c>
-      <c r="M48" s="20">
+      <c r="N48" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.6460100051753916E-2</v>
       </c>
-      <c r="N48" s="20"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
@@ -5374,14 +5527,15 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="17" t="s">
+      <c r="V48" s="20"/>
+      <c r="W48" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="W48" s="17" t="s">
+      <c r="X48" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>56</v>
       </c>
@@ -5407,39 +5561,42 @@
         <v>213</v>
       </c>
       <c r="I49" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="J49" s="39">
+      <c r="K49" s="39">
         <v>2050</v>
       </c>
-      <c r="K49" s="51">
+      <c r="L49" s="51">
         <v>3487163</v>
       </c>
-      <c r="L49" s="28">
+      <c r="M49" s="28">
         <v>91583402</v>
       </c>
-      <c r="M49" s="52">
-        <f>Tableau1[[#This Row],[n_prev]]/L49</f>
+      <c r="N49" s="52">
+        <f>Tableau1[[#This Row],[n_prev]]/M49</f>
         <v>3.8076364536010578E-2</v>
       </c>
-      <c r="N49" s="52"/>
       <c r="O49" s="52"/>
-      <c r="P49" s="51">
+      <c r="P49" s="52"/>
+      <c r="Q49" s="51">
         <v>23000</v>
       </c>
-      <c r="Q49" s="51"/>
       <c r="R49" s="51"/>
       <c r="S49" s="51"/>
       <c r="T49" s="51"/>
       <c r="U49" s="51"/>
-      <c r="V49" s="26" t="s">
+      <c r="V49" s="51"/>
+      <c r="W49" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="W49" s="26" t="s">
+      <c r="X49" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>36</v>
       </c>
@@ -5465,22 +5622,24 @@
         <v>242</v>
       </c>
       <c r="I50" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="J50" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="J50" s="39">
+      <c r="K50" s="39">
         <v>2040</v>
       </c>
-      <c r="K50" s="52">
+      <c r="L50" s="52">
         <v>1645276</v>
       </c>
-      <c r="L50" s="52">
+      <c r="M50" s="52">
         <v>41991720</v>
       </c>
-      <c r="M50" s="24">
+      <c r="N50" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.918096234209982E-2</v>
       </c>
-      <c r="N50" s="24"/>
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
@@ -5488,12 +5647,13 @@
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="26" t="s">
+      <c r="V50" s="24"/>
+      <c r="W50" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="W50" s="26"/>
-    </row>
-    <row r="51" spans="1:23" s="34" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X50" s="26"/>
+    </row>
+    <row r="51" spans="1:24" s="34" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>48</v>
       </c>
@@ -5518,23 +5678,25 @@
       <c r="H51" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I51" s="80" t="s">
+      <c r="I51" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J51" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="J51" s="20">
+      <c r="K51" s="20">
         <v>2050</v>
       </c>
-      <c r="K51" s="19">
+      <c r="L51" s="19">
         <v>3671573</v>
       </c>
-      <c r="L51" s="20">
+      <c r="M51" s="20">
         <v>91583402</v>
       </c>
-      <c r="M51" s="20">
+      <c r="N51" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.0089939004449737E-2</v>
       </c>
-      <c r="N51" s="20"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
       <c r="Q51" s="20"/>
@@ -5542,10 +5704,11 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="81"/>
-    </row>
-    <row r="52" spans="1:23" s="34" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V51" s="20"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="81"/>
+    </row>
+    <row r="52" spans="1:24" s="34" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
@@ -5570,24 +5733,26 @@
       <c r="H52" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I52" s="80" t="s">
+      <c r="I52" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="J52" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="J52" s="20">
+      <c r="K52" s="20">
         <v>2050</v>
       </c>
-      <c r="K52" s="19">
+      <c r="L52" s="19">
         <f xml:space="preserve"> 6261 +3671573</f>
         <v>3677834</v>
       </c>
-      <c r="L52" s="20">
+      <c r="M52" s="20">
         <v>91583402</v>
       </c>
-      <c r="M52" s="20">
+      <c r="N52" s="20">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.0158302920435297E-2</v>
       </c>
-      <c r="N52" s="20"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="20"/>
@@ -5595,12 +5760,13 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17" t="s">
+      <c r="V52" s="20"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>89</v>
       </c>
@@ -5625,24 +5791,26 @@
       <c r="H53" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="I53" s="69" t="s">
+      <c r="I53" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="J53" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J53" s="37">
+      <c r="K53" s="37">
         <v>2030</v>
       </c>
-      <c r="K53" s="24">
+      <c r="L53" s="24">
         <f>8500000-5600000</f>
         <v>2900000</v>
       </c>
-      <c r="L53" s="41">
+      <c r="M53" s="41">
         <v>67172551</v>
       </c>
-      <c r="M53" s="24">
+      <c r="N53" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.3172396415315534E-2</v>
       </c>
-      <c r="N53" s="24"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
@@ -5650,10 +5818,11 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="38"/>
-    </row>
-    <row r="54" spans="1:23" s="31" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V53" s="24"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="38"/>
+    </row>
+    <row r="54" spans="1:24" s="31" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
         <v>77</v>
       </c>
@@ -5678,39 +5847,42 @@
       <c r="H54" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I54" s="69" t="s">
+      <c r="I54" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J54" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J54" s="39">
+      <c r="K54" s="39">
         <v>2050</v>
       </c>
-      <c r="K54" s="56">
+      <c r="L54" s="56">
         <f>(160000+40000)-(15000+0)</f>
         <v>185000</v>
       </c>
-      <c r="L54" s="56">
+      <c r="M54" s="56">
         <v>4113152</v>
       </c>
-      <c r="M54" s="24">
+      <c r="N54" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.497767162507002E-2</v>
       </c>
-      <c r="N54" s="24"/>
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="26" t="s">
+      <c r="T54" s="24"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="W54" s="26" t="s">
+      <c r="X54" s="26" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="31" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" s="31" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>36</v>
       </c>
@@ -5735,23 +5907,25 @@
       <c r="H55" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I55" s="39" t="s">
+      <c r="I55" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J55" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="J55" s="39">
+      <c r="K55" s="39">
         <v>2040</v>
       </c>
-      <c r="K55" s="52">
+      <c r="L55" s="52">
         <v>2088298</v>
       </c>
-      <c r="L55" s="52">
+      <c r="M55" s="52">
         <v>41991720</v>
       </c>
-      <c r="M55" s="24">
+      <c r="N55" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.9731185100300723E-2</v>
       </c>
-      <c r="N55" s="24"/>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
@@ -5759,12 +5933,13 @@
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
       <c r="U55" s="24"/>
-      <c r="V55" s="39" t="s">
+      <c r="V55" s="24"/>
+      <c r="W55" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="W55" s="30"/>
-    </row>
-    <row r="56" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X55" s="30"/>
+    </row>
+    <row r="56" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>40</v>
       </c>
@@ -5789,23 +5964,25 @@
       <c r="H56" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J56" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J56" s="39">
+      <c r="K56" s="39">
         <v>2050</v>
       </c>
-      <c r="K56" s="51">
+      <c r="L56" s="51">
         <v>960000</v>
       </c>
-      <c r="L56" s="65">
+      <c r="M56" s="65">
         <v>17360484</v>
       </c>
-      <c r="M56" s="52">
+      <c r="N56" s="52">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.5297997452144768E-2</v>
       </c>
-      <c r="N56" s="52"/>
       <c r="O56" s="52"/>
       <c r="P56" s="52"/>
       <c r="Q56" s="52"/>
@@ -5813,12 +5990,13 @@
       <c r="S56" s="52"/>
       <c r="T56" s="52"/>
       <c r="U56" s="52"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="30" t="s">
+      <c r="V56" s="52"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="30" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="31" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" s="31" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>40</v>
       </c>
@@ -5843,23 +6021,25 @@
       <c r="H57" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="I57" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J57" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J57" s="39">
+      <c r="K57" s="39">
         <v>2050</v>
       </c>
-      <c r="K57" s="51">
+      <c r="L57" s="51">
         <v>1060000</v>
       </c>
-      <c r="L57" s="65">
+      <c r="M57" s="65">
         <v>17360484</v>
       </c>
-      <c r="M57" s="52">
+      <c r="N57" s="52">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.1058205520076514E-2</v>
       </c>
-      <c r="N57" s="52"/>
       <c r="O57" s="52"/>
       <c r="P57" s="52"/>
       <c r="Q57" s="52"/>
@@ -5867,12 +6047,13 @@
       <c r="S57" s="52"/>
       <c r="T57" s="52"/>
       <c r="U57" s="52"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="30" t="s">
+      <c r="V57" s="52"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>269</v>
       </c>
@@ -5897,38 +6078,41 @@
       <c r="H58" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>2060</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>1160000</v>
       </c>
-      <c r="L58" s="43">
+      <c r="M58" s="43">
         <v>18786882</v>
       </c>
-      <c r="M58" s="5">
+      <c r="N58" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.1745211366101088E-2</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="O58" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
-      <c r="V58" s="4" t="s">
+      <c r="V58" s="5"/>
+      <c r="W58" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="W58" s="12"/>
-    </row>
-    <row r="59" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X58" s="12"/>
+    </row>
+    <row r="59" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>52</v>
       </c>
@@ -5954,43 +6138,46 @@
         <v>214</v>
       </c>
       <c r="I59" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J59" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J59" s="39">
+      <c r="K59" s="39">
         <v>2050</v>
       </c>
-      <c r="K59" s="40">
+      <c r="L59" s="40">
         <f>7525500-6380500</f>
         <v>1145000</v>
       </c>
-      <c r="L59" s="65">
+      <c r="M59" s="65">
         <v>17360484</v>
       </c>
-      <c r="M59" s="24">
+      <c r="N59" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.5954382377818505E-2</v>
       </c>
-      <c r="N59" s="24"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="24" t="s">
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="Q59" s="24">
+      <c r="R59" s="24">
         <v>684030000000</v>
       </c>
-      <c r="R59" s="24">
+      <c r="S59" s="24">
         <v>1312636325</v>
       </c>
-      <c r="S59" s="24"/>
-      <c r="T59" s="39">
+      <c r="T59" s="24"/>
+      <c r="U59" s="39">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>521.11158816209047</v>
       </c>
-      <c r="U59" s="24"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="30"/>
-    </row>
-    <row r="60" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V59" s="24"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="30"/>
+    </row>
+    <row r="60" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>87</v>
       </c>
@@ -6015,45 +6202,48 @@
       <c r="H60" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="I60" s="69" t="s">
+      <c r="I60" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J60" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J60" s="39">
+      <c r="K60" s="39">
         <v>2060</v>
       </c>
-      <c r="K60" s="56">
+      <c r="L60" s="56">
         <v>1300000</v>
       </c>
-      <c r="L60" s="56">
+      <c r="M60" s="56">
         <v>18786882</v>
       </c>
-      <c r="M60" s="39">
+      <c r="N60" s="39">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.9197219634423643E-2</v>
       </c>
-      <c r="N60" s="39"/>
       <c r="O60" s="39"/>
-      <c r="P60" s="39" t="s">
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="Q60" s="39">
+      <c r="R60" s="39">
         <v>380000000000</v>
       </c>
-      <c r="R60" s="39">
+      <c r="S60" s="39">
         <v>1205020651</v>
       </c>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39">
+      <c r="T60" s="39"/>
+      <c r="U60" s="39">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>315.34729274942526</v>
       </c>
-      <c r="U60" s="39" t="s">
+      <c r="V60" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="V60" s="26"/>
-      <c r="W60" s="37"/>
-    </row>
-    <row r="61" spans="1:23" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="W60" s="26"/>
+      <c r="X60" s="37"/>
+    </row>
+    <row r="61" spans="1:24" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>77</v>
       </c>
@@ -6078,48 +6268,51 @@
       <c r="H61" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I61" s="69" t="s">
+      <c r="I61" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J61" s="39">
+      <c r="K61" s="39">
         <v>2050</v>
       </c>
-      <c r="K61" s="56">
+      <c r="L61" s="56">
         <f>(240000+115000)-(15000+0)</f>
         <v>340000</v>
       </c>
-      <c r="L61" s="56">
+      <c r="M61" s="56">
         <v>4113152</v>
       </c>
-      <c r="M61" s="24">
+      <c r="N61" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.2661666770398948E-2</v>
       </c>
-      <c r="N61" s="24"/>
       <c r="O61" s="24"/>
-      <c r="P61" s="24">
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24">
         <v>1100</v>
       </c>
-      <c r="Q61" s="24">
+      <c r="R61" s="24">
         <v>1100000000000</v>
       </c>
-      <c r="R61" s="24">
+      <c r="S61" s="24">
         <v>375391963</v>
       </c>
-      <c r="S61" s="24"/>
-      <c r="T61" s="39">
+      <c r="T61" s="24"/>
+      <c r="U61" s="39">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2930.2705130104237</v>
       </c>
-      <c r="U61" s="24" t="s">
+      <c r="V61" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26" t="s">
+      <c r="W61" s="26"/>
+      <c r="X61" s="26" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>93</v>
       </c>
@@ -6144,24 +6337,26 @@
       <c r="H62" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J62" s="5">
+      <c r="K62" s="5">
         <v>2030</v>
       </c>
-      <c r="K62" s="9">
+      <c r="L62" s="9">
         <f>1429940-(17580+2717+177872)</f>
         <v>1231771</v>
       </c>
-      <c r="L62" s="59">
+      <c r="M62" s="59">
         <v>12224379</v>
       </c>
-      <c r="M62" s="5">
+      <c r="N62" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.10076348254582093</v>
       </c>
-      <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
@@ -6169,10 +6364,11 @@
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="13"/>
-    </row>
-    <row r="63" spans="1:23" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V62" s="5"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="13"/>
+    </row>
+    <row r="63" spans="1:24" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>269</v>
       </c>
@@ -6197,38 +6393,41 @@
       <c r="H63" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J63" s="5">
+      <c r="K63" s="5">
         <v>2060</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
         <v>2020000</v>
       </c>
-      <c r="L63" s="43">
+      <c r="M63" s="43">
         <v>18786882</v>
       </c>
-      <c r="M63" s="5">
+      <c r="N63" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.10752183358579673</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="O63" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
-      <c r="V63" s="4" t="s">
+      <c r="V63" s="5"/>
+      <c r="W63" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="W63" s="12"/>
-    </row>
-    <row r="64" spans="1:23" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X63" s="12"/>
+    </row>
+    <row r="64" spans="1:24" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>36</v>
       </c>
@@ -6253,23 +6452,25 @@
       <c r="H64" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="I64" s="69" t="s">
+      <c r="I64" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J64" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="J64" s="39">
+      <c r="K64" s="39">
         <v>2040</v>
       </c>
-      <c r="K64" s="54">
+      <c r="L64" s="54">
         <v>5863930</v>
       </c>
-      <c r="L64" s="52">
+      <c r="M64" s="52">
         <v>41991720</v>
       </c>
-      <c r="M64" s="24">
+      <c r="N64" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.13964491094911091</v>
       </c>
-      <c r="N64" s="24"/>
       <c r="O64" s="24"/>
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
@@ -6277,12 +6478,13 @@
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
       <c r="U64" s="24"/>
-      <c r="V64" s="26" t="s">
+      <c r="V64" s="24"/>
+      <c r="W64" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="W64" s="45"/>
-    </row>
-    <row r="65" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X64" s="45"/>
+    </row>
+    <row r="65" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>36</v>
       </c>
@@ -6307,23 +6509,25 @@
       <c r="H65" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="I65" s="69" t="s">
+      <c r="I65" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J65" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="J65" s="39">
+      <c r="K65" s="39">
         <v>2040</v>
       </c>
-      <c r="K65" s="52">
+      <c r="L65" s="52">
         <v>6435910</v>
       </c>
-      <c r="L65" s="52">
+      <c r="M65" s="52">
         <v>41991720</v>
       </c>
-      <c r="M65" s="24">
+      <c r="N65" s="24">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.15326616771115831</v>
       </c>
-      <c r="N65" s="24"/>
       <c r="O65" s="24"/>
       <c r="P65" s="24"/>
       <c r="Q65" s="24"/>
@@ -6331,12 +6535,13 @@
       <c r="S65" s="24"/>
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
-      <c r="V65" s="26" t="s">
+      <c r="V65" s="24"/>
+      <c r="W65" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="W65" s="45"/>
-    </row>
-    <row r="66" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X65" s="45"/>
+    </row>
+    <row r="66" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>110</v>
       </c>
@@ -6359,14 +6564,16 @@
       <c r="H66" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="5"/>
+      <c r="L66" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -6377,9 +6584,10 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="12"/>
-    </row>
-    <row r="67" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="W66" s="5"/>
+      <c r="X66" s="12"/>
+    </row>
+    <row r="67" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>254</v>
       </c>
@@ -6404,33 +6612,36 @@
       <c r="H67" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J67" s="5">
+      <c r="K67" s="5">
         <v>2050</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="L67" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L67" s="9"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5" t="s">
+      <c r="M67" s="9"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
-      <c r="V67" s="5" t="s">
+      <c r="V67" s="5"/>
+      <c r="W67" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="W67" s="12"/>
-    </row>
-    <row r="68" spans="1:23" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="X67" s="12"/>
+    </row>
+    <row r="68" spans="1:24" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>49</v>
       </c>
@@ -6453,11 +6664,13 @@
       <c r="H68" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I68" s="69" t="s">
+      <c r="I68" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J68" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="J68" s="39"/>
-      <c r="K68" s="52"/>
+      <c r="K68" s="39"/>
       <c r="L68" s="52"/>
       <c r="M68" s="52"/>
       <c r="N68" s="52"/>
@@ -6468,12 +6681,13 @@
       <c r="S68" s="52"/>
       <c r="T68" s="52"/>
       <c r="U68" s="52"/>
-      <c r="V68" s="26" t="s">
+      <c r="V68" s="52"/>
+      <c r="W68" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="W68" s="30"/>
-    </row>
-    <row r="69" spans="1:23" s="31" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="X68" s="30"/>
+    </row>
+    <row r="69" spans="1:24" s="31" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>43</v>
       </c>
@@ -6496,11 +6710,13 @@
       <c r="H69" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="I69" s="69" t="s">
+      <c r="I69" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J69" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J69" s="39"/>
-      <c r="K69" s="52"/>
+      <c r="K69" s="39"/>
       <c r="L69" s="52"/>
       <c r="M69" s="52"/>
       <c r="N69" s="52"/>
@@ -6511,10 +6727,11 @@
       <c r="S69" s="52"/>
       <c r="T69" s="52"/>
       <c r="U69" s="52"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="30"/>
-    </row>
-    <row r="70" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V69" s="52"/>
+      <c r="W69" s="26"/>
+      <c r="X69" s="30"/>
+    </row>
+    <row r="70" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="63" t="s">
         <v>62</v>
       </c>
@@ -6537,14 +6754,16 @@
       <c r="H70" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I70" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="33">
+      <c r="K70" s="5"/>
+      <c r="L70" s="33">
         <v>300</v>
       </c>
-      <c r="L70" s="33"/>
       <c r="M70" s="33"/>
       <c r="N70" s="33"/>
       <c r="O70" s="33"/>
@@ -6554,12 +6773,13 @@
       <c r="S70" s="33"/>
       <c r="T70" s="33"/>
       <c r="U70" s="33"/>
-      <c r="V70" s="4" t="s">
+      <c r="V70" s="33"/>
+      <c r="W70" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="W70" s="12"/>
-    </row>
-    <row r="71" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X70" s="12"/>
+    </row>
+    <row r="71" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="63" t="s">
         <v>62</v>
       </c>
@@ -6582,14 +6802,16 @@
       <c r="H71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="33">
+      <c r="K71" s="5"/>
+      <c r="L71" s="33">
         <v>300</v>
       </c>
-      <c r="L71" s="33"/>
       <c r="M71" s="33"/>
       <c r="N71" s="33"/>
       <c r="O71" s="33"/>
@@ -6599,12 +6821,13 @@
       <c r="S71" s="33"/>
       <c r="T71" s="33"/>
       <c r="U71" s="33"/>
-      <c r="V71" s="4" t="s">
+      <c r="V71" s="33"/>
+      <c r="W71" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="W71" s="12"/>
-    </row>
-    <row r="72" spans="1:23" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="X71" s="12"/>
+    </row>
+    <row r="72" spans="1:24" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>54</v>
       </c>
@@ -6627,10 +6850,12 @@
       <c r="H72" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -6642,10 +6867,11 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="12"/>
-    </row>
-    <row r="73" spans="1:23" s="31" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="V72" s="5"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="12"/>
+    </row>
+    <row r="73" spans="1:24" s="31" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>41</v>
       </c>
@@ -6668,14 +6894,16 @@
       <c r="H73" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="50" t="s">
+      <c r="K73" s="5"/>
+      <c r="L73" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="L73" s="50"/>
       <c r="M73" s="50"/>
       <c r="N73" s="50"/>
       <c r="O73" s="50"/>
@@ -6685,12 +6913,13 @@
       <c r="S73" s="50"/>
       <c r="T73" s="50"/>
       <c r="U73" s="50"/>
-      <c r="V73" s="4" t="s">
+      <c r="V73" s="50"/>
+      <c r="W73" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="W73" s="14"/>
-    </row>
-    <row r="74" spans="1:23" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="X73" s="14"/>
+    </row>
+    <row r="74" spans="1:24" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>95</v>
       </c>
@@ -6713,11 +6942,13 @@
       <c r="H74" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I74" s="8" t="s">
+      <c r="I74" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="33"/>
+      <c r="K74" s="5"/>
       <c r="L74" s="33"/>
       <c r="M74" s="33"/>
       <c r="N74" s="33"/>
@@ -6728,12 +6959,13 @@
       <c r="S74" s="33"/>
       <c r="T74" s="33"/>
       <c r="U74" s="33"/>
-      <c r="V74" s="4" t="s">
+      <c r="V74" s="33"/>
+      <c r="W74" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="W74" s="12"/>
-    </row>
-    <row r="75" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X74" s="12"/>
+    </row>
+    <row r="75" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>35</v>
       </c>
@@ -6758,36 +6990,39 @@
       <c r="H75" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="K75" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K75" s="50"/>
       <c r="L75" s="50"/>
       <c r="M75" s="50"/>
       <c r="N75" s="50"/>
-      <c r="O75" s="49">
+      <c r="O75" s="50"/>
+      <c r="P75" s="49">
         <v>891345</v>
       </c>
-      <c r="P75" s="50"/>
       <c r="Q75" s="50"/>
-      <c r="R75" s="50">
+      <c r="R75" s="50"/>
+      <c r="S75" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S75" s="50">
+      <c r="T75" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>4.7185423038327042E-4</v>
       </c>
-      <c r="T75" s="50"/>
       <c r="U75" s="50"/>
-      <c r="V75" s="86" t="s">
+      <c r="V75" s="50"/>
+      <c r="W75" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W75" s="12"/>
-    </row>
-    <row r="76" spans="1:23" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X75" s="12"/>
+    </row>
+    <row r="76" spans="1:24" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>35</v>
       </c>
@@ -6812,36 +7047,39 @@
       <c r="H76" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="K76" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K76" s="50"/>
       <c r="L76" s="50"/>
       <c r="M76" s="50"/>
       <c r="N76" s="50"/>
-      <c r="O76" s="49">
+      <c r="O76" s="50"/>
+      <c r="P76" s="49">
         <v>489015</v>
       </c>
-      <c r="P76" s="50"/>
       <c r="Q76" s="50"/>
-      <c r="R76" s="50">
+      <c r="R76" s="50"/>
+      <c r="S76" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S76" s="50">
+      <c r="T76" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2.5887147678045538E-4</v>
       </c>
-      <c r="T76" s="50"/>
       <c r="U76" s="50"/>
-      <c r="V76" s="86" t="s">
+      <c r="V76" s="50"/>
+      <c r="W76" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W76" s="12"/>
-    </row>
-    <row r="77" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X76" s="12"/>
+    </row>
+    <row r="77" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>35</v>
       </c>
@@ -6866,36 +7104,39 @@
       <c r="H77" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="K77" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K77" s="50"/>
       <c r="L77" s="50"/>
       <c r="M77" s="50"/>
       <c r="N77" s="50"/>
-      <c r="O77" s="49">
+      <c r="O77" s="50"/>
+      <c r="P77" s="49">
         <v>286595</v>
       </c>
-      <c r="P77" s="50"/>
       <c r="Q77" s="50"/>
-      <c r="R77" s="50">
+      <c r="R77" s="50"/>
+      <c r="S77" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S77" s="50">
+      <c r="T77" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.5171573650684457E-4</v>
       </c>
-      <c r="T77" s="50"/>
       <c r="U77" s="50"/>
-      <c r="V77" s="86" t="s">
+      <c r="V77" s="50"/>
+      <c r="W77" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W77" s="12"/>
-    </row>
-    <row r="78" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X77" s="12"/>
+    </row>
+    <row r="78" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>35</v>
       </c>
@@ -6920,36 +7161,39 @@
       <c r="H78" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J78" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="K78" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K78" s="50"/>
       <c r="L78" s="50"/>
       <c r="M78" s="50"/>
       <c r="N78" s="50"/>
-      <c r="O78" s="49">
+      <c r="O78" s="50"/>
+      <c r="P78" s="49">
         <v>835882</v>
       </c>
-      <c r="P78" s="50"/>
       <c r="Q78" s="50"/>
-      <c r="R78" s="50">
+      <c r="R78" s="50"/>
+      <c r="S78" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S78" s="50">
+      <c r="T78" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>4.4249359989816383E-4</v>
       </c>
-      <c r="T78" s="50"/>
       <c r="U78" s="50"/>
-      <c r="V78" s="86" t="s">
+      <c r="V78" s="50"/>
+      <c r="W78" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W78" s="12"/>
-    </row>
-    <row r="79" spans="1:23" s="34" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X78" s="12"/>
+    </row>
+    <row r="79" spans="1:24" s="34" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>35</v>
       </c>
@@ -6974,36 +7218,39 @@
       <c r="H79" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J79" s="5" t="s">
+      <c r="K79" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K79" s="50"/>
       <c r="L79" s="50"/>
       <c r="M79" s="50"/>
       <c r="N79" s="50"/>
-      <c r="O79" s="49">
+      <c r="O79" s="50"/>
+      <c r="P79" s="49">
         <v>909426</v>
       </c>
-      <c r="P79" s="50"/>
       <c r="Q79" s="50"/>
-      <c r="R79" s="50">
+      <c r="R79" s="50"/>
+      <c r="S79" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S79" s="50">
+      <c r="T79" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>4.814258287425588E-4</v>
       </c>
-      <c r="T79" s="50"/>
       <c r="U79" s="50"/>
-      <c r="V79" s="86" t="s">
+      <c r="V79" s="50"/>
+      <c r="W79" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W79" s="12"/>
-    </row>
-    <row r="80" spans="1:23" s="34" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X79" s="12"/>
+    </row>
+    <row r="80" spans="1:24" s="34" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>35</v>
       </c>
@@ -7028,36 +7275,39 @@
       <c r="H80" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="J80" s="5">
+      <c r="K80" s="5">
         <v>2050</v>
       </c>
-      <c r="K80" s="50"/>
       <c r="L80" s="50"/>
       <c r="M80" s="50"/>
       <c r="N80" s="50"/>
-      <c r="O80" s="49">
+      <c r="O80" s="50"/>
+      <c r="P80" s="49">
         <v>160000</v>
       </c>
-      <c r="P80" s="50"/>
       <c r="Q80" s="50"/>
-      <c r="R80" s="50">
+      <c r="R80" s="50"/>
+      <c r="S80" s="50">
         <v>71684966</v>
       </c>
-      <c r="S80" s="50">
+      <c r="T80" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2.2319882246997231E-3</v>
       </c>
-      <c r="T80" s="50"/>
       <c r="U80" s="50"/>
-      <c r="V80" s="86" t="s">
+      <c r="V80" s="50"/>
+      <c r="W80" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W80" s="12"/>
-    </row>
-    <row r="81" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X80" s="12"/>
+    </row>
+    <row r="81" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>35</v>
       </c>
@@ -7082,36 +7332,39 @@
       <c r="H81" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="J81" s="5">
+      <c r="K81" s="5">
         <v>2050</v>
       </c>
-      <c r="K81" s="50"/>
       <c r="L81" s="50"/>
       <c r="M81" s="50"/>
       <c r="N81" s="50"/>
-      <c r="O81" s="49">
+      <c r="O81" s="50"/>
+      <c r="P81" s="49">
         <v>200000</v>
       </c>
-      <c r="P81" s="50"/>
       <c r="Q81" s="50"/>
-      <c r="R81" s="50">
+      <c r="R81" s="50"/>
+      <c r="S81" s="50">
         <v>71684966</v>
       </c>
-      <c r="S81" s="50">
+      <c r="T81" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2.7899852808746539E-3</v>
       </c>
-      <c r="T81" s="50"/>
       <c r="U81" s="50"/>
-      <c r="V81" s="86" t="s">
+      <c r="V81" s="50"/>
+      <c r="W81" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="W81" s="12"/>
-    </row>
-    <row r="82" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X81" s="12"/>
+    </row>
+    <row r="82" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>347</v>
       </c>
@@ -7136,36 +7389,39 @@
       <c r="H82" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J82" s="5" t="s">
+      <c r="K82" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K82" s="50"/>
       <c r="L82" s="50"/>
       <c r="M82" s="50"/>
       <c r="N82" s="50"/>
-      <c r="O82" s="49">
+      <c r="O82" s="50"/>
+      <c r="P82" s="49">
         <v>734160</v>
       </c>
-      <c r="P82" s="50"/>
       <c r="Q82" s="50"/>
-      <c r="R82" s="50">
+      <c r="R82" s="50"/>
+      <c r="S82" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S82" s="50">
+      <c r="T82" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>3.8864469063963088E-4</v>
       </c>
-      <c r="T82" s="50"/>
       <c r="U82" s="50"/>
-      <c r="V82" s="86" t="s">
+      <c r="V82" s="50"/>
+      <c r="W82" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W82" s="12"/>
-    </row>
-    <row r="83" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X82" s="12"/>
+    </row>
+    <row r="83" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>347</v>
       </c>
@@ -7190,36 +7446,39 @@
       <c r="H83" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="J83" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J83" s="5" t="s">
+      <c r="K83" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K83" s="50"/>
       <c r="L83" s="50"/>
       <c r="M83" s="50"/>
       <c r="N83" s="50"/>
-      <c r="O83" s="49">
+      <c r="O83" s="50"/>
+      <c r="P83" s="49">
         <v>412452</v>
       </c>
-      <c r="P83" s="50"/>
       <c r="Q83" s="50"/>
-      <c r="R83" s="50">
+      <c r="R83" s="50"/>
+      <c r="S83" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S83" s="50">
+      <c r="T83" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2.1834106998978021E-4</v>
       </c>
-      <c r="T83" s="50"/>
       <c r="U83" s="50"/>
-      <c r="V83" s="48" t="s">
+      <c r="V83" s="50"/>
+      <c r="W83" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="W83" s="12"/>
-    </row>
-    <row r="84" spans="1:23" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X83" s="12"/>
+    </row>
+    <row r="84" spans="1:24" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>347</v>
       </c>
@@ -7244,36 +7503,39 @@
       <c r="H84" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="K84" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K84" s="50"/>
       <c r="L84" s="50"/>
       <c r="M84" s="50"/>
       <c r="N84" s="50"/>
-      <c r="O84" s="49">
+      <c r="O84" s="50"/>
+      <c r="P84" s="49">
         <v>124609</v>
       </c>
-      <c r="P84" s="50"/>
       <c r="Q84" s="50"/>
-      <c r="R84" s="50">
+      <c r="R84" s="50"/>
+      <c r="S84" s="50">
         <v>1889026192</v>
       </c>
-      <c r="S84" s="50">
+      <c r="T84" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>6.5964675623724753E-5</v>
       </c>
-      <c r="T84" s="50"/>
       <c r="U84" s="50"/>
-      <c r="V84" s="86" t="s">
+      <c r="V84" s="50"/>
+      <c r="W84" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="W84" s="12"/>
-    </row>
-    <row r="85" spans="1:23" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X84" s="12"/>
+    </row>
+    <row r="85" spans="1:24" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>45</v>
       </c>
@@ -7296,36 +7558,39 @@
       <c r="H85" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J85" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J85" s="5">
+      <c r="K85" s="5">
         <v>2050</v>
       </c>
-      <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
-      <c r="O85" s="5">
+      <c r="O85" s="5"/>
+      <c r="P85" s="5">
         <v>3389</v>
       </c>
-      <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="5">
+      <c r="R85" s="5"/>
+      <c r="S85" s="5">
         <v>25807197</v>
       </c>
-      <c r="S85" s="50">
+      <c r="T85" s="50">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.3131995698719237E-4</v>
       </c>
-      <c r="T85" s="5"/>
       <c r="U85" s="5"/>
-      <c r="V85" s="8" t="s">
+      <c r="V85" s="5"/>
+      <c r="W85" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="W85" s="13"/>
-    </row>
-    <row r="86" spans="1:23" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="X85" s="13"/>
+    </row>
+    <row r="86" spans="1:24" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>113</v>
       </c>
@@ -7348,10 +7613,12 @@
       <c r="H86" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="I86" s="69" t="s">
+      <c r="I86" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J86" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J86" s="39"/>
       <c r="K86" s="39"/>
       <c r="L86" s="39"/>
       <c r="M86" s="39"/>
@@ -7363,12 +7630,13 @@
       <c r="S86" s="39"/>
       <c r="T86" s="39"/>
       <c r="U86" s="39"/>
-      <c r="V86" s="69" t="s">
+      <c r="V86" s="39"/>
+      <c r="W86" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="W86" s="30"/>
-    </row>
-    <row r="87" spans="1:23" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="X86" s="30"/>
+    </row>
+    <row r="87" spans="1:24" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
         <v>107</v>
       </c>
@@ -7391,25 +7659,28 @@
       <c r="H87" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="I87" s="69" t="s">
+      <c r="I87" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="J87" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="J87" s="39"/>
       <c r="K87" s="39"/>
       <c r="L87" s="39"/>
-      <c r="M87" s="24"/>
+      <c r="M87" s="39"/>
       <c r="N87" s="24"/>
       <c r="O87" s="24"/>
       <c r="P87" s="24"/>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
       <c r="S87" s="24"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="69"/>
-      <c r="W87" s="30"/>
-    </row>
-    <row r="88" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="T87" s="24"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="69"/>
+      <c r="X87" s="30"/>
+    </row>
+    <row r="88" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>38</v>
       </c>
@@ -7432,15 +7703,17 @@
       <c r="H88" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J88" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="9">
+      <c r="K88" s="5"/>
+      <c r="L88" s="9">
         <v>14400</v>
       </c>
-      <c r="L88" s="9"/>
-      <c r="M88" s="33"/>
+      <c r="M88" s="9"/>
       <c r="N88" s="33"/>
       <c r="O88" s="33"/>
       <c r="P88" s="33"/>
@@ -7449,12 +7722,13 @@
       <c r="S88" s="33"/>
       <c r="T88" s="33"/>
       <c r="U88" s="33"/>
-      <c r="V88" s="8" t="s">
+      <c r="V88" s="33"/>
+      <c r="W88" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="W88" s="12"/>
-    </row>
-    <row r="89" spans="1:23" s="34" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="X88" s="12"/>
+    </row>
+    <row r="89" spans="1:24" s="34" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A89" s="39" t="s">
         <v>101</v>
       </c>
@@ -7477,11 +7751,13 @@
       <c r="H89" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="I89" s="69" t="s">
+      <c r="I89" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J89" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="J89" s="39"/>
-      <c r="K89" s="24"/>
+      <c r="K89" s="39"/>
       <c r="L89" s="24"/>
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
@@ -7492,12 +7768,13 @@
       <c r="S89" s="24"/>
       <c r="T89" s="24"/>
       <c r="U89" s="24"/>
-      <c r="V89" s="39" t="s">
+      <c r="V89" s="24"/>
+      <c r="W89" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="W89" s="30"/>
-    </row>
-    <row r="90" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X89" s="30"/>
+    </row>
+    <row r="90" spans="1:24" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="39" t="s">
         <v>73</v>
       </c>
@@ -7522,34 +7799,37 @@
       <c r="H90" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I90" s="69" t="s">
+      <c r="I90" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J90" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J90" s="39"/>
       <c r="K90" s="39"/>
       <c r="L90" s="39"/>
       <c r="M90" s="39"/>
       <c r="N90" s="39"/>
-      <c r="O90" s="39">
+      <c r="O90" s="39"/>
+      <c r="P90" s="39">
         <v>90000</v>
       </c>
-      <c r="P90" s="39"/>
       <c r="Q90" s="39"/>
-      <c r="R90" s="39">
+      <c r="R90" s="39"/>
+      <c r="S90" s="39">
         <v>71684966</v>
       </c>
-      <c r="S90" s="39">
+      <c r="T90" s="39">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.2554933763935941E-3</v>
       </c>
-      <c r="T90" s="39"/>
       <c r="U90" s="39"/>
-      <c r="V90" s="69" t="s">
+      <c r="V90" s="39"/>
+      <c r="W90" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="W90" s="30"/>
-    </row>
-    <row r="91" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X90" s="30"/>
+    </row>
+    <row r="91" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>73</v>
       </c>
@@ -7574,34 +7854,37 @@
       <c r="H91" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I91" s="69" t="s">
+      <c r="I91" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J91" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J91" s="39"/>
       <c r="K91" s="39"/>
       <c r="L91" s="39"/>
       <c r="M91" s="39"/>
       <c r="N91" s="39"/>
-      <c r="O91" s="39">
+      <c r="O91" s="39"/>
+      <c r="P91" s="39">
         <v>80000</v>
       </c>
-      <c r="P91" s="39"/>
       <c r="Q91" s="39"/>
-      <c r="R91" s="39">
+      <c r="R91" s="39"/>
+      <c r="S91" s="39">
         <v>71684966</v>
       </c>
-      <c r="S91" s="39">
+      <c r="T91" s="39">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.1159941123498615E-3</v>
       </c>
-      <c r="T91" s="39"/>
       <c r="U91" s="39"/>
-      <c r="V91" s="69" t="s">
+      <c r="V91" s="39"/>
+      <c r="W91" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="W91" s="30"/>
-    </row>
-    <row r="92" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X91" s="30"/>
+    </row>
+    <row r="92" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>55</v>
       </c>
@@ -7624,31 +7907,34 @@
       <c r="H92" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="I92" s="69" t="s">
+      <c r="I92" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J92" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J92" s="39"/>
-      <c r="K92" s="40">
+      <c r="K92" s="39"/>
+      <c r="L92" s="40">
         <v>75000</v>
       </c>
-      <c r="L92" s="40"/>
-      <c r="M92" s="39"/>
+      <c r="M92" s="40"/>
       <c r="N92" s="39"/>
-      <c r="O92" s="39">
+      <c r="O92" s="39"/>
+      <c r="P92" s="39">
         <v>8</v>
       </c>
-      <c r="P92" s="39"/>
       <c r="Q92" s="39"/>
       <c r="R92" s="39"/>
       <c r="S92" s="39"/>
       <c r="T92" s="39"/>
       <c r="U92" s="39"/>
-      <c r="V92" s="69" t="s">
+      <c r="V92" s="39"/>
+      <c r="W92" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="W92" s="30"/>
-    </row>
-    <row r="93" spans="1:23" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X92" s="30"/>
+    </row>
+    <row r="93" spans="1:24" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>268</v>
       </c>
@@ -7671,15 +7957,17 @@
       <c r="H93" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="I93" s="69" t="s">
+      <c r="I93" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J93" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J93" s="39"/>
-      <c r="K93" s="40">
+      <c r="K93" s="39"/>
+      <c r="L93" s="40">
         <v>14000</v>
       </c>
-      <c r="L93" s="40"/>
-      <c r="M93" s="39"/>
+      <c r="M93" s="40"/>
       <c r="N93" s="39"/>
       <c r="O93" s="39"/>
       <c r="P93" s="39"/>
@@ -7688,10 +7976,11 @@
       <c r="S93" s="39"/>
       <c r="T93" s="39"/>
       <c r="U93" s="39"/>
-      <c r="V93" s="69"/>
-      <c r="W93" s="30"/>
-    </row>
-    <row r="94" spans="1:23" s="31" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V93" s="39"/>
+      <c r="W93" s="69"/>
+      <c r="X93" s="30"/>
+    </row>
+    <row r="94" spans="1:24" s="31" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
         <v>37</v>
       </c>
@@ -7714,14 +8003,16 @@
       <c r="H94" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="I94" s="69" t="s">
+      <c r="I94" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="J94" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39" t="s">
+      <c r="K94" s="39"/>
+      <c r="L94" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="L94" s="39"/>
       <c r="M94" s="39"/>
       <c r="N94" s="39"/>
       <c r="O94" s="39"/>
@@ -7731,12 +8022,13 @@
       <c r="S94" s="39"/>
       <c r="T94" s="39"/>
       <c r="U94" s="39"/>
-      <c r="V94" s="69" t="s">
+      <c r="V94" s="39"/>
+      <c r="W94" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="W94" s="30"/>
-    </row>
-    <row r="95" spans="1:23" s="34" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X94" s="30"/>
+    </row>
+    <row r="95" spans="1:24" s="34" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>91</v>
       </c>
@@ -7759,14 +8051,16 @@
       <c r="H95" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J95" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5" t="s">
+      <c r="K95" s="5"/>
+      <c r="L95" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
@@ -7776,12 +8070,13 @@
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
-      <c r="V95" s="8" t="s">
+      <c r="V95" s="5"/>
+      <c r="W95" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="W95" s="12"/>
-    </row>
-    <row r="96" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X95" s="12"/>
+    </row>
+    <row r="96" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
         <v>47</v>
       </c>
@@ -7807,37 +8102,40 @@
         <v>286</v>
       </c>
       <c r="I96" s="78" t="s">
+        <v>354</v>
+      </c>
+      <c r="J96" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="J96" s="76">
+      <c r="K96" s="76">
         <v>2050</v>
       </c>
-      <c r="K96" s="76"/>
       <c r="L96" s="76"/>
       <c r="M96" s="76"/>
       <c r="N96" s="76"/>
       <c r="O96" s="76"/>
-      <c r="P96" s="76" t="s">
+      <c r="P96" s="76"/>
+      <c r="Q96" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="Q96" s="76">
+      <c r="R96" s="76">
         <v>2291000000</v>
       </c>
-      <c r="R96" s="5">
+      <c r="S96" s="5">
         <v>34932339</v>
       </c>
-      <c r="S96" s="76"/>
-      <c r="T96" s="5">
+      <c r="T96" s="76"/>
+      <c r="U96" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>65.583927832602328</v>
       </c>
-      <c r="U96" s="76"/>
-      <c r="V96" s="76" t="s">
+      <c r="V96" s="76"/>
+      <c r="W96" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="W96" s="78"/>
-    </row>
-    <row r="97" spans="1:23" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="X96" s="78"/>
+    </row>
+    <row r="97" spans="1:24" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
         <v>47</v>
       </c>
@@ -7863,37 +8161,40 @@
         <v>286</v>
       </c>
       <c r="I97" s="78" t="s">
+        <v>354</v>
+      </c>
+      <c r="J97" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="J97" s="76">
+      <c r="K97" s="76">
         <v>2050</v>
       </c>
-      <c r="K97" s="76"/>
       <c r="L97" s="76"/>
       <c r="M97" s="76"/>
       <c r="N97" s="76"/>
       <c r="O97" s="76"/>
-      <c r="P97" s="76" t="s">
+      <c r="P97" s="76"/>
+      <c r="Q97" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="Q97" s="76">
+      <c r="R97" s="76">
         <v>2268000000</v>
       </c>
-      <c r="R97" s="5">
+      <c r="S97" s="5">
         <v>34932339</v>
       </c>
-      <c r="S97" s="76"/>
-      <c r="T97" s="5">
+      <c r="T97" s="76"/>
+      <c r="U97" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>64.925512145064204</v>
       </c>
-      <c r="U97" s="76"/>
-      <c r="V97" s="69" t="s">
+      <c r="V97" s="76"/>
+      <c r="W97" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="W97" s="78"/>
-    </row>
-    <row r="98" spans="1:23" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="X97" s="78"/>
+    </row>
+    <row r="98" spans="1:24" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A98" s="39" t="s">
         <v>47</v>
       </c>
@@ -7918,44 +8219,47 @@
       <c r="H98" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="I98" s="78" t="s">
+      <c r="I98" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J98" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="J98" s="76">
+      <c r="K98" s="76">
         <v>2050</v>
       </c>
-      <c r="K98" s="76"/>
       <c r="L98" s="76"/>
       <c r="M98" s="76"/>
       <c r="N98" s="76"/>
-      <c r="O98" s="76">
+      <c r="O98" s="76"/>
+      <c r="P98" s="76">
         <f>218415-184257</f>
         <v>34158</v>
       </c>
-      <c r="P98" s="76" t="s">
+      <c r="Q98" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="Q98" s="76">
+      <c r="R98" s="76">
         <v>2314000000</v>
       </c>
-      <c r="R98" s="5">
+      <c r="S98" s="5">
         <v>34932339</v>
       </c>
-      <c r="S98" s="76">
+      <c r="T98" s="76">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>9.7783317630119196E-4</v>
       </c>
-      <c r="T98" s="5">
+      <c r="U98" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>66.242343520140466</v>
       </c>
-      <c r="U98" s="76"/>
-      <c r="V98" s="26" t="s">
+      <c r="V98" s="76"/>
+      <c r="W98" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="W98" s="76"/>
-    </row>
-    <row r="99" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="X98" s="76"/>
+    </row>
+    <row r="99" spans="1:24" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>80</v>
       </c>
@@ -7980,40 +8284,43 @@
       <c r="H99" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="J99" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J99" s="5">
+      <c r="K99" s="5">
         <v>2050</v>
       </c>
-      <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
-      <c r="P99" s="5" t="s">
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="Q99" s="5">
+      <c r="R99" s="5">
         <v>1000000000</v>
       </c>
-      <c r="R99" s="5">
+      <c r="S99" s="5">
         <v>34932339</v>
       </c>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5">
+      <c r="T99" s="5"/>
+      <c r="U99" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>28.626769023396918</v>
       </c>
-      <c r="U99" s="5"/>
-      <c r="V99" s="4" t="s">
+      <c r="V99" s="5"/>
+      <c r="W99" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="W99" s="5" t="s">
+      <c r="X99" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="31" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" s="31" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>80</v>
       </c>
@@ -8038,34 +8345,37 @@
       <c r="H100" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="I100" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="J100" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J100" s="5">
+      <c r="K100" s="5">
         <v>2050</v>
       </c>
-      <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
-      <c r="P100" s="5" t="s">
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="Q100" s="5">
+      <c r="R100" s="5">
         <v>1300000000</v>
       </c>
-      <c r="R100" s="5">
+      <c r="S100" s="5">
         <v>34932339</v>
       </c>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5">
+      <c r="T100" s="5"/>
+      <c r="U100" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>37.21479973041599</v>
       </c>
-      <c r="U100" s="5"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="5" t="s">
+      <c r="V100" s="5"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="5" t="s">
         <v>276</v>
       </c>
     </row>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -1407,6 +1407,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1849,31 +1850,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2070,6 +2046,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2482,17 +2483,17 @@
     <tableColumn id="24" name="conversion_factor" dataDxfId="11"/>
     <tableColumn id="12" name="lifexp_months" dataDxfId="10"/>
     <tableColumn id="11" name="yll" dataDxfId="9"/>
-    <tableColumn id="25" name="DALYs" dataDxfId="0"/>
-    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="8"/>
-    <tableColumn id="19" name="monetary" dataDxfId="7"/>
-    <tableColumn id="14" name="population_target" dataDxfId="6"/>
-    <tableColumn id="15" name="yll_per_capita" dataDxfId="5">
+    <tableColumn id="25" name="DALYs" dataDxfId="8"/>
+    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="7"/>
+    <tableColumn id="19" name="monetary" dataDxfId="6"/>
+    <tableColumn id="14" name="population_target" dataDxfId="5"/>
+    <tableColumn id="15" name="yll_per_capita" dataDxfId="4">
       <calculatedColumnFormula>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="monetary_per_capita" dataDxfId="4"/>
-    <tableColumn id="21" name="VSL" dataDxfId="3"/>
-    <tableColumn id="23" name="Comment" dataDxfId="2"/>
-    <tableColumn id="7" name="Comment2" dataDxfId="1"/>
+    <tableColumn id="10" name="monetary_per_capita" dataDxfId="3"/>
+    <tableColumn id="21" name="VSL" dataDxfId="2"/>
+    <tableColumn id="23" name="Comment" dataDxfId="1"/>
+    <tableColumn id="7" name="Comment2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2763,9 +2764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -1365,40 +1365,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1791,6 +1757,40 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2001,24 +2001,24 @@
     <tableColumn id="8" name="emission_sector" dataDxfId="17"/>
     <tableColumn id="20" name="emission_sector_cat"/>
     <tableColumn id="9" name="pathway_co_benefits" dataDxfId="16"/>
-    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="0"/>
-    <tableColumn id="6" name="scenario_yr" dataDxfId="15"/>
-    <tableColumn id="2" name="n_prev" dataDxfId="14"/>
-    <tableColumn id="17" name="n_death" dataDxfId="13"/>
-    <tableColumn id="16" name="mortality_proj" dataDxfId="12"/>
-    <tableColumn id="24" name="conversion_factor" dataDxfId="11"/>
-    <tableColumn id="12" name="lifexp_months" dataDxfId="10"/>
-    <tableColumn id="11" name="yll" dataDxfId="9"/>
-    <tableColumn id="25" name="DALYs" dataDxfId="8"/>
-    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="7"/>
-    <tableColumn id="19" name="monetary" dataDxfId="6"/>
-    <tableColumn id="14" name="population_target" dataDxfId="5"/>
-    <tableColumn id="15" name="yll_per_capita" dataDxfId="4">
+    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="15"/>
+    <tableColumn id="6" name="scenario_yr" dataDxfId="14"/>
+    <tableColumn id="2" name="n_prev" dataDxfId="13"/>
+    <tableColumn id="17" name="n_death" dataDxfId="12"/>
+    <tableColumn id="16" name="mortality_proj" dataDxfId="11"/>
+    <tableColumn id="24" name="conversion_factor" dataDxfId="10"/>
+    <tableColumn id="12" name="lifexp_months" dataDxfId="9"/>
+    <tableColumn id="11" name="yll" dataDxfId="8"/>
+    <tableColumn id="25" name="DALYs" dataDxfId="7"/>
+    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="6"/>
+    <tableColumn id="19" name="monetary" dataDxfId="5"/>
+    <tableColumn id="14" name="population_target" dataDxfId="4"/>
+    <tableColumn id="15" name="yll_per_capita" dataDxfId="3">
       <calculatedColumnFormula>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="monetary_per_capita" dataDxfId="3"/>
-    <tableColumn id="21" name="VSL" dataDxfId="2"/>
-    <tableColumn id="23" name="HIA_type" dataDxfId="1"/>
+    <tableColumn id="10" name="monetary_per_capita" dataDxfId="2"/>
+    <tableColumn id="21" name="VSL" dataDxfId="1"/>
+    <tableColumn id="23" name="HIA_type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2289,9 +2289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -303,9 +303,6 @@
     <t>Yang, 2019</t>
   </si>
   <si>
-    <t>Climate policies can help resolve energy security and air pollution challenges</t>
-  </si>
-  <si>
     <t>McCollum, 2013</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>scenario_cat</t>
   </si>
   <si>
-    <t>all available</t>
-  </si>
-  <si>
     <t>energy decarbonation</t>
   </si>
   <si>
@@ -608,9 +602,6 @@
   </si>
   <si>
     <t>Energy</t>
-  </si>
-  <si>
-    <t>all</t>
   </si>
   <si>
     <t>Residential, industry, transport, agriculture, energy</t>
@@ -883,6 +874,15 @@
   </si>
   <si>
     <t>pathway_co_benefits2</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>All available</t>
+  </si>
+  <si>
+    <t>Climate policies can help resolve energy security and air pollution chAllenges</t>
   </si>
 </sst>
 </file>
@@ -2289,9 +2289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2320,78 +2320,78 @@
         <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
       <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
-        <v>125</v>
-      </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Z1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="31" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>1</v>
@@ -2406,22 +2406,22 @@
         <v>20</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J2" s="77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L2" s="77">
         <v>2035</v>
@@ -2459,15 +2459,15 @@
       <c r="X2" s="84"/>
       <c r="Y2" s="84"/>
       <c r="Z2" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
@@ -2479,22 +2479,22 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L3" s="5">
         <v>2050</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="Y3" s="30"/>
       <c r="Z3" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L4" s="5">
         <v>2050</v>
@@ -2598,7 +2598,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="31" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2618,22 +2618,22 @@
         <v>20</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K5" s="81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L5" s="77">
         <v>2035</v>
@@ -2671,12 +2671,12 @@
       <c r="X5" s="84"/>
       <c r="Y5" s="84"/>
       <c r="Z5" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="31" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>1</v>
@@ -2691,22 +2691,22 @@
         <v>20</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G6" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K6" s="81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L6" s="77">
         <v>2035</v>
@@ -2744,15 +2744,15 @@
       <c r="X6" s="84"/>
       <c r="Y6" s="84"/>
       <c r="Z6" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -2764,22 +2764,22 @@
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L7" s="10">
         <v>2050</v>
@@ -2805,7 +2805,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="28" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2825,22 +2825,22 @@
         <v>20</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G8" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H8" s="81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I8" s="81" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L8" s="77">
         <v>2035</v>
@@ -2878,7 +2878,7 @@
       <c r="X8" s="84"/>
       <c r="Y8" s="84"/>
       <c r="Z8" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="83" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2898,22 +2898,22 @@
         <v>6</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L9" s="34">
         <v>2030</v>
@@ -2940,7 +2940,7 @@
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="83" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2960,22 +2960,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L10" s="34">
         <v>2030</v>
@@ -3002,18 +3002,18 @@
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="83" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>503</v>
@@ -3022,22 +3022,22 @@
         <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L11" s="5">
         <v>2050</v>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -3065,12 +3065,12 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="83" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>1</v>
@@ -3085,22 +3085,22 @@
         <v>20</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I12" s="77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K12" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L12" s="77">
         <v>2035</v>
@@ -3138,7 +3138,7 @@
       <c r="X12" s="84"/>
       <c r="Y12" s="84"/>
       <c r="Z12" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="83" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3158,22 +3158,22 @@
         <v>20</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I13" s="77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K13" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L13" s="77">
         <v>2035</v>
@@ -3211,7 +3211,7 @@
       <c r="X13" s="84"/>
       <c r="Y13" s="84"/>
       <c r="Z13" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3231,22 +3231,22 @@
         <v>20</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I14" s="77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K14" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L14" s="77">
         <v>2035</v>
@@ -3284,7 +3284,7 @@
       <c r="X14" s="84"/>
       <c r="Y14" s="84"/>
       <c r="Z14" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3304,22 +3304,22 @@
         <v>20</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H15" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K15" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L15" s="77">
         <v>2035</v>
@@ -3357,7 +3357,7 @@
       <c r="X15" s="84"/>
       <c r="Y15" s="84"/>
       <c r="Z15" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3377,22 +3377,22 @@
         <v>4</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L16" s="34">
         <v>2050</v>
@@ -3419,7 +3419,7 @@
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3439,22 +3439,22 @@
         <v>39</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K17" s="69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L17" s="68">
         <v>2050</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="S17" s="68"/>
       <c r="T17" s="68" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U17" s="68">
         <v>2314000000</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="Y17" s="68"/>
       <c r="Z17" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3518,22 +3518,22 @@
         <v>4</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L18" s="34">
         <v>2050</v>
@@ -3560,7 +3560,7 @@
       <c r="X18" s="26"/>
       <c r="Y18" s="26"/>
       <c r="Z18" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3581,19 +3581,19 @@
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L19" s="35">
         <v>2060</v>
@@ -3623,7 +3623,7 @@
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
       <c r="Z19" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3643,22 +3643,22 @@
         <v>9</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L20" s="35">
         <v>2050</v>
@@ -3684,7 +3684,7 @@
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3704,22 +3704,22 @@
         <v>4</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L21" s="34">
         <v>2050</v>
@@ -3746,7 +3746,7 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3766,22 +3766,22 @@
         <v>37</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="35">
@@ -3815,7 +3815,7 @@
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
       <c r="Z22" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="28" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -3835,22 +3835,22 @@
         <v>14</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L23" s="5">
         <v>2040</v>
@@ -3876,7 +3876,7 @@
       <c r="X23" s="30"/>
       <c r="Y23" s="30"/>
       <c r="Z23" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3896,22 +3896,22 @@
         <v>37</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35">
@@ -3945,7 +3945,7 @@
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
       <c r="Z24" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3965,22 +3965,22 @@
         <v>4</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L25" s="34">
         <v>2050</v>
@@ -4007,7 +4007,7 @@
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
       <c r="Z25" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:26" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4027,22 +4027,22 @@
         <v>30</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L26" s="5">
         <v>2030</v>
@@ -4069,15 +4069,15 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:26" s="31" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>123</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>27</v>
@@ -4089,22 +4089,22 @@
         <v>7</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L27" s="35">
         <v>2040</v>
@@ -4131,12 +4131,12 @@
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B28" s="78" t="s">
         <v>16</v>
@@ -4151,22 +4151,22 @@
         <v>32</v>
       </c>
       <c r="F28" s="77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I28" s="81" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K28" s="77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L28" s="77">
         <v>2030</v>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="P28" s="77"/>
       <c r="Q28" s="77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R28" s="77"/>
       <c r="S28" s="77"/>
@@ -4195,7 +4195,7 @@
       <c r="X28" s="77"/>
       <c r="Y28" s="77"/>
       <c r="Z28" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4215,22 +4215,22 @@
         <v>5</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L29" s="12">
         <v>2030</v>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="Y29" s="30"/>
       <c r="Z29" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="31" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4285,22 +4285,22 @@
         <v>24</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L30" s="5">
         <v>2050</v>
@@ -4320,7 +4320,7 @@
       <c r="R30" s="62"/>
       <c r="S30" s="62"/>
       <c r="T30" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U30" s="5">
         <v>102670000000</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="Y30" s="46"/>
       <c r="Z30" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4355,22 +4355,22 @@
         <v>45</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L31" s="35">
         <v>2050</v>
@@ -4397,7 +4397,7 @@
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4417,22 +4417,22 @@
         <v>5</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L32" s="12">
         <v>2030</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="Y32" s="30"/>
       <c r="Z32" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4487,22 +4487,22 @@
         <v>4</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L33" s="34">
         <v>2050</v>
@@ -4529,7 +4529,7 @@
       <c r="X33" s="26"/>
       <c r="Y33" s="26"/>
       <c r="Z33" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4537,7 +4537,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>29</v>
@@ -4549,22 +4549,22 @@
         <v>29</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L34" s="35">
         <v>2050</v>
@@ -4585,7 +4585,7 @@
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="U34" s="22">
         <v>167910000000</v>
@@ -4600,15 +4600,15 @@
       </c>
       <c r="Y34" s="22"/>
       <c r="Z34" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>27</v>
@@ -4620,22 +4620,22 @@
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L35" s="10">
         <v>2050</v>
@@ -4661,7 +4661,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4681,22 +4681,22 @@
         <v>2</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L36" s="26">
         <v>2050</v>
@@ -4722,7 +4722,7 @@
       <c r="X36" s="36"/>
       <c r="Y36" s="36"/>
       <c r="Z36" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:26" s="83" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4742,22 +4742,22 @@
         <v>27</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L37" s="35">
         <v>2035</v>
@@ -4777,7 +4777,7 @@
       <c r="R37" s="48"/>
       <c r="S37" s="48"/>
       <c r="T37" s="48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U37" s="48">
         <v>125350000000</v>
@@ -4792,18 +4792,18 @@
       </c>
       <c r="Y37" s="48"/>
       <c r="Z37" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:26" s="83" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D38" s="24">
         <v>9</v>
@@ -4812,22 +4812,22 @@
         <v>47</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -4853,7 +4853,7 @@
       <c r="X38" s="35"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:26" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4873,22 +4873,22 @@
         <v>36</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H39" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I39" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K39" s="44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L39" s="5">
         <v>2045</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="S39" s="46"/>
       <c r="T39" s="46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="U39" s="46">
         <v>40700000000</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="Y39" s="46"/>
       <c r="Z39" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:26" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4950,22 +4950,22 @@
         <v>2</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L40" s="26">
         <v>2050</v>
@@ -4991,7 +4991,7 @@
       <c r="X40" s="36"/>
       <c r="Y40" s="36"/>
       <c r="Z40" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5011,22 +5011,22 @@
         <v>2</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L41" s="26">
         <v>2050</v>
@@ -5052,7 +5052,7 @@
       <c r="X41" s="36"/>
       <c r="Y41" s="36"/>
       <c r="Z41" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:26" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5072,22 +5072,22 @@
         <v>2</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L42" s="26">
         <v>2050</v>
@@ -5113,7 +5113,7 @@
       <c r="X42" s="36"/>
       <c r="Y42" s="36"/>
       <c r="Z42" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:26" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5133,22 +5133,22 @@
         <v>9</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L43" s="35">
         <v>2050</v>
@@ -5174,7 +5174,7 @@
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
       <c r="Z43" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:26" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5194,22 +5194,22 @@
         <v>6</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L44" s="34">
         <v>2030</v>
@@ -5236,7 +5236,7 @@
       <c r="X44" s="22"/>
       <c r="Y44" s="22"/>
       <c r="Z44" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:26" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
@@ -5256,22 +5256,22 @@
         <v>26</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L45" s="5">
         <v>2030</v>
@@ -5291,7 +5291,7 @@
       <c r="R45" s="46"/>
       <c r="S45" s="46"/>
       <c r="T45" s="46" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="U45" s="46"/>
       <c r="V45" s="46"/>
@@ -5299,7 +5299,7 @@
       <c r="X45" s="46"/>
       <c r="Y45" s="46"/>
       <c r="Z45" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5319,22 +5319,22 @@
         <v>4</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J46" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K46" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L46" s="34">
         <v>2050</v>
@@ -5361,15 +5361,15 @@
       <c r="X46" s="26"/>
       <c r="Y46" s="26"/>
       <c r="Z46" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:26" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>123</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>27</v>
@@ -5381,22 +5381,22 @@
         <v>7</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J47" s="65" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K47" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L47" s="35">
         <v>2040</v>
@@ -5423,7 +5423,7 @@
       <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
       <c r="Z47" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:26" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5443,22 +5443,22 @@
         <v>24</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L48" s="5">
         <v>2050</v>
@@ -5478,7 +5478,7 @@
       <c r="R48" s="62"/>
       <c r="S48" s="62"/>
       <c r="T48" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U48" s="5">
         <v>187110000000</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="Y48" s="46"/>
       <c r="Z48" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5513,22 +5513,22 @@
         <v>9</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L49" s="35">
         <v>2050</v>
@@ -5554,7 +5554,7 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:26" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5574,22 +5574,22 @@
         <v>42</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L50" s="5">
         <v>2050</v>
@@ -5616,15 +5616,15 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>123</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>27</v>
@@ -5636,22 +5636,22 @@
         <v>7</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L51" s="35">
         <v>2040</v>
@@ -5678,12 +5678,12 @@
       <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
       <c r="Z51" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="77" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B52" s="78" t="s">
         <v>16</v>
@@ -5698,22 +5698,22 @@
         <v>32</v>
       </c>
       <c r="F52" s="77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H52" s="81" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J52" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K52" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L52" s="77">
         <v>2030</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="P52" s="77"/>
       <c r="Q52" s="77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R52" s="77"/>
       <c r="S52" s="77"/>
@@ -5742,7 +5742,7 @@
       <c r="X52" s="77"/>
       <c r="Y52" s="77"/>
       <c r="Z52" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:26" s="31" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5762,22 +5762,22 @@
         <v>1</v>
       </c>
       <c r="F53" s="77" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G53" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H53" s="81" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I53" s="81" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K53" s="89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L53" s="77">
         <v>2035</v>
@@ -5804,7 +5804,7 @@
       <c r="X53" s="84"/>
       <c r="Y53" s="84"/>
       <c r="Z53" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:26" s="31" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5824,22 +5824,22 @@
         <v>24</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L54" s="5">
         <v>2050</v>
@@ -5859,7 +5859,7 @@
       <c r="R54" s="62"/>
       <c r="S54" s="62"/>
       <c r="T54" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U54" s="5">
         <v>222840000000</v>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="Y54" s="46"/>
       <c r="Z54" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:26" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -5894,22 +5894,22 @@
         <v>28</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H55" s="53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I55" s="53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J55" s="101" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K55" s="101" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L55" s="5">
         <v>2050</v>
@@ -5929,7 +5929,7 @@
       <c r="R55" s="30"/>
       <c r="S55" s="30"/>
       <c r="T55" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="U55" s="30">
         <v>171930000000</v>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="Y55" s="46"/>
       <c r="Z55" s="44" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:26" s="28" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5964,22 +5964,22 @@
         <v>42</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L56" s="5">
         <v>2050</v>
@@ -6006,7 +6006,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6026,22 +6026,22 @@
         <v>6</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L57" s="34">
         <v>2030</v>
@@ -6068,7 +6068,7 @@
       <c r="X57" s="22"/>
       <c r="Y57" s="22"/>
       <c r="Z57" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6088,22 +6088,22 @@
         <v>6</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J58" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L58" s="34">
         <v>2030</v>
@@ -6130,15 +6130,15 @@
       <c r="X58" s="22"/>
       <c r="Y58" s="22"/>
       <c r="Z58" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:26" s="28" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>27</v>
@@ -6150,22 +6150,22 @@
         <v>7</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L59" s="35">
         <v>2040</v>
@@ -6192,7 +6192,7 @@
       <c r="X59" s="35"/>
       <c r="Y59" s="35"/>
       <c r="Z59" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6212,22 +6212,22 @@
         <v>15</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J60" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L60" s="35">
         <v>2040</v>
@@ -6253,7 +6253,7 @@
       <c r="X60" s="22"/>
       <c r="Y60" s="22"/>
       <c r="Z60" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6273,22 +6273,22 @@
         <v>15</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L61" s="35">
         <v>2040</v>
@@ -6314,12 +6314,12 @@
       <c r="X61" s="22"/>
       <c r="Y61" s="22"/>
       <c r="Z61" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>2</v>
@@ -6334,22 +6334,22 @@
         <v>21</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L62" s="5">
         <v>2060</v>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
@@ -6377,7 +6377,7 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:26" s="19" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6397,22 +6397,22 @@
         <v>16</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L63" s="5">
         <v>2050</v>
@@ -6438,7 +6438,7 @@
       <c r="X63" s="30"/>
       <c r="Y63" s="30"/>
       <c r="Z63" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:26" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6446,7 +6446,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>29</v>
@@ -6458,22 +6458,22 @@
         <v>29</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J64" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K64" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L64" s="35">
         <v>2050</v>
@@ -6500,15 +6500,15 @@
       <c r="X64" s="35"/>
       <c r="Y64" s="22"/>
       <c r="Z64" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:26" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="53" t="s">
         <v>29</v>
@@ -6520,22 +6520,22 @@
         <v>22</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L65" s="5">
         <v>2050</v>
@@ -6562,15 +6562,15 @@
       <c r="X65" s="30"/>
       <c r="Y65" s="30"/>
       <c r="Z65" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:26" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="C66" s="76" t="s">
         <v>29</v>
@@ -6582,22 +6582,22 @@
         <v>23</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J66" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K66" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L66" s="35">
         <v>2050</v>
@@ -6624,7 +6624,7 @@
       <c r="X66" s="57"/>
       <c r="Y66" s="57"/>
       <c r="Z66" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6644,22 +6644,22 @@
         <v>3</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J67" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K67" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L67" s="18">
         <v>2050</v>
@@ -6685,7 +6685,7 @@
       <c r="X67" s="18"/>
       <c r="Y67" s="18"/>
       <c r="Z67" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6705,22 +6705,22 @@
         <v>3</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J68" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K68" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L68" s="18">
         <v>2050</v>
@@ -6747,7 +6747,7 @@
       <c r="X68" s="18"/>
       <c r="Y68" s="18"/>
       <c r="Z68" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6767,22 +6767,22 @@
         <v>13</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I69" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J69" s="65" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K69" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L69" s="35">
         <v>2050</v>
@@ -6810,7 +6810,7 @@
       <c r="X69" s="47"/>
       <c r="Y69" s="47"/>
       <c r="Z69" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6830,22 +6830,22 @@
         <v>15</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I70" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J70" s="65" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K70" s="65" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L70" s="35">
         <v>2040</v>
@@ -6871,7 +6871,7 @@
       <c r="X70" s="22"/>
       <c r="Y70" s="22"/>
       <c r="Z70" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6891,22 +6891,22 @@
         <v>3</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J71" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K71" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L71" s="18">
         <v>2050</v>
@@ -6932,7 +6932,7 @@
       <c r="X71" s="18"/>
       <c r="Y71" s="18"/>
       <c r="Z71" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6952,22 +6952,22 @@
         <v>3</v>
       </c>
       <c r="F72" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G72" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="H72" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J72" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K72" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L72" s="18">
         <v>2050</v>
@@ -6994,7 +6994,7 @@
       <c r="X72" s="18"/>
       <c r="Y72" s="18"/>
       <c r="Z72" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7014,22 +7014,22 @@
         <v>45</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H73" s="51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I73" s="51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J73" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K73" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L73" s="35">
         <v>2050</v>
@@ -7056,7 +7056,7 @@
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:26" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7076,22 +7076,22 @@
         <v>6</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J74" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K74" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L74" s="34">
         <v>2030</v>
@@ -7118,12 +7118,12 @@
       <c r="X74" s="22"/>
       <c r="Y74" s="22"/>
       <c r="Z74" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="77" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B75" s="78" t="s">
         <v>16</v>
@@ -7138,22 +7138,22 @@
         <v>32</v>
       </c>
       <c r="F75" s="77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G75" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H75" s="77" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I75" s="77" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J75" s="89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K75" s="89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L75" s="77">
         <v>2030</v>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="P75" s="77"/>
       <c r="Q75" s="77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R75" s="77"/>
       <c r="S75" s="77"/>
@@ -7182,7 +7182,7 @@
       <c r="X75" s="77"/>
       <c r="Y75" s="77"/>
       <c r="Z75" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7202,22 +7202,22 @@
         <v>33</v>
       </c>
       <c r="F76" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>190</v>
-      </c>
       <c r="H76" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J76" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K76" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L76" s="35">
         <v>2050</v>
@@ -7244,12 +7244,12 @@
       <c r="X76" s="35"/>
       <c r="Y76" s="22"/>
       <c r="Z76" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="77" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B77" s="84" t="s">
         <v>16</v>
@@ -7264,22 +7264,22 @@
         <v>32</v>
       </c>
       <c r="F77" s="77" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G77" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H77" s="77" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I77" s="77" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J77" s="89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K77" s="89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L77" s="77">
         <v>2030</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="P77" s="77"/>
       <c r="Q77" s="77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R77" s="77"/>
       <c r="S77" s="77"/>
@@ -7308,7 +7308,7 @@
       <c r="X77" s="77"/>
       <c r="Y77" s="77"/>
       <c r="Z77" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:26" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7328,22 +7328,22 @@
         <v>15</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I78" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J78" s="65" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K78" s="65" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L78" s="35">
         <v>2040</v>
@@ -7369,7 +7369,7 @@
       <c r="X78" s="22"/>
       <c r="Y78" s="22"/>
       <c r="Z78" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7389,22 +7389,22 @@
         <v>44</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L79" s="5">
         <v>2050</v>
@@ -7431,7 +7431,7 @@
       <c r="X79" s="30"/>
       <c r="Y79" s="30"/>
       <c r="Z79" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7451,22 +7451,22 @@
         <v>25</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H80" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I80" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J80" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K80" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L80" s="35">
         <v>2050</v>
@@ -7492,7 +7492,7 @@
       <c r="X80" s="48"/>
       <c r="Y80" s="48"/>
       <c r="Z80" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:26" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -7512,22 +7512,22 @@
         <v>25</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I81" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J81" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K81" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L81" s="35">
         <v>2050</v>
@@ -7553,12 +7553,12 @@
       <c r="X81" s="48"/>
       <c r="Y81" s="48"/>
       <c r="Z81" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:26" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>2</v>
@@ -7573,22 +7573,22 @@
         <v>21</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L82" s="5">
         <v>2060</v>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
@@ -7616,7 +7616,7 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:26" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7636,22 +7636,22 @@
         <v>29</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I83" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J83" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K83" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L83" s="35">
         <v>2050</v>
@@ -7672,7 +7672,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
       <c r="T83" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U83" s="22">
         <v>684030000000</v>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="Y83" s="22"/>
       <c r="Z83" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:26" s="31" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7707,22 +7707,22 @@
         <v>19</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I84" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J84" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K84" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L84" s="35">
         <v>2060</v>
@@ -7742,7 +7742,7 @@
       <c r="R84" s="35"/>
       <c r="S84" s="35"/>
       <c r="T84" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U84" s="35">
         <v>380000000000</v>
@@ -7756,10 +7756,10 @@
         <v>315.34729274942526</v>
       </c>
       <c r="Y84" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:26" s="28" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7779,22 +7779,22 @@
         <v>33</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J85" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K85" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L85" s="35">
         <v>2050</v>
@@ -7829,10 +7829,10 @@
         <v>2930.2705130104237</v>
       </c>
       <c r="Y85" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:26" s="70" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7852,22 +7852,22 @@
         <v>30</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L86" s="5">
         <v>2030</v>
@@ -7894,12 +7894,12 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
       <c r="Z86" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:26" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>2</v>
@@ -7914,22 +7914,22 @@
         <v>21</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L87" s="5">
         <v>2060</v>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
@@ -7957,7 +7957,7 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
       <c r="Z87" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7977,22 +7977,22 @@
         <v>15</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G88" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I88" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J88" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K88" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L88" s="35">
         <v>2040</v>
@@ -8018,7 +8018,7 @@
       <c r="X88" s="22"/>
       <c r="Y88" s="22"/>
       <c r="Z88" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:26" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8038,22 +8038,22 @@
         <v>15</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I89" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J89" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K89" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L89" s="35">
         <v>2040</v>
@@ -8079,18 +8079,18 @@
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
       <c r="Z89" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:26" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B90" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="D90" s="5">
         <v>3</v>
@@ -8100,23 +8100,23 @@
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
@@ -8131,7 +8131,7 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:26" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8152,19 +8152,19 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I91" s="35" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J91" s="65" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K91" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L91" s="35"/>
       <c r="M91" s="48"/>
@@ -8181,7 +8181,7 @@
       <c r="X91" s="48"/>
       <c r="Y91" s="48"/>
       <c r="Z91" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:26" s="28" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -8202,19 +8202,19 @@
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I92" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J92" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K92" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L92" s="35"/>
       <c r="M92" s="48"/>
@@ -8231,7 +8231,7 @@
       <c r="X92" s="48"/>
       <c r="Y92" s="48"/>
       <c r="Z92" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:26" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8252,19 +8252,19 @@
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="30">
@@ -8283,7 +8283,7 @@
       <c r="X93" s="30"/>
       <c r="Y93" s="30"/>
       <c r="Z93" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:26" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8304,19 +8304,19 @@
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -8333,15 +8333,15 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
       <c r="Z94" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:26" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="59" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>27</v>
@@ -8354,19 +8354,19 @@
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="30"/>
@@ -8383,18 +8383,18 @@
       <c r="X95" s="30"/>
       <c r="Y95" s="30"/>
       <c r="Z95" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:26" s="28" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="102" t="s">
         <v>113</v>
-      </c>
-      <c r="B96" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" s="102" t="s">
-        <v>114</v>
       </c>
       <c r="D96" s="35">
         <v>528</v>
@@ -8404,19 +8404,19 @@
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I96" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J96" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K96" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L96" s="35"/>
       <c r="M96" s="35"/>
@@ -8433,15 +8433,15 @@
       <c r="X96" s="35"/>
       <c r="Y96" s="35"/>
       <c r="Z96" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:26" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>27</v>
@@ -8453,22 +8453,22 @@
         <v>11</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I97" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J97" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K97" s="65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L97" s="35"/>
       <c r="M97" s="22"/>
@@ -8488,12 +8488,12 @@
       <c r="X97" s="22"/>
       <c r="Y97" s="22"/>
       <c r="Z97" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:26" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B98" s="91" t="s">
         <v>14</v>
@@ -8509,19 +8509,19 @@
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H98" s="65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I98" s="65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J98" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K98" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L98" s="35"/>
       <c r="M98" s="36">
@@ -8540,7 +8540,7 @@
       <c r="X98" s="35"/>
       <c r="Y98" s="35"/>
       <c r="Z98" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:26" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8560,22 +8560,22 @@
         <v>39</v>
       </c>
       <c r="F99" s="68" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G99" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H99" s="96" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I99" s="96" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J99" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K99" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L99" s="68">
         <v>2050</v>
@@ -8588,7 +8588,7 @@
       <c r="R99" s="68"/>
       <c r="S99" s="68"/>
       <c r="T99" s="68" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U99" s="68">
         <v>2268000000</v>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="Y99" s="68"/>
       <c r="Z99" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:26" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8623,22 +8623,22 @@
         <v>39</v>
       </c>
       <c r="F100" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="G100" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="H100" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="G100" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="H100" s="68" t="s">
-        <v>247</v>
-      </c>
       <c r="I100" s="68" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J100" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K100" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L100" s="68">
         <v>2050</v>
@@ -8651,7 +8651,7 @@
       <c r="R100" s="68"/>
       <c r="S100" s="68"/>
       <c r="T100" s="68" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U100" s="68">
         <v>2291000000</v>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="Y100" s="68"/>
       <c r="Z100" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:26" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -8686,22 +8686,22 @@
         <v>40</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H101" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I101" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L101" s="5">
         <v>2050</v>
@@ -8714,7 +8714,7 @@
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
       <c r="T101" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U101" s="5">
         <v>1000000000</v>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="Y101" s="5"/>
       <c r="Z101" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:26" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -8749,22 +8749,22 @@
         <v>40</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H102" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I102" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L102" s="5">
         <v>2050</v>
@@ -8777,7 +8777,7 @@
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
       <c r="T102" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U102" s="5">
         <v>1300000000</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="Y102" s="5"/>
       <c r="Z102" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="292">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -876,13 +876,31 @@
     <t>pathway_co_benefits2</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>All available</t>
   </si>
   <si>
     <t>Climate policies can help resolve energy security and air pollution chAllenges</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Energy, transport, industry, agriculture</t>
+  </si>
+  <si>
+    <t>Energy, industry, housing, transport, food system, solvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy, industry, housing, transport, shipping, land use, waste </t>
+  </si>
+  <si>
+    <t>Industry, transport, housing</t>
+  </si>
+  <si>
+    <t>Housing, industry, transport, energy</t>
+  </si>
+  <si>
+    <t>Transport, Housing</t>
   </si>
 </sst>
 </file>
@@ -1315,9 +1333,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1340,6 +1355,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,9 +2292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2544,10 +2562,10 @@
         <v>125</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>207</v>
@@ -2614,10 +2632,10 @@
         <v>125</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>207</v>
@@ -2684,10 +2702,10 @@
         <v>125</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>207</v>
@@ -2868,10 +2886,10 @@
         <v>188</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J9" s="77" t="s">
         <v>207</v>
@@ -2932,10 +2950,10 @@
         <v>188</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J10" s="77" t="s">
         <v>207</v>
@@ -2996,10 +3014,10 @@
         <v>188</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J11" s="77" t="s">
         <v>207</v>
@@ -3060,10 +3078,10 @@
         <v>188</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J12" s="77" t="s">
         <v>207</v>
@@ -3122,10 +3140,10 @@
         <v>188</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>208</v>
@@ -3646,7 +3664,7 @@
       <c r="A22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="92" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -3715,10 +3733,10 @@
         <v>125</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>207</v>
@@ -3775,11 +3793,11 @@
       <c r="G24" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>283</v>
+      <c r="H24" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>263</v>
       </c>
       <c r="J24" s="35" t="s">
         <v>207</v>
@@ -3887,10 +3905,10 @@
         <v>188</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>207</v>
@@ -3923,10 +3941,10 @@
       <c r="B27" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="91">
         <v>7821</v>
       </c>
       <c r="E27" s="77">
@@ -3939,10 +3957,10 @@
         <v>188</v>
       </c>
       <c r="H27" s="73" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I27" s="73" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J27" s="77" t="s">
         <v>207</v>
@@ -3983,7 +4001,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -4054,36 +4072,36 @@
         <v>211</v>
       </c>
       <c r="I29" s="73" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="J29" s="77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" s="73">
         <v>2035</v>
       </c>
       <c r="M29" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>610.79279277945466</v>
+        <v>1924.7843103287325</v>
       </c>
       <c r="N29" s="80">
         <v>694452</v>
       </c>
       <c r="O29" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>8.795320522936858E-4</v>
-      </c>
-      <c r="P29" s="80">
-        <f>(7855483.5+50929.95+536666.34+3348.8)/(505239.97+714.01+34031.28+46.95)</f>
-        <v>15.64060149301095</v>
+        <v>2.7716592512207214E-3</v>
+      </c>
+      <c r="P29" s="83">
+        <f>(7772884.34+530967.97)/(503998.5+33945.55)</f>
+        <v>15.436275036409453</v>
       </c>
       <c r="Q29" s="80"/>
       <c r="R29" s="82">
-        <f>286595/30</f>
-        <v>9553.1666666666661</v>
+        <f>891345/30</f>
+        <v>29711.5</v>
       </c>
       <c r="S29" s="82"/>
       <c r="T29" s="80"/>
@@ -4093,7 +4111,7 @@
       </c>
       <c r="W29" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>5.0571912168948191E-6</v>
+        <v>1.5728474346109015E-5</v>
       </c>
       <c r="X29" s="80"/>
       <c r="Y29" s="80"/>
@@ -4127,36 +4145,36 @@
         <v>211</v>
       </c>
       <c r="I30" s="73" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="J30" s="77" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K30" s="77" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L30" s="73">
         <v>2035</v>
       </c>
       <c r="M30" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>1012.8218858594014</v>
+        <v>610.79279277945466</v>
       </c>
       <c r="N30" s="80">
         <v>694452</v>
       </c>
       <c r="O30" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.4584476477271307E-3</v>
+        <v>8.795320522936858E-4</v>
       </c>
       <c r="P30" s="80">
-        <f>(8193985.95+553138.14)/(509267.39+34229.97)</f>
-        <v>16.094142738798215</v>
+        <f>(7855483.5+50929.95+536666.34+3348.8)/(505239.97+714.01+34031.28+46.95)</f>
+        <v>15.64060149301095</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="R30" s="82">
-        <f>489015/30</f>
-        <v>16300.5</v>
+        <f>286595/30</f>
+        <v>9553.1666666666661</v>
       </c>
       <c r="S30" s="82"/>
       <c r="T30" s="80"/>
@@ -4166,7 +4184,7 @@
       </c>
       <c r="W30" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>8.6290492260151792E-6</v>
+        <v>5.0571912168948191E-6</v>
       </c>
       <c r="X30" s="80"/>
       <c r="Y30" s="80"/>
@@ -4191,36 +4209,36 @@
         <v>20</v>
       </c>
       <c r="F31" s="73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G31" s="73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H31" s="73" t="s">
         <v>211</v>
       </c>
       <c r="I31" s="73" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="J31" s="77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31" s="77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L31" s="73">
         <v>2035</v>
       </c>
       <c r="M31" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>1731.2343866669287</v>
+        <v>1012.8218858594014</v>
       </c>
       <c r="N31" s="80">
         <v>694452</v>
       </c>
       <c r="O31" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.4929503935000961E-3</v>
+        <v>1.4584476477271307E-3</v>
       </c>
       <c r="P31" s="80">
         <f>(8193985.95+553138.14)/(509267.39+34229.97)</f>
@@ -4228,8 +4246,8 @@
       </c>
       <c r="Q31" s="80"/>
       <c r="R31" s="82">
-        <f>835882/30</f>
-        <v>27862.733333333334</v>
+        <f>489015/30</f>
+        <v>16300.5</v>
       </c>
       <c r="S31" s="82"/>
       <c r="T31" s="80"/>
@@ -4239,7 +4257,7 @@
       </c>
       <c r="W31" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.4749786663272128E-5</v>
+        <v>8.6290492260151792E-6</v>
       </c>
       <c r="X31" s="80"/>
       <c r="Y31" s="80"/>
@@ -4264,10 +4282,10 @@
         <v>20</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G32" s="73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H32" s="73" t="s">
         <v>211</v>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M32" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>1883.5548119578582</v>
+        <v>1731.2343866669287</v>
       </c>
       <c r="N32" s="80">
         <v>694452</v>
       </c>
       <c r="O32" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.7122894195104317E-3</v>
+        <v>2.4929503935000961E-3</v>
       </c>
       <c r="P32" s="80">
         <f>(8193985.95+553138.14)/(509267.39+34229.97)</f>
@@ -4301,8 +4319,8 @@
       </c>
       <c r="Q32" s="80"/>
       <c r="R32" s="82">
-        <f>909426/30</f>
-        <v>30314.2</v>
+        <f>835882/30</f>
+        <v>27862.733333333334</v>
       </c>
       <c r="S32" s="82"/>
       <c r="T32" s="80"/>
@@ -4312,7 +4330,7 @@
       </c>
       <c r="W32" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.6047527624751961E-5</v>
+        <v>1.4749786663272128E-5</v>
       </c>
       <c r="X32" s="80"/>
       <c r="Y32" s="80"/>
@@ -4346,10 +4364,10 @@
         <v>211</v>
       </c>
       <c r="I33" s="73" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="J33" s="77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K33" s="77" t="s">
         <v>207</v>
@@ -4359,23 +4377,23 @@
       </c>
       <c r="M33" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>1924.7843103287325</v>
+        <v>1883.5548119578582</v>
       </c>
       <c r="N33" s="80">
         <v>694452</v>
       </c>
       <c r="O33" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.7716592512207214E-3</v>
-      </c>
-      <c r="P33" s="83">
-        <f>(7772884.34+530967.97)/(503998.5+33945.55)</f>
-        <v>15.436275036409453</v>
+        <v>2.7122894195104317E-3</v>
+      </c>
+      <c r="P33" s="80">
+        <f>(8193985.95+553138.14)/(509267.39+34229.97)</f>
+        <v>16.094142738798215</v>
       </c>
       <c r="Q33" s="80"/>
       <c r="R33" s="82">
-        <f>891345/30</f>
-        <v>29711.5</v>
+        <f>909426/30</f>
+        <v>30314.2</v>
       </c>
       <c r="S33" s="82"/>
       <c r="T33" s="80"/>
@@ -4385,7 +4403,7 @@
       </c>
       <c r="W33" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.5728474346109015E-5</v>
+        <v>1.6047527624751961E-5</v>
       </c>
       <c r="X33" s="80"/>
       <c r="Y33" s="80"/>
@@ -4419,36 +4437,36 @@
         <v>211</v>
       </c>
       <c r="I34" s="73" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="J34" s="77" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="K34" s="77" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="L34" s="73">
         <v>2035</v>
       </c>
       <c r="M34" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>265.56736549993917</v>
+        <v>1585.3565670654373</v>
       </c>
       <c r="N34" s="80">
         <v>694452</v>
       </c>
       <c r="O34" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>3.8241284566815155E-4</v>
-      </c>
-      <c r="P34" s="80">
-        <f>(7855483.5+50929.95+536666.34+3348.8)/(505239.97+714.01+34031.28+46.95)</f>
-        <v>15.64060149301095</v>
+        <v>2.2828886187460577E-3</v>
+      </c>
+      <c r="P34" s="84">
+        <f>(7772884.34+530967.97)/(503998.5+33945.55)</f>
+        <v>15.436275036409453</v>
       </c>
       <c r="Q34" s="80"/>
       <c r="R34" s="82">
-        <f>124609/30</f>
-        <v>4153.6333333333332</v>
+        <f>734160/30</f>
+        <v>24472</v>
       </c>
       <c r="S34" s="82"/>
       <c r="T34" s="80"/>
@@ -4458,7 +4476,7 @@
       </c>
       <c r="W34" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>2.1988225207908251E-6</v>
+        <v>1.295482302132103E-5</v>
       </c>
       <c r="X34" s="80"/>
       <c r="Y34" s="80"/>
@@ -4492,36 +4510,36 @@
         <v>211</v>
       </c>
       <c r="I35" s="73" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="J35" s="77" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="K35" s="77" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="L35" s="73">
         <v>2035</v>
       </c>
       <c r="M35" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>854.24866817271823</v>
+        <v>265.56736549993917</v>
       </c>
       <c r="N35" s="80">
         <v>694452</v>
       </c>
       <c r="O35" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>1.2301046986295931E-3</v>
+        <v>3.8241284566815155E-4</v>
       </c>
       <c r="P35" s="80">
-        <f>(8193985.95+553138.14)/(509267.39+34229.97)</f>
-        <v>16.094142738798215</v>
+        <f>(7855483.5+50929.95+536666.34+3348.8)/(505239.97+714.01+34031.28+46.95)</f>
+        <v>15.64060149301095</v>
       </c>
       <c r="Q35" s="80"/>
       <c r="R35" s="82">
-        <f>412452/30</f>
-        <v>13748.4</v>
+        <f>124609/30</f>
+        <v>4153.6333333333332</v>
       </c>
       <c r="S35" s="82"/>
       <c r="T35" s="80"/>
@@ -4531,7 +4549,7 @@
       </c>
       <c r="W35" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>7.2780356663260069E-6</v>
+        <v>2.1988225207908251E-6</v>
       </c>
       <c r="X35" s="80"/>
       <c r="Y35" s="80"/>
@@ -4565,36 +4583,36 @@
         <v>211</v>
       </c>
       <c r="I36" s="73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J36" s="77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K36" s="77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L36" s="73">
         <v>2035</v>
       </c>
       <c r="M36" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
-        <v>1585.3565670654373</v>
+        <v>854.24866817271823</v>
       </c>
       <c r="N36" s="80">
         <v>694452</v>
       </c>
       <c r="O36" s="80">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
-        <v>2.2828886187460577E-3</v>
-      </c>
-      <c r="P36" s="84">
-        <f>(7772884.34+530967.97)/(503998.5+33945.55)</f>
-        <v>15.436275036409453</v>
+        <v>1.2301046986295931E-3</v>
+      </c>
+      <c r="P36" s="80">
+        <f>(8193985.95+553138.14)/(509267.39+34229.97)</f>
+        <v>16.094142738798215</v>
       </c>
       <c r="Q36" s="80"/>
       <c r="R36" s="82">
-        <f>734160/30</f>
-        <v>24472</v>
+        <f>412452/30</f>
+        <v>13748.4</v>
       </c>
       <c r="S36" s="82"/>
       <c r="T36" s="80"/>
@@ -4604,7 +4622,7 @@
       </c>
       <c r="W36" s="80">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.295482302132103E-5</v>
+        <v>7.2780356663260069E-6</v>
       </c>
       <c r="X36" s="80"/>
       <c r="Y36" s="80"/>
@@ -5572,10 +5590,10 @@
         <v>188</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>207</v>
@@ -5633,10 +5651,10 @@
         <v>188</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>207</v>
@@ -5694,10 +5712,10 @@
         <v>188</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J54" s="65" t="s">
         <v>207</v>
@@ -5755,10 +5773,10 @@
         <v>155</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J55" s="65" t="s">
         <v>207</v>
@@ -5816,10 +5834,10 @@
         <v>155</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J56" s="65" t="s">
         <v>207</v>
@@ -5932,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>125</v>
@@ -5995,7 +6013,7 @@
       <c r="F59" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="35" t="s">
         <v>125</v>
       </c>
       <c r="H59" s="24" t="s">
@@ -6121,10 +6139,10 @@
         <v>188</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>207</v>
@@ -6182,10 +6200,10 @@
         <v>135</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="J62" s="71" t="s">
         <v>207</v>
@@ -6244,10 +6262,10 @@
         <v>188</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="J63" s="71" t="s">
         <v>207</v>
@@ -6304,11 +6322,11 @@
       <c r="G64" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>192</v>
+      <c r="H64" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="J64" s="71" t="s">
         <v>207</v>
@@ -6351,7 +6369,7 @@
       <c r="B65" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="93" t="s">
         <v>113</v>
       </c>
       <c r="D65" s="24">
@@ -6417,10 +6435,10 @@
         <v>188</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="J66" s="65" t="s">
         <v>207</v>
@@ -6489,10 +6507,10 @@
         <v>188</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I67" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J67" s="65" t="s">
         <v>207</v>
@@ -6551,10 +6569,10 @@
         <v>188</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J68" s="65" t="s">
         <v>207</v>
@@ -6685,10 +6703,10 @@
         <v>188</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I70" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J70" s="65" t="s">
         <v>207</v>
@@ -6756,10 +6774,10 @@
         <v>188</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I71" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J71" s="65" t="s">
         <v>207</v>
@@ -6818,10 +6836,10 @@
         <v>188</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J72" s="65" t="s">
         <v>207</v>
@@ -6886,13 +6904,13 @@
         <v>140</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J73" s="65" t="s">
         <v>207</v>
@@ -6948,13 +6966,13 @@
         <v>138</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J74" s="65" t="s">
         <v>207</v>
@@ -7010,13 +7028,13 @@
         <v>136</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J75" s="65" t="s">
         <v>207</v>
@@ -7071,14 +7089,14 @@
       <c r="F76" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>188</v>
+      <c r="G76" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J76" s="65" t="s">
         <v>207</v>
@@ -7134,13 +7152,13 @@
         <v>139</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I77" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J77" s="65" t="s">
         <v>207</v>
@@ -7196,13 +7214,13 @@
         <v>137</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I78" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J78" s="65" t="s">
         <v>207</v>
@@ -7323,10 +7341,10 @@
         <v>188</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>207</v>
@@ -7393,10 +7411,10 @@
         <v>188</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>207</v>
@@ -7463,10 +7481,10 @@
         <v>188</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>207</v>
@@ -7572,7 +7590,7 @@
       <c r="B84" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="96" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="97">
@@ -7588,10 +7606,10 @@
         <v>125</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="I84" s="35" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="J84" s="65" t="s">
         <v>207</v>
@@ -7657,10 +7675,10 @@
         <v>125</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J85" s="65" t="s">
         <v>207</v>
@@ -7773,7 +7791,7 @@
       <c r="B87" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="96" t="s">
+      <c r="C87" s="95" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="64">
@@ -7789,10 +7807,10 @@
         <v>135</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="I87" s="35" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J87" s="65" t="s">
         <v>207</v>
@@ -7859,10 +7877,10 @@
         <v>127</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>207</v>
@@ -7921,10 +7939,10 @@
         <v>188</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>207</v>
@@ -8019,7 +8037,7 @@
       <c r="B91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="95" t="s">
+      <c r="C91" s="94" t="s">
         <v>29</v>
       </c>
       <c r="D91" s="9">
@@ -8082,7 +8100,7 @@
       <c r="B92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="95" t="s">
+      <c r="C92" s="94" t="s">
         <v>29</v>
       </c>
       <c r="D92" s="9">
@@ -8145,7 +8163,7 @@
       <c r="B93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="89" t="s">
+      <c r="C93" s="88" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="9">
@@ -8348,10 +8366,10 @@
         <v>188</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>207</v>
@@ -8410,10 +8428,10 @@
         <v>188</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>207</v>
@@ -8456,10 +8474,10 @@
       <c r="B98" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="90" t="s">
+      <c r="C98" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="90">
+      <c r="D98" s="89">
         <v>37.99</v>
       </c>
       <c r="E98" s="69">
@@ -8471,16 +8489,16 @@
       <c r="G98" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="H98" s="90" t="s">
+      <c r="H98" s="89" t="s">
         <v>244</v>
       </c>
       <c r="I98" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="J98" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="K98" s="90" t="s">
+      <c r="J98" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="K98" s="89" t="s">
         <v>207</v>
       </c>
       <c r="L98" s="68">
@@ -8535,10 +8553,10 @@
       <c r="B99" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="90" t="s">
+      <c r="C99" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D99" s="90">
+      <c r="D99" s="89">
         <v>37.99</v>
       </c>
       <c r="E99" s="69">
@@ -8550,16 +8568,16 @@
       <c r="G99" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="H99" s="90" t="s">
+      <c r="H99" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="I99" s="90" t="s">
+      <c r="I99" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="J99" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="K99" s="90" t="s">
+      <c r="J99" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="K99" s="89" t="s">
         <v>207</v>
       </c>
       <c r="L99" s="68">
@@ -8619,10 +8637,10 @@
       <c r="I100" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="J100" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="K100" s="90" t="s">
+      <c r="J100" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="K100" s="89" t="s">
         <v>207</v>
       </c>
       <c r="L100" s="68">

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -882,9 +882,6 @@
     <t>Climate policies can help resolve energy security and air pollution chAllenges</t>
   </si>
   <si>
-    <t>Global</t>
-  </si>
-  <si>
     <t>Energy, transport, industry, agriculture</t>
   </si>
   <si>
@@ -910,6 +907,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>All-encompassing</t>
   </si>
 </sst>
 </file>
@@ -2338,9 +2338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="topRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,7 +2438,7 @@
         <v>281</v>
       </c>
       <c r="AA1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="31" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2518,7 +2518,7 @@
         <v>279</v>
       </c>
       <c r="AA2" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -2591,7 +2591,7 @@
         <v>279</v>
       </c>
       <c r="AA3" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2617,10 +2617,10 @@
         <v>125</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>207</v>
@@ -2664,7 +2664,7 @@
         <v>278</v>
       </c>
       <c r="AA4" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="31" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2690,10 +2690,10 @@
         <v>125</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>207</v>
@@ -2737,7 +2737,7 @@
         <v>278</v>
       </c>
       <c r="AA5" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="31" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2763,10 +2763,10 @@
         <v>125</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>207</v>
@@ -2810,7 +2810,7 @@
         <v>278</v>
       </c>
       <c r="AA6" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="31" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2875,7 +2875,7 @@
         <v>278</v>
       </c>
       <c r="AA7" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="28" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2930,7 +2930,7 @@
         <v>278</v>
       </c>
       <c r="AA8" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="79" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2956,7 +2956,7 @@
         <v>188</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I9" s="73" t="s">
         <v>263</v>
@@ -2997,7 +2997,7 @@
         <v>278</v>
       </c>
       <c r="AA9" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="79" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3023,7 +3023,7 @@
         <v>188</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I10" s="73" t="s">
         <v>263</v>
@@ -3064,7 +3064,7 @@
         <v>278</v>
       </c>
       <c r="AA10" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3090,7 +3090,7 @@
         <v>188</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I11" s="73" t="s">
         <v>263</v>
@@ -3131,7 +3131,7 @@
         <v>278</v>
       </c>
       <c r="AA11" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3157,7 +3157,7 @@
         <v>188</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I12" s="73" t="s">
         <v>263</v>
@@ -3198,7 +3198,7 @@
         <v>278</v>
       </c>
       <c r="AA12" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="79" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3222,10 +3222,10 @@
         <v>188</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>208</v>
@@ -3251,7 +3251,7 @@
         <v>280</v>
       </c>
       <c r="AA13" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3315,7 +3315,7 @@
         <v>278</v>
       </c>
       <c r="AA14" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3379,7 +3379,7 @@
         <v>278</v>
       </c>
       <c r="AA15" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3443,7 +3443,7 @@
         <v>278</v>
       </c>
       <c r="AA16" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3507,7 +3507,7 @@
         <v>278</v>
       </c>
       <c r="AA17" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3571,7 +3571,7 @@
         <v>278</v>
       </c>
       <c r="AA18" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
         <v>278</v>
       </c>
       <c r="AA19" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
         <v>278</v>
       </c>
       <c r="AA20" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>278</v>
       </c>
       <c r="AA21" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3819,7 +3819,7 @@
         <v>278</v>
       </c>
       <c r="AA22" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
         <v>125</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>263</v>
@@ -3883,7 +3883,7 @@
         <v>278</v>
       </c>
       <c r="AA23" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3909,7 +3909,7 @@
         <v>125</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>263</v>
@@ -3947,7 +3947,7 @@
         <v>278</v>
       </c>
       <c r="AA24" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4002,7 +4002,7 @@
         <v>278</v>
       </c>
       <c r="AA25" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4026,7 +4026,7 @@
         <v>188</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>263</v>
@@ -4055,7 +4055,7 @@
         <v>278</v>
       </c>
       <c r="AA26" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="31" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
@@ -4081,10 +4081,10 @@
         <v>188</v>
       </c>
       <c r="H27" s="73" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I27" s="73" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J27" s="77" t="s">
         <v>207</v>
@@ -4120,7 +4120,7 @@
         <v>278</v>
       </c>
       <c r="AA27" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4173,7 +4173,7 @@
         <v>278</v>
       </c>
       <c r="AA28" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>279</v>
       </c>
       <c r="AA29" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:27" s="31" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4323,7 +4323,7 @@
         <v>279</v>
       </c>
       <c r="AA30" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
         <v>279</v>
       </c>
       <c r="AA31" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
         <v>279</v>
       </c>
       <c r="AA32" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4548,7 +4548,7 @@
         <v>279</v>
       </c>
       <c r="AA33" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4623,7 +4623,7 @@
         <v>279</v>
       </c>
       <c r="AA34" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4698,7 +4698,7 @@
         <v>279</v>
       </c>
       <c r="AA35" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4773,7 +4773,7 @@
         <v>279</v>
       </c>
       <c r="AA36" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4837,7 +4837,7 @@
         <v>278</v>
       </c>
       <c r="AA37" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:27" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
         <v>279</v>
       </c>
       <c r="AA38" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4974,7 +4974,7 @@
         <v>278</v>
       </c>
       <c r="AA39" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5039,7 +5039,7 @@
         <v>278</v>
       </c>
       <c r="AA40" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5104,7 +5104,7 @@
         <v>278</v>
       </c>
       <c r="AA41" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5169,7 +5169,7 @@
         <v>278</v>
       </c>
       <c r="AA42" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5234,7 +5234,7 @@
         <v>278</v>
       </c>
       <c r="AA43" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5299,7 +5299,7 @@
         <v>278</v>
       </c>
       <c r="AA44" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:27" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
@@ -5365,7 +5365,7 @@
         <v>278</v>
       </c>
       <c r="AA45" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:27" s="28" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
@@ -5431,7 +5431,7 @@
         <v>279</v>
       </c>
       <c r="AA46" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5496,7 +5496,7 @@
         <v>278</v>
       </c>
       <c r="AA47" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5561,7 +5561,7 @@
         <v>278</v>
       </c>
       <c r="AA48" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5626,7 +5626,7 @@
         <v>278</v>
       </c>
       <c r="AA49" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5691,7 +5691,7 @@
         <v>278</v>
       </c>
       <c r="AA50" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5755,7 +5755,7 @@
         <v>278</v>
       </c>
       <c r="AA51" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5781,10 +5781,10 @@
         <v>188</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>207</v>
@@ -5819,7 +5819,7 @@
         <v>278</v>
       </c>
       <c r="AA52" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:27" s="31" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5845,10 +5845,10 @@
         <v>188</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>207</v>
@@ -5883,7 +5883,7 @@
         <v>278</v>
       </c>
       <c r="AA53" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:27" s="31" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5909,10 +5909,10 @@
         <v>188</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J54" s="65" t="s">
         <v>207</v>
@@ -5947,7 +5947,7 @@
         <v>278</v>
       </c>
       <c r="AA54" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5973,10 +5973,10 @@
         <v>155</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J55" s="65" t="s">
         <v>207</v>
@@ -6011,7 +6011,7 @@
         <v>278</v>
       </c>
       <c r="AA55" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:27" s="28" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6037,10 +6037,10 @@
         <v>155</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J56" s="65" t="s">
         <v>207</v>
@@ -6075,7 +6075,7 @@
         <v>278</v>
       </c>
       <c r="AA56" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:27" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6139,7 +6139,7 @@
         <v>278</v>
       </c>
       <c r="AA57" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6203,7 +6203,7 @@
         <v>278</v>
       </c>
       <c r="AA58" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:27" s="28" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6267,7 +6267,7 @@
         <v>278</v>
       </c>
       <c r="AA59" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6331,7 +6331,7 @@
         <v>278</v>
       </c>
       <c r="AA60" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>188</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>263</v>
@@ -6395,7 +6395,7 @@
         <v>278</v>
       </c>
       <c r="AA61" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6421,7 +6421,7 @@
         <v>135</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>263</v>
@@ -6460,7 +6460,7 @@
         <v>278</v>
       </c>
       <c r="AA62" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:27" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6486,7 +6486,7 @@
         <v>188</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>263</v>
@@ -6524,7 +6524,7 @@
         <v>278</v>
       </c>
       <c r="AA63" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:27" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6550,7 +6550,7 @@
         <v>135</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>263</v>
@@ -6589,7 +6589,7 @@
         <v>278</v>
       </c>
       <c r="AA64" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:27" s="19" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -6642,7 +6642,7 @@
         <v>278</v>
       </c>
       <c r="AA65" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:27" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6668,7 +6668,7 @@
         <v>188</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I66" s="35" t="s">
         <v>263</v>
@@ -6717,7 +6717,7 @@
         <v>278</v>
       </c>
       <c r="AA66" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6743,10 +6743,10 @@
         <v>188</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I67" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J67" s="65" t="s">
         <v>207</v>
@@ -6782,7 +6782,7 @@
         <v>278</v>
       </c>
       <c r="AA67" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6808,10 +6808,10 @@
         <v>188</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J68" s="65" t="s">
         <v>207</v>
@@ -6858,7 +6858,7 @@
         <v>278</v>
       </c>
       <c r="AA68" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>279</v>
       </c>
       <c r="AA69" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6948,10 +6948,10 @@
         <v>188</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I70" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J70" s="65" t="s">
         <v>207</v>
@@ -6996,7 +6996,7 @@
         <v>278</v>
       </c>
       <c r="AA70" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7022,10 +7022,10 @@
         <v>188</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I71" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J71" s="65" t="s">
         <v>207</v>
@@ -7061,7 +7061,7 @@
         <v>278</v>
       </c>
       <c r="AA71" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7087,10 +7087,10 @@
         <v>188</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J72" s="65" t="s">
         <v>207</v>
@@ -7135,7 +7135,7 @@
         <v>278</v>
       </c>
       <c r="AA72" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7161,10 +7161,10 @@
         <v>125</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J73" s="65" t="s">
         <v>207</v>
@@ -7200,7 +7200,7 @@
         <v>278</v>
       </c>
       <c r="AA73" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7226,10 +7226,10 @@
         <v>125</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J74" s="65" t="s">
         <v>207</v>
@@ -7265,7 +7265,7 @@
         <v>278</v>
       </c>
       <c r="AA74" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7291,10 +7291,10 @@
         <v>125</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J75" s="65" t="s">
         <v>207</v>
@@ -7330,7 +7330,7 @@
         <v>278</v>
       </c>
       <c r="AA75" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7356,10 +7356,10 @@
         <v>125</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J76" s="65" t="s">
         <v>207</v>
@@ -7395,7 +7395,7 @@
         <v>278</v>
       </c>
       <c r="AA76" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7421,10 +7421,10 @@
         <v>125</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I77" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J77" s="65" t="s">
         <v>207</v>
@@ -7460,7 +7460,7 @@
         <v>278</v>
       </c>
       <c r="AA77" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:27" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7486,10 +7486,10 @@
         <v>125</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I78" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J78" s="65" t="s">
         <v>207</v>
@@ -7525,7 +7525,7 @@
         <v>278</v>
       </c>
       <c r="AA78" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7590,7 +7590,7 @@
         <v>279</v>
       </c>
       <c r="AA79" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7616,10 +7616,10 @@
         <v>188</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>207</v>
@@ -7663,7 +7663,7 @@
         <v>278</v>
       </c>
       <c r="AA80" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:27" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -7689,10 +7689,10 @@
         <v>188</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>207</v>
@@ -7736,7 +7736,7 @@
         <v>278</v>
       </c>
       <c r="AA81" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:27" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -7762,10 +7762,10 @@
         <v>188</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>207</v>
@@ -7809,7 +7809,7 @@
         <v>278</v>
       </c>
       <c r="AA82" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7867,7 +7867,7 @@
         <v>278</v>
       </c>
       <c r="AA83" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:27" s="31" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7940,7 +7940,7 @@
         <v>279</v>
       </c>
       <c r="AA84" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:27" s="28" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7966,10 +7966,10 @@
         <v>125</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J85" s="65" t="s">
         <v>207</v>
@@ -8013,7 +8013,7 @@
         <v>279</v>
       </c>
       <c r="AA85" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:27" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8079,7 +8079,7 @@
         <v>278</v>
       </c>
       <c r="AA86" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:27" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8105,7 +8105,7 @@
         <v>135</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I87" s="35" t="s">
         <v>263</v>
@@ -8152,7 +8152,7 @@
         <v>278</v>
       </c>
       <c r="AA87" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8217,7 +8217,7 @@
         <v>278</v>
       </c>
       <c r="AA88" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8282,7 +8282,7 @@
         <v>278</v>
       </c>
       <c r="AA89" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8337,7 +8337,7 @@
         <v>278</v>
       </c>
       <c r="AA90" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8403,7 +8403,7 @@
         <v>278</v>
       </c>
       <c r="AA91" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8469,7 +8469,7 @@
         <v>278</v>
       </c>
       <c r="AA92" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8535,7 +8535,7 @@
         <v>278</v>
       </c>
       <c r="AA93" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8600,7 +8600,7 @@
         <v>279</v>
       </c>
       <c r="AA94" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8665,7 +8665,7 @@
         <v>279</v>
       </c>
       <c r="AA95" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:27" s="28" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8691,7 +8691,7 @@
         <v>188</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>263</v>
@@ -8730,7 +8730,7 @@
         <v>279</v>
       </c>
       <c r="AA96" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:27" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -8756,7 +8756,7 @@
         <v>188</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>263</v>
@@ -8795,7 +8795,7 @@
         <v>279</v>
       </c>
       <c r="AA97" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8877,7 +8877,7 @@
         <v>278</v>
       </c>
       <c r="AA98" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8943,7 +8943,7 @@
         <v>278</v>
       </c>
       <c r="AA99" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9009,7 +9009,7 @@
         <v>278</v>
       </c>
       <c r="AA100" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:27" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -9075,7 +9075,7 @@
         <v>278</v>
       </c>
       <c r="AA101" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:27" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -9141,7 +9141,7 @@
         <v>278</v>
       </c>
       <c r="AA102" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -816,9 +816,6 @@
     <t>emission_sector_cat</t>
   </si>
   <si>
-    <t>Multi</t>
-  </si>
-  <si>
     <t>Food system</t>
   </si>
   <si>
@@ -910,6 +907,9 @@
   </si>
   <si>
     <t>All-encompassing</t>
+  </si>
+  <si>
+    <t>Multi*</t>
   </si>
 </sst>
 </file>
@@ -2338,9 +2338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2390,7 +2390,7 @@
         <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L1" t="s">
         <v>130</v>
@@ -2405,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>215</v>
@@ -2414,7 +2414,7 @@
         <v>214</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>225</v>
@@ -2435,10 +2435,10 @@
         <v>257</v>
       </c>
       <c r="Z1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="31" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2515,10 +2515,10 @@
       </c>
       <c r="Y2" s="46"/>
       <c r="Z2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA2" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="31" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -2588,10 +2588,10 @@
       </c>
       <c r="Y3" s="46"/>
       <c r="Z3" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA3" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2617,10 +2617,10 @@
         <v>125</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>207</v>
@@ -2661,10 +2661,10 @@
       </c>
       <c r="Y4" s="46"/>
       <c r="Z4" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA4" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="31" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2690,10 +2690,10 @@
         <v>125</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>207</v>
@@ -2734,10 +2734,10 @@
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA5" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="31" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2763,10 +2763,10 @@
         <v>125</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>207</v>
@@ -2807,10 +2807,10 @@
       </c>
       <c r="Y6" s="46"/>
       <c r="Z6" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA6" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="31" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2839,7 +2839,7 @@
         <v>193</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>207</v>
@@ -2872,10 +2872,10 @@
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA7" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="28" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2927,10 +2927,10 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA8" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="79" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2956,10 +2956,10 @@
         <v>188</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J9" s="77" t="s">
         <v>207</v>
@@ -2994,10 +2994,10 @@
       <c r="X9" s="73"/>
       <c r="Y9" s="73"/>
       <c r="Z9" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA9" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="79" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3023,10 +3023,10 @@
         <v>188</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J10" s="77" t="s">
         <v>207</v>
@@ -3061,10 +3061,10 @@
       <c r="X10" s="73"/>
       <c r="Y10" s="73"/>
       <c r="Z10" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA10" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3084,16 +3084,16 @@
         <v>32</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="73" t="s">
         <v>188</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J11" s="77" t="s">
         <v>207</v>
@@ -3128,10 +3128,10 @@
       <c r="X11" s="73"/>
       <c r="Y11" s="73"/>
       <c r="Z11" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA11" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="79" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3151,16 +3151,16 @@
         <v>32</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G12" s="73" t="s">
         <v>188</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J12" s="77" t="s">
         <v>207</v>
@@ -3195,10 +3195,10 @@
       <c r="X12" s="73"/>
       <c r="Y12" s="73"/>
       <c r="Z12" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA12" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="79" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3222,10 +3222,10 @@
         <v>188</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>208</v>
@@ -3248,10 +3248,10 @@
       <c r="X13" s="48"/>
       <c r="Y13" s="48"/>
       <c r="Z13" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA13" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3312,10 +3312,10 @@
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA14" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3344,7 +3344,7 @@
         <v>212</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>213</v>
@@ -3376,10 +3376,10 @@
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA15" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3408,7 +3408,7 @@
         <v>212</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>213</v>
@@ -3440,10 +3440,10 @@
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA16" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3504,10 +3504,10 @@
       <c r="X17" s="22"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA17" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3536,7 +3536,7 @@
         <v>210</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>210</v>
@@ -3568,10 +3568,10 @@
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA18" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3600,7 +3600,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>210</v>
@@ -3632,10 +3632,10 @@
       <c r="X19" s="22"/>
       <c r="Y19" s="22"/>
       <c r="Z19" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA19" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3698,10 +3698,10 @@
       <c r="X20" s="47"/>
       <c r="Y20" s="47"/>
       <c r="Z20" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA20" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
         <v>194</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>207</v>
@@ -3763,10 +3763,10 @@
       <c r="X21" s="57"/>
       <c r="Y21" s="57"/>
       <c r="Z21" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA21" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3793,7 +3793,7 @@
         <v>195</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>207</v>
@@ -3816,10 +3816,10 @@
       <c r="X22" s="48"/>
       <c r="Y22" s="48"/>
       <c r="Z22" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA22" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3845,10 +3845,10 @@
         <v>125</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>207</v>
@@ -3880,10 +3880,10 @@
       <c r="X23" s="48"/>
       <c r="Y23" s="48"/>
       <c r="Z23" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA23" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3909,10 +3909,10 @@
         <v>125</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J24" s="35" t="s">
         <v>207</v>
@@ -3944,10 +3944,10 @@
       <c r="X24" s="48"/>
       <c r="Y24" s="48"/>
       <c r="Z24" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA24" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3999,10 +3999,10 @@
       <c r="X25" s="30"/>
       <c r="Y25" s="30"/>
       <c r="Z25" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA25" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4026,10 +4026,10 @@
         <v>188</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>207</v>
@@ -4052,10 +4052,10 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA26" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="31" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
@@ -4075,16 +4075,16 @@
         <v>1</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="73" t="s">
         <v>188</v>
       </c>
       <c r="H27" s="73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I27" s="73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J27" s="77" t="s">
         <v>207</v>
@@ -4117,10 +4117,10 @@
       <c r="X27" s="80"/>
       <c r="Y27" s="80"/>
       <c r="Z27" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA27" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -4170,10 +4170,10 @@
       <c r="X28" s="30"/>
       <c r="Y28" s="30"/>
       <c r="Z28" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA28" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4245,10 +4245,10 @@
       <c r="X29" s="80"/>
       <c r="Y29" s="80"/>
       <c r="Z29" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA29" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:27" s="31" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4277,7 +4277,7 @@
         <v>211</v>
       </c>
       <c r="I30" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J30" s="77" t="s">
         <v>210</v>
@@ -4320,10 +4320,10 @@
       <c r="X30" s="80"/>
       <c r="Y30" s="80"/>
       <c r="Z30" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA30" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4395,10 +4395,10 @@
       <c r="X31" s="80"/>
       <c r="Y31" s="80"/>
       <c r="Z31" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA31" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4427,7 +4427,7 @@
         <v>211</v>
       </c>
       <c r="I32" s="73" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J32" s="77" t="s">
         <v>207</v>
@@ -4470,10 +4470,10 @@
       <c r="X32" s="80"/>
       <c r="Y32" s="80"/>
       <c r="Z32" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA32" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4545,10 +4545,10 @@
       <c r="X33" s="80"/>
       <c r="Y33" s="80"/>
       <c r="Z33" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA33" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4620,10 +4620,10 @@
       <c r="X34" s="80"/>
       <c r="Y34" s="80"/>
       <c r="Z34" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA34" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4652,7 +4652,7 @@
         <v>211</v>
       </c>
       <c r="I35" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J35" s="77" t="s">
         <v>210</v>
@@ -4695,10 +4695,10 @@
       <c r="X35" s="80"/>
       <c r="Y35" s="80"/>
       <c r="Z35" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA35" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4727,7 +4727,7 @@
         <v>211</v>
       </c>
       <c r="I36" s="73" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J36" s="77" t="s">
         <v>207</v>
@@ -4770,10 +4770,10 @@
       <c r="X36" s="80"/>
       <c r="Y36" s="80"/>
       <c r="Z36" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA36" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="79" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4802,7 +4802,7 @@
         <v>196</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>207</v>
@@ -4834,10 +4834,10 @@
       <c r="X37" s="30"/>
       <c r="Y37" s="30"/>
       <c r="Z37" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA37" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:27" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4864,7 +4864,7 @@
         <v>197</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>207</v>
@@ -4906,10 +4906,10 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA38" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4938,7 +4938,7 @@
         <v>198</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J39" s="24" t="s">
         <v>207</v>
@@ -4971,10 +4971,10 @@
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
       <c r="Z39" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA39" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5003,7 +5003,7 @@
         <v>198</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J40" s="24" t="s">
         <v>207</v>
@@ -5036,10 +5036,10 @@
       <c r="X40" s="22"/>
       <c r="Y40" s="22"/>
       <c r="Z40" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA40" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5068,7 +5068,7 @@
         <v>198</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>207</v>
@@ -5101,10 +5101,10 @@
       <c r="X41" s="22"/>
       <c r="Y41" s="22"/>
       <c r="Z41" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA41" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5133,7 +5133,7 @@
         <v>198</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J42" s="35" t="s">
         <v>207</v>
@@ -5166,10 +5166,10 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA42" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5198,7 +5198,7 @@
         <v>198</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J43" s="24" t="s">
         <v>207</v>
@@ -5231,10 +5231,10 @@
       <c r="X43" s="22"/>
       <c r="Y43" s="22"/>
       <c r="Z43" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA43" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5263,7 +5263,7 @@
         <v>198</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J44" s="24" t="s">
         <v>207</v>
@@ -5296,10 +5296,10 @@
       <c r="X44" s="22"/>
       <c r="Y44" s="22"/>
       <c r="Z44" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA44" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:27" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
@@ -5328,7 +5328,7 @@
         <v>199</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>207</v>
@@ -5362,15 +5362,15 @@
       <c r="X45" s="46"/>
       <c r="Y45" s="46"/>
       <c r="Z45" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA45" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:27" s="28" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46" s="42" t="s">
         <v>119</v>
@@ -5394,7 +5394,7 @@
         <v>194</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>207</v>
@@ -5428,10 +5428,10 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA46" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5460,7 +5460,7 @@
         <v>200</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J47" s="65" t="s">
         <v>208</v>
@@ -5493,10 +5493,10 @@
       <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
       <c r="Z47" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA47" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5525,7 +5525,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J48" s="65" t="s">
         <v>208</v>
@@ -5558,10 +5558,10 @@
       <c r="X48" s="35"/>
       <c r="Y48" s="35"/>
       <c r="Z48" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA48" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J49" s="24" t="s">
         <v>208</v>
@@ -5623,10 +5623,10 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA49" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5655,7 +5655,7 @@
         <v>200</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J50" s="24" t="s">
         <v>208</v>
@@ -5688,10 +5688,10 @@
       <c r="X50" s="35"/>
       <c r="Y50" s="35"/>
       <c r="Z50" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA50" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5720,7 +5720,7 @@
         <v>201</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>207</v>
@@ -5752,10 +5752,10 @@
       <c r="X51" s="30"/>
       <c r="Y51" s="30"/>
       <c r="Z51" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA51" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5781,10 +5781,10 @@
         <v>188</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>207</v>
@@ -5816,10 +5816,10 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA52" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:27" s="31" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5845,10 +5845,10 @@
         <v>188</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>207</v>
@@ -5880,10 +5880,10 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA53" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:27" s="31" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5909,10 +5909,10 @@
         <v>188</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J54" s="65" t="s">
         <v>207</v>
@@ -5944,10 +5944,10 @@
       <c r="X54" s="35"/>
       <c r="Y54" s="35"/>
       <c r="Z54" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA54" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5973,10 +5973,10 @@
         <v>155</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J55" s="65" t="s">
         <v>207</v>
@@ -6008,10 +6008,10 @@
       <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
       <c r="Z55" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA55" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:27" s="28" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6037,10 +6037,10 @@
         <v>155</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J56" s="65" t="s">
         <v>207</v>
@@ -6072,10 +6072,10 @@
       <c r="X56" s="35"/>
       <c r="Y56" s="35"/>
       <c r="Z56" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA56" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:27" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6136,10 +6136,10 @@
       <c r="X57" s="36"/>
       <c r="Y57" s="36"/>
       <c r="Z57" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA57" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6159,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>125</v>
@@ -6200,10 +6200,10 @@
       <c r="X58" s="36"/>
       <c r="Y58" s="36"/>
       <c r="Z58" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA58" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:27" s="28" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6264,10 +6264,10 @@
       <c r="X59" s="36"/>
       <c r="Y59" s="36"/>
       <c r="Z59" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA59" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6328,10 +6328,10 @@
       <c r="X60" s="36"/>
       <c r="Y60" s="36"/>
       <c r="Z60" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA60" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6357,10 +6357,10 @@
         <v>188</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>207</v>
@@ -6392,10 +6392,10 @@
       <c r="X61" s="18"/>
       <c r="Y61" s="18"/>
       <c r="Z61" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA61" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6421,10 +6421,10 @@
         <v>135</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J62" s="71" t="s">
         <v>207</v>
@@ -6457,10 +6457,10 @@
       <c r="X62" s="18"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA62" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:27" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6486,10 +6486,10 @@
         <v>188</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J63" s="71" t="s">
         <v>207</v>
@@ -6521,10 +6521,10 @@
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA63" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:27" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6550,10 +6550,10 @@
         <v>135</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J64" s="71" t="s">
         <v>207</v>
@@ -6586,10 +6586,10 @@
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA64" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:27" s="19" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -6639,10 +6639,10 @@
       <c r="X65" s="35"/>
       <c r="Y65" s="35"/>
       <c r="Z65" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA65" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:27" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6668,10 +6668,10 @@
         <v>188</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J66" s="65" t="s">
         <v>207</v>
@@ -6714,10 +6714,10 @@
         <v>254</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA66" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6743,10 +6743,10 @@
         <v>188</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I67" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J67" s="65" t="s">
         <v>207</v>
@@ -6779,10 +6779,10 @@
       <c r="X67" s="35"/>
       <c r="Y67" s="22"/>
       <c r="Z67" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA67" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6808,10 +6808,10 @@
         <v>188</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J68" s="65" t="s">
         <v>207</v>
@@ -6855,10 +6855,10 @@
         <v>256</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA68" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6878,7 +6878,7 @@
         <v>47</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>188</v>
@@ -6919,10 +6919,10 @@
       <c r="X69" s="35"/>
       <c r="Y69" s="22"/>
       <c r="Z69" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA69" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6948,10 +6948,10 @@
         <v>188</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I70" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J70" s="65" t="s">
         <v>207</v>
@@ -6993,10 +6993,10 @@
       </c>
       <c r="Y70" s="22"/>
       <c r="Z70" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA70" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7022,10 +7022,10 @@
         <v>188</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I71" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J71" s="65" t="s">
         <v>207</v>
@@ -7058,10 +7058,10 @@
       <c r="X71" s="35"/>
       <c r="Y71" s="22"/>
       <c r="Z71" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA71" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7087,10 +7087,10 @@
         <v>188</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J72" s="65" t="s">
         <v>207</v>
@@ -7132,10 +7132,10 @@
       </c>
       <c r="Y72" s="22"/>
       <c r="Z72" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA72" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7161,10 +7161,10 @@
         <v>125</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J73" s="65" t="s">
         <v>207</v>
@@ -7197,10 +7197,10 @@
       <c r="X73" s="26"/>
       <c r="Y73" s="26"/>
       <c r="Z73" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA73" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7226,10 +7226,10 @@
         <v>125</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J74" s="65" t="s">
         <v>207</v>
@@ -7262,10 +7262,10 @@
       <c r="X74" s="26"/>
       <c r="Y74" s="26"/>
       <c r="Z74" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA74" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7291,10 +7291,10 @@
         <v>125</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J75" s="65" t="s">
         <v>207</v>
@@ -7327,10 +7327,10 @@
       <c r="X75" s="26"/>
       <c r="Y75" s="26"/>
       <c r="Z75" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA75" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7356,10 +7356,10 @@
         <v>125</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J76" s="65" t="s">
         <v>207</v>
@@ -7392,10 +7392,10 @@
       <c r="X76" s="22"/>
       <c r="Y76" s="22"/>
       <c r="Z76" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA76" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7421,10 +7421,10 @@
         <v>125</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I77" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J77" s="65" t="s">
         <v>207</v>
@@ -7457,10 +7457,10 @@
       <c r="X77" s="26"/>
       <c r="Y77" s="26"/>
       <c r="Z77" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA77" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:27" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7486,10 +7486,10 @@
         <v>125</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I78" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J78" s="65" t="s">
         <v>207</v>
@@ -7522,10 +7522,10 @@
       <c r="X78" s="26"/>
       <c r="Y78" s="26"/>
       <c r="Z78" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA78" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7545,7 +7545,7 @@
         <v>44</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>125</v>
@@ -7587,10 +7587,10 @@
       <c r="X79" s="30"/>
       <c r="Y79" s="30"/>
       <c r="Z79" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA79" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7616,10 +7616,10 @@
         <v>188</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>207</v>
@@ -7660,10 +7660,10 @@
       </c>
       <c r="Y80" s="30"/>
       <c r="Z80" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA80" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:27" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -7689,10 +7689,10 @@
         <v>188</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>207</v>
@@ -7733,10 +7733,10 @@
       </c>
       <c r="Y81" s="30"/>
       <c r="Z81" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA81" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:27" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -7762,10 +7762,10 @@
         <v>188</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>207</v>
@@ -7806,10 +7806,10 @@
       </c>
       <c r="Y82" s="30"/>
       <c r="Z82" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA82" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>11</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G83" s="35" t="s">
         <v>188</v>
@@ -7838,7 +7838,7 @@
         <v>203</v>
       </c>
       <c r="I83" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J83" s="65" t="s">
         <v>210</v>
@@ -7864,10 +7864,10 @@
       <c r="X83" s="22"/>
       <c r="Y83" s="22"/>
       <c r="Z83" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA83" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:27" s="31" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7937,10 +7937,10 @@
       <c r="X84" s="35"/>
       <c r="Y84" s="35"/>
       <c r="Z84" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA84" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:27" s="28" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7966,10 +7966,10 @@
         <v>125</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J85" s="65" t="s">
         <v>207</v>
@@ -8010,10 +8010,10 @@
       <c r="X85" s="35"/>
       <c r="Y85" s="35"/>
       <c r="Z85" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA85" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:27" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8076,10 +8076,10 @@
       <c r="X86" s="35"/>
       <c r="Y86" s="35"/>
       <c r="Z86" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA86" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:27" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8105,10 +8105,10 @@
         <v>135</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I87" s="35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J87" s="65" t="s">
         <v>207</v>
@@ -8149,10 +8149,10 @@
       </c>
       <c r="Y87" s="48"/>
       <c r="Z87" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA87" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8214,10 +8214,10 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA88" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8279,10 +8279,10 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA89" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8334,10 +8334,10 @@
       <c r="X90" s="35"/>
       <c r="Y90" s="35"/>
       <c r="Z90" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA90" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8400,10 +8400,10 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
       <c r="Z91" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA91" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8466,10 +8466,10 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
       <c r="Z92" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA92" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8532,10 +8532,10 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
       <c r="Z93" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA93" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8555,7 +8555,7 @@
         <v>45</v>
       </c>
       <c r="F94" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G94" s="35" t="s">
         <v>188</v>
@@ -8564,7 +8564,7 @@
         <v>204</v>
       </c>
       <c r="I94" s="51" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J94" s="65" t="s">
         <v>207</v>
@@ -8597,10 +8597,10 @@
       <c r="X94" s="35"/>
       <c r="Y94" s="35"/>
       <c r="Z94" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA94" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8620,7 +8620,7 @@
         <v>45</v>
       </c>
       <c r="F95" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G95" s="35" t="s">
         <v>188</v>
@@ -8629,7 +8629,7 @@
         <v>204</v>
       </c>
       <c r="I95" s="51" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J95" s="65" t="s">
         <v>207</v>
@@ -8662,10 +8662,10 @@
       <c r="X95" s="35"/>
       <c r="Y95" s="35"/>
       <c r="Z95" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA95" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:27" s="28" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8685,16 +8685,16 @@
         <v>42</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>188</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>207</v>
@@ -8727,10 +8727,10 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
       <c r="Z96" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA96" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:27" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -8750,16 +8750,16 @@
         <v>42</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>188</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>207</v>
@@ -8792,10 +8792,10 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
       <c r="Z97" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA97" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8824,7 +8824,7 @@
         <v>244</v>
       </c>
       <c r="I98" s="65" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J98" s="88" t="s">
         <v>207</v>
@@ -8874,10 +8874,10 @@
       </c>
       <c r="Y98" s="68"/>
       <c r="Z98" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA98" s="97" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8906,7 +8906,7 @@
         <v>244</v>
       </c>
       <c r="I99" s="88" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J99" s="88" t="s">
         <v>207</v>
@@ -8940,10 +8940,10 @@
       </c>
       <c r="Y99" s="68"/>
       <c r="Z99" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA99" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8972,7 +8972,7 @@
         <v>244</v>
       </c>
       <c r="I100" s="68" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J100" s="88" t="s">
         <v>207</v>
@@ -9006,10 +9006,10 @@
       </c>
       <c r="Y100" s="68"/>
       <c r="Z100" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA100" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:27" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -9072,10 +9072,10 @@
       </c>
       <c r="Y101" s="5"/>
       <c r="Z101" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA101" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:27" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -9138,10 +9138,10 @@
       </c>
       <c r="Y102" s="5"/>
       <c r="Z102" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA102" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="320">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -910,6 +910,81 @@
   </si>
   <si>
     <t>Multi*</t>
+  </si>
+  <si>
+    <t>Luo, 2023</t>
+  </si>
+  <si>
+    <t>Accelerating China’s power sector decarbonization can save lives: integrating public health goals into power sector planning decisions</t>
+  </si>
+  <si>
+    <t>ZERO50</t>
+  </si>
+  <si>
+    <t>Hata, 2023</t>
+  </si>
+  <si>
+    <t>Impact of introducing net-zero carbon strategies on tropospheric ozone (O3) and fine particulate matter (PM2.5) concentrations in Japanese region in 2050</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>2050ZERO</t>
+  </si>
+  <si>
+    <t>Energy decarbonation &amp; Sufficiency</t>
+  </si>
+  <si>
+    <t>Lifetables</t>
+  </si>
+  <si>
+    <t>Wang, 2023a</t>
+  </si>
+  <si>
+    <t>Wang, 2023b</t>
+  </si>
+  <si>
+    <t>Future Projection of Mortality From Exposure to PM2.5 and O3 Under the Carbon Neutral Pathway Roles of Changing Emissions and Population Aging</t>
+  </si>
+  <si>
+    <t>SSP1_1.9</t>
+  </si>
+  <si>
+    <t>Agriculture, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity  experiments  showed that, by 2060, changes in concentrations and population structure would lead to approximately −5,172.7 thousand  and  +2,633.3  thousand  deaths,  respectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM2.5  and  O3  air  quality  from  2020  to  2060  under  SSP5-8.5  pathway  were  simulated  to  be  worse  and  can't  achieve the current air quality standard by 2060 in the studied polluted regions. Relative to SSP1-1.9, in 2060, premature deaths by PM2.5 and O3 would all be higher by 3,366.1 (95% CI: 3,350.4–3,381.7) thousand and 153.9 (95%  CI:  116.4–187.0)  thousand,  respectively. </t>
+  </si>
+  <si>
+    <t>4000 dc prévenus mais RCP 4,5</t>
+  </si>
+  <si>
+    <t>Nawaz, 2023</t>
+  </si>
+  <si>
+    <t>Sources of Air Pollution Health Impacts and Co-Benefits of Carbon Neutrality in Santiago, Chile</t>
+  </si>
+  <si>
+    <t>Santiago, Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CN+</t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, agriculture, housing</t>
+  </si>
+  <si>
+    <t>Santiago: transportation, energy generation, and residential combus-tion contribute the most to air pollution related premature deaths</t>
+  </si>
+  <si>
+    <t>Notably, emissions from local streets, energy generation,  residential  firewood  combustion,  construction  machinery  and  highway  emissions  were  the  most  impactful sources to PM2.5 and O3-related premature deaths.</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1373,6 +1448,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,8 +2124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AA102" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A1:AA102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AA110" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A1:AA110"/>
   <sortState ref="A2:Z102">
     <sortCondition ref="A1:A102"/>
   </sortState>
@@ -2336,11 +2427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA102"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC106" sqref="AC106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,6 +2447,8 @@
     <col min="24" max="24" width="47" customWidth="1"/>
     <col min="25" max="25" width="44.33203125" customWidth="1"/>
     <col min="26" max="26" width="17" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" customWidth="1"/>
+    <col min="29" max="29" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
@@ -7741,7 +7834,7 @@
     </row>
     <row r="82" spans="1:27" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>15</v>
@@ -8733,7 +8826,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>91</v>
       </c>
@@ -8798,7 +8891,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
         <v>47</v>
       </c>
@@ -8880,7 +8973,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
         <v>47</v>
       </c>
@@ -8946,7 +9039,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="35" t="s">
         <v>47</v>
       </c>
@@ -8965,7 +9058,7 @@
       <c r="F100" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="G100" s="68" t="s">
+      <c r="G100" s="35" t="s">
         <v>125</v>
       </c>
       <c r="H100" s="68" t="s">
@@ -9012,7 +9105,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>80</v>
       </c>
@@ -9078,7 +9171,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>80</v>
       </c>
@@ -9144,6 +9237,376 @@
         <v>292</v>
       </c>
     </row>
+    <row r="103" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H103" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I103" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L103" s="10">
+        <v>2050</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="41"/>
+      <c r="S103" s="101"/>
+      <c r="T103" s="41"/>
+      <c r="U103" s="41"/>
+      <c r="V103" s="41"/>
+      <c r="W103" s="101"/>
+      <c r="X103" s="101"/>
+      <c r="Y103" s="41"/>
+      <c r="Z103" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA103" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L104" s="10">
+        <v>2050</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="41"/>
+      <c r="S104" s="101"/>
+      <c r="T104" s="41"/>
+      <c r="U104" s="41"/>
+      <c r="V104" s="41"/>
+      <c r="W104" s="101"/>
+      <c r="X104" s="101"/>
+      <c r="Y104" s="41"/>
+      <c r="Z104" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA104" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H105" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="I105" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L105" s="10">
+        <v>2060</v>
+      </c>
+      <c r="M105" s="10">
+        <f>2939300-4060000</f>
+        <v>-1120700</v>
+      </c>
+      <c r="N105" s="10">
+        <v>18786882</v>
+      </c>
+      <c r="O105" s="10">
+        <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
+        <v>-5.9653326187921976E-2</v>
+      </c>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="41"/>
+      <c r="S105" s="101"/>
+      <c r="T105" s="41"/>
+      <c r="U105" s="41"/>
+      <c r="V105" s="41"/>
+      <c r="W105" s="101"/>
+      <c r="X105" s="101"/>
+      <c r="Y105" s="41"/>
+      <c r="Z105" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA105" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB105" s="103" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC105" s="103" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I106" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L106" s="10">
+        <v>2050</v>
+      </c>
+      <c r="M106" s="10">
+        <v>3230</v>
+      </c>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="41"/>
+      <c r="S106" s="101"/>
+      <c r="T106" s="41"/>
+      <c r="U106" s="41"/>
+      <c r="V106" s="41"/>
+      <c r="W106" s="101"/>
+      <c r="X106" s="101"/>
+      <c r="Y106" s="41"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC106" s="103" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="B107" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I107" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L107" s="10">
+        <v>2050</v>
+      </c>
+      <c r="M107" s="10">
+        <f>M106+1940</f>
+        <v>5170</v>
+      </c>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="41"/>
+      <c r="S107" s="101"/>
+      <c r="T107" s="41"/>
+      <c r="U107" s="41"/>
+      <c r="V107" s="41"/>
+      <c r="W107" s="101"/>
+      <c r="X107" s="101"/>
+      <c r="Y107" s="41"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A108" s="98"/>
+      <c r="B108" s="98"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="41"/>
+      <c r="S108" s="101"/>
+      <c r="T108" s="41"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="101"/>
+      <c r="X108" s="101"/>
+      <c r="Y108" s="41"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A109" s="98"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="41"/>
+      <c r="S109" s="101"/>
+      <c r="T109" s="41"/>
+      <c r="U109" s="41"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="101"/>
+      <c r="X109" s="101"/>
+      <c r="Y109" s="41"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A110" s="99"/>
+      <c r="B110" s="99"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="35"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="102"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="35"/>
+      <c r="W110" s="102"/>
+      <c r="X110" s="102"/>
+      <c r="Y110" s="35"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="352">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -921,9 +921,6 @@
     <t>2050ZERO</t>
   </si>
   <si>
-    <t>Lifetables</t>
-  </si>
-  <si>
     <t>Future Projection of Mortality From Exposure to PM2.5 and O3 Under the Carbon Neutral Pathway Roles of Changing Emissions and Population Aging</t>
   </si>
   <si>
@@ -1069,6 +1066,21 @@
   </si>
   <si>
     <t>Shihui Zhang, 2021</t>
+  </si>
+  <si>
+    <t>geo_scale</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China </t>
   </si>
 </sst>
 </file>
@@ -2219,15 +2231,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AA112" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A1:AA112"/>
-  <sortState ref="A2:AA112">
-    <sortCondition descending="1" ref="O1:O112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AB112" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A1:AB112"/>
+  <sortState ref="A2:AB112">
+    <sortCondition descending="1" ref="P1:P112"/>
   </sortState>
-  <tableColumns count="27">
+  <tableColumns count="28">
     <tableColumn id="18" name="author_date" dataDxfId="25"/>
     <tableColumn id="1" name="title" dataDxfId="24"/>
     <tableColumn id="3" name="Geographical scale" dataDxfId="23"/>
+    <tableColumn id="26" name="geo_scale"/>
     <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="22"/>
     <tableColumn id="22" name="rank_pop" dataDxfId="21"/>
     <tableColumn id="4" name="scenario" dataDxfId="20"/>
@@ -2522,32 +2535,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE112"/>
+  <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="12" width="22.6640625" customWidth="1"/>
-    <col min="13" max="15" width="26.21875" style="1" customWidth="1"/>
-    <col min="16" max="22" width="32.33203125" customWidth="1"/>
-    <col min="23" max="23" width="54.21875" customWidth="1"/>
-    <col min="24" max="24" width="47" customWidth="1"/>
-    <col min="25" max="25" width="44.33203125" customWidth="1"/>
-    <col min="26" max="26" width="17" customWidth="1"/>
-    <col min="28" max="28" width="69.88671875" customWidth="1"/>
-    <col min="29" max="29" width="47.6640625" customWidth="1"/>
-    <col min="30" max="30" width="23.6640625" customWidth="1"/>
+    <col min="3" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="20" style="3" customWidth="1"/>
+    <col min="6" max="13" width="22.6640625" customWidth="1"/>
+    <col min="14" max="16" width="26.21875" style="1" customWidth="1"/>
+    <col min="17" max="23" width="32.33203125" customWidth="1"/>
+    <col min="24" max="24" width="54.21875" customWidth="1"/>
+    <col min="25" max="25" width="47" customWidth="1"/>
+    <col min="26" max="26" width="44.33203125" customWidth="1"/>
+    <col min="27" max="27" width="17" customWidth="1"/>
+    <col min="29" max="29" width="69.88671875" customWidth="1"/>
+    <col min="30" max="30" width="47.6640625" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2557,140 +2570,146 @@
       <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>188</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>203</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>277</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>276</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="31" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="106" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="106" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="K2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="10">
         <v>2060</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>3520000</v>
       </c>
-      <c r="N2" s="39">
+      <c r="O2" s="39">
         <v>18786882</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.187364779317824</v>
       </c>
-      <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="90"/>
       <c r="U2" s="41"/>
       <c r="V2" s="41"/>
-      <c r="W2" s="90"/>
+      <c r="W2" s="41"/>
       <c r="X2" s="90"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA2" s="88" t="s">
+      <c r="AB2" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>36</v>
       </c>
@@ -2700,44 +2719,46 @@
       <c r="C3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="49">
         <v>3870</v>
       </c>
-      <c r="E3" s="24">
+      <c r="F3" s="24">
         <v>15</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>259</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" s="35">
         <v>2040</v>
       </c>
-      <c r="M3" s="48">
+      <c r="N3" s="48">
         <v>6435910</v>
       </c>
-      <c r="N3" s="48">
+      <c r="O3" s="48">
         <v>41991720</v>
       </c>
-      <c r="O3" s="22">
+      <c r="P3" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.15326616771115831</v>
       </c>
-      <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
@@ -2747,14 +2768,15 @@
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA3" s="88" t="s">
+      <c r="AB3" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
@@ -2764,44 +2786,46 @@
       <c r="C4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="49">
         <v>3870</v>
       </c>
-      <c r="E4" s="24">
+      <c r="F4" s="24">
         <v>15</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="J4" s="35" t="s">
         <v>259</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="M4" s="35">
         <v>2040</v>
       </c>
-      <c r="M4" s="50">
+      <c r="N4" s="50">
         <v>5863930</v>
       </c>
-      <c r="N4" s="48">
+      <c r="O4" s="48">
         <v>41991720</v>
       </c>
-      <c r="O4" s="22">
+      <c r="P4" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.13964491094911091</v>
       </c>
-      <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
@@ -2811,75 +2835,79 @@
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA4" s="88" t="s">
+      <c r="AB4" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="31" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="31" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="K5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="10">
         <v>2060</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <f>3220000-600000</f>
         <v>2620000</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>18786882</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.13945901187860762</v>
       </c>
-      <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="91"/>
       <c r="U5" s="35"/>
       <c r="V5" s="35"/>
-      <c r="W5" s="91"/>
+      <c r="W5" s="35"/>
       <c r="X5" s="91"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="88" t="s">
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="31" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="31" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
@@ -2887,48 +2915,50 @@
       <c r="C6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7">
         <v>1411</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>21</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>190</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" s="5">
         <v>2060</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>2020000</v>
       </c>
-      <c r="N6" s="39">
+      <c r="O6" s="39">
         <v>18786882</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.10752183358579673</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -2936,14 +2966,15 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA6" s="88" t="s">
+      <c r="AB6" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="31" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="31" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
@@ -2953,45 +2984,47 @@
       <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7">
         <v>1338</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>190</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="5">
         <v>2030</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <f>1429940-(17580+2717+177872)</f>
         <v>1231771</v>
       </c>
-      <c r="N7" s="55">
+      <c r="O7" s="55">
         <v>12224379</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>0.10076348254582093</v>
       </c>
-      <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -3001,14 +3034,15 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA7" s="88" t="s">
+      <c r="AB7" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="28" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="28" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>75</v>
       </c>
@@ -3018,73 +3052,76 @@
       <c r="C8" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="60">
         <v>330</v>
       </c>
-      <c r="E8" s="24">
+      <c r="F8" s="24">
         <v>33</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="H8" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>289</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="35">
         <v>2050</v>
       </c>
-      <c r="M8" s="52">
+      <c r="N8" s="52">
         <f>(240000+115000)-(15000+0)</f>
         <v>340000</v>
       </c>
-      <c r="N8" s="52">
+      <c r="O8" s="52">
         <v>4113152</v>
       </c>
-      <c r="O8" s="22">
+      <c r="P8" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.2661666770398948E-2</v>
       </c>
-      <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="22">
+      <c r="T8" s="22"/>
+      <c r="U8" s="22">
         <v>1100</v>
       </c>
-      <c r="U8" s="22">
+      <c r="V8" s="22">
         <v>1100000000000</v>
       </c>
-      <c r="V8" s="22">
+      <c r="W8" s="22">
         <v>375391963</v>
       </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="35">
+      <c r="X8" s="22"/>
+      <c r="Y8" s="35">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2930.2705130104237</v>
       </c>
-      <c r="Y8" s="22" t="s">
+      <c r="Z8" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA8" s="88" t="s">
+      <c r="AB8" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="78" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="78" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>85</v>
       </c>
@@ -3094,72 +3131,75 @@
       <c r="C9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="25">
         <v>1411</v>
       </c>
-      <c r="E9" s="24">
+      <c r="F9" s="24">
         <v>19</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="H9" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="I9" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K9" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" s="35">
         <v>2060</v>
       </c>
-      <c r="M9" s="52">
+      <c r="N9" s="52">
         <v>1300000</v>
       </c>
-      <c r="N9" s="52">
+      <c r="O9" s="52">
         <v>18786882</v>
       </c>
-      <c r="O9" s="35">
+      <c r="P9" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.9197219634423643E-2</v>
       </c>
-      <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="35"/>
+      <c r="U9" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="U9" s="35">
+      <c r="V9" s="35">
         <v>380000000000</v>
       </c>
-      <c r="V9" s="35">
+      <c r="W9" s="35">
         <v>1205020651</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35">
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>315.34729274942526</v>
       </c>
-      <c r="Y9" s="35" t="s">
+      <c r="Z9" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA9" s="88" t="s">
+      <c r="AB9" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="78" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="78" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>51</v>
       </c>
@@ -3169,73 +3209,76 @@
       <c r="C10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="25">
         <v>1338</v>
       </c>
-      <c r="E10" s="24">
+      <c r="F10" s="24">
         <v>29</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="G10" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="H10" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>205</v>
+      <c r="J10" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="35">
         <v>2050</v>
       </c>
-      <c r="M10" s="36">
+      <c r="N10" s="36">
         <f>7525500-6380500</f>
         <v>1145000</v>
       </c>
-      <c r="N10" s="61">
+      <c r="O10" s="61">
         <v>17360484</v>
       </c>
-      <c r="O10" s="22">
+      <c r="P10" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.5954382377818505E-2</v>
       </c>
-      <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="22"/>
+      <c r="U10" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="U10" s="22">
+      <c r="V10" s="22">
         <v>684030000000</v>
       </c>
-      <c r="V10" s="22">
+      <c r="W10" s="22">
         <v>1312636325</v>
       </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="35">
+      <c r="X10" s="22"/>
+      <c r="Y10" s="35">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>521.11158816209047</v>
       </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="4" t="s">
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA10" s="88" t="s">
+      <c r="AB10" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="78" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="78" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>2</v>
@@ -3243,48 +3286,50 @@
       <c r="C11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7">
         <v>1411</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>205</v>
+      <c r="J11" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="5">
         <v>2060</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>1160000</v>
       </c>
-      <c r="N11" s="39">
+      <c r="O11" s="39">
         <v>18786882</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.1745211366101088E-2</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -3292,14 +3337,15 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="4" t="s">
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA11" s="88" t="s">
+      <c r="AB11" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="78" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="78" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>40</v>
       </c>
@@ -3309,44 +3355,46 @@
       <c r="C12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="33">
         <v>1380</v>
       </c>
-      <c r="E12" s="24">
+      <c r="F12" s="24">
         <v>25</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="G12" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="H12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K12" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" s="35">
         <v>2050</v>
       </c>
-      <c r="M12" s="47">
+      <c r="N12" s="47">
         <v>1060000</v>
       </c>
-      <c r="N12" s="61">
+      <c r="O12" s="61">
         <v>17360484</v>
       </c>
-      <c r="O12" s="48">
+      <c r="P12" s="48">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.1058205520076514E-2</v>
       </c>
-      <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="48"/>
       <c r="S12" s="48"/>
@@ -3356,14 +3404,15 @@
       <c r="W12" s="48"/>
       <c r="X12" s="48"/>
       <c r="Y12" s="48"/>
-      <c r="Z12" s="4" t="s">
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA12" s="88" t="s">
+      <c r="AB12" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="78" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="78" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>40</v>
       </c>
@@ -3373,44 +3422,46 @@
       <c r="C13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="33">
         <v>1380</v>
       </c>
-      <c r="E13" s="24">
+      <c r="F13" s="24">
         <v>25</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="G13" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="H13" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="I13" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="J13" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J13" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K13" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" s="35">
         <v>2050</v>
       </c>
-      <c r="M13" s="47">
+      <c r="N13" s="47">
         <v>960000</v>
       </c>
-      <c r="N13" s="61">
+      <c r="O13" s="61">
         <v>17360484</v>
       </c>
-      <c r="O13" s="48">
+      <c r="P13" s="48">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.5297997452144768E-2</v>
       </c>
-      <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
       <c r="R13" s="48"/>
       <c r="S13" s="48"/>
@@ -3420,14 +3471,15 @@
       <c r="W13" s="48"/>
       <c r="X13" s="48"/>
       <c r="Y13" s="48"/>
-      <c r="Z13" s="4" t="s">
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA13" s="88" t="s">
+      <c r="AB13" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -3437,45 +3489,47 @@
       <c r="C14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4">
         <v>37.299999999999997</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>44</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>205</v>
+      <c r="J14" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="5">
         <v>2050</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="9">
         <v>14400</v>
       </c>
-      <c r="N14" s="35">
+      <c r="O14" s="35">
         <f>(281800.94/39440000)*40049519</f>
         <v>286155.98632727843</v>
       </c>
-      <c r="O14" s="35">
+      <c r="P14" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.0322204280327819E-2</v>
       </c>
-      <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
@@ -3485,14 +3539,15 @@
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
       <c r="Y14" s="30"/>
-      <c r="Z14" s="4" t="s">
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA14" s="88" t="s">
+      <c r="AB14" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>36</v>
       </c>
@@ -3502,44 +3557,46 @@
       <c r="C15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="49">
         <v>3870</v>
       </c>
-      <c r="E15" s="24">
+      <c r="F15" s="24">
         <v>15</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="G15" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="H15" s="35" t="s">
         <v>133</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>189</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="24" t="s">
-        <v>204</v>
+      <c r="J15" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M15" s="35">
         <v>2040</v>
       </c>
-      <c r="M15" s="48">
+      <c r="N15" s="48">
         <v>2088298</v>
       </c>
-      <c r="N15" s="48">
+      <c r="O15" s="48">
         <v>41991720</v>
       </c>
-      <c r="O15" s="22">
+      <c r="P15" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.9731185100300723E-2</v>
       </c>
-      <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
@@ -3549,14 +3606,15 @@
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
-      <c r="Z15" s="4" t="s">
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA15" s="88" t="s">
+      <c r="AB15" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="72" t="s">
         <v>218</v>
       </c>
@@ -3566,49 +3624,51 @@
       <c r="C16" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="75">
         <v>1241</v>
       </c>
-      <c r="E16" s="76">
+      <c r="F16" s="76">
         <v>32</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="G16" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="H16" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="I16" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="J16" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="J16" s="76" t="s">
-        <v>205</v>
-      </c>
       <c r="K16" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" s="72">
         <v>2030</v>
       </c>
-      <c r="M16" s="77">
+      <c r="N16" s="77">
         <f>20800000/40</f>
         <v>520000</v>
       </c>
-      <c r="N16" s="77">
+      <c r="O16" s="77">
         <v>10593963</v>
       </c>
-      <c r="O16" s="72">
+      <c r="P16" s="72">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.9084558819017965E-2</v>
       </c>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72" t="s">
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="R16" s="72"/>
       <c r="S16" s="72"/>
       <c r="T16" s="72"/>
       <c r="U16" s="72"/>
@@ -3616,14 +3676,15 @@
       <c r="W16" s="72"/>
       <c r="X16" s="72"/>
       <c r="Y16" s="72"/>
-      <c r="Z16" s="4" t="s">
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA16" s="88" t="s">
+      <c r="AB16" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>75</v>
       </c>
@@ -3633,45 +3694,47 @@
       <c r="C17" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="60">
         <v>330</v>
       </c>
-      <c r="E17" s="24">
+      <c r="F17" s="24">
         <v>33</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="H17" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>205</v>
+      <c r="J17" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="35">
         <v>2050</v>
       </c>
-      <c r="M17" s="52">
+      <c r="N17" s="52">
         <f>(160000+40000)-(15000+0)</f>
         <v>185000</v>
       </c>
-      <c r="N17" s="52">
+      <c r="O17" s="52">
         <v>4113152</v>
       </c>
-      <c r="O17" s="22">
+      <c r="P17" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.497767162507002E-2</v>
       </c>
-      <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
@@ -3679,16 +3742,17 @@
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="4" t="s">
+      <c r="X17" s="22"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA17" s="88" t="s">
+      <c r="AB17" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="72" t="s">
         <v>218</v>
       </c>
@@ -3698,49 +3762,51 @@
       <c r="C18" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="75">
         <v>1241</v>
       </c>
-      <c r="E18" s="76">
+      <c r="F18" s="76">
         <v>32</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="G18" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="H18" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="I18" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="J18" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="J18" s="76" t="s">
-        <v>205</v>
-      </c>
       <c r="K18" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18" s="72">
         <v>2030</v>
       </c>
-      <c r="M18" s="77">
+      <c r="N18" s="77">
         <f>18900000/40</f>
         <v>472500</v>
       </c>
-      <c r="N18" s="77">
+      <c r="O18" s="77">
         <v>10593963</v>
       </c>
-      <c r="O18" s="72">
+      <c r="P18" s="72">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.4600873157665359E-2</v>
       </c>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72" t="s">
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="R18" s="72"/>
       <c r="S18" s="72"/>
       <c r="T18" s="72"/>
       <c r="U18" s="72"/>
@@ -3748,14 +3814,15 @@
       <c r="W18" s="72"/>
       <c r="X18" s="72"/>
       <c r="Y18" s="72"/>
-      <c r="Z18" s="4" t="s">
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA18" s="88" t="s">
+      <c r="AB18" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>87</v>
       </c>
@@ -3765,45 +3832,47 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="25">
         <v>7662</v>
       </c>
-      <c r="E19" s="24">
+      <c r="F19" s="24">
         <v>6</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="G19" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="H19" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="J19" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="J19" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K19" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" s="34">
         <v>2030</v>
       </c>
-      <c r="M19" s="22">
+      <c r="N19" s="22">
         <f>8500000-5600000</f>
         <v>2900000</v>
       </c>
-      <c r="N19" s="37">
+      <c r="O19" s="37">
         <v>67172551</v>
       </c>
-      <c r="O19" s="22">
+      <c r="P19" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.3172396415315534E-2</v>
       </c>
-      <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
@@ -3813,14 +3882,15 @@
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
       <c r="Y19" s="22"/>
-      <c r="Z19" s="4" t="s">
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA19" s="88" t="s">
+      <c r="AB19" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
@@ -3830,45 +3900,47 @@
       <c r="C20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="24">
         <v>37.299999999999997</v>
       </c>
-      <c r="E20" s="24">
+      <c r="F20" s="24">
         <v>45</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="H20" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="I20" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="J20" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="J20" s="35" t="s">
-        <v>205</v>
-      </c>
       <c r="K20" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="35">
         <v>2050</v>
       </c>
-      <c r="M20" s="36">
+      <c r="N20" s="36">
         <v>12100</v>
       </c>
-      <c r="N20" s="35">
+      <c r="O20" s="35">
         <f>(281800.94/39440000)*40049519</f>
         <v>286155.98632727843</v>
       </c>
-      <c r="O20" s="35">
+      <c r="P20" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.228462998555324E-2</v>
       </c>
-      <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
@@ -3878,14 +3950,15 @@
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
-      <c r="Z20" s="4" t="s">
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA20" s="88" t="s">
+      <c r="AB20" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>47</v>
       </c>
@@ -3895,45 +3968,47 @@
       <c r="C21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="16">
         <v>7821</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <v>3</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="H21" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="K21" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" s="18">
         <v>2050</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <f xml:space="preserve"> 6261 +3671573</f>
         <v>3677834</v>
       </c>
-      <c r="N21" s="18">
+      <c r="O21" s="18">
         <v>91583402</v>
       </c>
-      <c r="O21" s="18">
+      <c r="P21" s="18">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.0158302920435297E-2</v>
       </c>
-      <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
@@ -3943,14 +4018,15 @@
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
-      <c r="Z21" s="4" t="s">
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA21" s="88" t="s">
+      <c r="AB21" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>47</v>
       </c>
@@ -3960,44 +4036,46 @@
       <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="16">
         <v>7821</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="15">
         <v>3</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="H22" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="I22" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="K22" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" s="18">
         <v>2050</v>
       </c>
-      <c r="M22" s="17">
+      <c r="N22" s="17">
         <v>3671573</v>
       </c>
-      <c r="N22" s="18">
+      <c r="O22" s="18">
         <v>91583402</v>
       </c>
-      <c r="O22" s="18">
+      <c r="P22" s="18">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.0089939004449737E-2</v>
       </c>
-      <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
@@ -4007,14 +4085,15 @@
       <c r="W22" s="18"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
-      <c r="Z22" s="4" t="s">
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA22" s="88" t="s">
+      <c r="AB22" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>36</v>
       </c>
@@ -4024,44 +4103,46 @@
       <c r="C23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="49">
         <v>3870</v>
       </c>
-      <c r="E23" s="24">
+      <c r="F23" s="24">
         <v>15</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="G23" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="H23" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="I23" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="J23" s="35" t="s">
         <v>290</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>211</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" s="35">
         <v>2040</v>
       </c>
-      <c r="M23" s="48">
+      <c r="N23" s="48">
         <v>1645276</v>
       </c>
-      <c r="N23" s="48">
+      <c r="O23" s="48">
         <v>41991720</v>
       </c>
-      <c r="O23" s="22">
+      <c r="P23" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.918096234209982E-2</v>
       </c>
-      <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
@@ -4071,14 +4152,15 @@
       <c r="W23" s="22"/>
       <c r="X23" s="22"/>
       <c r="Y23" s="22"/>
-      <c r="Z23" s="4" t="s">
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA23" s="88" t="s">
+      <c r="AB23" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>54</v>
       </c>
@@ -4088,63 +4170,66 @@
       <c r="C24" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="25">
         <v>6000</v>
       </c>
-      <c r="E24" s="24">
+      <c r="F24" s="24">
         <v>13</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="G24" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="H24" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>190</v>
       </c>
       <c r="J24" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="K24" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="35">
+      <c r="L24" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="35">
         <v>2050</v>
       </c>
-      <c r="M24" s="47">
+      <c r="N24" s="47">
         <v>3487163</v>
       </c>
-      <c r="N24" s="26">
+      <c r="O24" s="26">
         <v>91583402</v>
       </c>
-      <c r="O24" s="48">
-        <f>Tableau1[[#This Row],[n_prev]]/N24</f>
+      <c r="P24" s="48">
+        <f>Tableau1[[#This Row],[n_prev]]/O24</f>
         <v>3.8076364536010578E-2</v>
       </c>
-      <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
-      <c r="T24" s="47">
+      <c r="T24" s="48"/>
+      <c r="U24" s="47">
         <v>23000</v>
       </c>
-      <c r="U24" s="47"/>
       <c r="V24" s="47"/>
       <c r="W24" s="47"/>
       <c r="X24" s="47"/>
       <c r="Y24" s="47"/>
-      <c r="Z24" s="4" t="s">
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA24" s="88" t="s">
+      <c r="AB24" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>47</v>
       </c>
@@ -4154,45 +4239,47 @@
       <c r="C25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="16">
         <v>7821</v>
       </c>
-      <c r="E25" s="15">
+      <c r="F25" s="15">
         <v>3</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="H25" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="J25" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="K25" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" s="18">
         <v>2050</v>
       </c>
-      <c r="M25" s="13">
+      <c r="N25" s="13">
         <f xml:space="preserve"> 1854 + 3337286</f>
         <v>3339140</v>
       </c>
-      <c r="N25" s="18">
+      <c r="O25" s="18">
         <v>91583402</v>
       </c>
-      <c r="O25" s="18">
+      <c r="P25" s="18">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.6460100051753916E-2</v>
       </c>
-      <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
@@ -4202,14 +4289,15 @@
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
-      <c r="Z25" s="4" t="s">
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA25" s="88" t="s">
+      <c r="AB25" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>47</v>
       </c>
@@ -4219,44 +4307,46 @@
       <c r="C26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="16">
         <v>7821</v>
       </c>
-      <c r="E26" s="15">
+      <c r="F26" s="15">
         <v>3</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="G26" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="H26" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="J26" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="K26" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" s="18">
         <v>2050</v>
       </c>
-      <c r="M26" s="17">
+      <c r="N26" s="17">
         <v>3337286</v>
       </c>
-      <c r="N26" s="18">
+      <c r="O26" s="18">
         <v>91583402</v>
       </c>
-      <c r="O26" s="18">
+      <c r="P26" s="18">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.643985620887942E-2</v>
       </c>
-      <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
@@ -4266,14 +4356,15 @@
       <c r="W26" s="18"/>
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
-      <c r="Z26" s="4" t="s">
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA26" s="88" t="s">
+      <c r="AB26" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="31" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="31" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>115</v>
       </c>
@@ -4283,45 +4374,47 @@
       <c r="C27" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="71">
         <v>1408</v>
       </c>
-      <c r="E27" s="24">
+      <c r="F27" s="24">
         <v>23</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="G27" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="H27" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="I27" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="J27" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J27" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K27" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" s="35">
         <v>2050</v>
       </c>
-      <c r="M27" s="56">
+      <c r="N27" s="56">
         <f>1610000-980000</f>
         <v>630000</v>
       </c>
-      <c r="N27" s="61">
+      <c r="O27" s="61">
         <v>17360484</v>
       </c>
-      <c r="O27" s="57">
+      <c r="P27" s="57">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.6289310827970003E-2</v>
       </c>
-      <c r="P27" s="57"/>
       <c r="Q27" s="57"/>
       <c r="R27" s="57"/>
       <c r="S27" s="57"/>
@@ -4331,14 +4424,15 @@
       <c r="W27" s="57"/>
       <c r="X27" s="57"/>
       <c r="Y27" s="57"/>
-      <c r="Z27" s="4" t="s">
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA27" s="88" t="s">
+      <c r="AB27" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>102</v>
       </c>
@@ -4348,45 +4442,47 @@
       <c r="C28" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="54">
         <v>1410</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>22</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="K28" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" s="5">
         <v>2050</v>
       </c>
-      <c r="M28" s="39">
+      <c r="N28" s="39">
         <f>3500000-2880000</f>
         <v>620000</v>
       </c>
-      <c r="N28" s="55">
+      <c r="O28" s="55">
         <v>17360484</v>
       </c>
-      <c r="O28" s="30">
+      <c r="P28" s="30">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.5713290021176826E-2</v>
       </c>
-      <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
@@ -4396,14 +4492,15 @@
       <c r="W28" s="30"/>
       <c r="X28" s="30"/>
       <c r="Y28" s="30"/>
-      <c r="Z28" s="4" t="s">
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA28" s="88" t="s">
+      <c r="AB28" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>51</v>
       </c>
@@ -4413,45 +4510,47 @@
       <c r="C29" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="25">
         <v>1338</v>
       </c>
-      <c r="E29" s="24">
+      <c r="F29" s="24">
         <v>29</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="G29" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="H29" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J29" s="24" t="s">
-        <v>205</v>
+      <c r="J29" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" s="35">
         <v>2050</v>
       </c>
-      <c r="M29" s="36">
+      <c r="N29" s="36">
         <f>7039600-6426000</f>
         <v>613600</v>
       </c>
-      <c r="N29" s="61">
+      <c r="O29" s="61">
         <v>17360484</v>
       </c>
-      <c r="O29" s="22">
+      <c r="P29" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.5344636704829194E-2</v>
       </c>
-      <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
@@ -4459,16 +4558,17 @@
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="4" t="s">
+      <c r="X29" s="22"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA29" s="88" t="s">
+      <c r="AB29" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="31" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="31" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>44</v>
       </c>
@@ -4478,44 +4578,46 @@
       <c r="C30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="E30" s="58">
         <v>3820</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>16</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="K30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" s="5">
         <v>2050</v>
       </c>
-      <c r="M30" s="9">
+      <c r="N30" s="9">
         <v>1000000</v>
       </c>
-      <c r="N30" s="9">
+      <c r="O30" s="9">
         <v>31985106</v>
       </c>
-      <c r="O30" s="30">
+      <c r="P30" s="30">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.1264551694779437E-2</v>
       </c>
-      <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
@@ -4525,16 +4627,17 @@
       <c r="W30" s="30"/>
       <c r="X30" s="30"/>
       <c r="Y30" s="30"/>
-      <c r="Z30" s="4" t="s">
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA30" s="88" t="s">
+      <c r="AB30" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>2</v>
@@ -4542,48 +4645,50 @@
       <c r="C31" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7">
         <v>1411</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>21</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>205</v>
+      <c r="J31" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" s="5">
         <v>2060</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>540000</v>
       </c>
-      <c r="N31" s="39">
+      <c r="O31" s="39">
         <v>18786882</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.8743460463529817E-2</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -4591,14 +4696,15 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="4" t="s">
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA31" s="88" t="s">
+      <c r="AB31" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
         <v>36</v>
       </c>
@@ -4608,44 +4714,46 @@
       <c r="C32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="49">
         <v>3870</v>
       </c>
-      <c r="E32" s="24">
+      <c r="F32" s="24">
         <v>15</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="G32" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="H32" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="I32" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="J32" s="35" t="s">
         <v>290</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>211</v>
       </c>
       <c r="K32" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" s="35">
         <v>2040</v>
       </c>
-      <c r="M32" s="50">
+      <c r="N32" s="50">
         <v>1183662</v>
       </c>
-      <c r="N32" s="48">
+      <c r="O32" s="48">
         <v>41991720</v>
       </c>
-      <c r="O32" s="22">
+      <c r="P32" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.8187985631453059E-2</v>
       </c>
-      <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
@@ -4655,14 +4763,15 @@
       <c r="W32" s="22"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="22"/>
-      <c r="Z32" s="4" t="s">
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA32" s="88" t="s">
+      <c r="AB32" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>36</v>
       </c>
@@ -4672,44 +4781,46 @@
       <c r="C33" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="49">
         <v>3870</v>
       </c>
-      <c r="E33" s="24">
+      <c r="F33" s="24">
         <v>15</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="G33" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="H33" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>189</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="J33" s="24" t="s">
-        <v>204</v>
+      <c r="J33" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" s="35">
         <v>2040</v>
       </c>
-      <c r="M33" s="50">
+      <c r="N33" s="50">
         <v>1145365</v>
       </c>
-      <c r="N33" s="48">
+      <c r="O33" s="48">
         <v>41991720</v>
       </c>
-      <c r="O33" s="22">
+      <c r="P33" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.7275972501245485E-2</v>
       </c>
-      <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
@@ -4719,14 +4830,15 @@
       <c r="W33" s="22"/>
       <c r="X33" s="22"/>
       <c r="Y33" s="22"/>
-      <c r="Z33" s="4" t="s">
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA33" s="88" t="s">
+      <c r="AB33" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>119</v>
       </c>
@@ -4736,45 +4848,47 @@
       <c r="C34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="25">
         <v>7662</v>
       </c>
-      <c r="E34" s="24">
+      <c r="F34" s="24">
         <v>7</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="G34" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="H34" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="I34" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="J34" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="K34" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="35">
+      <c r="L34" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" s="35">
         <v>2040</v>
       </c>
-      <c r="M34" s="35">
+      <c r="N34" s="35">
         <f>1200000-400000</f>
         <v>800000</v>
       </c>
-      <c r="N34" s="35">
+      <c r="O34" s="35">
         <v>33179734</v>
       </c>
-      <c r="O34" s="35">
+      <c r="P34" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.4111103482625872E-2</v>
       </c>
-      <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -4784,14 +4898,15 @@
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
-      <c r="Z34" s="4" t="s">
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA34" s="88" t="s">
+      <c r="AB34" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>87</v>
       </c>
@@ -4801,45 +4916,47 @@
       <c r="C35" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="25">
         <v>7662</v>
       </c>
-      <c r="E35" s="24">
+      <c r="F35" s="24">
         <v>6</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="G35" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="H35" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="I35" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="J35" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J35" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K35" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" s="34">
         <v>2030</v>
       </c>
-      <c r="M35" s="37">
+      <c r="N35" s="37">
         <f>8500000-7000000</f>
         <v>1500000</v>
       </c>
-      <c r="N35" s="37">
+      <c r="O35" s="37">
         <v>67172551</v>
       </c>
-      <c r="O35" s="22">
+      <c r="P35" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.2330549869990793E-2</v>
       </c>
-      <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
@@ -4849,14 +4966,15 @@
       <c r="W35" s="22"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
-      <c r="Z35" s="4" t="s">
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA35" s="88" t="s">
+      <c r="AB35" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>87</v>
       </c>
@@ -4866,45 +4984,47 @@
       <c r="C36" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="25">
         <v>7662</v>
       </c>
-      <c r="E36" s="24">
+      <c r="F36" s="24">
         <v>6</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="G36" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="H36" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="I36" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="J36" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J36" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K36" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M36" s="34">
         <v>2030</v>
       </c>
-      <c r="M36" s="37">
+      <c r="N36" s="37">
         <f>8500000-7000000</f>
         <v>1500000</v>
       </c>
-      <c r="N36" s="37">
+      <c r="O36" s="37">
         <v>67172551</v>
       </c>
-      <c r="O36" s="22">
+      <c r="P36" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.2330549869990793E-2</v>
       </c>
-      <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
@@ -4914,14 +5034,15 @@
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
-      <c r="Z36" s="4" t="s">
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA36" s="88" t="s">
+      <c r="AB36" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="78" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>89</v>
       </c>
@@ -4931,45 +5052,47 @@
       <c r="C37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="4">
         <v>39.4</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>42</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="K37" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" s="5">
         <v>2050</v>
       </c>
-      <c r="M37" s="5">
+      <c r="N37" s="5">
         <v>6100</v>
       </c>
-      <c r="N37" s="5">
+      <c r="O37" s="5">
         <f>(281800.94/39440000)*40049519</f>
         <v>286155.98632727843</v>
       </c>
-      <c r="O37" s="5">
+      <c r="P37" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.1317044868749978E-2</v>
       </c>
-      <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
@@ -4979,14 +5102,15 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="4" t="s">
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA37" s="88" t="s">
+      <c r="AB37" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="78" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="78" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4996,70 +5120,73 @@
       <c r="C38" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="58">
         <v>1338</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>28</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H38" s="59" t="s">
-        <v>190</v>
       </c>
       <c r="I38" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="53" t="s">
-        <v>205</v>
+      <c r="J38" s="59" t="s">
+        <v>190</v>
       </c>
       <c r="K38" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="M38" s="5">
         <v>2050</v>
       </c>
-      <c r="M38" s="55">
+      <c r="N38" s="55">
         <v>368568</v>
       </c>
-      <c r="N38" s="55">
+      <c r="O38" s="55">
         <v>17360484</v>
       </c>
-      <c r="O38" s="30">
+      <c r="P38" s="30">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.1230283671814679E-2</v>
       </c>
-      <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
-      <c r="T38" s="30" t="s">
+      <c r="T38" s="30"/>
+      <c r="U38" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="U38" s="30">
+      <c r="V38" s="30">
         <v>171930000000</v>
       </c>
-      <c r="V38" s="30">
+      <c r="W38" s="30">
         <v>1312636325</v>
       </c>
-      <c r="W38" s="30"/>
-      <c r="X38" s="46">
+      <c r="X38" s="30"/>
+      <c r="Y38" s="46">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>130.98068118753304</v>
       </c>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="44" t="s">
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="AA38" s="88" t="s">
+      <c r="AB38" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>58</v>
       </c>
@@ -5069,70 +5196,73 @@
       <c r="C39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="58">
         <v>1380</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>24</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>205</v>
+      <c r="J39" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" s="5">
         <v>2050</v>
       </c>
-      <c r="M39" s="39">
+      <c r="N39" s="39">
         <v>345000</v>
       </c>
-      <c r="N39" s="55">
+      <c r="O39" s="55">
         <v>17360484</v>
       </c>
-      <c r="O39" s="62">
+      <c r="P39" s="62">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.9872717834364527E-2</v>
       </c>
-      <c r="P39" s="62"/>
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="S39" s="62"/>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="62"/>
+      <c r="U39" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="U39" s="5">
+      <c r="V39" s="5">
         <v>222840000000</v>
       </c>
-      <c r="V39" s="30">
+      <c r="W39" s="30">
         <v>1312636325</v>
       </c>
-      <c r="W39" s="5"/>
-      <c r="X39" s="46">
+      <c r="X39" s="5"/>
+      <c r="Y39" s="46">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>169.76522419490411</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="4" t="s">
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA39" s="88" t="s">
+      <c r="AB39" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="72" t="s">
         <v>41</v>
       </c>
@@ -5142,45 +5272,47 @@
       <c r="C40" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="102">
+      <c r="D40" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="102">
         <v>7821</v>
       </c>
-      <c r="E40" s="76">
+      <c r="F40" s="76">
         <v>1</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="G40" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="H40" s="72" t="s">
         <v>186</v>
-      </c>
-      <c r="H40" s="72" t="s">
-        <v>289</v>
       </c>
       <c r="I40" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="J40" s="76" t="s">
-        <v>205</v>
+      <c r="J40" s="72" t="s">
+        <v>289</v>
       </c>
       <c r="K40" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="L40" s="72">
+      <c r="L40" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="M40" s="72">
         <v>2035</v>
       </c>
-      <c r="M40" s="79">
+      <c r="N40" s="79">
         <f>40000000/30</f>
         <v>1333333.3333333333</v>
       </c>
-      <c r="N40" s="79">
+      <c r="O40" s="79">
         <v>67172551</v>
       </c>
-      <c r="O40" s="79">
+      <c r="P40" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.9849377662214038E-2</v>
       </c>
-      <c r="P40" s="79"/>
       <c r="Q40" s="79"/>
       <c r="R40" s="79"/>
       <c r="S40" s="79"/>
@@ -5190,14 +5322,15 @@
       <c r="W40" s="79"/>
       <c r="X40" s="79"/>
       <c r="Y40" s="79"/>
-      <c r="Z40" s="4" t="s">
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA40" s="88" t="s">
+      <c r="AB40" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="72" t="s">
         <v>218</v>
       </c>
@@ -5207,49 +5340,51 @@
       <c r="C41" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="75">
+      <c r="D41" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="75">
         <v>1241</v>
       </c>
-      <c r="E41" s="76">
+      <c r="F41" s="76">
         <v>32</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="G41" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="H41" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="H41" s="76" t="s">
+      <c r="I41" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="J41" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="J41" s="72" t="s">
-        <v>205</v>
-      </c>
       <c r="K41" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="L41" s="72">
+      <c r="L41" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M41" s="72">
         <v>2030</v>
       </c>
-      <c r="M41" s="77">
+      <c r="N41" s="77">
         <f>8000000/40</f>
         <v>200000</v>
       </c>
-      <c r="N41" s="77">
+      <c r="O41" s="77">
         <v>10593963</v>
       </c>
-      <c r="O41" s="72">
+      <c r="P41" s="72">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.8878676468853064E-2</v>
       </c>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72" t="s">
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="R41" s="72"/>
       <c r="S41" s="72"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
@@ -5257,14 +5392,15 @@
       <c r="W41" s="72"/>
       <c r="X41" s="72"/>
       <c r="Y41" s="72"/>
-      <c r="Z41" s="4" t="s">
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA41" s="88" t="s">
+      <c r="AB41" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
         <v>119</v>
       </c>
@@ -5274,45 +5410,47 @@
       <c r="C42" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="25">
         <v>7662</v>
       </c>
-      <c r="E42" s="24">
+      <c r="F42" s="24">
         <v>7</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="G42" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="H42" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="I42" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="J42" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="K42" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="K42" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="L42" s="35">
+      <c r="L42" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" s="35">
         <v>2040</v>
       </c>
-      <c r="M42" s="41">
+      <c r="N42" s="41">
         <f>2550000-1800000</f>
         <v>750000</v>
       </c>
-      <c r="N42" s="35">
+      <c r="O42" s="35">
         <v>40109096</v>
       </c>
-      <c r="O42" s="35">
+      <c r="P42" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.8699000346455077E-2</v>
       </c>
-      <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
@@ -5322,14 +5460,15 @@
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
-      <c r="Z42" s="4" t="s">
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA42" s="88" t="s">
+      <c r="AB42" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
@@ -5339,45 +5478,47 @@
       <c r="C43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="4">
         <v>39.4</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>42</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="K43" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M43" s="5">
         <v>2050</v>
       </c>
-      <c r="M43" s="5">
+      <c r="N43" s="5">
         <v>5300</v>
       </c>
-      <c r="N43" s="5">
+      <c r="O43" s="5">
         <f>(281800.94/39440000)*40049519</f>
         <v>286155.98632727843</v>
       </c>
-      <c r="O43" s="5">
+      <c r="P43" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.8521366853176211E-2</v>
       </c>
-      <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
@@ -5387,14 +5528,15 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="4" t="s">
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA43" s="88" t="s">
+      <c r="AB43" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>49</v>
       </c>
@@ -5404,44 +5546,46 @@
       <c r="C44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="25">
         <v>7405</v>
       </c>
-      <c r="E44" s="24">
+      <c r="F44" s="24">
         <v>9</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="G44" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="H44" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>289</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="K44" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L44" s="35">
+      <c r="L44" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M44" s="35">
         <v>2050</v>
       </c>
-      <c r="M44" s="36">
+      <c r="N44" s="36">
         <v>1620000</v>
       </c>
-      <c r="N44" s="26">
+      <c r="O44" s="26">
         <v>91583402</v>
       </c>
-      <c r="O44" s="35">
+      <c r="P44" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.7688794744707127E-2</v>
       </c>
-      <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
@@ -5451,14 +5595,15 @@
       <c r="W44" s="35"/>
       <c r="X44" s="35"/>
       <c r="Y44" s="35"/>
-      <c r="Z44" s="4" t="s">
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA44" s="88" t="s">
+      <c r="AB44" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="59" t="s">
         <v>58</v>
       </c>
@@ -5468,70 +5613,73 @@
       <c r="C45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="58">
         <v>1380</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>24</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>205</v>
+      <c r="J45" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M45" s="5">
         <v>2050</v>
       </c>
-      <c r="M45" s="30">
+      <c r="N45" s="30">
         <v>292000</v>
       </c>
-      <c r="N45" s="55">
+      <c r="O45" s="55">
         <v>17360483</v>
       </c>
-      <c r="O45" s="62">
+      <c r="P45" s="62">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.6819808527216668E-2</v>
       </c>
-      <c r="P45" s="62"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="S45" s="62"/>
-      <c r="T45" s="5" t="s">
+      <c r="T45" s="62"/>
+      <c r="U45" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="U45" s="5">
+      <c r="V45" s="5">
         <v>187110000000</v>
       </c>
-      <c r="V45" s="30">
+      <c r="W45" s="30">
         <v>1312636325</v>
       </c>
-      <c r="W45" s="5"/>
-      <c r="X45" s="46">
+      <c r="X45" s="5"/>
+      <c r="Y45" s="46">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>142.54519430581811</v>
       </c>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="4" t="s">
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA45" s="88" t="s">
+      <c r="AB45" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
         <v>119</v>
       </c>
@@ -5541,45 +5689,47 @@
       <c r="C46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="25">
         <v>7662</v>
       </c>
-      <c r="E46" s="24">
+      <c r="F46" s="24">
         <v>7</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="G46" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="H46" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="I46" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="J46" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="J46" s="65" t="s">
+      <c r="K46" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="L46" s="35">
+      <c r="L46" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M46" s="35">
         <v>2040</v>
       </c>
-      <c r="M46" s="35">
+      <c r="N46" s="35">
         <f>1200000-650000</f>
         <v>550000</v>
       </c>
-      <c r="N46" s="35">
+      <c r="O46" s="35">
         <v>33179734</v>
       </c>
-      <c r="O46" s="35">
+      <c r="P46" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.6576383644305286E-2</v>
       </c>
-      <c r="P46" s="35"/>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
@@ -5589,14 +5739,15 @@
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
       <c r="Y46" s="35"/>
-      <c r="Z46" s="4" t="s">
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA46" s="88" t="s">
+      <c r="AB46" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>42</v>
       </c>
@@ -5606,45 +5757,47 @@
       <c r="C47" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="33">
         <v>7821</v>
       </c>
-      <c r="E47" s="24">
+      <c r="F47" s="24">
         <v>4</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="G47" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="H47" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="J47" s="65" t="s">
-        <v>205</v>
+      <c r="J47" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="K47" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" s="34">
         <v>2050</v>
       </c>
-      <c r="M47" s="27">
+      <c r="N47" s="27">
         <f>(7846000-6598000)+(631000-382000)</f>
         <v>1497000</v>
       </c>
-      <c r="N47" s="26">
+      <c r="O47" s="26">
         <v>91583402</v>
       </c>
-      <c r="O47" s="26">
+      <c r="P47" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.6345756625201584E-2</v>
       </c>
-      <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26"/>
@@ -5654,14 +5807,15 @@
       <c r="W47" s="26"/>
       <c r="X47" s="26"/>
       <c r="Y47" s="26"/>
-      <c r="Z47" s="4" t="s">
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA47" s="88" t="s">
+      <c r="AB47" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>52</v>
       </c>
@@ -5671,63 +5825,66 @@
       <c r="C48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="9">
         <v>1380</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>26</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K48" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48" s="5">
         <v>2030</v>
       </c>
-      <c r="M48" s="9">
+      <c r="N48" s="9">
         <v>190000</v>
       </c>
-      <c r="N48" s="9">
+      <c r="O48" s="9">
         <v>12224379</v>
       </c>
-      <c r="O48" s="46">
+      <c r="P48" s="46">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.5542711822007482E-2</v>
       </c>
-      <c r="P48" s="46"/>
       <c r="Q48" s="46"/>
       <c r="R48" s="46"/>
       <c r="S48" s="46"/>
-      <c r="T48" s="46" t="s">
+      <c r="T48" s="46"/>
+      <c r="U48" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="U48" s="46"/>
       <c r="V48" s="46"/>
       <c r="W48" s="46"/>
       <c r="X48" s="46"/>
       <c r="Y48" s="46"/>
-      <c r="Z48" s="4" t="s">
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA48" s="88" t="s">
+      <c r="AB48" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
         <v>87</v>
       </c>
@@ -5737,45 +5894,47 @@
       <c r="C49" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="25">
         <v>7662</v>
       </c>
-      <c r="E49" s="24">
+      <c r="F49" s="24">
         <v>6</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="G49" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="H49" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="I49" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="J49" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="J49" s="24" t="s">
-        <v>205</v>
-      </c>
       <c r="K49" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L49" s="34">
+      <c r="L49" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" s="34">
         <v>2030</v>
       </c>
-      <c r="M49" s="27">
+      <c r="N49" s="27">
         <f>6500000-5500000</f>
         <v>1000000</v>
       </c>
-      <c r="N49" s="37">
+      <c r="O49" s="37">
         <v>67172551</v>
       </c>
-      <c r="O49" s="22">
+      <c r="P49" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.488703324666053E-2</v>
       </c>
-      <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
@@ -5785,14 +5944,15 @@
       <c r="W49" s="22"/>
       <c r="X49" s="22"/>
       <c r="Y49" s="22"/>
-      <c r="Z49" s="4" t="s">
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA49" s="88" t="s">
+      <c r="AB49" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>49</v>
       </c>
@@ -5802,44 +5962,46 @@
       <c r="C50" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="25">
         <v>7405</v>
       </c>
-      <c r="E50" s="24">
+      <c r="F50" s="24">
         <v>9</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="G50" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="H50" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="I50" s="24" t="s">
         <v>289</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L50" s="35">
+      <c r="L50" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" s="35">
         <v>2050</v>
       </c>
-      <c r="M50" s="36">
+      <c r="N50" s="36">
         <v>1340000</v>
       </c>
-      <c r="N50" s="26">
+      <c r="O50" s="26">
         <v>91583402</v>
       </c>
-      <c r="O50" s="35">
+      <c r="P50" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4631472196239228E-2</v>
       </c>
-      <c r="P50" s="35"/>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
@@ -5849,14 +6011,15 @@
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
       <c r="Y50" s="35"/>
-      <c r="Z50" s="4" t="s">
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA50" s="88" t="s">
+      <c r="AB50" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>50</v>
       </c>
@@ -5866,61 +6029,64 @@
       <c r="C51" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="25">
         <v>7821</v>
       </c>
-      <c r="E51" s="24">
+      <c r="F51" s="24">
         <v>2</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="G51" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="H51" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>190</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K51" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L51" s="26">
+      <c r="L51" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M51" s="26">
         <v>2050</v>
       </c>
-      <c r="M51" s="26">
+      <c r="N51" s="26">
         <v>1300000</v>
       </c>
-      <c r="N51" s="26">
+      <c r="O51" s="26">
         <v>91583402</v>
       </c>
-      <c r="O51" s="26">
+      <c r="P51" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4194711832172384E-2</v>
       </c>
-      <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
-      <c r="T51" s="36"/>
+      <c r="T51" s="26"/>
       <c r="U51" s="36"/>
       <c r="V51" s="36"/>
       <c r="W51" s="36"/>
       <c r="X51" s="36"/>
       <c r="Y51" s="36"/>
-      <c r="Z51" s="4" t="s">
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA51" s="88" t="s">
+      <c r="AB51" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>50</v>
       </c>
@@ -5930,61 +6096,64 @@
       <c r="C52" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="25">
         <v>7821</v>
       </c>
-      <c r="E52" s="24">
+      <c r="F52" s="24">
         <v>2</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="G52" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="H52" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>190</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L52" s="26">
+      <c r="L52" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M52" s="26">
         <v>2050</v>
       </c>
-      <c r="M52" s="26">
+      <c r="N52" s="26">
         <v>1200000</v>
       </c>
-      <c r="N52" s="26">
+      <c r="O52" s="26">
         <v>91583402</v>
       </c>
-      <c r="O52" s="26">
+      <c r="P52" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.3102810922005277E-2</v>
       </c>
-      <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
-      <c r="T52" s="36"/>
+      <c r="T52" s="26"/>
       <c r="U52" s="36"/>
       <c r="V52" s="36"/>
       <c r="W52" s="36"/>
       <c r="X52" s="36"/>
       <c r="Y52" s="36"/>
-      <c r="Z52" s="4" t="s">
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA52" s="88" t="s">
+      <c r="AB52" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="31" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="31" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>50</v>
       </c>
@@ -5994,61 +6163,64 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="25">
         <v>7821</v>
       </c>
-      <c r="E53" s="24">
+      <c r="F53" s="24">
         <v>2</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="G53" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="H53" s="35" t="s">
         <v>123</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="J53" s="65" t="s">
-        <v>205</v>
+      <c r="J53" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="K53" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L53" s="26">
+      <c r="L53" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" s="26">
         <v>2050</v>
       </c>
-      <c r="M53" s="26">
+      <c r="N53" s="26">
         <v>1200000</v>
       </c>
-      <c r="N53" s="26">
+      <c r="O53" s="26">
         <v>91583402</v>
       </c>
-      <c r="O53" s="26">
+      <c r="P53" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.3102810922005277E-2</v>
       </c>
-      <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
-      <c r="T53" s="36"/>
+      <c r="T53" s="26"/>
       <c r="U53" s="36"/>
       <c r="V53" s="36"/>
       <c r="W53" s="36"/>
       <c r="X53" s="36"/>
       <c r="Y53" s="36"/>
-      <c r="Z53" s="4" t="s">
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA53" s="88" t="s">
+      <c r="AB53" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="31" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="31" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>39</v>
       </c>
@@ -6058,77 +6230,80 @@
       <c r="C54" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="44">
         <v>67.5</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>36</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="H54" s="53" t="s">
-        <v>189</v>
       </c>
       <c r="I54" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="J54" s="104" t="s">
-        <v>204</v>
+      <c r="J54" s="53" t="s">
+        <v>189</v>
       </c>
       <c r="K54" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="M54" s="5">
         <v>2045</v>
       </c>
-      <c r="M54" s="45">
+      <c r="N54" s="45">
         <v>9825</v>
       </c>
-      <c r="N54" s="45">
+      <c r="O54" s="45">
         <v>758805</v>
       </c>
-      <c r="O54" s="46">
+      <c r="P54" s="46">
         <f>9825/757000</f>
         <v>1.297886393659181E-2</v>
       </c>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46">
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46">
         <v>3.39</v>
       </c>
-      <c r="R54" s="46">
+      <c r="S54" s="46">
         <v>204000</v>
       </c>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46" t="s">
+      <c r="T54" s="46"/>
+      <c r="U54" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="U54" s="46">
+      <c r="V54" s="46">
         <v>40700000000</v>
       </c>
-      <c r="V54" s="46">
+      <c r="W54" s="46">
         <v>66099100</v>
       </c>
-      <c r="W54" s="46">
+      <c r="X54" s="46">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>3.0862750022314978E-3</v>
       </c>
-      <c r="X54" s="46">
+      <c r="Y54" s="46">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>615.74212054324494</v>
       </c>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="4" t="s">
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA54" s="88" t="s">
+      <c r="AB54" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>104</v>
       </c>
@@ -6138,61 +6313,64 @@
       <c r="C55" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E55" s="24">
         <v>9</v>
       </c>
-      <c r="E55" s="24">
+      <c r="F55" s="24">
         <v>47</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="G55" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="H55" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="J55" s="65" t="s">
+      <c r="J55" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K55" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="K55" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="L55" s="35"/>
+      <c r="L55" s="65" t="s">
+        <v>205</v>
+      </c>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
-      <c r="O55" s="22">
+      <c r="O55" s="35"/>
+      <c r="P55" s="22">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>1.2679489687562004E-2</v>
       </c>
-      <c r="P55" s="22">
+      <c r="Q55" s="22">
         <f>(31973.01+43454.19+59287.41+638302.61+1192.18+1504.09+1935.48+22535.72)/(684.86+1038.91+1597.41+46594.26+25.52+35.92+52.15+1551.72)</f>
         <v>15.513242634122225</v>
       </c>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22">
+      <c r="R55" s="22"/>
+      <c r="S55" s="22">
         <f>0.1095+0.0872</f>
         <v>0.19669999999999999</v>
       </c>
-      <c r="S55" s="22"/>
       <c r="T55" s="22"/>
       <c r="U55" s="22"/>
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="4" t="s">
+      <c r="X55" s="22"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA55" s="88" t="s">
+      <c r="AB55" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="28" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="28" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="63" t="s">
         <v>79</v>
       </c>
@@ -6202,70 +6380,73 @@
       <c r="C56" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="98">
+      <c r="D56" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="98">
         <v>1380</v>
       </c>
-      <c r="E56" s="24">
+      <c r="F56" s="24">
         <v>27</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="G56" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="H56" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="I56" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="J56" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="J56" s="65" t="s">
-        <v>205</v>
-      </c>
       <c r="K56" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" s="35">
         <v>2035</v>
       </c>
-      <c r="M56" s="64">
+      <c r="N56" s="64">
         <v>170000</v>
       </c>
-      <c r="N56" s="35">
+      <c r="O56" s="35">
         <v>13571259</v>
       </c>
-      <c r="O56" s="48">
+      <c r="P56" s="48">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2526472304448689E-2</v>
       </c>
-      <c r="P56" s="48"/>
       <c r="Q56" s="48"/>
       <c r="R56" s="48"/>
       <c r="S56" s="48"/>
-      <c r="T56" s="48" t="s">
+      <c r="T56" s="48"/>
+      <c r="U56" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="U56" s="48">
+      <c r="V56" s="48">
         <v>125350000000</v>
       </c>
-      <c r="V56" s="48">
+      <c r="W56" s="48">
         <v>1399547500</v>
       </c>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48">
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>89.564662864247197</v>
       </c>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="4" t="s">
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA56" s="88" t="s">
+      <c r="AB56" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
@@ -6275,44 +6456,46 @@
       <c r="C57" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="9">
         <v>7405</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>8</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>205</v>
+      <c r="J57" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L57" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M57" s="10">
         <v>2050</v>
       </c>
-      <c r="M57" s="5">
+      <c r="N57" s="5">
         <v>1100000</v>
       </c>
-      <c r="N57" s="11">
+      <c r="O57" s="11">
         <v>91583402</v>
       </c>
-      <c r="O57" s="5">
+      <c r="P57" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2010910011838171E-2</v>
       </c>
-      <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
@@ -6322,14 +6505,15 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
-      <c r="Z57" s="4" t="s">
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA57" s="88" t="s">
+      <c r="AB57" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>50</v>
       </c>
@@ -6339,61 +6523,64 @@
       <c r="C58" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="36">
         <v>7821</v>
       </c>
-      <c r="E58" s="24">
+      <c r="F58" s="24">
         <v>2</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="G58" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="H58" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="I58" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="J58" s="35" t="s">
-        <v>205</v>
+      <c r="J58" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="K58" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M58" s="26">
         <v>2050</v>
       </c>
-      <c r="M58" s="26">
+      <c r="N58" s="26">
         <v>1100000</v>
       </c>
-      <c r="N58" s="26">
+      <c r="O58" s="26">
         <v>91583402</v>
       </c>
-      <c r="O58" s="26">
+      <c r="P58" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2010910011838171E-2</v>
       </c>
-      <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26"/>
-      <c r="T58" s="36"/>
+      <c r="T58" s="26"/>
       <c r="U58" s="36"/>
       <c r="V58" s="36"/>
       <c r="W58" s="36"/>
       <c r="X58" s="36"/>
       <c r="Y58" s="36"/>
-      <c r="Z58" s="4" t="s">
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA58" s="88" t="s">
+      <c r="AB58" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="28" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="28" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>51</v>
       </c>
@@ -6403,71 +6590,74 @@
       <c r="C59" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="25">
         <v>1338</v>
       </c>
-      <c r="E59" s="24">
+      <c r="F59" s="24">
         <v>29</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="G59" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G59" s="35" t="s">
+      <c r="H59" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="J59" s="35" t="s">
-        <v>205</v>
+      <c r="J59" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="K59" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="L59" s="35">
+      <c r="L59" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M59" s="35">
         <v>2050</v>
       </c>
-      <c r="M59" s="36">
+      <c r="N59" s="36">
         <f>7039600-6841400</f>
         <v>198200</v>
       </c>
-      <c r="N59" s="61">
+      <c r="O59" s="61">
         <v>17360484</v>
       </c>
-      <c r="O59" s="22">
+      <c r="P59" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.1416732390640722E-2</v>
       </c>
-      <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
-      <c r="T59" s="22" t="s">
+      <c r="T59" s="22"/>
+      <c r="U59" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="U59" s="22">
+      <c r="V59" s="22">
         <v>167910000000</v>
       </c>
-      <c r="V59" s="22">
+      <c r="W59" s="22">
         <v>1312636325</v>
       </c>
-      <c r="W59" s="22"/>
-      <c r="X59" s="35">
+      <c r="X59" s="22"/>
+      <c r="Y59" s="35">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>127.91814214039826</v>
       </c>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="4" t="s">
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA59" s="88" t="s">
+      <c r="AB59" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>42</v>
       </c>
@@ -6477,45 +6667,47 @@
       <c r="C60" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="33">
         <v>7821</v>
       </c>
-      <c r="E60" s="24">
+      <c r="F60" s="24">
         <v>4</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="G60" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="H60" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="I60" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="J60" s="35" t="s">
-        <v>205</v>
+      <c r="J60" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="K60" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M60" s="34">
         <v>2050</v>
       </c>
-      <c r="M60" s="27">
+      <c r="N60" s="27">
         <f>(6552000-5701000)+(400000-237000)</f>
         <v>1014000</v>
       </c>
-      <c r="N60" s="26">
+      <c r="O60" s="26">
         <v>91583402</v>
       </c>
-      <c r="O60" s="26">
+      <c r="P60" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.1071875229094461E-2</v>
       </c>
-      <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26"/>
@@ -6525,16 +6717,17 @@
       <c r="W60" s="26"/>
       <c r="X60" s="26"/>
       <c r="Y60" s="26"/>
-      <c r="Z60" s="4" t="s">
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA60" s="88" t="s">
+      <c r="AB60" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>15</v>
@@ -6542,70 +6735,73 @@
       <c r="C61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="7">
         <v>7821</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>5</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>289</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M61" s="12">
         <v>2030</v>
       </c>
-      <c r="M61" s="39">
+      <c r="N61" s="39">
         <v>731000</v>
       </c>
-      <c r="N61" s="21">
+      <c r="O61" s="21">
         <v>67172551</v>
       </c>
-      <c r="O61" s="30">
+      <c r="P61" s="30">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.0882421303308847E-2</v>
       </c>
-      <c r="P61" s="30"/>
       <c r="Q61" s="30"/>
       <c r="R61" s="30"/>
       <c r="S61" s="30"/>
-      <c r="T61" s="30">
+      <c r="T61" s="30"/>
+      <c r="U61" s="30">
         <v>1425</v>
       </c>
-      <c r="U61" s="30">
+      <c r="V61" s="30">
         <v>1425000000000</v>
       </c>
-      <c r="V61" s="30">
+      <c r="W61" s="30">
         <v>9709491761</v>
       </c>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30">
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>146.76360360320615</v>
       </c>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="4" t="s">
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA61" s="88" t="s">
+      <c r="AB61" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>37</v>
       </c>
@@ -6615,45 +6811,47 @@
       <c r="C62" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="24">
         <v>37.299999999999997</v>
       </c>
-      <c r="E62" s="24">
+      <c r="F62" s="24">
         <v>45</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="G62" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="H62" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H62" s="86" t="s">
+      <c r="I62" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="I62" s="86" t="s">
+      <c r="J62" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="J62" s="65" t="s">
-        <v>205</v>
-      </c>
       <c r="K62" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L62" s="35">
+      <c r="L62" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M62" s="35">
         <v>2050</v>
       </c>
-      <c r="M62" s="36">
+      <c r="N62" s="36">
         <v>2800</v>
       </c>
-      <c r="N62" s="35">
+      <c r="O62" s="35">
         <f>(281800.94/39440000)*40049519</f>
         <v>286155.98632727843</v>
       </c>
-      <c r="O62" s="35">
+      <c r="P62" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>9.7848730545081874E-3</v>
       </c>
-      <c r="P62" s="35"/>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
@@ -6663,14 +6861,15 @@
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
       <c r="Y62" s="35"/>
-      <c r="Z62" s="4" t="s">
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA62" s="88" t="s">
+      <c r="AB62" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="59" t="s">
         <v>58</v>
       </c>
@@ -6680,72 +6879,75 @@
       <c r="C63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="58">
+      <c r="D63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="58">
         <v>1380</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>24</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>205</v>
+      <c r="J63" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" s="5">
         <v>2050</v>
       </c>
-      <c r="M63" s="30">
+      <c r="N63" s="30">
         <v>160000</v>
       </c>
-      <c r="N63" s="55">
+      <c r="O63" s="55">
         <v>17360482</v>
       </c>
-      <c r="O63" s="62">
+      <c r="P63" s="62">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>9.2163339704508206E-3</v>
       </c>
-      <c r="P63" s="62"/>
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
       <c r="S63" s="62"/>
-      <c r="T63" s="5" t="s">
+      <c r="T63" s="62"/>
+      <c r="U63" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="U63" s="5">
+      <c r="V63" s="5">
         <v>102670000000</v>
       </c>
-      <c r="V63" s="30">
+      <c r="W63" s="30">
         <v>1312636325</v>
       </c>
-      <c r="W63" s="5"/>
-      <c r="X63" s="46">
+      <c r="X63" s="5"/>
+      <c r="Y63" s="46">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>78.216637803315407</v>
       </c>
-      <c r="Y63" s="46"/>
-      <c r="Z63" s="4" t="s">
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA63" s="88" t="s">
+      <c r="AB63" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>15</v>
@@ -6753,70 +6955,73 @@
       <c r="C64" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="7">
         <v>7821</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <v>5</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="G64" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="H64" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>205</v>
+      <c r="J64" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M64" s="12">
         <v>2030</v>
       </c>
-      <c r="M64" s="20">
+      <c r="N64" s="20">
         <v>619000</v>
       </c>
-      <c r="N64" s="21">
+      <c r="O64" s="21">
         <v>67172551</v>
       </c>
-      <c r="O64" s="30">
+      <c r="P64" s="30">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>9.2150735796828684E-3</v>
       </c>
-      <c r="P64" s="30"/>
       <c r="Q64" s="30"/>
       <c r="R64" s="30"/>
       <c r="S64" s="30"/>
-      <c r="T64" s="30">
+      <c r="T64" s="30"/>
+      <c r="U64" s="30">
         <v>1294</v>
       </c>
-      <c r="U64" s="30">
+      <c r="V64" s="30">
         <v>12940000000000</v>
       </c>
-      <c r="V64" s="30">
+      <c r="W64" s="30">
         <v>9709491761</v>
       </c>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30">
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1332.7165127196404</v>
       </c>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="4" t="s">
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA64" s="88" t="s">
+      <c r="AB64" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="72" t="s">
         <v>218</v>
       </c>
@@ -6826,49 +7031,51 @@
       <c r="C65" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="75">
+      <c r="D65" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="75">
         <v>1241</v>
       </c>
-      <c r="E65" s="76">
+      <c r="F65" s="76">
         <v>32</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="G65" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G65" s="72" t="s">
+      <c r="H65" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="H65" s="72" t="s">
+      <c r="I65" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="I65" s="72" t="s">
+      <c r="J65" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="J65" s="105" t="s">
-        <v>205</v>
-      </c>
       <c r="K65" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="L65" s="72">
+      <c r="L65" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="M65" s="72">
         <v>2030</v>
       </c>
-      <c r="M65" s="77">
+      <c r="N65" s="77">
         <f>3800000/40</f>
         <v>95000</v>
       </c>
-      <c r="N65" s="77">
+      <c r="O65" s="77">
         <v>10593963</v>
       </c>
-      <c r="O65" s="72">
+      <c r="P65" s="72">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.9673713227052046E-3</v>
       </c>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72" t="s">
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="R65" s="72"/>
       <c r="S65" s="72"/>
       <c r="T65" s="72"/>
       <c r="U65" s="72"/>
@@ -6876,14 +7083,15 @@
       <c r="W65" s="72"/>
       <c r="X65" s="72"/>
       <c r="Y65" s="72"/>
-      <c r="Z65" s="4" t="s">
+      <c r="Z65" s="72"/>
+      <c r="AA65" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA65" s="88" t="s">
+      <c r="AB65" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
         <v>119</v>
       </c>
@@ -6893,45 +7101,47 @@
       <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="25">
         <v>7662</v>
       </c>
-      <c r="E66" s="24">
+      <c r="F66" s="24">
         <v>7</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="G66" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="H66" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="35" t="s">
+      <c r="I66" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="I66" s="35" t="s">
+      <c r="J66" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J66" s="65" t="s">
+      <c r="K66" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="K66" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="L66" s="35">
+      <c r="L66" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M66" s="35">
         <v>2040</v>
       </c>
-      <c r="M66" s="41">
+      <c r="N66" s="41">
         <f>2550000-2200000</f>
         <v>350000</v>
       </c>
-      <c r="N66" s="35">
+      <c r="O66" s="35">
         <v>40109096</v>
       </c>
-      <c r="O66" s="35">
+      <c r="P66" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.7262001616790364E-3</v>
       </c>
-      <c r="P66" s="35"/>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
@@ -6941,14 +7151,15 @@
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
       <c r="Y66" s="35"/>
-      <c r="Z66" s="4" t="s">
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA66" s="88" t="s">
+      <c r="AB66" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>91</v>
       </c>
@@ -6958,45 +7169,47 @@
       <c r="C67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7">
         <v>1338</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>30</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="J67" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K67" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67" s="5">
         <v>2030</v>
       </c>
-      <c r="M67" s="9">
+      <c r="N67" s="9">
         <f>1429940-(140510+17223+1174779)</f>
         <v>97428</v>
       </c>
-      <c r="N67" s="55">
+      <c r="O67" s="55">
         <v>12224379</v>
       </c>
-      <c r="O67" s="5">
+      <c r="P67" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>7.9699754073397095E-3</v>
       </c>
-      <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -7006,14 +7219,15 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
-      <c r="Z67" s="4" t="s">
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA67" s="88" t="s">
+      <c r="AB67" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>42</v>
       </c>
@@ -7023,45 +7237,47 @@
       <c r="C68" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="33">
+      <c r="D68" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="33">
         <v>7821</v>
       </c>
-      <c r="E68" s="24">
+      <c r="F68" s="24">
         <v>4</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="G68" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="34" t="s">
+      <c r="H68" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="I68" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="J68" s="65" t="s">
-        <v>205</v>
+      <c r="J68" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="K68" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L68" s="34">
+      <c r="L68" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M68" s="34">
         <v>2050</v>
       </c>
-      <c r="M68" s="36">
+      <c r="N68" s="36">
         <f>(5582000-5019000)+(232000-126000)</f>
         <v>669000</v>
       </c>
-      <c r="N68" s="26">
+      <c r="O68" s="26">
         <v>91583402</v>
       </c>
-      <c r="O68" s="22">
+      <c r="P68" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>7.3048170890179422E-3</v>
       </c>
-      <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
@@ -7071,75 +7287,79 @@
       <c r="W68" s="22"/>
       <c r="X68" s="22"/>
       <c r="Y68" s="22"/>
-      <c r="Z68" s="4" t="s">
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA68" s="88" t="s">
+      <c r="AB68" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="10" t="s">
-        <v>300</v>
-      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>205</v>
+      <c r="J69" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L69" s="10">
+      <c r="L69" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M69" s="10">
         <v>2047</v>
       </c>
-      <c r="M69" s="5">
+      <c r="N69" s="5">
         <f>2946000/5</f>
         <v>589200</v>
       </c>
-      <c r="N69" s="5">
+      <c r="O69" s="5">
         <v>88093659</v>
       </c>
-      <c r="O69" s="10">
+      <c r="P69" s="10">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.6883361037370463E-3</v>
       </c>
-      <c r="P69" s="35"/>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
-      <c r="S69" s="91"/>
-      <c r="T69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="91"/>
       <c r="U69" s="35"/>
       <c r="V69" s="35"/>
-      <c r="W69" s="91"/>
+      <c r="W69" s="35"/>
       <c r="X69" s="91"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="4" t="s">
+      <c r="Y69" s="91"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA69" s="88" t="s">
+      <c r="AB69" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="28" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="28" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>80</v>
       </c>
@@ -7149,61 +7369,64 @@
       <c r="C70" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="54">
+      <c r="D70" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" s="54">
         <v>4680</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
         <v>14</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="J70" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K70" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M70" s="5">
         <v>2040</v>
       </c>
-      <c r="M70" s="39">
+      <c r="N70" s="39">
         <v>290000</v>
       </c>
-      <c r="N70" s="30">
+      <c r="O70" s="30">
         <v>45405745</v>
       </c>
-      <c r="O70" s="30">
+      <c r="P70" s="30">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.3868569935368307E-3</v>
       </c>
-      <c r="P70" s="30"/>
       <c r="Q70" s="30"/>
       <c r="R70" s="30"/>
       <c r="S70" s="30"/>
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
       <c r="V70" s="30"/>
-      <c r="W70" s="46"/>
-      <c r="X70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="46"/>
       <c r="Y70" s="30"/>
-      <c r="Z70" s="4" t="s">
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA70" s="88" t="s">
+      <c r="AB70" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>42</v>
       </c>
@@ -7213,45 +7436,47 @@
       <c r="C71" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D71" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="33">
         <v>7821</v>
       </c>
-      <c r="E71" s="24">
+      <c r="F71" s="24">
         <v>4</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="G71" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="34" t="s">
+      <c r="H71" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I71" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J71" s="65" t="s">
-        <v>205</v>
+      <c r="J71" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K71" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L71" s="34">
+      <c r="L71" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M71" s="34">
         <v>2050</v>
       </c>
-      <c r="M71" s="27">
+      <c r="N71" s="27">
         <f>(7846000-7372000)+(631000-539000)</f>
         <v>566000</v>
       </c>
-      <c r="N71" s="26">
+      <c r="O71" s="26">
         <v>91583402</v>
       </c>
-      <c r="O71" s="26">
+      <c r="P71" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>6.1801591515458229E-3</v>
       </c>
-      <c r="P71" s="26"/>
       <c r="Q71" s="26"/>
       <c r="R71" s="26"/>
       <c r="S71" s="26"/>
@@ -7261,135 +7486,142 @@
       <c r="W71" s="26"/>
       <c r="X71" s="26"/>
       <c r="Y71" s="26"/>
-      <c r="Z71" s="4" t="s">
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA71" s="88" t="s">
+      <c r="AB71" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="10" t="s">
-        <v>316</v>
-      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>205</v>
+      <c r="J72" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M72" s="10">
         <v>2047</v>
       </c>
-      <c r="M72" s="10">
+      <c r="N72" s="10">
         <f>2477000/5</f>
         <v>495400</v>
       </c>
-      <c r="N72" s="10">
+      <c r="O72" s="10">
         <v>88093659</v>
       </c>
-      <c r="O72" s="10">
+      <c r="P72" s="10">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.623560261017198E-3</v>
       </c>
-      <c r="P72" s="41"/>
       <c r="Q72" s="41"/>
       <c r="R72" s="41"/>
-      <c r="S72" s="90"/>
-      <c r="T72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="90"/>
       <c r="U72" s="41"/>
       <c r="V72" s="41"/>
-      <c r="W72" s="90"/>
+      <c r="W72" s="41"/>
       <c r="X72" s="90"/>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="4" t="s">
+      <c r="Y72" s="90"/>
+      <c r="Z72" s="41"/>
+      <c r="AA72" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA72" s="88" t="s">
+      <c r="AB72" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="10" t="s">
-        <v>313</v>
-      </c>
+      <c r="F73" s="4"/>
       <c r="G73" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>205</v>
+      <c r="J73" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L73" s="10">
+      <c r="L73" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M73" s="10">
         <v>2050</v>
       </c>
-      <c r="M73" s="10">
+      <c r="N73" s="10">
         <v>96900</v>
       </c>
-      <c r="N73" s="10">
+      <c r="O73" s="10">
         <v>17360484</v>
       </c>
-      <c r="O73" s="10">
+      <c r="P73" s="10">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.5816416178258626E-3</v>
       </c>
-      <c r="P73" s="41"/>
       <c r="Q73" s="41"/>
       <c r="R73" s="41"/>
-      <c r="S73" s="90"/>
-      <c r="T73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="90"/>
       <c r="U73" s="41"/>
       <c r="V73" s="41"/>
-      <c r="W73" s="90"/>
+      <c r="W73" s="41"/>
       <c r="X73" s="90"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="4" t="s">
+      <c r="Y73" s="90"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA73" s="88" t="s">
+      <c r="AB73" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
         <v>46</v>
       </c>
@@ -7399,79 +7631,82 @@
       <c r="C74" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="69">
+      <c r="D74" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="69">
         <v>37.99</v>
       </c>
-      <c r="E74" s="69">
+      <c r="F74" s="69">
         <v>39</v>
       </c>
-      <c r="F74" s="68" t="s">
+      <c r="G74" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="68" t="s">
+      <c r="H74" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="H74" s="68" t="s">
+      <c r="I74" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="I74" s="35" t="s">
+      <c r="J74" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J74" s="84" t="s">
-        <v>205</v>
-      </c>
       <c r="K74" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="L74" s="68">
+      <c r="L74" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M74" s="68">
         <v>2050</v>
       </c>
-      <c r="M74" s="68">
+      <c r="N74" s="68">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>2601.4320899648606</v>
       </c>
-      <c r="N74" s="35">
+      <c r="O74" s="35">
         <v>489530</v>
       </c>
-      <c r="O74" s="35">
+      <c r="P74" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.314142320112885E-3</v>
       </c>
-      <c r="P74" s="35">
+      <c r="Q74" s="35">
         <v>13.130459999999999</v>
       </c>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68">
+      <c r="R74" s="68"/>
+      <c r="S74" s="68">
         <f>218415-184257</f>
         <v>34158</v>
       </c>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68" t="s">
+      <c r="T74" s="68"/>
+      <c r="U74" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="U74" s="68">
+      <c r="V74" s="68">
         <v>2314000000</v>
       </c>
-      <c r="V74" s="5">
+      <c r="W74" s="5">
         <v>34932339</v>
       </c>
-      <c r="W74" s="68">
+      <c r="X74" s="68">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>9.7783317630119196E-4</v>
       </c>
-      <c r="X74" s="5">
+      <c r="Y74" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>66.242343520140466</v>
       </c>
-      <c r="Y74" s="68"/>
-      <c r="Z74" s="4" t="s">
+      <c r="Z74" s="68"/>
+      <c r="AA74" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA74" s="88" t="s">
+      <c r="AB74" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
         <v>49</v>
       </c>
@@ -7481,44 +7716,46 @@
       <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="25">
         <v>7405</v>
       </c>
-      <c r="E75" s="24">
+      <c r="F75" s="24">
         <v>9</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="G75" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G75" s="35" t="s">
+      <c r="H75" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I75" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J75" s="65" t="s">
-        <v>205</v>
+      <c r="J75" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K75" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L75" s="35">
+      <c r="L75" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M75" s="35">
         <v>2050</v>
       </c>
-      <c r="M75" s="36">
+      <c r="N75" s="36">
         <v>470000</v>
       </c>
-      <c r="N75" s="26">
+      <c r="O75" s="26">
         <v>91583402</v>
       </c>
-      <c r="O75" s="35">
+      <c r="P75" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>5.1319342777854E-3</v>
       </c>
-      <c r="P75" s="35"/>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
       <c r="S75" s="35"/>
@@ -7528,14 +7765,15 @@
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
       <c r="Y75" s="35"/>
-      <c r="Z75" s="4" t="s">
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA75" s="88" t="s">
+      <c r="AB75" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
         <v>53</v>
       </c>
@@ -7545,63 +7783,66 @@
       <c r="C76" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="24">
         <v>61</v>
       </c>
-      <c r="E76" s="24">
+      <c r="F76" s="24">
         <v>41</v>
       </c>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35" t="s">
+      <c r="G76" s="35"/>
+      <c r="H76" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H76" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="I76" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="J76" s="65" t="s">
-        <v>205</v>
+      <c r="J76" s="35" t="s">
+        <v>190</v>
       </c>
       <c r="K76" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L76" s="35">
+      <c r="L76" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M76" s="35">
         <v>2060</v>
       </c>
-      <c r="M76" s="36">
+      <c r="N76" s="36">
         <f>(230000*0.2752)/40</f>
         <v>1582.4</v>
       </c>
-      <c r="N76" s="36">
+      <c r="O76" s="36">
         <f>(51815888*7.09)/1000</f>
         <v>367374.64592000004</v>
       </c>
-      <c r="O76" s="35">
+      <c r="P76" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.3073195648471218E-3</v>
       </c>
-      <c r="P76" s="35"/>
       <c r="Q76" s="35"/>
-      <c r="R76" s="35">
+      <c r="R76" s="35"/>
+      <c r="S76" s="35">
         <v>8</v>
       </c>
-      <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
       <c r="Y76" s="35"/>
-      <c r="Z76" s="4" t="s">
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA76" s="88" t="s">
+      <c r="AB76" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
         <v>42</v>
       </c>
@@ -7611,45 +7852,47 @@
       <c r="C77" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D77" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="33">
         <v>7821</v>
       </c>
-      <c r="E77" s="24">
+      <c r="F77" s="24">
         <v>4</v>
       </c>
-      <c r="F77" s="34" t="s">
+      <c r="G77" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G77" s="34" t="s">
+      <c r="H77" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I77" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J77" s="65" t="s">
-        <v>205</v>
+      <c r="J77" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K77" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L77" s="34">
+      <c r="L77" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M77" s="34">
         <v>2050</v>
       </c>
-      <c r="M77" s="27">
+      <c r="N77" s="27">
         <f>(6552000-6224000)+(400000-334000)</f>
         <v>394000</v>
       </c>
-      <c r="N77" s="26">
+      <c r="O77" s="26">
         <v>91583402</v>
       </c>
-      <c r="O77" s="26">
+      <c r="P77" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>4.3020895860583991E-3</v>
       </c>
-      <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
       <c r="S77" s="26"/>
@@ -7659,14 +7902,15 @@
       <c r="W77" s="26"/>
       <c r="X77" s="26"/>
       <c r="Y77" s="26"/>
-      <c r="Z77" s="4" t="s">
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA77" s="88" t="s">
+      <c r="AB77" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>42</v>
       </c>
@@ -7676,45 +7920,47 @@
       <c r="C78" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="47">
+      <c r="D78" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="47">
         <v>7821</v>
       </c>
-      <c r="E78" s="24">
+      <c r="F78" s="24">
         <v>4</v>
       </c>
-      <c r="F78" s="34" t="s">
+      <c r="G78" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="H78" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="H78" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I78" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J78" s="65" t="s">
-        <v>205</v>
+      <c r="J78" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K78" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L78" s="34">
+      <c r="L78" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M78" s="34">
         <v>2050</v>
       </c>
-      <c r="M78" s="27">
+      <c r="N78" s="27">
         <f>(5582000-5333000)+(232000-176000)</f>
         <v>305000</v>
       </c>
-      <c r="N78" s="26">
+      <c r="O78" s="26">
         <v>91583402</v>
       </c>
-      <c r="O78" s="26">
+      <c r="P78" s="26">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.3302977760096748E-3</v>
       </c>
-      <c r="P78" s="26"/>
       <c r="Q78" s="26"/>
       <c r="R78" s="26"/>
       <c r="S78" s="26"/>
@@ -7724,14 +7970,15 @@
       <c r="W78" s="26"/>
       <c r="X78" s="26"/>
       <c r="Y78" s="26"/>
-      <c r="Z78" s="4" t="s">
+      <c r="Z78" s="26"/>
+      <c r="AA78" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA78" s="88" t="s">
+      <c r="AB78" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="80" t="s">
         <v>35</v>
       </c>
@@ -7741,72 +7988,75 @@
       <c r="C79" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="72">
+      <c r="D79" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="72">
         <v>70</v>
       </c>
-      <c r="E79" s="76">
+      <c r="F79" s="76">
         <v>20</v>
       </c>
-      <c r="F79" s="72" t="s">
+      <c r="G79" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G79" s="72" t="s">
+      <c r="H79" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H79" s="72" t="s">
+      <c r="I79" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I79" s="72" t="s">
+      <c r="J79" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="J79" s="105" t="s">
+      <c r="K79" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="K79" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="L79" s="72">
+      <c r="L79" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="M79" s="72">
         <v>2035</v>
       </c>
-      <c r="M79" s="79">
+      <c r="N79" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>1956.5968064967312</v>
       </c>
-      <c r="N79" s="79">
+      <c r="O79" s="79">
         <v>694452</v>
       </c>
-      <c r="O79" s="79">
+      <c r="P79" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.8174687472953225E-3</v>
       </c>
-      <c r="P79" s="79">
+      <c r="Q79" s="79">
         <v>15.49333</v>
       </c>
-      <c r="Q79" s="79"/>
-      <c r="R79" s="81">
+      <c r="R79" s="79"/>
+      <c r="S79" s="81">
         <f>909426/30</f>
         <v>30314.2</v>
       </c>
-      <c r="S79" s="81"/>
-      <c r="T79" s="79"/>
+      <c r="T79" s="81"/>
       <c r="U79" s="79"/>
-      <c r="V79" s="79">
+      <c r="V79" s="79"/>
+      <c r="W79" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W79" s="79">
+      <c r="X79" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.6047527624751961E-5</v>
       </c>
-      <c r="X79" s="79"/>
       <c r="Y79" s="79"/>
-      <c r="Z79" s="4" t="s">
+      <c r="Z79" s="79"/>
+      <c r="AA79" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA79" s="88" t="s">
+      <c r="AB79" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="80" t="s">
         <v>35</v>
       </c>
@@ -7816,72 +8066,75 @@
       <c r="C80" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="72">
+      <c r="D80" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="72">
         <v>70</v>
       </c>
-      <c r="E80" s="76">
+      <c r="F80" s="76">
         <v>20</v>
       </c>
-      <c r="F80" s="72" t="s">
+      <c r="G80" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G80" s="72" t="s">
+      <c r="H80" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H80" s="72" t="s">
+      <c r="I80" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I80" s="72" t="s">
+      <c r="J80" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="J80" s="105" t="s">
-        <v>205</v>
-      </c>
       <c r="K80" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="L80" s="72">
+      <c r="L80" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" s="72">
         <v>2035</v>
       </c>
-      <c r="M80" s="79">
+      <c r="N80" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>1917.69619571777</v>
       </c>
-      <c r="N80" s="79">
+      <c r="O80" s="79">
         <v>694452</v>
       </c>
-      <c r="O80" s="79">
+      <c r="P80" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.7614524772306367E-3</v>
       </c>
-      <c r="P80" s="82">
+      <c r="Q80" s="82">
         <v>15.49333</v>
       </c>
-      <c r="Q80" s="79"/>
-      <c r="R80" s="81">
+      <c r="R80" s="79"/>
+      <c r="S80" s="81">
         <f>891345/30</f>
         <v>29711.5</v>
       </c>
-      <c r="S80" s="81"/>
-      <c r="T80" s="79"/>
+      <c r="T80" s="81"/>
       <c r="U80" s="79"/>
-      <c r="V80" s="79">
+      <c r="V80" s="79"/>
+      <c r="W80" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W80" s="79">
+      <c r="X80" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.5728474346109015E-5</v>
       </c>
-      <c r="X80" s="79"/>
       <c r="Y80" s="79"/>
-      <c r="Z80" s="4" t="s">
+      <c r="Z80" s="79"/>
+      <c r="AA80" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA80" s="88" t="s">
+      <c r="AB80" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="80" t="s">
         <v>35</v>
       </c>
@@ -7891,72 +8144,75 @@
       <c r="C81" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="72">
+      <c r="D81" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="72">
         <v>70</v>
       </c>
-      <c r="E81" s="76">
+      <c r="F81" s="76">
         <v>20</v>
       </c>
-      <c r="F81" s="72" t="s">
+      <c r="G81" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="G81" s="72" t="s">
+      <c r="H81" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="H81" s="72" t="s">
+      <c r="I81" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I81" s="72" t="s">
+      <c r="J81" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="J81" s="105" t="s">
+      <c r="K81" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="K81" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="L81" s="72">
+      <c r="L81" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="M81" s="72">
         <v>2035</v>
       </c>
-      <c r="M81" s="79">
+      <c r="N81" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>1798.3695779624738</v>
       </c>
-      <c r="N81" s="79">
+      <c r="O81" s="79">
         <v>694452</v>
       </c>
-      <c r="O81" s="79">
+      <c r="P81" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.5896240171566559E-3</v>
       </c>
-      <c r="P81" s="79">
+      <c r="Q81" s="79">
         <v>15.49333</v>
       </c>
-      <c r="Q81" s="79"/>
-      <c r="R81" s="81">
+      <c r="R81" s="79"/>
+      <c r="S81" s="81">
         <f>835882/30</f>
         <v>27862.733333333334</v>
       </c>
-      <c r="S81" s="81"/>
-      <c r="T81" s="79"/>
+      <c r="T81" s="81"/>
       <c r="U81" s="79"/>
-      <c r="V81" s="79">
+      <c r="V81" s="79"/>
+      <c r="W81" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W81" s="79">
+      <c r="X81" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.4749786663272128E-5</v>
       </c>
-      <c r="X81" s="79"/>
       <c r="Y81" s="79"/>
-      <c r="Z81" s="4" t="s">
+      <c r="Z81" s="79"/>
+      <c r="AA81" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA81" s="88" t="s">
+      <c r="AB81" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="80" t="s">
         <v>254</v>
       </c>
@@ -7966,72 +8222,75 @@
       <c r="C82" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="72">
+      <c r="D82" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="72">
         <v>70</v>
       </c>
-      <c r="E82" s="76">
+      <c r="F82" s="76">
         <v>20</v>
       </c>
-      <c r="F82" s="72" t="s">
+      <c r="G82" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="G82" s="72" t="s">
+      <c r="H82" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="H82" s="72" t="s">
+      <c r="I82" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I82" s="72" t="s">
+      <c r="J82" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="J82" s="105" t="s">
-        <v>205</v>
-      </c>
       <c r="K82" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="L82" s="72">
+      <c r="L82" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="M82" s="72">
         <v>2035</v>
       </c>
-      <c r="M82" s="79">
+      <c r="N82" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>1579.5184121166978</v>
       </c>
-      <c r="N82" s="79">
+      <c r="O82" s="79">
         <v>694452</v>
       </c>
-      <c r="O82" s="79">
+      <c r="P82" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.2744817670864192E-3</v>
       </c>
-      <c r="P82" s="82">
+      <c r="Q82" s="82">
         <v>15.49333</v>
       </c>
-      <c r="Q82" s="79"/>
-      <c r="R82" s="81">
+      <c r="R82" s="79"/>
+      <c r="S82" s="81">
         <f>734160/30</f>
         <v>24472</v>
       </c>
-      <c r="S82" s="81"/>
-      <c r="T82" s="79"/>
+      <c r="T82" s="81"/>
       <c r="U82" s="79"/>
-      <c r="V82" s="79">
+      <c r="V82" s="79"/>
+      <c r="W82" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W82" s="79">
+      <c r="X82" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.295482302132103E-5</v>
       </c>
-      <c r="X82" s="79"/>
       <c r="Y82" s="79"/>
-      <c r="Z82" s="4" t="s">
+      <c r="Z82" s="79"/>
+      <c r="AA82" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA82" s="88" t="s">
+      <c r="AB82" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>272</v>
       </c>
@@ -8041,48 +8300,50 @@
       <c r="C83" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E83" s="5">
         <v>503</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>18</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="J83" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K83" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M83" s="5">
         <v>2050</v>
       </c>
-      <c r="M83" s="5">
+      <c r="N83" s="5">
         <v>80000</v>
       </c>
-      <c r="N83" s="5">
+      <c r="O83" s="5">
         <v>38337222</v>
       </c>
-      <c r="O83" s="5">
+      <c r="P83" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>2.0867448350848166E-3</v>
       </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5" t="s">
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
@@ -8090,14 +8351,15 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
-      <c r="Z83" s="4" t="s">
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA83" s="88" t="s">
+      <c r="AB83" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:27" s="31" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" s="31" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
         <v>87</v>
       </c>
@@ -8107,45 +8369,47 @@
       <c r="C84" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D84" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="36">
         <v>7662</v>
       </c>
-      <c r="E84" s="24">
+      <c r="F84" s="24">
         <v>6</v>
       </c>
-      <c r="F84" s="34" t="s">
+      <c r="G84" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="G84" s="34" t="s">
+      <c r="H84" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="H84" s="35" t="s">
+      <c r="I84" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I84" s="35" t="s">
+      <c r="J84" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J84" s="65" t="s">
-        <v>205</v>
-      </c>
       <c r="K84" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L84" s="34">
+      <c r="L84" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M84" s="34">
         <v>2030</v>
       </c>
-      <c r="M84" s="27">
+      <c r="N84" s="27">
         <f>6500000-6400000</f>
         <v>100000</v>
       </c>
-      <c r="N84" s="37">
+      <c r="O84" s="37">
         <v>67172551</v>
       </c>
-      <c r="O84" s="22">
+      <c r="P84" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.488703324666053E-3</v>
       </c>
-      <c r="P84" s="22"/>
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
@@ -8155,14 +8419,15 @@
       <c r="W84" s="22"/>
       <c r="X84" s="22"/>
       <c r="Y84" s="22"/>
-      <c r="Z84" s="4" t="s">
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA84" s="88" t="s">
+      <c r="AB84" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="28" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" s="28" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
         <v>87</v>
       </c>
@@ -8172,45 +8437,47 @@
       <c r="C85" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="25">
+      <c r="D85" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="25">
         <v>7662</v>
       </c>
-      <c r="E85" s="24">
+      <c r="F85" s="24">
         <v>6</v>
       </c>
-      <c r="F85" s="34" t="s">
+      <c r="G85" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G85" s="35" t="s">
+      <c r="H85" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H85" s="35" t="s">
+      <c r="I85" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I85" s="35" t="s">
+      <c r="J85" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="J85" s="65" t="s">
-        <v>205</v>
-      </c>
       <c r="K85" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L85" s="34">
+      <c r="L85" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" s="34">
         <v>2030</v>
       </c>
-      <c r="M85" s="27">
+      <c r="N85" s="27">
         <f>6500000-6400000</f>
         <v>100000</v>
       </c>
-      <c r="N85" s="37">
+      <c r="O85" s="37">
         <v>67172551</v>
       </c>
-      <c r="O85" s="22">
+      <c r="P85" s="22">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.488703324666053E-3</v>
       </c>
-      <c r="P85" s="22"/>
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="22"/>
@@ -8220,14 +8487,15 @@
       <c r="W85" s="22"/>
       <c r="X85" s="22"/>
       <c r="Y85" s="22"/>
-      <c r="Z85" s="4" t="s">
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA85" s="88" t="s">
+      <c r="AB85" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="80" t="s">
         <v>35</v>
       </c>
@@ -8237,72 +8505,75 @@
       <c r="C86" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D86" s="72">
+      <c r="D86" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="72">
         <v>70</v>
       </c>
-      <c r="E86" s="76">
+      <c r="F86" s="76">
         <v>20</v>
       </c>
-      <c r="F86" s="72" t="s">
+      <c r="G86" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G86" s="72" t="s">
+      <c r="H86" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H86" s="72" t="s">
+      <c r="I86" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I86" s="72" t="s">
+      <c r="J86" s="72" t="s">
         <v>259</v>
-      </c>
-      <c r="J86" s="105" t="s">
-        <v>208</v>
       </c>
       <c r="K86" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="L86" s="72">
+      <c r="L86" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="M86" s="72">
         <v>2035</v>
       </c>
-      <c r="M86" s="79">
+      <c r="N86" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>1025.4685870231247</v>
       </c>
-      <c r="N86" s="79">
+      <c r="O86" s="79">
         <v>694452</v>
       </c>
-      <c r="O86" s="79">
+      <c r="P86" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4766586992666516E-3</v>
       </c>
-      <c r="P86" s="79">
+      <c r="Q86" s="79">
         <v>15.895659999999999</v>
       </c>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="81">
+      <c r="R86" s="79"/>
+      <c r="S86" s="81">
         <f>489015/30</f>
         <v>16300.5</v>
       </c>
-      <c r="S86" s="81"/>
-      <c r="T86" s="79"/>
+      <c r="T86" s="81"/>
       <c r="U86" s="79"/>
-      <c r="V86" s="79">
+      <c r="V86" s="79"/>
+      <c r="W86" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W86" s="79">
+      <c r="X86" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>8.6290492260151792E-6</v>
       </c>
-      <c r="X86" s="79"/>
       <c r="Y86" s="79"/>
-      <c r="Z86" s="4" t="s">
+      <c r="Z86" s="79"/>
+      <c r="AA86" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA86" s="88" t="s">
+      <c r="AB86" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="70" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" s="70" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>96</v>
       </c>
@@ -8312,44 +8583,46 @@
       <c r="C87" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="9">
         <v>7405</v>
       </c>
-      <c r="E87" s="4">
+      <c r="F87" s="4">
         <v>8</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>205</v>
+      <c r="J87" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L87" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M87" s="10">
         <v>2050</v>
       </c>
-      <c r="M87" s="5">
+      <c r="N87" s="5">
         <v>130000</v>
       </c>
-      <c r="N87" s="11">
+      <c r="O87" s="11">
         <v>91583402</v>
       </c>
-      <c r="O87" s="5">
+      <c r="P87" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.4194711832172385E-3</v>
       </c>
-      <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
@@ -8359,14 +8632,15 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
-      <c r="Z87" s="4" t="s">
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA87" s="88" t="s">
+      <c r="AB87" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="80" t="s">
         <v>254</v>
       </c>
@@ -8376,72 +8650,75 @@
       <c r="C88" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="72">
+      <c r="D88" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="72">
         <v>70</v>
       </c>
-      <c r="E88" s="76">
+      <c r="F88" s="76">
         <v>20</v>
       </c>
-      <c r="F88" s="72" t="s">
+      <c r="G88" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="G88" s="72" t="s">
+      <c r="H88" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="H88" s="72" t="s">
+      <c r="I88" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I88" s="72" t="s">
+      <c r="J88" s="72" t="s">
         <v>259</v>
-      </c>
-      <c r="J88" s="105" t="s">
-        <v>208</v>
       </c>
       <c r="K88" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="L88" s="72">
+      <c r="L88" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="M88" s="72">
         <v>2035</v>
       </c>
-      <c r="M88" s="79">
+      <c r="N88" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>864.91532908982708</v>
       </c>
-      <c r="N88" s="79">
+      <c r="O88" s="79">
         <v>694452</v>
       </c>
-      <c r="O88" s="79">
+      <c r="P88" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.2454645232353382E-3</v>
       </c>
-      <c r="P88" s="79">
+      <c r="Q88" s="79">
         <v>15.895659999999999</v>
       </c>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="81">
+      <c r="R88" s="79"/>
+      <c r="S88" s="81">
         <f>412452/30</f>
         <v>13748.4</v>
       </c>
-      <c r="S88" s="81"/>
-      <c r="T88" s="79"/>
+      <c r="T88" s="81"/>
       <c r="U88" s="79"/>
-      <c r="V88" s="79">
+      <c r="V88" s="79"/>
+      <c r="W88" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W88" s="79">
+      <c r="X88" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>7.2780356663260069E-6</v>
       </c>
-      <c r="X88" s="79"/>
       <c r="Y88" s="79"/>
-      <c r="Z88" s="4" t="s">
+      <c r="Z88" s="79"/>
+      <c r="AA88" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA88" s="88" t="s">
+      <c r="AB88" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="30" t="s">
         <v>45</v>
       </c>
@@ -8451,69 +8728,72 @@
       <c r="C89" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="46">
+      <c r="D89" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="46">
         <v>51</v>
       </c>
-      <c r="E89" s="4">
+      <c r="F89" s="4">
         <v>38</v>
       </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="J89" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K89" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M89" s="5">
         <v>2050</v>
       </c>
-      <c r="M89" s="5">
+      <c r="N89" s="5">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>357.59480614911121</v>
       </c>
-      <c r="N89" s="5">
+      <c r="O89" s="5">
         <v>346171</v>
       </c>
-      <c r="O89" s="5">
+      <c r="P89" s="5">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>1.0330004712962991E-3</v>
       </c>
-      <c r="P89" s="5">
+      <c r="Q89" s="5">
         <v>9.4772069999999999</v>
       </c>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5">
+      <c r="R89" s="5"/>
+      <c r="S89" s="5">
         <v>3389</v>
       </c>
-      <c r="S89" s="5"/>
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
-      <c r="V89" s="5">
+      <c r="V89" s="5"/>
+      <c r="W89" s="5">
         <v>25807197</v>
       </c>
-      <c r="W89" s="46">
+      <c r="X89" s="46">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.3131995698719237E-4</v>
       </c>
-      <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
-      <c r="Z89" s="4" t="s">
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA89" s="88" t="s">
+      <c r="AB89" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="80" t="s">
         <v>35</v>
       </c>
@@ -8523,72 +8803,75 @@
       <c r="C90" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D90" s="72">
+      <c r="D90" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="72">
         <v>70</v>
       </c>
-      <c r="E90" s="76">
+      <c r="F90" s="76">
         <v>20</v>
       </c>
-      <c r="F90" s="72" t="s">
+      <c r="G90" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G90" s="72" t="s">
+      <c r="H90" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H90" s="72" t="s">
+      <c r="I90" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I90" s="72" t="s">
+      <c r="J90" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="J90" s="105" t="s">
-        <v>204</v>
       </c>
       <c r="K90" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="L90" s="72">
+      <c r="L90" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="M90" s="72">
         <v>2035</v>
       </c>
-      <c r="M90" s="79">
+      <c r="N90" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>610.91159149296095</v>
       </c>
-      <c r="N90" s="79">
+      <c r="O90" s="79">
         <v>694452</v>
       </c>
-      <c r="O90" s="79">
+      <c r="P90" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>8.7970312057991185E-4</v>
       </c>
-      <c r="P90" s="79">
+      <c r="Q90" s="79">
         <v>15.637560000000001</v>
       </c>
-      <c r="Q90" s="79"/>
-      <c r="R90" s="81">
+      <c r="R90" s="79"/>
+      <c r="S90" s="81">
         <f>286595/30</f>
         <v>9553.1666666666661</v>
       </c>
-      <c r="S90" s="81"/>
-      <c r="T90" s="79"/>
+      <c r="T90" s="81"/>
       <c r="U90" s="79"/>
-      <c r="V90" s="79">
+      <c r="V90" s="79"/>
+      <c r="W90" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W90" s="79">
+      <c r="X90" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>5.0571912168948191E-6</v>
       </c>
-      <c r="X90" s="79"/>
       <c r="Y90" s="79"/>
-      <c r="Z90" s="4" t="s">
+      <c r="Z90" s="79"/>
+      <c r="AA90" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA90" s="88" t="s">
+      <c r="AB90" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>94</v>
       </c>
@@ -8598,70 +8881,73 @@
       <c r="C91" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="9">
         <v>7405</v>
       </c>
-      <c r="E91" s="4">
+      <c r="F91" s="4">
         <v>10</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>205</v>
+      <c r="J91" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" s="5">
         <v>2050</v>
       </c>
-      <c r="M91" s="9">
+      <c r="N91" s="9">
         <v>35550</v>
       </c>
-      <c r="N91" s="11">
+      <c r="O91" s="11">
         <v>91583402</v>
       </c>
-      <c r="O91" s="30">
+      <c r="P91" s="30">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.8817077356440634E-4</v>
       </c>
-      <c r="P91" s="30"/>
       <c r="Q91" s="30"/>
       <c r="R91" s="30"/>
       <c r="S91" s="30"/>
-      <c r="T91" s="30">
+      <c r="T91" s="30"/>
+      <c r="U91" s="30">
         <v>10</v>
       </c>
-      <c r="U91" s="30">
+      <c r="V91" s="30">
         <v>10000000000</v>
       </c>
-      <c r="V91" s="30">
+      <c r="W91" s="30">
         <v>9709491761</v>
       </c>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30">
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>1.0299200252856571</v>
       </c>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="4" t="s">
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA91" s="88" t="s">
+      <c r="AB91" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="80" t="s">
         <v>254</v>
       </c>
@@ -8671,72 +8957,75 @@
       <c r="C92" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="72">
+      <c r="D92" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="72">
         <v>70</v>
       </c>
-      <c r="E92" s="76">
+      <c r="F92" s="76">
         <v>20</v>
       </c>
-      <c r="F92" s="72" t="s">
+      <c r="G92" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="G92" s="72" t="s">
+      <c r="H92" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="H92" s="72" t="s">
+      <c r="I92" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="I92" s="72" t="s">
+      <c r="J92" s="72" t="s">
         <v>189</v>
-      </c>
-      <c r="J92" s="105" t="s">
-        <v>255</v>
       </c>
       <c r="K92" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="L92" s="72">
+      <c r="L92" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="M92" s="72">
         <v>2035</v>
       </c>
-      <c r="M92" s="79">
+      <c r="N92" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>265.61901814179021</v>
       </c>
-      <c r="N92" s="79">
+      <c r="O92" s="79">
         <v>694452</v>
       </c>
-      <c r="O92" s="79">
+      <c r="P92" s="79">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>3.8248722466317358E-4</v>
       </c>
-      <c r="P92" s="79">
+      <c r="Q92" s="79">
         <v>15.637560000000001</v>
       </c>
-      <c r="Q92" s="79"/>
-      <c r="R92" s="81">
+      <c r="R92" s="79"/>
+      <c r="S92" s="81">
         <f>124609/30</f>
         <v>4153.6333333333332</v>
       </c>
-      <c r="S92" s="81"/>
-      <c r="T92" s="79"/>
+      <c r="T92" s="81"/>
       <c r="U92" s="79"/>
-      <c r="V92" s="79">
+      <c r="V92" s="79"/>
+      <c r="W92" s="79">
         <v>1889026192</v>
       </c>
-      <c r="W92" s="79">
+      <c r="X92" s="79">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>2.1988225207908251E-6</v>
       </c>
-      <c r="X92" s="79"/>
       <c r="Y92" s="79"/>
-      <c r="Z92" s="4" t="s">
+      <c r="Z92" s="79"/>
+      <c r="AA92" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA92" s="88" t="s">
+      <c r="AB92" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
         <v>71</v>
       </c>
@@ -8746,70 +9035,73 @@
       <c r="C93" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="87">
+      <c r="D93" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="87">
         <v>63.26</v>
       </c>
-      <c r="E93" s="24">
+      <c r="F93" s="24">
         <v>37</v>
       </c>
-      <c r="F93" s="35" t="s">
+      <c r="G93" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="G93" s="35" t="s">
+      <c r="H93" s="35" t="s">
         <v>123</v>
-      </c>
-      <c r="H93" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I93" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J93" s="65" t="s">
-        <v>205</v>
+      <c r="J93" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="K93" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35">
+      <c r="L93" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>-293.64842257013385</v>
       </c>
-      <c r="N93" s="35">
+      <c r="O93" s="35">
         <v>786330</v>
       </c>
-      <c r="O93" s="35">
+      <c r="P93" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>-3.7344171349196117E-4</v>
       </c>
-      <c r="P93" s="35">
+      <c r="Q93" s="35">
         <v>11.240309999999999</v>
       </c>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35">
+      <c r="R93" s="35"/>
+      <c r="S93" s="35">
         <f>-(472000/(2154-2011))</f>
         <v>-3300.6993006993007</v>
       </c>
-      <c r="S93" s="35"/>
       <c r="T93" s="35"/>
       <c r="U93" s="35"/>
-      <c r="V93" s="35">
+      <c r="V93" s="35"/>
+      <c r="W93" s="35">
         <v>71684966</v>
       </c>
-      <c r="W93" s="35">
+      <c r="X93" s="35">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>-4.6044512327721556E-5</v>
       </c>
-      <c r="X93" s="35"/>
       <c r="Y93" s="35"/>
-      <c r="Z93" s="4" t="s">
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA93" s="88" t="s">
+      <c r="AB93" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
         <v>71</v>
       </c>
@@ -8819,70 +9111,73 @@
       <c r="C94" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="87">
+      <c r="D94" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="87">
         <v>63.26</v>
       </c>
-      <c r="E94" s="24">
+      <c r="F94" s="24">
         <v>37</v>
       </c>
-      <c r="F94" s="35" t="s">
+      <c r="G94" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="G94" s="35" t="s">
+      <c r="H94" s="35" t="s">
         <v>123</v>
-      </c>
-      <c r="H94" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="I94" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="J94" s="65" t="s">
-        <v>205</v>
+      <c r="J94" s="35" t="s">
+        <v>190</v>
       </c>
       <c r="K94" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35">
+      <c r="L94" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[conversion_factor]]</f>
         <v>-698.03714009256385</v>
       </c>
-      <c r="N94" s="35">
+      <c r="O94" s="35">
         <v>786330</v>
       </c>
-      <c r="O94" s="35">
+      <c r="P94" s="35">
         <f>Tableau1[[#This Row],[n_prev]]/Tableau1[[#This Row],[n_death]]</f>
         <v>-8.8771525961436524E-4</v>
       </c>
-      <c r="P94" s="35">
+      <c r="Q94" s="35">
         <v>11.240309999999999</v>
       </c>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35">
+      <c r="R94" s="35"/>
+      <c r="S94" s="35">
         <f>-(1122000/(2154-2011))</f>
         <v>-7846.1538461538457</v>
       </c>
-      <c r="S94" s="35"/>
       <c r="T94" s="35"/>
       <c r="U94" s="35"/>
-      <c r="V94" s="35">
+      <c r="V94" s="35"/>
+      <c r="W94" s="35">
         <v>71684966</v>
       </c>
-      <c r="W94" s="35">
+      <c r="X94" s="35">
         <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
         <v>-1.0945326871123641E-4</v>
       </c>
-      <c r="X94" s="35"/>
       <c r="Y94" s="35"/>
-      <c r="Z94" s="4" t="s">
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AA94" s="88" t="s">
+      <c r="AB94" s="88" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>107</v>
       </c>
@@ -8892,33 +9187,35 @@
       <c r="C95" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="5">
         <v>3</v>
       </c>
-      <c r="E95" s="4">
+      <c r="F95" s="4">
         <v>48</v>
       </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J95" s="8" t="s">
-        <v>204</v>
+      <c r="J95" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="K95" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5" t="s">
+      <c r="L95" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
@@ -8930,14 +9227,15 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
-      <c r="Z95" s="4" t="s">
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA95" s="88" t="s">
+      <c r="AB95" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="28" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" s="28" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>48</v>
       </c>
@@ -8947,30 +9245,32 @@
       <c r="C96" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="36">
         <v>1241</v>
       </c>
-      <c r="E96" s="24">
+      <c r="F96" s="24">
         <v>31</v>
       </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35" t="s">
+      <c r="G96" s="35"/>
+      <c r="H96" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H96" s="35" t="s">
-        <v>289</v>
       </c>
       <c r="I96" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="J96" s="65" t="s">
+      <c r="J96" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K96" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="K96" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="L96" s="35"/>
-      <c r="M96" s="48"/>
+      <c r="L96" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M96" s="35"/>
       <c r="N96" s="48"/>
       <c r="O96" s="48"/>
       <c r="P96" s="48"/>
@@ -8983,14 +9283,15 @@
       <c r="W96" s="48"/>
       <c r="X96" s="48"/>
       <c r="Y96" s="48"/>
-      <c r="Z96" s="4" t="s">
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AA96" s="88" t="s">
+      <c r="AB96" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:31" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="89" t="s">
         <v>294</v>
       </c>
@@ -9000,50 +9301,53 @@
       <c r="C97" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="4"/>
+      <c r="G97" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G97" s="26" t="s">
+      <c r="H97" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J97" s="8" t="s">
-        <v>205</v>
+      <c r="J97" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L97" s="10">
+      <c r="L97" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M97" s="10">
         <v>2050</v>
       </c>
-      <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
-      <c r="P97" s="41"/>
+      <c r="P97" s="10"/>
       <c r="Q97" s="41"/>
       <c r="R97" s="41"/>
-      <c r="S97" s="90"/>
-      <c r="T97" s="41"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="90"/>
       <c r="U97" s="41"/>
       <c r="V97" s="41"/>
-      <c r="W97" s="90"/>
+      <c r="W97" s="41"/>
       <c r="X97" s="90"/>
-      <c r="Y97" s="41"/>
-      <c r="Z97" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA97" s="88" t="s">
+      <c r="Y97" s="90"/>
+      <c r="Z97" s="41"/>
+      <c r="AA97" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB97" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:31" s="31" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" s="31" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
         <v>43</v>
       </c>
@@ -9053,30 +9357,32 @@
       <c r="C98" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="67">
+      <c r="D98" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="67">
         <v>38.6</v>
       </c>
-      <c r="E98" s="24">
+      <c r="F98" s="24">
         <v>43</v>
       </c>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35" t="s">
+      <c r="G98" s="35"/>
+      <c r="H98" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H98" s="65" t="s">
+      <c r="I98" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="I98" s="65" t="s">
+      <c r="J98" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="J98" s="65" t="s">
-        <v>205</v>
-      </c>
       <c r="K98" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L98" s="35"/>
-      <c r="M98" s="48"/>
+      <c r="L98" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M98" s="35"/>
       <c r="N98" s="48"/>
       <c r="O98" s="48"/>
       <c r="P98" s="48"/>
@@ -9089,14 +9395,15 @@
       <c r="W98" s="48"/>
       <c r="X98" s="48"/>
       <c r="Y98" s="48"/>
-      <c r="Z98" s="4" t="s">
+      <c r="Z98" s="48"/>
+      <c r="AA98" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" s="88" t="s">
+      <c r="AB98" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:31" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="59" t="s">
         <v>60</v>
       </c>
@@ -9106,33 +9413,35 @@
       <c r="C99" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="104">
+      <c r="D99" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="104">
         <v>21</v>
       </c>
-      <c r="E99" s="4">
+      <c r="F99" s="4">
         <v>46</v>
       </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>189</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L99" s="5"/>
-      <c r="M99" s="30">
+      <c r="L99" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M99" s="5"/>
+      <c r="N99" s="30">
         <v>300</v>
       </c>
-      <c r="N99" s="30"/>
       <c r="O99" s="30"/>
       <c r="P99" s="30"/>
       <c r="Q99" s="30"/>
@@ -9144,14 +9453,15 @@
       <c r="W99" s="30"/>
       <c r="X99" s="30"/>
       <c r="Y99" s="30"/>
-      <c r="Z99" s="4" t="s">
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA99" s="88" t="s">
+      <c r="AB99" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:31" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="89" t="s">
         <v>291</v>
       </c>
@@ -9161,50 +9471,53 @@
       <c r="C100" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="10" t="s">
+      <c r="D100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="H100" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="H100" s="59" t="s">
-        <v>190</v>
       </c>
       <c r="I100" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>205</v>
+      <c r="J100" s="59" t="s">
+        <v>190</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L100" s="10">
+      <c r="L100" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M100" s="10">
         <v>2050</v>
       </c>
-      <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
-      <c r="P100" s="41"/>
+      <c r="P100" s="10"/>
       <c r="Q100" s="41"/>
       <c r="R100" s="41"/>
-      <c r="S100" s="90"/>
-      <c r="T100" s="41"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="90"/>
       <c r="U100" s="41"/>
       <c r="V100" s="41"/>
-      <c r="W100" s="90"/>
+      <c r="W100" s="41"/>
       <c r="X100" s="90"/>
-      <c r="Y100" s="41"/>
-      <c r="Z100" s="4" t="s">
+      <c r="Y100" s="90"/>
+      <c r="Z100" s="41"/>
+      <c r="AA100" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA100" s="88" t="s">
+      <c r="AB100" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="101" spans="1:31" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>92</v>
       </c>
@@ -9214,30 +9527,32 @@
       <c r="C101" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="9">
         <v>6970</v>
       </c>
-      <c r="E101" s="4">
+      <c r="F101" s="4">
         <v>12</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="5"/>
+      <c r="H101" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J101" s="8" t="s">
-        <v>205</v>
+      <c r="J101" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L101" s="5"/>
-      <c r="M101" s="30"/>
+      <c r="L101" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="30"/>
       <c r="O101" s="30"/>
       <c r="P101" s="30"/>
@@ -9250,184 +9565,194 @@
       <c r="W101" s="30"/>
       <c r="X101" s="30"/>
       <c r="Y101" s="30"/>
-      <c r="Z101" s="4" t="s">
+      <c r="Z101" s="30"/>
+      <c r="AA101" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA101" s="88" t="s">
+      <c r="AB101" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:31" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="B102" s="99" t="s">
+      <c r="C102" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="D102" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G102" s="10" t="s">
+      <c r="H102" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H102" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="I102" s="68" t="s">
+      <c r="I102" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J102" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K102" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L102" s="10">
+      <c r="L102" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M102" s="10">
         <v>2050</v>
       </c>
-      <c r="M102" s="10">
+      <c r="N102" s="10">
         <v>3230</v>
       </c>
-      <c r="N102" s="10"/>
       <c r="O102" s="10"/>
-      <c r="P102" s="41"/>
+      <c r="P102" s="10"/>
       <c r="Q102" s="41"/>
       <c r="R102" s="41"/>
-      <c r="S102" s="90"/>
-      <c r="T102" s="41"/>
+      <c r="S102" s="41"/>
+      <c r="T102" s="90"/>
       <c r="U102" s="41"/>
       <c r="V102" s="41"/>
-      <c r="W102" s="90"/>
+      <c r="W102" s="41"/>
       <c r="X102" s="90"/>
-      <c r="Y102" s="41"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="88" t="s">
+      <c r="Y102" s="90"/>
+      <c r="Z102" s="41"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="88" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="B103" s="99" t="s">
+      <c r="C103" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="10" t="s">
+      <c r="D103" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G103" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="I103" s="68" t="s">
+      <c r="J103" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K103" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L103" s="10">
+      <c r="L103" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M103" s="10">
         <v>2050</v>
       </c>
-      <c r="M103" s="10">
-        <f>M102+1940</f>
+      <c r="N103" s="10">
+        <f>N102+1940</f>
         <v>5170</v>
       </c>
-      <c r="N103" s="10"/>
       <c r="O103" s="10"/>
-      <c r="P103" s="41"/>
+      <c r="P103" s="10"/>
       <c r="Q103" s="41"/>
       <c r="R103" s="41"/>
-      <c r="S103" s="90"/>
-      <c r="T103" s="41"/>
+      <c r="S103" s="41"/>
+      <c r="T103" s="90"/>
       <c r="U103" s="41"/>
       <c r="V103" s="41"/>
-      <c r="W103" s="90"/>
+      <c r="W103" s="41"/>
       <c r="X103" s="90"/>
-      <c r="Y103" s="41"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4" t="s">
+      <c r="Y103" s="90"/>
+      <c r="Z103" s="41"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AE103" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF103" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104" s="99" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="99" t="s">
+      <c r="C104" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="G104" s="26" t="s">
+      <c r="H104" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>205</v>
+      <c r="J104" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L104" s="10">
+      <c r="L104" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M104" s="10">
         <v>2045</v>
       </c>
-      <c r="M104" s="5">
+      <c r="N104" s="5">
         <f>(14+32)/2</f>
         <v>23</v>
       </c>
-      <c r="N104" s="5"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="35"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="10"/>
       <c r="Q104" s="35"/>
       <c r="R104" s="35"/>
-      <c r="S104" s="91"/>
-      <c r="T104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="91"/>
       <c r="U104" s="35"/>
       <c r="V104" s="35"/>
-      <c r="W104" s="91"/>
+      <c r="W104" s="35"/>
       <c r="X104" s="91"/>
-      <c r="Y104" s="35"/>
-      <c r="Z104" s="4"/>
-      <c r="AA104" s="4" t="s">
+      <c r="Y104" s="91"/>
+      <c r="Z104" s="35"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AB104" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC104" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
         <v>110</v>
       </c>
@@ -9437,29 +9762,31 @@
       <c r="C105" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="E105" s="35">
         <v>528</v>
       </c>
-      <c r="E105" s="24">
+      <c r="F105" s="24">
         <v>17</v>
       </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="51" t="s">
+      <c r="G105" s="35"/>
+      <c r="H105" s="51" t="s">
         <v>186</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="I105" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="J105" s="65" t="s">
-        <v>205</v>
+      <c r="J105" s="35" t="s">
+        <v>190</v>
       </c>
       <c r="K105" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L105" s="35"/>
+      <c r="L105" s="65" t="s">
+        <v>205</v>
+      </c>
       <c r="M105" s="35"/>
       <c r="N105" s="35"/>
       <c r="O105" s="35"/>
@@ -9473,23 +9800,24 @@
       <c r="W105" s="35"/>
       <c r="X105" s="35"/>
       <c r="Y105" s="35"/>
-      <c r="Z105" s="4" t="s">
+      <c r="Z105" s="35"/>
+      <c r="AA105" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA105" s="4" t="s">
+      <c r="AB105" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AB105" s="92" t="s">
-        <v>302</v>
-      </c>
       <c r="AC105" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="AD105" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
         <v>98</v>
       </c>
@@ -9499,66 +9827,69 @@
       <c r="C106" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="36">
+      <c r="D106" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="36">
         <v>7405</v>
       </c>
-      <c r="E106" s="24">
+      <c r="F106" s="24">
         <v>11</v>
       </c>
-      <c r="F106" s="35" t="s">
+      <c r="G106" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="G106" s="35" t="s">
+      <c r="H106" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="H106" s="35" t="s">
+      <c r="I106" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="I106" s="35" t="s">
+      <c r="J106" s="35" t="s">
         <v>259</v>
-      </c>
-      <c r="J106" s="65" t="s">
-        <v>208</v>
       </c>
       <c r="K106" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="L106" s="35"/>
-      <c r="M106" s="22"/>
+      <c r="L106" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="M106" s="35"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
-      <c r="S106" s="22">
+      <c r="S106" s="22"/>
+      <c r="T106" s="22">
         <f>125900000/35</f>
         <v>3597142.8571428573</v>
       </c>
-      <c r="T106" s="22"/>
       <c r="U106" s="22"/>
       <c r="V106" s="22"/>
       <c r="W106" s="22"/>
       <c r="X106" s="22"/>
       <c r="Y106" s="22"/>
-      <c r="Z106" s="4" t="s">
+      <c r="Z106" s="22"/>
+      <c r="AA106" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA106" s="4" t="s">
+      <c r="AB106" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AB106" s="92" t="s">
+      <c r="AC106" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD106" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="AC106" s="92" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="AF106" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B107" s="46" t="s">
         <v>23</v>
@@ -9566,29 +9897,31 @@
       <c r="C107" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D107" s="46">
+      <c r="D107" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="E107" s="46">
         <v>100</v>
       </c>
-      <c r="E107" s="4">
+      <c r="F107" s="4">
         <v>34</v>
       </c>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="J107" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J107" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="K107" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L107" s="5"/>
+      <c r="L107" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
@@ -9602,19 +9935,20 @@
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
-      <c r="Z107" s="4" t="s">
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA107" s="4" t="s">
+      <c r="AB107" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AE107" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AF107" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B108" s="48" t="s">
         <v>14</v>
@@ -9622,34 +9956,36 @@
       <c r="C108" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="35">
         <v>80</v>
       </c>
-      <c r="E108" s="24">
+      <c r="F108" s="24">
         <v>35</v>
       </c>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35" t="s">
+      <c r="G108" s="35"/>
+      <c r="H108" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="H108" s="35" t="s">
-        <v>190</v>
       </c>
       <c r="I108" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="J108" s="65" t="s">
-        <v>205</v>
+      <c r="J108" s="35" t="s">
+        <v>190</v>
       </c>
       <c r="K108" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L108" s="35"/>
-      <c r="M108" s="36">
+      <c r="L108" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M108" s="35"/>
+      <c r="N108" s="36">
         <v>14000</v>
       </c>
-      <c r="N108" s="36"/>
-      <c r="O108" s="35"/>
+      <c r="O108" s="36"/>
       <c r="P108" s="35"/>
       <c r="Q108" s="35"/>
       <c r="R108" s="35"/>
@@ -9660,17 +9996,18 @@
       <c r="W108" s="35"/>
       <c r="X108" s="35"/>
       <c r="Y108" s="35"/>
-      <c r="Z108" s="4" t="s">
+      <c r="Z108" s="35"/>
+      <c r="AA108" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA108" s="4" t="s">
+      <c r="AB108" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AE108" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF108" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
         <v>46</v>
       </c>
@@ -9680,75 +10017,78 @@
       <c r="C109" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="68">
+      <c r="D109" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="68">
         <v>37.99</v>
       </c>
-      <c r="E109" s="69">
+      <c r="F109" s="69">
         <v>39</v>
       </c>
-      <c r="F109" s="68" t="s">
+      <c r="G109" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="G109" s="68" t="s">
+      <c r="H109" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="H109" s="68" t="s">
+      <c r="I109" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="I109" s="68" t="s">
+      <c r="J109" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="J109" s="84" t="s">
-        <v>205</v>
-      </c>
       <c r="K109" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="L109" s="68">
+      <c r="L109" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M109" s="68">
         <v>2050</v>
       </c>
-      <c r="M109" s="68"/>
       <c r="N109" s="68"/>
       <c r="O109" s="68"/>
       <c r="P109" s="68"/>
       <c r="Q109" s="68"/>
       <c r="R109" s="68"/>
       <c r="S109" s="68"/>
-      <c r="T109" s="68" t="s">
+      <c r="T109" s="68"/>
+      <c r="U109" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="U109" s="68">
+      <c r="V109" s="68">
         <v>2268000000</v>
       </c>
-      <c r="V109" s="5">
+      <c r="W109" s="5">
         <v>34932339</v>
       </c>
-      <c r="W109" s="68"/>
-      <c r="X109" s="5">
+      <c r="X109" s="68"/>
+      <c r="Y109" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>64.925512145064204</v>
       </c>
-      <c r="Y109" s="68"/>
-      <c r="Z109" s="4" t="s">
+      <c r="Z109" s="68"/>
+      <c r="AA109" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA109" s="4" t="s">
+      <c r="AB109" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AB109" s="92" t="s">
+      <c r="AC109" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD109" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="AC109" s="92" t="s">
+      <c r="AE109" s="92" t="s">
         <v>318</v>
       </c>
-      <c r="AD109" s="92" t="s">
-        <v>319</v>
-      </c>
-      <c r="AE109" s="92" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF109" s="92" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="35" t="s">
         <v>46</v>
       </c>
@@ -9758,69 +10098,72 @@
       <c r="C110" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D110" s="68">
+      <c r="D110" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="68">
         <v>37.99</v>
       </c>
-      <c r="E110" s="84">
+      <c r="F110" s="84">
         <v>39</v>
       </c>
-      <c r="F110" s="68" t="s">
+      <c r="G110" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="G110" s="35" t="s">
+      <c r="H110" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H110" s="68" t="s">
+      <c r="I110" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="I110" s="68" t="s">
+      <c r="J110" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="J110" s="84" t="s">
-        <v>205</v>
-      </c>
       <c r="K110" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="L110" s="68">
+      <c r="L110" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M110" s="68">
         <v>2050</v>
       </c>
-      <c r="M110" s="68"/>
       <c r="N110" s="68"/>
       <c r="O110" s="68"/>
       <c r="P110" s="68"/>
       <c r="Q110" s="68"/>
       <c r="R110" s="68"/>
       <c r="S110" s="68"/>
-      <c r="T110" s="68" t="s">
+      <c r="T110" s="68"/>
+      <c r="U110" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="U110" s="68">
+      <c r="V110" s="68">
         <v>2291000000</v>
       </c>
-      <c r="V110" s="5">
+      <c r="W110" s="5">
         <v>34932339</v>
       </c>
-      <c r="W110" s="68"/>
-      <c r="X110" s="5">
+      <c r="X110" s="68"/>
+      <c r="Y110" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>65.583927832602328</v>
       </c>
-      <c r="Y110" s="68"/>
-      <c r="Z110" s="4" t="s">
+      <c r="Z110" s="68"/>
+      <c r="AA110" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA110" s="4" t="s">
+      <c r="AB110" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AB110" s="92" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC110" s="92" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>78</v>
       </c>
@@ -9830,72 +10173,75 @@
       <c r="C111" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="5">
         <v>37.97</v>
       </c>
-      <c r="E111" s="4">
+      <c r="F111" s="4">
         <v>40</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="G111" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H111" s="59" t="s">
-        <v>190</v>
       </c>
       <c r="I111" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>205</v>
+      <c r="J111" s="59" t="s">
+        <v>190</v>
       </c>
       <c r="K111" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M111" s="5">
         <v>2050</v>
       </c>
-      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
-      <c r="T111" s="5" t="s">
+      <c r="T111" s="5"/>
+      <c r="U111" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U111" s="5">
+      <c r="V111" s="5">
         <v>1000000000</v>
       </c>
-      <c r="V111" s="5">
+      <c r="W111" s="5">
         <v>34932339</v>
       </c>
-      <c r="W111" s="5"/>
-      <c r="X111" s="5">
+      <c r="X111" s="5"/>
+      <c r="Y111" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>28.626769023396918</v>
       </c>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="4" t="s">
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA111" s="4" t="s">
+      <c r="AB111" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="AB111" s="92" t="s">
-        <v>326</v>
       </c>
       <c r="AC111" s="92" t="s">
         <v>325</v>
       </c>
-      <c r="AE111" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="AD111" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>78</v>
       </c>
@@ -9905,69 +10251,72 @@
       <c r="C112" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="5">
         <v>37.97</v>
       </c>
-      <c r="E112" s="4">
+      <c r="F112" s="4">
         <v>40</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="H112" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="H112" s="59" t="s">
-        <v>190</v>
       </c>
       <c r="I112" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J112" s="8" t="s">
-        <v>205</v>
+      <c r="J112" s="59" t="s">
+        <v>190</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="L112" s="5">
+      <c r="L112" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M112" s="5">
         <v>2050</v>
       </c>
-      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
-      <c r="T112" s="5" t="s">
+      <c r="T112" s="5"/>
+      <c r="U112" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="U112" s="5">
+      <c r="V112" s="5">
         <v>1300000000</v>
       </c>
-      <c r="V112" s="5">
+      <c r="W112" s="5">
         <v>34932339</v>
       </c>
-      <c r="W112" s="5"/>
-      <c r="X112" s="5">
+      <c r="X112" s="5"/>
+      <c r="Y112" s="5">
         <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
         <v>37.21479973041599</v>
       </c>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="4" t="s">
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA112" s="4" t="s">
+      <c r="AB112" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AB112" s="92" t="s">
+      <c r="AC112" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD112" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="AC112" s="92" t="s">
-        <v>332</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>340</v>
+      <c r="AF112" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -1256,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1533,9 +1533,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1560,9 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1570,6 +1564,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2537,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
@@ -2802,7 +2799,7 @@
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2884,7 +2881,7 @@
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="99" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -5545,7 +5542,7 @@
       <c r="A42" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="97" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="91" t="s">
@@ -5554,7 +5551,7 @@
       <c r="D42" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="99">
+      <c r="E42" s="98">
         <v>1380</v>
       </c>
       <c r="F42" s="24">
@@ -6670,7 +6667,7 @@
       <c r="D58" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="106">
+      <c r="E58" s="104">
         <v>7821</v>
       </c>
       <c r="F58" s="75">
@@ -7290,10 +7287,10 @@
       <c r="B67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="103" t="s">
+      <c r="C67" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="103" t="s">
+      <c r="D67" s="102" t="s">
         <v>29</v>
       </c>
       <c r="E67" s="7">
@@ -8041,7 +8038,7 @@
       <c r="D78" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="107">
+      <c r="E78" s="105">
         <v>7821</v>
       </c>
       <c r="F78" s="15">
@@ -8239,10 +8236,10 @@
       <c r="B81" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="104" t="s">
+      <c r="C81" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="104" t="s">
+      <c r="D81" s="103" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="80">
@@ -8263,10 +8260,10 @@
       <c r="J81" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="K81" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="L81" s="108" t="s">
+      <c r="K81" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="L81" s="106" t="s">
         <v>204</v>
       </c>
       <c r="M81" s="71">
@@ -8309,10 +8306,10 @@
       <c r="B82" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="104" t="s">
+      <c r="C82" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="104" t="s">
+      <c r="D82" s="103" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="80">
@@ -8333,10 +8330,10 @@
       <c r="J82" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="K82" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="L82" s="108" t="s">
+      <c r="K82" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="L82" s="106" t="s">
         <v>204</v>
       </c>
       <c r="M82" s="71">
@@ -8940,10 +8937,10 @@
       <c r="B91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="97" t="s">
+      <c r="C91" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D91" s="97" t="s">
+      <c r="D91" s="96" t="s">
         <v>29</v>
       </c>
       <c r="E91" s="9">
@@ -9262,145 +9259,144 @@
       </c>
     </row>
     <row r="96" spans="1:28" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" s="42" t="s">
-        <v>106</v>
+      <c r="A96" s="86" t="s">
+        <v>323</v>
+      </c>
+      <c r="B96" s="90" t="s">
+        <v>324</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="4">
-        <v>3</v>
-      </c>
-      <c r="F96" s="4">
-        <v>48</v>
-      </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5" t="s">
-        <v>185</v>
+        <v>76</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5" t="s">
-        <v>112</v>
+        <v>204</v>
+      </c>
+      <c r="M96" s="10">
+        <v>2045</v>
+      </c>
+      <c r="N96" s="5">
+        <f>(14+32)/2</f>
+        <v>23</v>
       </c>
       <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="88"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="35"/>
+      <c r="W96" s="35"/>
+      <c r="X96" s="88"/>
+      <c r="Y96" s="88"/>
+      <c r="Z96" s="35"/>
+      <c r="AA96" s="4"/>
       <c r="AB96" s="85" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:32" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A97" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="105">
-        <v>1241</v>
-      </c>
-      <c r="F97" s="24">
-        <v>31</v>
-      </c>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="I97" s="65" t="s">
+      <c r="A97" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="J97" s="65" t="s">
+      <c r="J97" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="K97" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="L97" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="M97" s="35"/>
-      <c r="N97" s="48"/>
-      <c r="O97" s="48"/>
-      <c r="P97" s="48"/>
-      <c r="Q97" s="48"/>
-      <c r="R97" s="48"/>
-      <c r="S97" s="48"/>
-      <c r="T97" s="48"/>
-      <c r="U97" s="48"/>
-      <c r="V97" s="48"/>
-      <c r="W97" s="48"/>
-      <c r="X97" s="48"/>
-      <c r="Y97" s="48"/>
-      <c r="Z97" s="48"/>
+      <c r="K97" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M97" s="10">
+        <v>2050</v>
+      </c>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="87"/>
+      <c r="U97" s="41"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="41"/>
+      <c r="X97" s="87"/>
+      <c r="Y97" s="87"/>
+      <c r="Z97" s="41"/>
       <c r="AA97" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB97" s="85" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:32" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="B98" s="101" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="B98" s="100" t="s">
+        <v>289</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="4"/>
       <c r="G98" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H98" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H98" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>286</v>
+      <c r="I98" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="J98" s="107" t="s">
+        <v>189</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>204</v>
@@ -9425,96 +9421,94 @@
       <c r="Y98" s="87"/>
       <c r="Z98" s="41"/>
       <c r="AA98" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB98" s="85" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:32" s="28" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" s="48">
-        <v>38.6</v>
-      </c>
-      <c r="F99" s="24">
-        <v>43</v>
-      </c>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35" t="s">
+    <row r="99" spans="1:32" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="B99" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H99" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I99" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J99" s="35" t="s">
+      <c r="I99" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J99" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="K99" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L99" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="M99" s="35"/>
-      <c r="N99" s="48"/>
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
-      <c r="Q99" s="48"/>
-      <c r="R99" s="48"/>
-      <c r="S99" s="48"/>
-      <c r="T99" s="48"/>
-      <c r="U99" s="48"/>
-      <c r="V99" s="48"/>
-      <c r="W99" s="48"/>
-      <c r="X99" s="48"/>
-      <c r="Y99" s="48"/>
-      <c r="Z99" s="48"/>
-      <c r="AA99" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="K99" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M99" s="10">
+        <v>2050</v>
+      </c>
+      <c r="N99" s="10">
+        <v>3230</v>
+      </c>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="41"/>
+      <c r="T99" s="87"/>
+      <c r="U99" s="41"/>
+      <c r="V99" s="41"/>
+      <c r="W99" s="41"/>
+      <c r="X99" s="87"/>
+      <c r="Y99" s="87"/>
+      <c r="Z99" s="41"/>
+      <c r="AA99" s="4"/>
       <c r="AB99" s="85" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="100" spans="1:32" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100" s="59" t="s">
-        <v>59</v>
+    <row r="100" spans="1:32" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" s="92" t="s">
+        <v>301</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E100" s="46">
-        <v>21</v>
-      </c>
-      <c r="F100" s="4">
-        <v>46</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5" t="s">
-        <v>123</v>
+        <v>347</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>188</v>
+        <v>305</v>
+      </c>
+      <c r="J100" s="67" t="s">
+        <v>287</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>204</v>
@@ -9522,78 +9516,92 @@
       <c r="L100" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="M100" s="5"/>
-      <c r="N100" s="30">
-        <v>300</v>
-      </c>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="30"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="30"/>
-      <c r="AA100" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="M100" s="10">
+        <v>2050</v>
+      </c>
+      <c r="N100" s="10">
+        <f>N99+1940</f>
+        <v>5170</v>
+      </c>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="87"/>
+      <c r="U100" s="41"/>
+      <c r="V100" s="41"/>
+      <c r="W100" s="41"/>
+      <c r="X100" s="87"/>
+      <c r="Y100" s="87"/>
+      <c r="Z100" s="41"/>
+      <c r="AA100" s="4"/>
       <c r="AB100" s="85" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:32" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="86" t="s">
-        <v>288</v>
-      </c>
-      <c r="B101" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H101" s="10" t="s">
+      <c r="A101" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="67">
+        <v>37.99</v>
+      </c>
+      <c r="F101" s="82">
+        <v>39</v>
+      </c>
+      <c r="G101" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="H101" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="I101" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="J101" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="K101" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M101" s="10">
+      <c r="I101" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="J101" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="K101" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="L101" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="M101" s="67">
         <v>2050</v>
       </c>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="87"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="41"/>
-      <c r="W101" s="41"/>
-      <c r="X101" s="87"/>
-      <c r="Y101" s="87"/>
-      <c r="Z101" s="41"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="67"/>
+      <c r="S101" s="67"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="V101" s="67">
+        <v>2268000000</v>
+      </c>
+      <c r="W101" s="5">
+        <v>34932339</v>
+      </c>
+      <c r="X101" s="67"/>
+      <c r="Y101" s="5">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>64.925512145064204</v>
+      </c>
+      <c r="Z101" s="67"/>
       <c r="AA101" s="4" t="s">
         <v>270</v>
       </c>
@@ -9601,55 +9609,68 @@
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" s="9">
-        <v>6970</v>
-      </c>
-      <c r="F102" s="4">
-        <v>12</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M102" s="5"/>
-      <c r="N102" s="30"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="30"/>
-      <c r="R102" s="30"/>
-      <c r="S102" s="30"/>
-      <c r="T102" s="30"/>
-      <c r="U102" s="30"/>
-      <c r="V102" s="30"/>
-      <c r="W102" s="30"/>
-      <c r="X102" s="30"/>
-      <c r="Y102" s="30"/>
-      <c r="Z102" s="30"/>
+    <row r="102" spans="1:32" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="67">
+        <v>37.99</v>
+      </c>
+      <c r="F102" s="68">
+        <v>39</v>
+      </c>
+      <c r="G102" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="H102" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I102" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="J102" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="K102" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="L102" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="M102" s="67">
+        <v>2050</v>
+      </c>
+      <c r="N102" s="67"/>
+      <c r="O102" s="67"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="67"/>
+      <c r="R102" s="67"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="V102" s="67">
+        <v>2291000000</v>
+      </c>
+      <c r="W102" s="5">
+        <v>34932339</v>
+      </c>
+      <c r="X102" s="67"/>
+      <c r="Y102" s="5">
+        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
+        <v>65.583927832602328</v>
+      </c>
+      <c r="Z102" s="67"/>
       <c r="AA102" s="4" t="s">
         <v>270</v>
       </c>
@@ -9661,57 +9682,59 @@
       </c>
     </row>
     <row r="103" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="B103" s="92" t="s">
-        <v>301</v>
+      <c r="A103" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="59" t="s">
+        <v>106</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H103" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="5">
+        <v>3</v>
+      </c>
+      <c r="F103" s="4">
+        <v>48</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5" t="s">
         <v>185</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J103" s="67" t="s">
-        <v>287</v>
+        <v>188</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M103" s="10">
-        <v>2050</v>
-      </c>
-      <c r="N103" s="10">
-        <v>3230</v>
-      </c>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="41"/>
-      <c r="S103" s="41"/>
-      <c r="T103" s="87"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="41"/>
-      <c r="W103" s="41"/>
-      <c r="X103" s="87"/>
-      <c r="Y103" s="87"/>
-      <c r="Z103" s="41"/>
-      <c r="AA103" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="AB103" s="4" t="s">
         <v>285</v>
       </c>
@@ -9723,58 +9746,57 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="B104" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J104" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M104" s="10">
-        <v>2050</v>
-      </c>
-      <c r="N104" s="10">
-        <f>N103+1940</f>
-        <v>5170</v>
-      </c>
-      <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="41"/>
-      <c r="R104" s="41"/>
-      <c r="S104" s="41"/>
-      <c r="T104" s="87"/>
-      <c r="U104" s="41"/>
-      <c r="V104" s="41"/>
-      <c r="W104" s="41"/>
-      <c r="X104" s="87"/>
-      <c r="Y104" s="87"/>
-      <c r="Z104" s="41"/>
-      <c r="AA104" s="4"/>
+      <c r="A104" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="36">
+        <v>1241</v>
+      </c>
+      <c r="F104" s="24">
+        <v>31</v>
+      </c>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I104" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J104" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K104" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L104" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="M104" s="35"/>
+      <c r="N104" s="48"/>
+      <c r="O104" s="48"/>
+      <c r="P104" s="48"/>
+      <c r="Q104" s="48"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="48"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="48"/>
+      <c r="W104" s="48"/>
+      <c r="X104" s="48"/>
+      <c r="Y104" s="48"/>
+      <c r="Z104" s="48"/>
+      <c r="AA104" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="AB104" s="4" t="s">
         <v>285</v>
       </c>
@@ -9789,58 +9811,57 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="72" x14ac:dyDescent="0.3">
-      <c r="A105" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="B105" s="92" t="s">
-        <v>324</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M105" s="10">
-        <v>2045</v>
-      </c>
-      <c r="N105" s="5">
-        <f>(14+32)/2</f>
-        <v>23</v>
-      </c>
-      <c r="O105" s="5"/>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="35"/>
-      <c r="R105" s="35"/>
-      <c r="S105" s="35"/>
-      <c r="T105" s="88"/>
-      <c r="U105" s="35"/>
-      <c r="V105" s="35"/>
-      <c r="W105" s="35"/>
-      <c r="X105" s="88"/>
-      <c r="Y105" s="88"/>
-      <c r="Z105" s="35"/>
-      <c r="AA105" s="4"/>
+      <c r="A105" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="48">
+        <v>38.6</v>
+      </c>
+      <c r="F105" s="24">
+        <v>43</v>
+      </c>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I105" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="J105" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K105" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L105" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="M105" s="35"/>
+      <c r="N105" s="48"/>
+      <c r="O105" s="48"/>
+      <c r="P105" s="48"/>
+      <c r="Q105" s="48"/>
+      <c r="R105" s="48"/>
+      <c r="S105" s="48"/>
+      <c r="T105" s="48"/>
+      <c r="U105" s="48"/>
+      <c r="V105" s="48"/>
+      <c r="W105" s="48"/>
+      <c r="X105" s="48"/>
+      <c r="Y105" s="48"/>
+      <c r="Z105" s="48"/>
+      <c r="AA105" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="AB105" s="4" t="s">
         <v>285</v>
       </c>
@@ -9854,55 +9875,57 @@
         <v>332</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="E106" s="35">
-        <v>528</v>
-      </c>
-      <c r="F106" s="24">
-        <v>17</v>
-      </c>
-      <c r="G106" s="35"/>
-      <c r="H106" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="I106" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="J106" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="K106" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L106" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="M106" s="35"/>
-      <c r="N106" s="35"/>
-      <c r="O106" s="35"/>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
-      <c r="R106" s="35"/>
-      <c r="S106" s="35"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="35"/>
-      <c r="V106" s="35"/>
-      <c r="W106" s="35"/>
-      <c r="X106" s="35"/>
-      <c r="Y106" s="35"/>
-      <c r="Z106" s="35"/>
+    <row r="106" spans="1:32" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="46">
+        <v>21</v>
+      </c>
+      <c r="F106" s="4">
+        <v>46</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M106" s="5"/>
+      <c r="N106" s="30">
+        <v>300</v>
+      </c>
+      <c r="O106" s="30"/>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="30"/>
+      <c r="R106" s="30"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="30"/>
+      <c r="U106" s="30"/>
+      <c r="V106" s="30"/>
+      <c r="W106" s="30"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="30"/>
+      <c r="Z106" s="30"/>
       <c r="AA106" s="4" t="s">
         <v>270</v>
       </c>
@@ -9914,56 +9937,54 @@
       </c>
     </row>
     <row r="107" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="B107" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D107" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" s="35">
-        <v>80</v>
-      </c>
-      <c r="F107" s="24">
-        <v>35</v>
-      </c>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35" t="s">
+      <c r="A107" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="9">
+        <v>6970</v>
+      </c>
+      <c r="F107" s="4">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I107" s="35" t="s">
+      <c r="I107" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J107" s="35" t="s">
+      <c r="J107" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="K107" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L107" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="M107" s="35"/>
-      <c r="N107" s="36">
-        <v>14000</v>
-      </c>
-      <c r="O107" s="36"/>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="35"/>
-      <c r="R107" s="35"/>
-      <c r="S107" s="35"/>
-      <c r="T107" s="35"/>
-      <c r="U107" s="35"/>
-      <c r="V107" s="35"/>
-      <c r="W107" s="35"/>
-      <c r="X107" s="35"/>
-      <c r="Y107" s="35"/>
-      <c r="Z107" s="35"/>
+      <c r="K107" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M107" s="5"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="30"/>
+      <c r="R107" s="30"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30"/>
+      <c r="U107" s="30"/>
+      <c r="V107" s="30"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
       <c r="AA107" s="4" t="s">
         <v>270</v>
       </c>
@@ -9976,201 +9997,190 @@
     </row>
     <row r="108" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" s="35">
+        <v>528</v>
+      </c>
+      <c r="F108" s="24">
+        <v>17</v>
+      </c>
+      <c r="G108" s="35"/>
+      <c r="H108" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="I108" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J108" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="K108" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L108" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="35"/>
+      <c r="W108" s="35"/>
+      <c r="X108" s="35"/>
+      <c r="Y108" s="35"/>
+      <c r="Z108" s="35"/>
+      <c r="AA108" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB108" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC108" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD108" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE108" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF108" s="89" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B109" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="35">
+        <v>80</v>
+      </c>
+      <c r="F109" s="65">
+        <v>35</v>
+      </c>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I109" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J109" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="K109" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L109" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="M109" s="35"/>
+      <c r="N109" s="36">
+        <v>14000</v>
+      </c>
+      <c r="O109" s="36"/>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="35"/>
+      <c r="W109" s="35"/>
+      <c r="X109" s="35"/>
+      <c r="Y109" s="35"/>
+      <c r="Z109" s="35"/>
+      <c r="AA109" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB109" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC109" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="51" t="s">
+      <c r="B110" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C110" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D110" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="36">
+      <c r="E110" s="36">
         <v>7405</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F110" s="24">
         <v>11</v>
       </c>
-      <c r="G108" s="35" t="s">
+      <c r="G110" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="H108" s="35" t="s">
+      <c r="H110" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="I108" s="35" t="s">
+      <c r="I110" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="J108" s="35" t="s">
+      <c r="J110" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="K108" s="65" t="s">
+      <c r="K110" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="L108" s="65" t="s">
+      <c r="L110" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="M108" s="35"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22">
+      <c r="M110" s="35"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22">
         <f>125900000/35</f>
         <v>3597142.8571428573</v>
       </c>
-      <c r="U108" s="22"/>
-      <c r="V108" s="22"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="22"/>
-      <c r="AA108" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB108" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC108" s="89" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD108" s="89" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE108" s="89" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF108" s="89" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B109" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="E109" s="46">
-        <v>100</v>
-      </c>
-      <c r="F109" s="8">
-        <v>34</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K109" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="5"/>
-      <c r="W109" s="5"/>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="5"/>
-      <c r="Z109" s="5"/>
-      <c r="AA109" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB109" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC109" s="89" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="110" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E110" s="67">
-        <v>37.99</v>
-      </c>
-      <c r="F110" s="68">
-        <v>39</v>
-      </c>
-      <c r="G110" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="H110" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="I110" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="J110" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="K110" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="L110" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="M110" s="67">
-        <v>2050</v>
-      </c>
-      <c r="N110" s="67"/>
-      <c r="O110" s="67"/>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="67"/>
-      <c r="R110" s="67"/>
-      <c r="S110" s="67"/>
-      <c r="T110" s="67"/>
-      <c r="U110" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="V110" s="67">
-        <v>2268000000</v>
-      </c>
-      <c r="W110" s="5">
-        <v>34932339</v>
-      </c>
-      <c r="X110" s="67"/>
-      <c r="Y110" s="5">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>64.925512145064204</v>
-      </c>
-      <c r="Z110" s="67"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
       <c r="AA110" s="4" t="s">
         <v>270</v>
       </c>
@@ -10188,67 +10198,54 @@
       </c>
     </row>
     <row r="111" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E111" s="67">
-        <v>37.99</v>
-      </c>
-      <c r="F111" s="68">
-        <v>39</v>
-      </c>
-      <c r="G111" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="H111" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="I111" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="J111" s="67" t="s">
+      <c r="A111" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="E111" s="46">
+        <v>100</v>
+      </c>
+      <c r="F111" s="4">
+        <v>34</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J111" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="K111" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="L111" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="M111" s="67">
-        <v>2050</v>
-      </c>
-      <c r="N111" s="67"/>
-      <c r="O111" s="67"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="67"/>
-      <c r="R111" s="67"/>
-      <c r="S111" s="67"/>
-      <c r="T111" s="67"/>
-      <c r="U111" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="V111" s="67">
-        <v>2291000000</v>
-      </c>
-      <c r="W111" s="5">
-        <v>34932339</v>
-      </c>
-      <c r="X111" s="67"/>
-      <c r="Y111" s="5">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>65.583927832602328</v>
-      </c>
-      <c r="Z111" s="67"/>
+      <c r="K111" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
       <c r="AA111" s="4" t="s">
         <v>270</v>
       </c>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="366">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -756,30 +757,12 @@
     <t>2.314</t>
   </si>
   <si>
-    <t>monetary_per_capita</t>
-  </si>
-  <si>
-    <t>population_target</t>
-  </si>
-  <si>
     <t>0.7</t>
   </si>
   <si>
-    <t>yll_per_capita</t>
-  </si>
-  <si>
-    <t>monetary</t>
-  </si>
-  <si>
-    <t>0,72 (5,1) billion</t>
-  </si>
-  <si>
     <t>0,38 (2,7 CNY) = 380 ?</t>
   </si>
   <si>
-    <t>VSL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Milner, 2023 </t>
   </si>
   <si>
@@ -1075,6 +1058,72 @@
   </si>
   <si>
     <t>SSP1_19 vs SSP3_7</t>
+  </si>
+  <si>
+    <t>Name of the first author and year of publication to identify each article</t>
+  </si>
+  <si>
+    <t>Title of the publication</t>
+  </si>
+  <si>
+    <t>Localisation of the investigation</t>
+  </si>
+  <si>
+    <t>Population at baseline year</t>
+  </si>
+  <si>
+    <t>Ranking article based on their population</t>
+  </si>
+  <si>
+    <t>Sector of emission included in the scenario</t>
+  </si>
+  <si>
+    <t>Name of the scenario</t>
+  </si>
+  <si>
+    <t>Typology of the scenario</t>
+  </si>
+  <si>
+    <t>Categorisation of the sector of emission included in the scenario</t>
+  </si>
+  <si>
+    <t>Exposure that provides co-benefits</t>
+  </si>
+  <si>
+    <t>Categorisation od the exposure that provides co-benefits</t>
+  </si>
+  <si>
+    <t>Year of interest to extract health outcomes and project conversion factor if necessary</t>
+  </si>
+  <si>
+    <t>Number of deaths prevented by the scenario (directly stated or calculated with the conversion factor</t>
+  </si>
+  <si>
+    <t>Number of death for the relevant year, age and location based on the WPP 2022</t>
+  </si>
+  <si>
+    <t>Preventable mortality fraction of the scenario</t>
+  </si>
+  <si>
+    <t>Conversion factor if necessary</t>
+  </si>
+  <si>
+    <t>Projected evolution of life expectancy</t>
+  </si>
+  <si>
+    <t>Projected Years of Life Lost prevented</t>
+  </si>
+  <si>
+    <t>Projected disability-adjusted life-years prevented</t>
+  </si>
+  <si>
+    <t>Projected economic impacts</t>
+  </si>
+  <si>
+    <t>Type of framework to assess health impacts</t>
+  </si>
+  <si>
+    <t>Inclusion of the scenario in the scalable mortality analysis</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1570,13 +1619,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -1644,128 +1696,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2231,40 +2161,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AB111" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A1:AB111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W111" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:W111"/>
   <sortState ref="A2:AB111">
-    <sortCondition ref="AA1:AA111"/>
+    <sortCondition ref="V1:V111"/>
   </sortState>
-  <tableColumns count="28">
-    <tableColumn id="18" name="author_date" dataDxfId="25"/>
-    <tableColumn id="1" name="title" dataDxfId="24"/>
-    <tableColumn id="3" name="Geographical scale" dataDxfId="23"/>
+  <tableColumns count="23">
+    <tableColumn id="18" name="author_date" dataDxfId="20"/>
+    <tableColumn id="1" name="title" dataDxfId="19"/>
+    <tableColumn id="3" name="Geographical scale" dataDxfId="18"/>
     <tableColumn id="26" name="geo_scale"/>
-    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="22"/>
-    <tableColumn id="22" name="rank_pop" dataDxfId="21"/>
-    <tableColumn id="4" name="scenario" dataDxfId="20"/>
-    <tableColumn id="5" name="scenario_cat" dataDxfId="19"/>
-    <tableColumn id="8" name="emission_sector" dataDxfId="18"/>
+    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="17"/>
+    <tableColumn id="22" name="rank_pop" dataDxfId="16"/>
+    <tableColumn id="4" name="scenario" dataDxfId="15"/>
+    <tableColumn id="5" name="scenario_cat" dataDxfId="14"/>
+    <tableColumn id="8" name="emission_sector" dataDxfId="13"/>
     <tableColumn id="20" name="emission_sector_cat"/>
-    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="17"/>
-    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="16"/>
-    <tableColumn id="6" name="scenario_yr" dataDxfId="15"/>
-    <tableColumn id="2" name="n_prev" dataDxfId="14"/>
-    <tableColumn id="17" name="n_death" dataDxfId="13"/>
-    <tableColumn id="16" name="mortality_proj" dataDxfId="12"/>
-    <tableColumn id="24" name="conversion_factor" dataDxfId="11"/>
-    <tableColumn id="12" name="lifexp_months" dataDxfId="10"/>
-    <tableColumn id="11" name="yll" dataDxfId="9"/>
-    <tableColumn id="25" name="DALYs" dataDxfId="8"/>
-    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="7"/>
-    <tableColumn id="19" name="monetary" dataDxfId="6"/>
-    <tableColumn id="14" name="population_target" dataDxfId="5"/>
-    <tableColumn id="15" name="yll_per_capita" dataDxfId="4">
-      <calculatedColumnFormula>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="monetary_per_capita" dataDxfId="3"/>
-    <tableColumn id="21" name="VSL" dataDxfId="2"/>
+    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="12"/>
+    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="11"/>
+    <tableColumn id="6" name="scenario_yr" dataDxfId="10"/>
+    <tableColumn id="2" name="n_prev" dataDxfId="9"/>
+    <tableColumn id="17" name="n_death" dataDxfId="8"/>
+    <tableColumn id="16" name="mortality_proj" dataDxfId="7"/>
+    <tableColumn id="24" name="conversion_factor" dataDxfId="6"/>
+    <tableColumn id="12" name="lifexp_months" dataDxfId="5"/>
+    <tableColumn id="11" name="yll" dataDxfId="4"/>
+    <tableColumn id="25" name="DALYs" dataDxfId="3"/>
+    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="2"/>
     <tableColumn id="23" name="HIA_type" dataDxfId="1"/>
     <tableColumn id="27" name="include_mortality" dataDxfId="0"/>
   </tableColumns>
@@ -2535,11 +2458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF111"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA111" sqref="AA111"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,17 +2473,14 @@
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
     <col min="6" max="13" width="22.6640625" customWidth="1"/>
     <col min="14" max="16" width="26.21875" style="1" customWidth="1"/>
-    <col min="17" max="23" width="32.33203125" customWidth="1"/>
-    <col min="24" max="24" width="54.21875" customWidth="1"/>
-    <col min="25" max="25" width="47" customWidth="1"/>
-    <col min="26" max="26" width="44.33203125" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="29" max="29" width="69.88671875" customWidth="1"/>
-    <col min="30" max="30" width="47.6640625" customWidth="1"/>
-    <col min="31" max="31" width="23.6640625" customWidth="1"/>
+    <col min="17" max="21" width="32.33203125" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="24" max="24" width="69.88671875" customWidth="1"/>
+    <col min="25" max="25" width="47.6640625" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2571,7 +2491,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>99</v>
@@ -2589,13 +2509,13 @@
         <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s">
         <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M1" t="s">
         <v>128</v>
@@ -2610,7 +2530,7 @@
         <v>114</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>212</v>
@@ -2619,34 +2539,19 @@
         <v>211</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="31" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -2709,26 +2614,14 @@
       <c r="U2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="V2" s="5">
-        <v>1300000000</v>
-      </c>
-      <c r="W2" s="5">
-        <v>34932339</v>
-      </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>37.21479973041599</v>
-      </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB2" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="31" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="V2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
@@ -2791,26 +2684,14 @@
       <c r="U3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="V3" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="W3" s="5">
-        <v>34932339</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>28.626769023396918</v>
-      </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB3" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W3" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
@@ -2836,10 +2717,10 @@
         <v>185</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>204</v>
@@ -2867,26 +2748,14 @@
       <c r="U4" s="30">
         <v>10</v>
       </c>
-      <c r="V4" s="30">
-        <v>10000000000</v>
-      </c>
-      <c r="W4" s="30">
-        <v>9709491761</v>
-      </c>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.0299200252856571</v>
-      </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB4" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="31" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W4" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -2912,10 +2781,10 @@
         <v>185</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>204</v>
@@ -2941,19 +2810,14 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB5" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="31" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W5" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>87</v>
       </c>
@@ -2982,7 +2846,7 @@
         <v>195</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>204</v>
@@ -3009,19 +2873,14 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB6" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="31" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W6" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>87</v>
       </c>
@@ -3050,7 +2909,7 @@
         <v>195</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>204</v>
@@ -3077,19 +2936,14 @@
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB7" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="28" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W7" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="28" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>42</v>
       </c>
@@ -3115,10 +2969,10 @@
         <v>123</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>204</v>
@@ -3145,19 +2999,14 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB8" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="77" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W8" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="77" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>42</v>
       </c>
@@ -3183,10 +3032,10 @@
         <v>123</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>204</v>
@@ -3213,19 +3062,14 @@
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB9" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="77" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W9" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="77" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>53</v>
       </c>
@@ -3282,19 +3126,14 @@
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB10" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="77" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W10" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="77" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>49</v>
       </c>
@@ -3320,10 +3159,10 @@
         <v>185</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>204</v>
@@ -3349,19 +3188,14 @@
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB11" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="77" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W11" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="77" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>46</v>
       </c>
@@ -3390,7 +3224,7 @@
         <v>239</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K12" s="68" t="s">
         <v>204</v>
@@ -3424,34 +3258,19 @@
       <c r="U12" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="V12" s="67">
-        <v>2314000000</v>
-      </c>
-      <c r="W12" s="5">
-        <v>34932339</v>
-      </c>
-      <c r="X12" s="67">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>9.7783317630119196E-4</v>
-      </c>
-      <c r="Y12" s="5">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>66.242343520140466</v>
-      </c>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB12" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="77" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W12" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="77" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="85" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
@@ -3462,7 +3281,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>123</v>
@@ -3497,24 +3316,19 @@
       <c r="S13" s="41"/>
       <c r="T13" s="86"/>
       <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB13" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W13" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>27</v>
@@ -3525,16 +3339,16 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>204</v>
@@ -3561,19 +3375,14 @@
       <c r="S14" s="41"/>
       <c r="T14" s="86"/>
       <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB14" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V14" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W14" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>42</v>
       </c>
@@ -3599,10 +3408,10 @@
         <v>123</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>204</v>
@@ -3629,19 +3438,14 @@
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB15" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" s="28" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="V15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W15" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="28" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -3652,7 +3456,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E16" s="54">
         <v>4680</v>
@@ -3670,7 +3474,7 @@
         <v>193</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>204</v>
@@ -3696,24 +3500,19 @@
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB16" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V16" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W16" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="85" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
@@ -3724,16 +3523,16 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>204</v>
@@ -3760,19 +3559,14 @@
       <c r="S17" s="35"/>
       <c r="T17" s="87"/>
       <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB17" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V17" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W17" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
@@ -3798,10 +3592,10 @@
         <v>123</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>204</v>
@@ -3828,19 +3622,14 @@
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB18" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W18" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3896,19 +3685,14 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB19" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W19" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>119</v>
       </c>
@@ -3937,7 +3721,7 @@
         <v>197</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>205</v>
@@ -3964,19 +3748,14 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB20" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V20" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W20" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>217</v>
       </c>
@@ -4002,10 +3781,10 @@
         <v>185</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J21" s="71" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K21" s="71" t="s">
         <v>204</v>
@@ -4029,26 +3808,21 @@
       </c>
       <c r="Q21" s="71"/>
       <c r="R21" s="71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
       <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB21" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W21" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="38" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>15</v>
@@ -4072,10 +3846,10 @@
         <v>185</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>204</v>
@@ -4103,26 +3877,14 @@
       <c r="U22" s="30">
         <v>1294</v>
       </c>
-      <c r="V22" s="30">
-        <v>12940000000000</v>
-      </c>
-      <c r="W22" s="30">
-        <v>9709491761</v>
-      </c>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1332.7165127196404</v>
-      </c>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB22" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V22" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W22" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
         <v>58</v>
       </c>
@@ -4148,10 +3910,10 @@
         <v>123</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>204</v>
@@ -4179,28 +3941,16 @@
       <c r="U23" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="V23" s="5">
-        <v>102670000000</v>
-      </c>
-      <c r="W23" s="30">
-        <v>1312636325</v>
-      </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="46">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>78.216637803315407</v>
-      </c>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB23" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V23" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W23" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -4224,10 +3974,10 @@
         <v>185</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>204</v>
@@ -4255,26 +4005,14 @@
       <c r="U24" s="30">
         <v>1425</v>
       </c>
-      <c r="V24" s="30">
-        <v>1425000000000</v>
-      </c>
-      <c r="W24" s="30">
-        <v>9709491761</v>
-      </c>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>146.76360360320615</v>
-      </c>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB24" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V24" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W24" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>42</v>
       </c>
@@ -4300,10 +4038,10 @@
         <v>123</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>204</v>
@@ -4330,19 +4068,14 @@
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB25" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W25" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>51</v>
       </c>
@@ -4368,10 +4101,10 @@
         <v>185</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>204</v>
@@ -4400,26 +4133,14 @@
       <c r="U26" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="V26" s="22">
-        <v>167910000000</v>
-      </c>
-      <c r="W26" s="22">
-        <v>1312636325</v>
-      </c>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="35">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>127.91814214039826</v>
-      </c>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB26" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="31" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W26" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="31" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>96</v>
       </c>
@@ -4445,10 +4166,10 @@
         <v>185</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>204</v>
@@ -4474,19 +4195,14 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB27" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V27" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W27" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>50</v>
       </c>
@@ -4541,19 +4257,14 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB28" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W28" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>79</v>
       </c>
@@ -4579,10 +4290,10 @@
         <v>133</v>
       </c>
       <c r="I29" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" s="35" t="s">
         <v>281</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>287</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>204</v>
@@ -4610,26 +4321,14 @@
       <c r="U29" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="V29" s="48">
-        <v>125350000000</v>
-      </c>
-      <c r="W29" s="48">
-        <v>1399547500</v>
-      </c>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>89.564662864247197</v>
-      </c>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB29" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="31" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V29" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W29" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="31" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>50</v>
       </c>
@@ -4649,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>123</v>
@@ -4684,19 +4383,14 @@
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB30" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V30" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W30" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>50</v>
       </c>
@@ -4751,19 +4445,14 @@
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB31" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V31" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W31" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>50</v>
       </c>
@@ -4818,19 +4507,14 @@
       <c r="S32" s="26"/>
       <c r="T32" s="26"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB32" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V32" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W32" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>49</v>
       </c>
@@ -4856,10 +4540,10 @@
         <v>153</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>204</v>
@@ -4885,19 +4569,14 @@
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB33" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V33" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W33" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>87</v>
       </c>
@@ -4926,7 +4605,7 @@
         <v>195</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>204</v>
@@ -4953,19 +4632,14 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB34" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V34" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W34" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>52</v>
       </c>
@@ -4994,7 +4668,7 @@
         <v>196</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>204</v>
@@ -5022,19 +4696,14 @@
       <c r="U35" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB35" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V35" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W35" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>42</v>
       </c>
@@ -5060,10 +4729,10 @@
         <v>123</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>204</v>
@@ -5090,19 +4759,14 @@
       <c r="S36" s="26"/>
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB36" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V36" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W36" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="77" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>119</v>
       </c>
@@ -5131,7 +4795,7 @@
         <v>197</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>205</v>
@@ -5158,19 +4822,14 @@
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB37" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" s="77" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V37" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W37" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="77" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>58</v>
       </c>
@@ -5196,10 +4855,10 @@
         <v>123</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>204</v>
@@ -5227,26 +4886,14 @@
       <c r="U38" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="V38" s="5">
-        <v>187110000000</v>
-      </c>
-      <c r="W38" s="30">
-        <v>1312636325</v>
-      </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="46">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>142.54519430581811</v>
-      </c>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB38" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V38" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W38" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>49</v>
       </c>
@@ -5272,10 +4919,10 @@
         <v>153</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>204</v>
@@ -5301,19 +4948,14 @@
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB39" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V39" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W39" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>119</v>
       </c>
@@ -5342,7 +4984,7 @@
         <v>197</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>205</v>
@@ -5369,19 +5011,14 @@
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB40" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W40" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
         <v>217</v>
       </c>
@@ -5407,10 +5044,10 @@
         <v>185</v>
       </c>
       <c r="I41" s="75" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J41" s="75" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K41" s="71" t="s">
         <v>204</v>
@@ -5434,24 +5071,19 @@
       </c>
       <c r="Q41" s="71"/>
       <c r="R41" s="71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S41" s="71"/>
       <c r="T41" s="71"/>
       <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB41" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V41" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W41" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="71" t="s">
         <v>41</v>
       </c>
@@ -5471,16 +5103,16 @@
         <v>1</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H42" s="71" t="s">
         <v>185</v>
       </c>
       <c r="I42" s="75" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J42" s="75" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K42" s="71" t="s">
         <v>204</v>
@@ -5507,19 +5139,14 @@
       <c r="S42" s="78"/>
       <c r="T42" s="78"/>
       <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="78"/>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB42" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V42" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W42" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="59" t="s">
         <v>58</v>
       </c>
@@ -5545,10 +5172,10 @@
         <v>123</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>204</v>
@@ -5576,26 +5203,14 @@
       <c r="U43" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="V43" s="5">
-        <v>222840000000</v>
-      </c>
-      <c r="W43" s="30">
-        <v>1312636325</v>
-      </c>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="46">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>169.76522419490411</v>
-      </c>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB43" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V43" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W43" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="28" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>87</v>
       </c>
@@ -5624,7 +5239,7 @@
         <v>195</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K44" s="24" t="s">
         <v>204</v>
@@ -5651,19 +5266,14 @@
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
       <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB44" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V44" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W44" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
         <v>87</v>
       </c>
@@ -5692,7 +5302,7 @@
         <v>195</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K45" s="35" t="s">
         <v>204</v>
@@ -5719,19 +5329,14 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
       <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB45" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V45" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W45" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
         <v>119</v>
       </c>
@@ -5760,7 +5365,7 @@
         <v>197</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K46" s="65" t="s">
         <v>205</v>
@@ -5787,19 +5392,14 @@
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB46" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V46" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W46" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
         <v>36</v>
       </c>
@@ -5810,7 +5410,7 @@
         <v>61</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E47" s="49">
         <v>3870</v>
@@ -5854,19 +5454,14 @@
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
       <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB47" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V47" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W47" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>36</v>
       </c>
@@ -5877,7 +5472,7 @@
         <v>61</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E48" s="56">
         <v>3870</v>
@@ -5895,7 +5490,7 @@
         <v>209</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K48" s="65" t="s">
         <v>210</v>
@@ -5921,21 +5516,16 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB48" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V48" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W48" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>2</v>
@@ -5990,19 +5580,14 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB49" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V49" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W49" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
         <v>75</v>
       </c>
@@ -6022,16 +5607,16 @@
         <v>33</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H50" s="35" t="s">
         <v>185</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>204</v>
@@ -6057,19 +5642,14 @@
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB50" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="V50" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W50" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>44</v>
       </c>
@@ -6080,7 +5660,7 @@
         <v>67</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E51" s="58">
         <v>3820</v>
@@ -6098,7 +5678,7 @@
         <v>198</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>204</v>
@@ -6124,19 +5704,14 @@
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
       <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB51" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V51" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W51" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>51</v>
       </c>
@@ -6162,10 +5737,10 @@
         <v>185</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>204</v>
@@ -6192,19 +5767,14 @@
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
       <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB52" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" s="31" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V52" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W52" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="31" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>102</v>
       </c>
@@ -6233,7 +5803,7 @@
         <v>190</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>204</v>
@@ -6260,19 +5830,14 @@
       <c r="S53" s="30"/>
       <c r="T53" s="30"/>
       <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB53" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" s="31" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V53" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W53" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="31" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
         <v>115</v>
       </c>
@@ -6301,7 +5866,7 @@
         <v>191</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K54" s="65" t="s">
         <v>204</v>
@@ -6328,19 +5893,14 @@
       <c r="S54" s="57"/>
       <c r="T54" s="57"/>
       <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB54" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V54" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W54" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>47</v>
       </c>
@@ -6366,10 +5926,10 @@
         <v>185</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K55" s="93" t="s">
         <v>204</v>
@@ -6395,19 +5955,14 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB55" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" s="28" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V55" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W55" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="28" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>47</v>
       </c>
@@ -6433,10 +5988,10 @@
         <v>133</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K56" s="93" t="s">
         <v>204</v>
@@ -6463,19 +6018,14 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB56" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V56" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W56" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>54</v>
       </c>
@@ -6486,7 +6036,7 @@
         <v>62</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E57" s="36">
         <v>6000</v>
@@ -6532,19 +6082,14 @@
       <c r="U57" s="47">
         <v>23000</v>
       </c>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-      <c r="Y57" s="47"/>
-      <c r="Z57" s="47"/>
-      <c r="AA57" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB57" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V57" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W57" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
         <v>36</v>
       </c>
@@ -6555,7 +6100,7 @@
         <v>61</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E58" s="56">
         <v>3870</v>
@@ -6573,7 +6118,7 @@
         <v>209</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K58" s="35" t="s">
         <v>210</v>
@@ -6599,19 +6144,14 @@
       <c r="S58" s="22"/>
       <c r="T58" s="22"/>
       <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB58" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" s="28" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V58" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W58" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="28" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>47</v>
       </c>
@@ -6637,10 +6177,10 @@
         <v>185</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K59" s="17" t="s">
         <v>204</v>
@@ -6666,19 +6206,14 @@
       <c r="S59" s="18"/>
       <c r="T59" s="18"/>
       <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB59" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V59" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W59" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>47</v>
       </c>
@@ -6704,10 +6239,10 @@
         <v>133</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K60" s="17" t="s">
         <v>204</v>
@@ -6734,19 +6269,14 @@
       <c r="S60" s="18"/>
       <c r="T60" s="18"/>
       <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB60" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="V60" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W60" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
         <v>87</v>
       </c>
@@ -6775,7 +6305,7 @@
         <v>195</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K61" s="24" t="s">
         <v>204</v>
@@ -6802,19 +6332,14 @@
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
       <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB61" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V61" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W61" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="71" t="s">
         <v>217</v>
       </c>
@@ -6834,16 +6359,16 @@
         <v>32</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H62" s="71" t="s">
         <v>185</v>
       </c>
       <c r="I62" s="75" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J62" s="75" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K62" s="99" t="s">
         <v>204</v>
@@ -6867,24 +6392,19 @@
       </c>
       <c r="Q62" s="71"/>
       <c r="R62" s="71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S62" s="71"/>
       <c r="T62" s="71"/>
       <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB62" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V62" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W62" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="71" t="s">
         <v>217</v>
       </c>
@@ -6904,16 +6424,16 @@
         <v>32</v>
       </c>
       <c r="G63" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H63" s="71" t="s">
         <v>185</v>
       </c>
       <c r="I63" s="75" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J63" s="75" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K63" s="99" t="s">
         <v>204</v>
@@ -6937,24 +6457,19 @@
       </c>
       <c r="Q63" s="71"/>
       <c r="R63" s="71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S63" s="71"/>
       <c r="T63" s="71"/>
       <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
-      <c r="AA63" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB63" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V63" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W63" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
         <v>36</v>
       </c>
@@ -6965,7 +6480,7 @@
         <v>61</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E64" s="49">
         <v>3870</v>
@@ -7009,19 +6524,14 @@
       <c r="S64" s="22"/>
       <c r="T64" s="22"/>
       <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB64" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V64" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W64" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>40</v>
       </c>
@@ -7047,10 +6557,10 @@
         <v>123</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K65" s="65" t="s">
         <v>204</v>
@@ -7076,19 +6586,14 @@
       <c r="S65" s="48"/>
       <c r="T65" s="48"/>
       <c r="U65" s="48"/>
-      <c r="V65" s="48"/>
-      <c r="W65" s="48"/>
-      <c r="X65" s="48"/>
-      <c r="Y65" s="48"/>
-      <c r="Z65" s="48"/>
-      <c r="AA65" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB65" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V65" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W65" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>40</v>
       </c>
@@ -7114,10 +6619,10 @@
         <v>123</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K66" s="65" t="s">
         <v>204</v>
@@ -7143,21 +6648,16 @@
       <c r="S66" s="48"/>
       <c r="T66" s="48"/>
       <c r="U66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-      <c r="AA66" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB66" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V66" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W66" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>2</v>
@@ -7212,19 +6712,14 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB67" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V67" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W67" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>51</v>
       </c>
@@ -7250,10 +6745,10 @@
         <v>185</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K68" s="65" t="s">
         <v>204</v>
@@ -7282,26 +6777,14 @@
       <c r="U68" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="V68" s="22">
-        <v>684030000000</v>
-      </c>
-      <c r="W68" s="22">
-        <v>1312636325</v>
-      </c>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="35">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>521.11158816209047</v>
-      </c>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB68" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V68" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W68" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
         <v>85</v>
       </c>
@@ -7327,10 +6810,10 @@
         <v>185</v>
       </c>
       <c r="I69" s="35" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J69" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K69" s="65" t="s">
         <v>204</v>
@@ -7356,30 +6839,16 @@
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="V69" s="35">
-        <v>380000000000</v>
-      </c>
-      <c r="W69" s="35">
-        <v>1205020651</v>
-      </c>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>315.34729274942526</v>
-      </c>
-      <c r="Z69" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA69" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB69" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W69" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>91</v>
       </c>
@@ -7435,21 +6904,16 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB70" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V70" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W70" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>2</v>
@@ -7504,19 +6968,14 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB71" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V71" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W71" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
         <v>36</v>
       </c>
@@ -7527,7 +6986,7 @@
         <v>61</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E72" s="49">
         <v>3870</v>
@@ -7545,7 +7004,7 @@
         <v>207</v>
       </c>
       <c r="J72" s="35" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K72" s="65" t="s">
         <v>207</v>
@@ -7571,19 +7030,14 @@
       <c r="S72" s="22"/>
       <c r="T72" s="22"/>
       <c r="U72" s="22"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB72" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V72" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W72" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
         <v>36</v>
       </c>
@@ -7594,7 +7048,7 @@
         <v>61</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E73" s="49">
         <v>3870</v>
@@ -7612,7 +7066,7 @@
         <v>207</v>
       </c>
       <c r="J73" s="35" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K73" s="65" t="s">
         <v>207</v>
@@ -7638,24 +7092,19 @@
       <c r="S73" s="22"/>
       <c r="T73" s="22"/>
       <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB73" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="V73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W73" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="30" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B74" s="89" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>29</v>
@@ -7666,16 +7115,16 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I74" s="91" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J74" s="67" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>204</v>
@@ -7701,24 +7150,19 @@
       <c r="S74" s="41"/>
       <c r="T74" s="86"/>
       <c r="U74" s="41"/>
-      <c r="V74" s="41"/>
-      <c r="W74" s="41"/>
-      <c r="X74" s="86"/>
-      <c r="Y74" s="86"/>
-      <c r="Z74" s="41"/>
-      <c r="AA74" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB74" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V74" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W74" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B75" s="89" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>29</v>
@@ -7729,7 +7173,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>123</v>
@@ -7757,19 +7201,14 @@
       <c r="S75" s="41"/>
       <c r="T75" s="86"/>
       <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="86"/>
-      <c r="Y75" s="86"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB75" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V75" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W75" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
         <v>46</v>
       </c>
@@ -7798,7 +7237,7 @@
         <v>239</v>
       </c>
       <c r="J76" s="67" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K76" s="82" t="s">
         <v>204</v>
@@ -7819,26 +7258,14 @@
       <c r="U76" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="V76" s="67">
-        <v>2268000000</v>
-      </c>
-      <c r="W76" s="5">
-        <v>34932339</v>
-      </c>
-      <c r="X76" s="67"/>
-      <c r="Y76" s="5">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>64.925512145064204</v>
-      </c>
-      <c r="Z76" s="67"/>
-      <c r="AA76" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB76" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V76" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W76" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
         <v>46</v>
       </c>
@@ -7867,7 +7294,7 @@
         <v>239</v>
       </c>
       <c r="J77" s="67" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K77" s="82" t="s">
         <v>204</v>
@@ -7888,26 +7315,14 @@
       <c r="U77" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="V77" s="67">
-        <v>2291000000</v>
-      </c>
-      <c r="W77" s="5">
-        <v>34932339</v>
-      </c>
-      <c r="X77" s="67"/>
-      <c r="Y77" s="5">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>65.583927832602328</v>
-      </c>
-      <c r="Z77" s="67"/>
-      <c r="AA77" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB77" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V77" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W77" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>107</v>
       </c>
@@ -7953,19 +7368,14 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB78" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" s="28" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="V78" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W78" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" s="28" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
         <v>43</v>
       </c>
@@ -7992,7 +7402,7 @@
         <v>192</v>
       </c>
       <c r="J79" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K79" s="65" t="s">
         <v>204</v>
@@ -8009,19 +7419,14 @@
       <c r="S79" s="48"/>
       <c r="T79" s="48"/>
       <c r="U79" s="48"/>
-      <c r="V79" s="48"/>
-      <c r="W79" s="48"/>
-      <c r="X79" s="48"/>
-      <c r="Y79" s="48"/>
-      <c r="Z79" s="48"/>
-      <c r="AA79" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB79" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V79" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W79" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="59" t="s">
         <v>60</v>
       </c>
@@ -8067,24 +7472,19 @@
       <c r="S80" s="30"/>
       <c r="T80" s="30"/>
       <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="30"/>
-      <c r="Z80" s="30"/>
-      <c r="AA80" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB80" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V80" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W80" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" s="31" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>27</v>
@@ -8123,19 +7523,14 @@
       <c r="S81" s="30"/>
       <c r="T81" s="30"/>
       <c r="U81" s="30"/>
-      <c r="V81" s="30"/>
-      <c r="W81" s="30"/>
-      <c r="X81" s="30"/>
-      <c r="Y81" s="30"/>
-      <c r="Z81" s="30"/>
-      <c r="AA81" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB81" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="V81" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W81" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
         <v>110</v>
       </c>
@@ -8146,7 +7541,7 @@
         <v>111</v>
       </c>
       <c r="D82" s="106" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E82" s="35">
         <v>528</v>
@@ -8179,21 +7574,16 @@
       <c r="S82" s="35"/>
       <c r="T82" s="35"/>
       <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB82" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" s="31" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V82" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W82" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="31" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B83" s="48" t="s">
         <v>14</v>
@@ -8237,19 +7627,14 @@
       <c r="S83" s="35"/>
       <c r="T83" s="35"/>
       <c r="U83" s="35"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB83" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" s="28" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V83" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W83" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" s="28" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
         <v>98</v>
       </c>
@@ -8269,7 +7654,7 @@
         <v>11</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H84" s="35" t="s">
         <v>185</v>
@@ -8278,7 +7663,7 @@
         <v>200</v>
       </c>
       <c r="J84" s="35" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K84" s="65" t="s">
         <v>207</v>
@@ -8298,21 +7683,16 @@
         <v>3597142.8571428573</v>
       </c>
       <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB84" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" s="69" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="V84" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W84" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" s="69" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B85" s="46" t="s">
         <v>23</v>
@@ -8321,7 +7701,7 @@
         <v>65</v>
       </c>
       <c r="D85" s="104" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E85" s="46">
         <v>100</v>
@@ -8334,10 +7714,10 @@
         <v>185</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>204</v>
@@ -8354,19 +7734,14 @@
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB85" s="84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" s="69" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V85" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W85" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" s="69" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
         <v>71</v>
       </c>
@@ -8386,7 +7761,7 @@
         <v>37</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H86" s="35" t="s">
         <v>123</v>
@@ -8425,24 +7800,14 @@
       </c>
       <c r="T86" s="35"/>
       <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35">
-        <v>71684966</v>
-      </c>
-      <c r="X86" s="35">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>-1.0945326871123641E-4</v>
-      </c>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB86" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V86" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W86" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
         <v>71</v>
       </c>
@@ -8462,16 +7827,16 @@
         <v>37</v>
       </c>
       <c r="G87" s="35" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H87" s="35" t="s">
         <v>123</v>
       </c>
       <c r="I87" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J87" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K87" s="65" t="s">
         <v>204</v>
@@ -8501,26 +7866,16 @@
       </c>
       <c r="T87" s="35"/>
       <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35">
-        <v>71684966</v>
-      </c>
-      <c r="X87" s="35">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>-4.6044512327721556E-5</v>
-      </c>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB87" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V87" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W87" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="79" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B88" s="78" t="s">
         <v>1</v>
@@ -8550,10 +7905,10 @@
         <v>188</v>
       </c>
       <c r="K88" s="99" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L88" s="99" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M88" s="71">
         <v>2035</v>
@@ -8579,24 +7934,14 @@
       </c>
       <c r="T88" s="80"/>
       <c r="U88" s="78"/>
-      <c r="V88" s="78"/>
-      <c r="W88" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X88" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>2.1988225207908251E-6</v>
-      </c>
-      <c r="Y88" s="78"/>
-      <c r="Z88" s="78"/>
-      <c r="AA88" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB88" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V88" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W88" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="79" t="s">
         <v>35</v>
       </c>
@@ -8657,24 +8002,14 @@
       </c>
       <c r="T89" s="80"/>
       <c r="U89" s="78"/>
-      <c r="V89" s="78"/>
-      <c r="W89" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X89" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>5.0571912168948191E-6</v>
-      </c>
-      <c r="Y89" s="78"/>
-      <c r="Z89" s="78"/>
-      <c r="AA89" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB89" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V89" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W89" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="30" t="s">
         <v>45</v>
       </c>
@@ -8701,7 +8036,7 @@
         <v>194</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>204</v>
@@ -8732,26 +8067,16 @@
       </c>
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5">
-        <v>25807197</v>
-      </c>
-      <c r="X90" s="46">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.3131995698719237E-4</v>
-      </c>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB90" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V90" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W90" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="79" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B91" s="78" t="s">
         <v>1</v>
@@ -8778,7 +8103,7 @@
         <v>208</v>
       </c>
       <c r="J91" s="71" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K91" s="99" t="s">
         <v>207</v>
@@ -8810,24 +8135,14 @@
       </c>
       <c r="T91" s="80"/>
       <c r="U91" s="78"/>
-      <c r="V91" s="78"/>
-      <c r="W91" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X91" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>7.2780356663260069E-6</v>
-      </c>
-      <c r="Y91" s="78"/>
-      <c r="Z91" s="78"/>
-      <c r="AA91" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB91" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V91" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W91" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="79" t="s">
         <v>35</v>
       </c>
@@ -8856,7 +8171,7 @@
         <v>208</v>
       </c>
       <c r="J92" s="71" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K92" s="99" t="s">
         <v>207</v>
@@ -8888,26 +8203,16 @@
       </c>
       <c r="T92" s="80"/>
       <c r="U92" s="78"/>
-      <c r="V92" s="78"/>
-      <c r="W92" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X92" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>8.6290492260151792E-6</v>
-      </c>
-      <c r="Y92" s="78"/>
-      <c r="Z92" s="78"/>
-      <c r="AA92" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB92" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="V92" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W92" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" s="31" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B93" s="59" t="s">
         <v>117</v>
@@ -8916,7 +8221,7 @@
         <v>118</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E93" s="5">
         <v>503</v>
@@ -8934,7 +8239,7 @@
         <v>191</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>204</v>
@@ -8962,21 +8267,16 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB93" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V93" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W93" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="79" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B94" s="78" t="s">
         <v>1</v>
@@ -9003,7 +8303,7 @@
         <v>208</v>
       </c>
       <c r="J94" s="71" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K94" s="99" t="s">
         <v>204</v>
@@ -9035,24 +8335,14 @@
       </c>
       <c r="T94" s="80"/>
       <c r="U94" s="78"/>
-      <c r="V94" s="78"/>
-      <c r="W94" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X94" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.295482302132103E-5</v>
-      </c>
-      <c r="Y94" s="78"/>
-      <c r="Z94" s="78"/>
-      <c r="AA94" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB94" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" s="28" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V94" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W94" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" s="28" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="79" t="s">
         <v>35</v>
       </c>
@@ -9113,24 +8403,14 @@
       </c>
       <c r="T95" s="80"/>
       <c r="U95" s="78"/>
-      <c r="V95" s="78"/>
-      <c r="W95" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X95" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.4749786663272128E-5</v>
-      </c>
-      <c r="Y95" s="78"/>
-      <c r="Z95" s="78"/>
-      <c r="AA95" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB95" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V95" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W95" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" s="31" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="79" t="s">
         <v>35</v>
       </c>
@@ -9159,7 +8439,7 @@
         <v>208</v>
       </c>
       <c r="J96" s="71" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K96" s="99" t="s">
         <v>204</v>
@@ -9191,24 +8471,14 @@
       </c>
       <c r="T96" s="80"/>
       <c r="U96" s="78"/>
-      <c r="V96" s="78"/>
-      <c r="W96" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X96" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.5728474346109015E-5</v>
-      </c>
-      <c r="Y96" s="78"/>
-      <c r="Z96" s="78"/>
-      <c r="AA96" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB96" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:32" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V96" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W96" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="79" t="s">
         <v>35</v>
       </c>
@@ -9269,24 +8539,14 @@
       </c>
       <c r="T97" s="80"/>
       <c r="U97" s="78"/>
-      <c r="V97" s="78"/>
-      <c r="W97" s="78">
-        <v>1889026192</v>
-      </c>
-      <c r="X97" s="78">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>1.6047527624751961E-5</v>
-      </c>
-      <c r="Y97" s="78"/>
-      <c r="Z97" s="78"/>
-      <c r="AA97" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB97" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:32" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V97" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W97" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
         <v>37</v>
       </c>
@@ -9306,7 +8566,7 @@
         <v>45</v>
       </c>
       <c r="G98" s="35" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H98" s="35" t="s">
         <v>185</v>
@@ -9315,7 +8575,7 @@
         <v>201</v>
       </c>
       <c r="J98" s="106" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K98" s="65" t="s">
         <v>204</v>
@@ -9342,19 +8602,14 @@
       <c r="S98" s="35"/>
       <c r="T98" s="35"/>
       <c r="U98" s="35"/>
-      <c r="V98" s="35"/>
-      <c r="W98" s="35"/>
-      <c r="X98" s="35"/>
-      <c r="Y98" s="35"/>
-      <c r="Z98" s="35"/>
-      <c r="AA98" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB98" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="99" spans="1:32" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="V98" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W98" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
         <v>104</v>
       </c>
@@ -9365,7 +8620,7 @@
         <v>105</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E99" s="35">
         <v>9</v>
@@ -9374,7 +8629,7 @@
         <v>47</v>
       </c>
       <c r="G99" s="35" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H99" s="35" t="s">
         <v>185</v>
@@ -9409,19 +8664,14 @@
       </c>
       <c r="T99" s="22"/>
       <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="35"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB99" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:32" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V99" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W99" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="30" t="s">
         <v>39</v>
       </c>
@@ -9482,29 +8732,14 @@
       <c r="U100" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="V100" s="46">
-        <v>40700000000</v>
-      </c>
-      <c r="W100" s="46">
-        <v>66099100</v>
-      </c>
-      <c r="X100" s="46">
-        <f>Tableau1[[#This Row],[yll]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>3.0862750022314978E-3</v>
-      </c>
-      <c r="Y100" s="46">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>615.74212054324494</v>
-      </c>
-      <c r="Z100" s="46"/>
-      <c r="AA100" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB100" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="101" spans="1:32" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V100" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W100" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>89</v>
       </c>
@@ -9524,16 +8759,16 @@
         <v>42</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>185</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>204</v>
@@ -9560,19 +8795,14 @@
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB101" s="84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="102" spans="1:32" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="V101" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W101" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>56</v>
       </c>
@@ -9629,29 +8859,17 @@
       <c r="U102" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="V102" s="30">
-        <v>171930000000</v>
-      </c>
-      <c r="W102" s="30">
-        <v>1312636325</v>
-      </c>
-      <c r="X102" s="30"/>
-      <c r="Y102" s="46">
-        <f>Tableau1[[#This Row],[monetary]]/Tableau1[[#This Row],[population_target]]</f>
-        <v>130.98068118753304</v>
-      </c>
-      <c r="Z102" s="46"/>
-      <c r="AA102" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB102" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AF102" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="103" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V102" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="W102" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>89</v>
       </c>
@@ -9671,16 +8889,16 @@
         <v>42</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>185</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>204</v>
@@ -9707,25 +8925,20 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
-      <c r="V103" s="5"/>
-      <c r="W103" s="5"/>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB103" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="104" spans="1:32" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V103" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W103" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="X103" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>37</v>
       </c>
@@ -9745,7 +8958,7 @@
         <v>45</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H104" s="35" t="s">
         <v>185</v>
@@ -9754,7 +8967,7 @@
         <v>201</v>
       </c>
       <c r="J104" s="51" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K104" s="65" t="s">
         <v>204</v>
@@ -9781,28 +8994,23 @@
       <c r="S104" s="35"/>
       <c r="T104" s="35"/>
       <c r="U104" s="35"/>
-      <c r="V104" s="35"/>
-      <c r="W104" s="35"/>
-      <c r="X104" s="35"/>
-      <c r="Y104" s="35"/>
-      <c r="Z104" s="35"/>
-      <c r="AA104" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB104" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC104" s="88" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD104" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF104" t="s">
+      <c r="V104" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W104" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="X104" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y104" s="88" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="105" spans="1:32" ht="72" x14ac:dyDescent="0.3">
+      <c r="AA104" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>38</v>
       </c>
@@ -9822,7 +9030,7 @@
         <v>44</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>123</v>
@@ -9858,53 +9066,48 @@
       <c r="S105" s="30"/>
       <c r="T105" s="30"/>
       <c r="U105" s="30"/>
-      <c r="V105" s="30"/>
-      <c r="W105" s="30"/>
-      <c r="X105" s="30"/>
-      <c r="Y105" s="30"/>
-      <c r="Z105" s="30"/>
-      <c r="AA105" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB105" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC105" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD105" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="106" spans="1:32" ht="72" x14ac:dyDescent="0.3">
+      <c r="V105" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W105" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="X105" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y105" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="85" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B106" s="91" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
       <c r="G106" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H106" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K106" s="8" t="s">
         <v>204</v>
@@ -9923,22 +9126,17 @@
       <c r="S106" s="41"/>
       <c r="T106" s="86"/>
       <c r="U106" s="41"/>
-      <c r="V106" s="41"/>
-      <c r="W106" s="41"/>
-      <c r="X106" s="86"/>
-      <c r="Y106" s="86"/>
-      <c r="Z106" s="41"/>
-      <c r="AA106" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB106" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF106" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="107" spans="1:32" ht="72" x14ac:dyDescent="0.3">
+      <c r="V106" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="W106" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>48</v>
       </c>
@@ -9962,10 +9160,10 @@
         <v>185</v>
       </c>
       <c r="I107" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J107" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K107" s="65" t="s">
         <v>205</v>
@@ -9982,27 +9180,22 @@
       <c r="S107" s="48"/>
       <c r="T107" s="48"/>
       <c r="U107" s="48"/>
-      <c r="V107" s="48"/>
-      <c r="W107" s="48"/>
-      <c r="X107" s="48"/>
-      <c r="Y107" s="48"/>
-      <c r="Z107" s="48"/>
-      <c r="AA107" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB107" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V107" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="W107" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="85" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B108" s="91" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>29</v>
@@ -10013,16 +9206,16 @@
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
       <c r="G108" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>123</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>204</v>
@@ -10049,39 +9242,34 @@
       <c r="S108" s="35"/>
       <c r="T108" s="87"/>
       <c r="U108" s="35"/>
-      <c r="V108" s="35"/>
-      <c r="W108" s="35"/>
-      <c r="X108" s="87"/>
-      <c r="Y108" s="87"/>
-      <c r="Z108" s="35"/>
-      <c r="AA108" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB108" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC108" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD108" s="88" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE108" s="88" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF108" s="88" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V108" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W108" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="X108" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y108" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z108" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA108" s="88" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="85" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B109" s="91" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>76</v>
@@ -10089,7 +9277,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="8"/>
       <c r="G109" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H109" s="26" t="s">
         <v>123</v>
@@ -10120,50 +9308,45 @@
       <c r="S109" s="35"/>
       <c r="T109" s="87"/>
       <c r="U109" s="35"/>
-      <c r="V109" s="35"/>
-      <c r="W109" s="35"/>
-      <c r="X109" s="87"/>
-      <c r="Y109" s="87"/>
-      <c r="Z109" s="35"/>
-      <c r="AA109" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB109" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC109" s="88" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="110" spans="1:32" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V109" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W109" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="X109" s="88" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="85" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B110" s="91" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="4"/>
       <c r="G110" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>185</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J110" s="67" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K110" s="8" t="s">
         <v>204</v>
@@ -10184,53 +9367,48 @@
       <c r="S110" s="41"/>
       <c r="T110" s="86"/>
       <c r="U110" s="41"/>
-      <c r="V110" s="41"/>
-      <c r="W110" s="41"/>
-      <c r="X110" s="86"/>
-      <c r="Y110" s="86"/>
-      <c r="Z110" s="41"/>
-      <c r="AA110" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB110" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC110" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD110" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="111" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="V110" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W110" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="X110" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y110" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A111" s="85" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B111" s="91" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
       <c r="G111" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>133</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J111" s="67" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K111" s="8" t="s">
         <v>204</v>
@@ -10252,25 +9430,20 @@
       <c r="S111" s="41"/>
       <c r="T111" s="86"/>
       <c r="U111" s="41"/>
-      <c r="V111" s="41"/>
-      <c r="W111" s="41"/>
-      <c r="X111" s="86"/>
-      <c r="Y111" s="86"/>
-      <c r="Z111" s="41"/>
-      <c r="AA111" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB111" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC111" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD111" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF111" t="s">
-        <v>336</v>
+      <c r="V111" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W111" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="X111" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y111" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -10280,4 +9453,179 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.21875" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="85" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="U1" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1" s="85" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="85" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="O2" s="85" t="s">
+        <v>357</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="85" t="s">
+        <v>359</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="S2" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="T2" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="U2" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="V2" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="W2" s="85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="109"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="378">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -311,12 +311,6 @@
   </si>
   <si>
     <t>Rauner, 2020</t>
-  </si>
-  <si>
-    <t>Anticipated burden and mitigation of carbondioxide-induced nutritional deficiencies and related diseases</t>
-  </si>
-  <si>
-    <t>Weyant, 2018</t>
   </si>
   <si>
     <t>Population included at baseline (million), banque mondiale</t>
@@ -626,9 +620,6 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>Energy, transport, residential, commercial, industry, agriculture</t>
   </si>
   <si>
@@ -793,9 +784,6 @@
     <t>2°C+MFR</t>
   </si>
   <si>
-    <t>Climate mitigation</t>
-  </si>
-  <si>
     <t>DALYs</t>
   </si>
   <si>
@@ -947,15 +935,6 @@
   </si>
   <si>
     <t>SSP1_2.6</t>
-  </si>
-  <si>
-    <t>Moving from the SSP2-4.5 scenario to a decarbonization scenario could further reduce future PM2.5 exposure by 21%–26% on average over the 21st century and will bring over a half a billion more people into compliance with the WHO AQG by 2100. Projected changes in PM2.5 exposure from decarbonization vary strongly by world region, with the largest air quality benefits predicted to occur in Asia.</t>
-  </si>
-  <si>
-    <t>Despite strong reductions in global PM2.5 exposure under the decarbonization scenarios (which include stringent air  pollution  controls),  a  large  fraction  of  the  world's  population  (∼85%)  are  projected  to  remain  exposed  to  concentrations above the WHO AQG in 2100. Regional PM2.5 exposures remain particularly high in Africa and Asia, with the PM2.5 exposure remaining above the WHO AQG for over 94% of the populations in these regions in 2100.</t>
-  </si>
-  <si>
-    <t>he largest per-capita health benefits of reduced PM2.5 pollu-tion through decarbonization are predicted to occur in Asia around mid-century.</t>
   </si>
   <si>
     <t>using projections of per-capita GDP, we found that populations in low- and lower-middle-income regions (predominantly in Africa and Asia) consistently experience the highest PM2.5 exposures across the 21st century in all three scenarios (SSP2-4.5, SSP1-2.6, and SSP1-1.9). The lowest PM2.5 exposures consistently occur in the high-income region (predominantly populations in Europe, North America, and Asia). The proportion of the low- and lower-middle-income populations that remain exposed to PM2.5 concentrations above the WHO AQG at the end of the century (89%–91%) is considerably greater than the proportion of the high-income population (75%–76%)</t>
@@ -1702,6 +1681,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1770,31 +1774,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2218,8 +2197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W123" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:W123"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W122" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:W122"/>
   <sortState ref="A2:W111">
     <sortCondition ref="P1:P111"/>
   </sortState>
@@ -2243,10 +2222,12 @@
     <tableColumn id="24" name="conversion_factor" dataDxfId="6"/>
     <tableColumn id="12" name="lifexp_months" dataDxfId="5"/>
     <tableColumn id="11" name="yll" dataDxfId="4"/>
-    <tableColumn id="25" name="DALYs" dataDxfId="3"/>
-    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="2"/>
-    <tableColumn id="23" name="HIA_type" dataDxfId="1"/>
-    <tableColumn id="27" name="include_mortality" dataDxfId="0"/>
+    <tableColumn id="25" name="DALYs" dataDxfId="0">
+      <calculatedColumnFormula>T2:T61</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="3"/>
+    <tableColumn id="23" name="HIA_type" dataDxfId="2"/>
+    <tableColumn id="27" name="include_mortality" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2515,11 +2496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA123"/>
+  <dimension ref="A1:AA122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2548,64 +2529,64 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="30" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,22 +2609,22 @@
         <v>37</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M2" s="34"/>
       <c r="N2" s="34">
@@ -2665,13 +2646,16 @@
         <f>-(1122000/(2154-2011))</f>
         <v>-7846.1538461538457</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="34">
+        <f t="shared" ref="T2:T33" ca="1" si="0">T2:T61</f>
+        <v>0</v>
+      </c>
       <c r="U2" s="34"/>
       <c r="V2" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W2" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2694,22 +2678,22 @@
         <v>37</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M3" s="34"/>
       <c r="N3" s="34">
@@ -2731,13 +2715,16 @@
         <f>-(472000/(2154-2011))</f>
         <v>-3300.6993006993007</v>
       </c>
-      <c r="T3" s="34"/>
+      <c r="T3" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U3" s="34"/>
       <c r="V3" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W3" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -2760,22 +2747,22 @@
         <v>40</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M4" s="5">
         <v>2050</v>
@@ -2799,15 +2786,18 @@
         <f>1200-109</f>
         <v>1091</v>
       </c>
-      <c r="T4" s="5"/>
+      <c r="T4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U4" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W4" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="30" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2830,22 +2820,22 @@
         <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M5" s="5">
         <v>2050</v>
@@ -2869,20 +2859,23 @@
         <f>1200-68</f>
         <v>1132</v>
       </c>
-      <c r="T5" s="5"/>
+      <c r="T5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U5" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W5" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="30" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B6" s="71" t="s">
         <v>1</v>
@@ -2900,22 +2893,22 @@
         <v>20</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M6" s="70">
         <v>2035</v>
@@ -2939,13 +2932,16 @@
         <f>124609/30</f>
         <v>4153.6333333333332</v>
       </c>
-      <c r="T6" s="79"/>
+      <c r="T6" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U6" s="77"/>
       <c r="V6" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W6" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="30" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2968,22 +2964,22 @@
         <v>10</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M7" s="5">
         <v>2050</v>
@@ -3001,15 +2997,18 @@
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
+      <c r="T7" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U7" s="29">
         <v>10</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W7" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="27" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3032,22 +3031,22 @@
         <v>20</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J8" s="74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L8" s="74" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M8" s="70">
         <v>2035</v>
@@ -3071,13 +3070,16 @@
         <f>286595/30</f>
         <v>9553.1666666666661</v>
       </c>
-      <c r="T8" s="79"/>
+      <c r="T8" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W8" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="76" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3101,19 +3103,19 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M9" s="5">
         <v>2050</v>
@@ -3136,18 +3138,21 @@
       <c r="S9" s="5">
         <v>3389</v>
       </c>
-      <c r="T9" s="5"/>
+      <c r="T9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U9" s="5"/>
       <c r="V9" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W9" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="76" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B10" s="71" t="s">
         <v>1</v>
@@ -3165,22 +3170,22 @@
         <v>20</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I10" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M10" s="70">
         <v>2035</v>
@@ -3204,13 +3209,16 @@
         <f>412452/30</f>
         <v>13748.4</v>
       </c>
-      <c r="T10" s="79"/>
+      <c r="T10" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W10" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="76" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3233,22 +3241,22 @@
         <v>8</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M11" s="10">
         <v>2050</v>
@@ -3266,13 +3274,16 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="T11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U11" s="5"/>
       <c r="V11" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W11" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="76" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3295,22 +3306,22 @@
         <v>20</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K12" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L12" s="74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M12" s="70">
         <v>2035</v>
@@ -3334,13 +3345,16 @@
         <f>489015/30</f>
         <v>16300.5</v>
       </c>
-      <c r="T12" s="79"/>
+      <c r="T12" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U12" s="77"/>
       <c r="V12" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W12" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="76" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3363,22 +3377,22 @@
         <v>6</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M13" s="33">
         <v>2030</v>
@@ -3397,13 +3411,16 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="T13" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U13" s="21"/>
       <c r="V13" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W13" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3426,22 +3443,22 @@
         <v>6</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M14" s="33">
         <v>2030</v>
@@ -3460,27 +3477,30 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
+      <c r="T14" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U14" s="21"/>
       <c r="V14" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W14" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="27" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E15" s="4">
         <v>503</v>
@@ -3489,22 +3509,22 @@
         <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M15" s="5">
         <v>2050</v>
@@ -3521,21 +3541,24 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="T15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U15" s="5"/>
       <c r="V15" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W15" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B16" s="71" t="s">
         <v>1</v>
@@ -3553,22 +3576,22 @@
         <v>20</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L16" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M16" s="70">
         <v>2035</v>
@@ -3592,13 +3615,16 @@
         <f>734160/30</f>
         <v>24472</v>
       </c>
-      <c r="T16" s="79"/>
+      <c r="T16" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W16" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3621,22 +3647,22 @@
         <v>20</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I17" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K17" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L17" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M17" s="70">
         <v>2035</v>
@@ -3660,13 +3686,16 @@
         <f>835882/30</f>
         <v>27862.733333333334</v>
       </c>
-      <c r="T17" s="79"/>
+      <c r="T17" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U17" s="77"/>
       <c r="V17" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W17" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3689,22 +3718,22 @@
         <v>20</v>
       </c>
       <c r="G18" s="70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I18" s="70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L18" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M18" s="70">
         <v>2035</v>
@@ -3728,13 +3757,16 @@
         <f>891345/30</f>
         <v>29711.5</v>
       </c>
-      <c r="T18" s="79"/>
+      <c r="T18" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U18" s="77"/>
       <c r="V18" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W18" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3757,22 +3789,22 @@
         <v>20</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K19" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L19" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M19" s="70">
         <v>2035</v>
@@ -3796,13 +3828,16 @@
         <f>909426/30</f>
         <v>30314.2</v>
       </c>
-      <c r="T19" s="79"/>
+      <c r="T19" s="79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U19" s="77"/>
       <c r="V19" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W19" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3825,22 +3860,22 @@
         <v>4</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M20" s="33">
         <v>2050</v>
@@ -3859,13 +3894,16 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
+      <c r="T20" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U20" s="25"/>
       <c r="V20" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W20" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3888,22 +3926,22 @@
         <v>4</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M21" s="33">
         <v>2050</v>
@@ -3922,13 +3960,16 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
+      <c r="T21" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U21" s="25"/>
       <c r="V21" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W21" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3952,19 +3993,19 @@
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M22" s="34">
         <v>2060</v>
@@ -3986,13 +4027,16 @@
       <c r="S22" s="34">
         <v>8</v>
       </c>
-      <c r="T22" s="34"/>
+      <c r="T22" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U22" s="34"/>
       <c r="V22" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W22" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4015,22 +4059,22 @@
         <v>9</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M23" s="34">
         <v>2050</v>
@@ -4048,13 +4092,16 @@
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
+      <c r="T23" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U23" s="34"/>
       <c r="V23" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W23" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4077,22 +4124,22 @@
         <v>39</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I24" s="66" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K24" s="66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L24" s="66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M24" s="66">
         <v>2050</v>
@@ -4116,23 +4163,26 @@
         <f>218415-184257</f>
         <v>34158</v>
       </c>
-      <c r="T24" s="66"/>
+      <c r="T24" s="66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U24" s="66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W24" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="84" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -4143,22 +4193,22 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M25" s="10">
         <v>2050</v>
@@ -4176,21 +4226,24 @@
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
       <c r="S25" s="40"/>
-      <c r="T25" s="85"/>
+      <c r="T25" s="85">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U25" s="40"/>
       <c r="V25" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W25" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -4201,22 +4254,22 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M26" s="10">
         <v>2047</v>
@@ -4235,13 +4288,16 @@
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
-      <c r="T26" s="85"/>
+      <c r="T26" s="85">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U26" s="40"/>
       <c r="V26" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W26" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="30" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
@@ -4264,22 +4320,22 @@
         <v>4</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M27" s="33">
         <v>2050</v>
@@ -4298,13 +4354,16 @@
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
+      <c r="T27" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U27" s="25"/>
       <c r="V27" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W27" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="30" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -4318,7 +4377,7 @@
         <v>83</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E28" s="53">
         <v>4680</v>
@@ -4327,22 +4386,22 @@
         <v>14</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M28" s="5">
         <v>2040</v>
@@ -4360,21 +4419,24 @@
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="T28" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U28" s="29"/>
       <c r="V28" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W28" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
@@ -4385,22 +4447,22 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M29" s="10">
         <v>2047</v>
@@ -4419,13 +4481,16 @@
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
-      <c r="T29" s="86"/>
+      <c r="T29" s="86">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U29" s="34"/>
       <c r="V29" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W29" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="30" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4448,22 +4513,22 @@
         <v>4</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M30" s="33">
         <v>2050</v>
@@ -4482,13 +4547,16 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
+      <c r="T30" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U30" s="21"/>
       <c r="V30" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W30" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4511,22 +4579,22 @@
         <v>30</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M31" s="5">
         <v>2030</v>
@@ -4545,21 +4613,24 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
+      <c r="T31" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U31" s="5"/>
       <c r="V31" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W31" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>27</v>
@@ -4574,22 +4645,22 @@
         <v>7</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M32" s="34">
         <v>2040</v>
@@ -4608,18 +4679,21 @@
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
+      <c r="T32" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U32" s="34"/>
       <c r="V32" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W32" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B33" s="71" t="s">
         <v>16</v>
@@ -4637,22 +4711,22 @@
         <v>32</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I33" s="70" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J33" s="70" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K33" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L33" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M33" s="70">
         <v>2030</v>
@@ -4670,21 +4744,24 @@
       </c>
       <c r="Q33" s="70"/>
       <c r="R33" s="70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
+      <c r="T33" s="70">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U33" s="70"/>
       <c r="V33" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W33" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>15</v>
@@ -4702,22 +4779,22 @@
         <v>5</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M34" s="12">
         <v>2030</v>
@@ -4735,15 +4812,18 @@
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
+      <c r="T34" s="29">
+        <f t="shared" ref="T34:T65" ca="1" si="1">T34:T93</f>
+        <v>0</v>
+      </c>
       <c r="U34" s="29">
         <v>1294</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W34" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4766,22 +4846,22 @@
         <v>24</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M35" s="5">
         <v>2050</v>
@@ -4799,15 +4879,18 @@
       <c r="Q35" s="61"/>
       <c r="R35" s="61"/>
       <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
+      <c r="T35" s="61">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U35" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W35" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4830,22 +4913,22 @@
         <v>45</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M36" s="34">
         <v>2050</v>
@@ -4864,18 +4947,21 @@
       <c r="Q36" s="34"/>
       <c r="R36" s="34"/>
       <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
+      <c r="T36" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U36" s="34"/>
       <c r="V36" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W36" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>15</v>
@@ -4893,22 +4979,22 @@
         <v>5</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M37" s="12">
         <v>2030</v>
@@ -4926,15 +5012,18 @@
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
+      <c r="T37" s="29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U37" s="29">
         <v>1425</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W37" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="76" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4957,22 +5046,22 @@
         <v>4</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M38" s="33">
         <v>2050</v>
@@ -4991,13 +5080,16 @@
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
+      <c r="T38" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U38" s="25"/>
       <c r="V38" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W38" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5005,7 +5097,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>29</v>
@@ -5020,22 +5112,22 @@
         <v>29</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M39" s="34">
         <v>2050</v>
@@ -5054,15 +5146,18 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
+      <c r="T39" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U39" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W39" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5085,22 +5180,22 @@
         <v>8</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M40" s="10">
         <v>2050</v>
@@ -5118,13 +5213,16 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
+      <c r="T40" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U40" s="5"/>
       <c r="V40" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W40" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5147,22 +5245,22 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M41" s="25">
         <v>2050</v>
@@ -5180,13 +5278,16 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
+      <c r="T41" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U41" s="35"/>
       <c r="V41" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W41" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5209,22 +5310,22 @@
         <v>27</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L42" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M42" s="34">
         <v>2035</v>
@@ -5242,29 +5343,32 @@
       <c r="Q42" s="47"/>
       <c r="R42" s="47"/>
       <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
+      <c r="T42" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U42" s="47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W42" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>105</v>
-      </c>
       <c r="D43" s="23" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E43" s="23">
         <v>9</v>
@@ -5273,22 +5377,22 @@
         <v>47</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
@@ -5306,13 +5410,16 @@
         <f>0.1095+0.0872</f>
         <v>0.19669999999999999</v>
       </c>
-      <c r="T43" s="21"/>
+      <c r="T43" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U43" s="21"/>
       <c r="V43" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W43" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:23" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5335,22 +5442,22 @@
         <v>36</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I44" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J44" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K44" s="43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L44" s="43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M44" s="5">
         <v>2045</v>
@@ -5372,15 +5479,18 @@
       <c r="S44" s="45">
         <v>204000</v>
       </c>
-      <c r="T44" s="45"/>
+      <c r="T44" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U44" s="45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W44" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
@@ -5403,22 +5513,22 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M45" s="25">
         <v>2050</v>
@@ -5436,13 +5546,16 @@
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
+      <c r="T45" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U45" s="35"/>
       <c r="V45" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W45" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5465,22 +5578,22 @@
         <v>2</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K46" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M46" s="25">
         <v>2050</v>
@@ -5498,13 +5611,16 @@
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
+      <c r="T46" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U46" s="35"/>
       <c r="V46" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W46" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5527,22 +5643,22 @@
         <v>2</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K47" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L47" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M47" s="25">
         <v>2050</v>
@@ -5560,13 +5676,16 @@
       <c r="Q47" s="25"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
+      <c r="T47" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U47" s="35"/>
       <c r="V47" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W47" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5589,22 +5708,22 @@
         <v>9</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K48" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M48" s="34">
         <v>2050</v>
@@ -5622,13 +5741,16 @@
       <c r="Q48" s="34"/>
       <c r="R48" s="34"/>
       <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
+      <c r="T48" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U48" s="34"/>
       <c r="V48" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W48" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5651,22 +5773,22 @@
         <v>6</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M49" s="33">
         <v>2030</v>
@@ -5685,13 +5807,16 @@
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
+      <c r="T49" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U49" s="21"/>
       <c r="V49" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W49" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5714,22 +5839,22 @@
         <v>26</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M50" s="5">
         <v>2030</v>
@@ -5747,15 +5872,18 @@
       <c r="Q50" s="45"/>
       <c r="R50" s="45"/>
       <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
+      <c r="T50" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U50" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W50" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5778,22 +5906,22 @@
         <v>4</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M51" s="33">
         <v>2050</v>
@@ -5812,21 +5940,24 @@
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
+      <c r="T51" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U51" s="25"/>
       <c r="V51" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W51" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>27</v>
@@ -5841,22 +5972,22 @@
         <v>7</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M52" s="34">
         <v>2040</v>
@@ -5875,13 +6006,16 @@
       <c r="Q52" s="34"/>
       <c r="R52" s="34"/>
       <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
+      <c r="T52" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U52" s="34"/>
       <c r="V52" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W52" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="30" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5904,22 +6038,22 @@
         <v>24</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M53" s="5">
         <v>2050</v>
@@ -5937,15 +6071,18 @@
       <c r="Q53" s="61"/>
       <c r="R53" s="61"/>
       <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
+      <c r="T53" s="61">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U53" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W53" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:23" s="30" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5968,22 +6105,22 @@
         <v>9</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K54" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M54" s="34">
         <v>2050</v>
@@ -6001,13 +6138,16 @@
       <c r="Q54" s="34"/>
       <c r="R54" s="34"/>
       <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
+      <c r="T54" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U54" s="34"/>
       <c r="V54" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W54" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:23" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6030,22 +6170,22 @@
         <v>42</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M55" s="5">
         <v>2050</v>
@@ -6064,21 +6204,24 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
+      <c r="T55" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U55" s="5"/>
       <c r="V55" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W55" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:23" s="27" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>27</v>
@@ -6093,22 +6236,22 @@
         <v>7</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K56" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M56" s="34">
         <v>2040</v>
@@ -6127,18 +6270,21 @@
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
       <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
+      <c r="T56" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U56" s="34"/>
       <c r="V56" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W56" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:23" s="27" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B57" s="77" t="s">
         <v>16</v>
@@ -6156,22 +6302,22 @@
         <v>32</v>
       </c>
       <c r="G57" s="70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H57" s="70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I57" s="74" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J57" s="74" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K57" s="70" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L57" s="70" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M57" s="70">
         <v>2030</v>
@@ -6189,16 +6335,19 @@
       </c>
       <c r="Q57" s="70"/>
       <c r="R57" s="70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S57" s="70"/>
-      <c r="T57" s="70"/>
+      <c r="T57" s="70">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U57" s="70"/>
       <c r="V57" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W57" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6221,22 +6370,22 @@
         <v>1</v>
       </c>
       <c r="G58" s="70" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H58" s="70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I58" s="74" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J58" s="74" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K58" s="70" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L58" s="70" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M58" s="70">
         <v>2035</v>
@@ -6255,13 +6404,16 @@
       <c r="Q58" s="77"/>
       <c r="R58" s="77"/>
       <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
+      <c r="T58" s="77">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U58" s="77"/>
       <c r="V58" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W58" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:23" s="27" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6284,22 +6436,22 @@
         <v>24</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M59" s="5">
         <v>2050</v>
@@ -6317,15 +6469,18 @@
       <c r="Q59" s="61"/>
       <c r="R59" s="61"/>
       <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
+      <c r="T59" s="61">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U59" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W59" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:23" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -6348,22 +6503,22 @@
         <v>28</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I60" s="52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J60" s="52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K60" s="58" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L60" s="58" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M60" s="5">
         <v>2050</v>
@@ -6381,15 +6536,18 @@
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
+      <c r="T60" s="29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U60" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="V60" s="43" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W60" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:23" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6412,22 +6570,22 @@
         <v>42</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M61" s="5">
         <v>2050</v>
@@ -6446,13 +6604,16 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
+      <c r="T61" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U61" s="5"/>
       <c r="V61" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W61" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6475,22 +6636,22 @@
         <v>6</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K62" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M62" s="33">
         <v>2030</v>
@@ -6509,13 +6670,16 @@
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
+      <c r="T62" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U62" s="21"/>
       <c r="V62" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W62" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="18" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6538,22 +6702,22 @@
         <v>6</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K63" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M63" s="33">
         <v>2030</v>
@@ -6572,21 +6736,24 @@
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
       <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
+      <c r="T63" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U63" s="21"/>
       <c r="V63" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W63" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:23" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>27</v>
@@ -6601,22 +6768,22 @@
         <v>7</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K64" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L64" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M64" s="34">
         <v>2040</v>
@@ -6635,13 +6802,16 @@
       <c r="Q64" s="34"/>
       <c r="R64" s="34"/>
       <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
+      <c r="T64" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U64" s="34"/>
       <c r="V64" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W64" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:23" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6655,7 +6825,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E65" s="48">
         <v>3870</v>
@@ -6664,22 +6834,22 @@
         <v>15</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J65" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K65" s="64" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L65" s="64" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M65" s="34">
         <v>2040</v>
@@ -6697,13 +6867,16 @@
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
       <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
+      <c r="T65" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U65" s="21"/>
       <c r="V65" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W65" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:23" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6717,7 +6890,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E66" s="48">
         <v>3870</v>
@@ -6726,22 +6899,22 @@
         <v>15</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J66" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K66" s="64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M66" s="34">
         <v>2040</v>
@@ -6759,18 +6932,21 @@
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
+      <c r="T66" s="21">
+        <f t="shared" ref="T66:T97" ca="1" si="2">T66:T125</f>
+        <v>0</v>
+      </c>
       <c r="U66" s="21"/>
       <c r="V66" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W66" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>2</v>
@@ -6788,22 +6964,22 @@
         <v>21</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M67" s="5">
         <v>2060</v>
@@ -6820,16 +6996,19 @@
       </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="T67" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U67" s="5"/>
       <c r="V67" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W67" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6852,22 +7031,22 @@
         <v>33</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J68" s="23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K68" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M68" s="34">
         <v>2050</v>
@@ -6885,13 +7064,16 @@
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
+      <c r="T68" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U68" s="21"/>
       <c r="V68" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W68" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6905,7 +7087,7 @@
         <v>67</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E69" s="57">
         <v>3820</v>
@@ -6914,22 +7096,22 @@
         <v>16</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M69" s="5">
         <v>2050</v>
@@ -6947,13 +7129,16 @@
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
+      <c r="T69" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U69" s="29"/>
       <c r="V69" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W69" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6961,7 +7146,7 @@
         <v>51</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>29</v>
@@ -6976,22 +7161,22 @@
         <v>29</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J70" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K70" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L70" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M70" s="34">
         <v>2050</v>
@@ -7010,21 +7195,24 @@
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
       <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
+      <c r="T70" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U70" s="21"/>
       <c r="V70" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W70" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="52" t="s">
         <v>29</v>
@@ -7039,22 +7227,22 @@
         <v>22</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M71" s="5">
         <v>2050</v>
@@ -7073,21 +7261,24 @@
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
+      <c r="T71" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U71" s="29"/>
       <c r="V71" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W71" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" s="69" t="s">
         <v>29</v>
@@ -7102,22 +7293,22 @@
         <v>23</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J72" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K72" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M72" s="34">
         <v>2050</v>
@@ -7136,13 +7327,16 @@
       <c r="Q72" s="56"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
+      <c r="T72" s="56">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U72" s="56"/>
       <c r="V72" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W72" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7165,22 +7359,22 @@
         <v>3</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K73" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L73" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M73" s="17">
         <v>2050</v>
@@ -7198,13 +7392,16 @@
       <c r="Q73" s="17"/>
       <c r="R73" s="17"/>
       <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
+      <c r="T73" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U73" s="17"/>
       <c r="V73" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W73" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7227,22 +7424,22 @@
         <v>3</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K74" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L74" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M74" s="17">
         <v>2050</v>
@@ -7261,13 +7458,16 @@
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
       <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
+      <c r="T74" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U74" s="17"/>
       <c r="V74" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W74" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7281,7 +7481,7 @@
         <v>62</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E75" s="24">
         <v>6000</v>
@@ -7290,22 +7490,22 @@
         <v>13</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J75" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K75" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L75" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M75" s="34">
         <v>2050</v>
@@ -7323,15 +7523,18 @@
       <c r="Q75" s="47"/>
       <c r="R75" s="47"/>
       <c r="S75" s="47"/>
-      <c r="T75" s="47"/>
+      <c r="T75" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U75" s="46">
         <v>23000</v>
       </c>
       <c r="V75" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W75" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7345,7 +7548,7 @@
         <v>61</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E76" s="48">
         <v>3870</v>
@@ -7354,22 +7557,22 @@
         <v>15</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I76" s="34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J76" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K76" s="64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L76" s="64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M76" s="34">
         <v>2040</v>
@@ -7387,13 +7590,16 @@
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
       <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
+      <c r="T76" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U76" s="21"/>
       <c r="V76" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W76" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7416,22 +7622,22 @@
         <v>3</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K77" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L77" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M77" s="17">
         <v>2050</v>
@@ -7449,13 +7655,16 @@
       <c r="Q77" s="17"/>
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
+      <c r="T77" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U77" s="17"/>
       <c r="V77" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W77" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:23" s="65" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7478,22 +7687,22 @@
         <v>3</v>
       </c>
       <c r="G78" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H78" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="I78" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K78" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L78" s="92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M78" s="17">
         <v>2050</v>
@@ -7512,13 +7721,16 @@
       <c r="Q78" s="17"/>
       <c r="R78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
+      <c r="T78" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U78" s="17"/>
       <c r="V78" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W78" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7541,22 +7753,22 @@
         <v>45</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I79" s="50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J79" s="50" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K79" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L79" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M79" s="34">
         <v>2050</v>
@@ -7575,13 +7787,16 @@
       <c r="Q79" s="34"/>
       <c r="R79" s="34"/>
       <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
+      <c r="T79" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U79" s="34"/>
       <c r="V79" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W79" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:23" s="30" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -7604,22 +7819,22 @@
         <v>6</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J80" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K80" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L80" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M80" s="33">
         <v>2030</v>
@@ -7638,18 +7853,21 @@
       <c r="Q80" s="21"/>
       <c r="R80" s="21"/>
       <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
+      <c r="T80" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U80" s="21"/>
       <c r="V80" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W80" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="30" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B81" s="77" t="s">
         <v>16</v>
@@ -7667,22 +7885,22 @@
         <v>32</v>
       </c>
       <c r="G81" s="70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H81" s="70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I81" s="70" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J81" s="70" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K81" s="95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L81" s="95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M81" s="70">
         <v>2030</v>
@@ -7700,21 +7918,24 @@
       </c>
       <c r="Q81" s="70"/>
       <c r="R81" s="70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S81" s="70"/>
-      <c r="T81" s="70"/>
+      <c r="T81" s="70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U81" s="70"/>
       <c r="V81" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W81" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B82" s="77" t="s">
         <v>16</v>
@@ -7732,22 +7953,22 @@
         <v>32</v>
       </c>
       <c r="G82" s="70" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H82" s="70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I82" s="70" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J82" s="70" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K82" s="95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L82" s="95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M82" s="70">
         <v>2030</v>
@@ -7765,16 +7986,19 @@
       </c>
       <c r="Q82" s="70"/>
       <c r="R82" s="70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S82" s="70"/>
-      <c r="T82" s="70"/>
+      <c r="T82" s="70">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U82" s="70"/>
       <c r="V82" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W82" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:23" s="30" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7788,7 +8012,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E83" s="55">
         <v>3870</v>
@@ -7797,22 +8021,22 @@
         <v>15</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H83" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J83" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K83" s="64" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L83" s="64" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M83" s="34">
         <v>2040</v>
@@ -7830,13 +8054,16 @@
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
       <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
+      <c r="T83" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U83" s="21"/>
       <c r="V83" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W83" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:23" s="27" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7859,22 +8086,22 @@
         <v>44</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M84" s="5">
         <v>2050</v>
@@ -7893,13 +8120,16 @@
       <c r="Q84" s="29"/>
       <c r="R84" s="29"/>
       <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
+      <c r="T84" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U84" s="29"/>
       <c r="V84" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W84" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:23" s="68" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7922,22 +8152,22 @@
         <v>25</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H85" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J85" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K85" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L85" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M85" s="34">
         <v>2050</v>
@@ -7955,13 +8185,16 @@
       <c r="Q85" s="47"/>
       <c r="R85" s="47"/>
       <c r="S85" s="47"/>
-      <c r="T85" s="47"/>
+      <c r="T85" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U85" s="47"/>
       <c r="V85" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W85" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:23" s="68" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7984,22 +8217,22 @@
         <v>25</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H86" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J86" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K86" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L86" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M86" s="34">
         <v>2050</v>
@@ -8017,18 +8250,21 @@
       <c r="Q86" s="47"/>
       <c r="R86" s="47"/>
       <c r="S86" s="47"/>
-      <c r="T86" s="47"/>
+      <c r="T86" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U86" s="47"/>
       <c r="V86" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W86" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>2</v>
@@ -8046,22 +8282,22 @@
         <v>21</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M87" s="5">
         <v>2060</v>
@@ -8078,16 +8314,19 @@
       </c>
       <c r="Q87" s="5"/>
       <c r="R87" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
+      <c r="T87" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U87" s="5"/>
       <c r="V87" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W87" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8110,22 +8349,22 @@
         <v>29</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H88" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J88" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K88" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L88" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M88" s="34">
         <v>2050</v>
@@ -8144,15 +8383,18 @@
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
+      <c r="T88" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U88" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V88" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W88" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8175,22 +8417,22 @@
         <v>19</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I89" s="34" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J89" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K89" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L89" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M89" s="34">
         <v>2060</v>
@@ -8208,15 +8450,18 @@
       <c r="Q89" s="34"/>
       <c r="R89" s="34"/>
       <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
+      <c r="T89" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U89" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V89" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W89" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:23" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8239,22 +8484,22 @@
         <v>30</v>
       </c>
       <c r="G90" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="I90" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M90" s="5">
         <v>2030</v>
@@ -8273,18 +8518,21 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
+      <c r="T90" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U90" s="5"/>
       <c r="V90" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W90" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>2</v>
@@ -8302,22 +8550,22 @@
         <v>21</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M91" s="5">
         <v>2060</v>
@@ -8334,24 +8582,27 @@
       </c>
       <c r="Q91" s="5"/>
       <c r="R91" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
+      <c r="T91" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U91" s="5"/>
       <c r="V91" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W91" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="84" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B92" s="90" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>29</v>
@@ -8362,22 +8613,22 @@
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="10" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M92" s="10">
         <v>2060</v>
@@ -8396,13 +8647,16 @@
       <c r="Q92" s="34"/>
       <c r="R92" s="34"/>
       <c r="S92" s="34"/>
-      <c r="T92" s="86"/>
+      <c r="T92" s="86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U92" s="34"/>
       <c r="V92" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W92" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8416,7 +8670,7 @@
         <v>61</v>
       </c>
       <c r="D93" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E93" s="55">
         <v>3870</v>
@@ -8425,22 +8679,22 @@
         <v>15</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H93" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I93" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J93" s="34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K93" s="64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L93" s="64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M93" s="34">
         <v>2040</v>
@@ -8458,13 +8712,16 @@
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
       <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
+      <c r="T93" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U93" s="21"/>
       <c r="V93" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W93" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8478,7 +8735,7 @@
         <v>61</v>
       </c>
       <c r="D94" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E94" s="55">
         <v>3870</v>
@@ -8487,22 +8744,22 @@
         <v>15</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J94" s="34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K94" s="64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L94" s="64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M94" s="34">
         <v>2040</v>
@@ -8520,21 +8777,24 @@
       <c r="Q94" s="21"/>
       <c r="R94" s="21"/>
       <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
+      <c r="T94" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U94" s="21"/>
       <c r="V94" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W94" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:23" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B95" s="90" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>29</v>
@@ -8545,22 +8805,22 @@
       <c r="E95" s="5"/>
       <c r="F95" s="4"/>
       <c r="G95" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I95" s="90" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J95" s="66" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M95" s="10">
         <v>2060</v>
@@ -8578,27 +8838,30 @@
       <c r="Q95" s="40"/>
       <c r="R95" s="40"/>
       <c r="S95" s="40"/>
-      <c r="T95" s="85"/>
+      <c r="T95" s="85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U95" s="40"/>
       <c r="V95" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W95" s="83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:23" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B96" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E96" s="4">
         <v>3</v>
@@ -8607,53 +8870,56 @@
         <v>48</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
+      <c r="T96" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U96" s="5"/>
       <c r="V96" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W96" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:27" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B97" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E97" s="4">
         <v>3</v>
@@ -8662,53 +8928,56 @@
         <v>48</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
+      <c r="T97" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U97" s="5"/>
       <c r="V97" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W97" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:27" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B98" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D98" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E98" s="4">
         <v>3</v>
@@ -8717,53 +8986,56 @@
         <v>48</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
+      <c r="T98" s="5">
+        <f t="shared" ref="T98:T129" ca="1" si="3">T98:T157</f>
+        <v>0</v>
+      </c>
       <c r="U98" s="5"/>
       <c r="V98" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W98" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:27" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E99" s="4">
         <v>3</v>
@@ -8772,39 +9044,42 @@
         <v>48</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
+      <c r="T99" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U99" s="5"/>
       <c r="V99" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W99" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8827,22 +9102,22 @@
         <v>31</v>
       </c>
       <c r="G100" s="34" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H100" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I100" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J100" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K100" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L100" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M100" s="34"/>
       <c r="N100" s="47"/>
@@ -8851,13 +9126,16 @@
       <c r="Q100" s="47"/>
       <c r="R100" s="47"/>
       <c r="S100" s="47"/>
-      <c r="T100" s="47"/>
+      <c r="T100" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U100" s="47"/>
       <c r="V100" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W100" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8880,22 +9158,22 @@
         <v>31</v>
       </c>
       <c r="G101" s="34" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H101" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I101" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J101" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K101" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L101" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M101" s="34"/>
       <c r="N101" s="47"/>
@@ -8904,13 +9182,16 @@
       <c r="Q101" s="47"/>
       <c r="R101" s="47"/>
       <c r="S101" s="47"/>
-      <c r="T101" s="47"/>
+      <c r="T101" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U101" s="47"/>
       <c r="V101" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W101" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8933,22 +9214,22 @@
         <v>31</v>
       </c>
       <c r="G102" s="34" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I102" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J102" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K102" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L102" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M102" s="34"/>
       <c r="N102" s="47"/>
@@ -8957,13 +9238,16 @@
       <c r="Q102" s="47"/>
       <c r="R102" s="47"/>
       <c r="S102" s="47"/>
-      <c r="T102" s="47"/>
+      <c r="T102" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U102" s="47"/>
       <c r="V102" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W102" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8986,22 +9270,22 @@
         <v>31</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H103" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I103" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J103" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K103" s="64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L103" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M103" s="34"/>
       <c r="N103" s="47"/>
@@ -9010,47 +9294,50 @@
       <c r="Q103" s="47"/>
       <c r="R103" s="47"/>
       <c r="S103" s="47"/>
-      <c r="T103" s="47"/>
+      <c r="T103" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U103" s="47"/>
       <c r="V103" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W103" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="84" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B104" s="99" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="4"/>
       <c r="G104" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M104" s="10">
         <v>2050</v>
@@ -9061,13 +9348,16 @@
       <c r="Q104" s="40"/>
       <c r="R104" s="40"/>
       <c r="S104" s="40"/>
-      <c r="T104" s="85"/>
+      <c r="T104" s="85">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U104" s="40"/>
       <c r="V104" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W104" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -9090,22 +9380,22 @@
         <v>43</v>
       </c>
       <c r="G105" s="34" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H105" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I105" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J105" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K105" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L105" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M105" s="34"/>
       <c r="N105" s="47"/>
@@ -9114,13 +9404,16 @@
       <c r="Q105" s="47"/>
       <c r="R105" s="47"/>
       <c r="S105" s="47"/>
-      <c r="T105" s="47"/>
+      <c r="T105" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U105" s="47"/>
       <c r="V105" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W105" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -9143,22 +9436,22 @@
         <v>43</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I106" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J106" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K106" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L106" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M106" s="34"/>
       <c r="N106" s="47"/>
@@ -9167,13 +9460,16 @@
       <c r="Q106" s="47"/>
       <c r="R106" s="47"/>
       <c r="S106" s="47"/>
-      <c r="T106" s="47"/>
+      <c r="T106" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U106" s="47"/>
       <c r="V106" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W106" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -9196,22 +9492,22 @@
         <v>43</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H107" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I107" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J107" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K107" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L107" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M107" s="34"/>
       <c r="N107" s="47"/>
@@ -9220,13 +9516,16 @@
       <c r="Q107" s="47"/>
       <c r="R107" s="47"/>
       <c r="S107" s="47"/>
-      <c r="T107" s="47"/>
+      <c r="T107" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U107" s="47"/>
       <c r="V107" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W107" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -9249,22 +9548,22 @@
         <v>43</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H108" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J108" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K108" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L108" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M108" s="34"/>
       <c r="N108" s="47"/>
@@ -9273,13 +9572,16 @@
       <c r="Q108" s="47"/>
       <c r="R108" s="47"/>
       <c r="S108" s="47"/>
-      <c r="T108" s="47"/>
+      <c r="T108" s="47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U108" s="47"/>
       <c r="V108" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W108" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:27" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9302,22 +9604,22 @@
         <v>46</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="29">
@@ -9328,21 +9630,24 @@
       <c r="Q109" s="29"/>
       <c r="R109" s="29"/>
       <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
+      <c r="T109" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U109" s="29"/>
       <c r="V109" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W109" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:27" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="84" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B110" s="90" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>29</v>
@@ -9353,22 +9658,22 @@
       <c r="E110" s="5"/>
       <c r="F110" s="8"/>
       <c r="G110" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I110" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J110" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M110" s="10">
         <v>2050</v>
@@ -9379,13 +9684,16 @@
       <c r="Q110" s="40"/>
       <c r="R110" s="40"/>
       <c r="S110" s="40"/>
-      <c r="T110" s="85"/>
+      <c r="T110" s="85">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U110" s="40"/>
       <c r="V110" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W110" s="83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
@@ -9393,7 +9701,7 @@
         <v>92</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>27</v>
@@ -9409,19 +9717,19 @@
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="29"/>
@@ -9430,50 +9738,53 @@
       <c r="Q111" s="29"/>
       <c r="R111" s="29"/>
       <c r="S111" s="29"/>
-      <c r="T111" s="29"/>
+      <c r="T111" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U111" s="29"/>
       <c r="V111" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W111" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA111" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="84" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B112" s="90" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
       <c r="G112" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J112" s="66" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M112" s="10">
         <v>2050</v>
@@ -9486,53 +9797,56 @@
       <c r="Q112" s="40"/>
       <c r="R112" s="40"/>
       <c r="S112" s="40"/>
-      <c r="T112" s="85"/>
+      <c r="T112" s="85">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U112" s="40"/>
       <c r="V112" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W112" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X112" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AA112" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:27" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="84" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B113" s="90" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="4"/>
       <c r="G113" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J113" s="66" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M113" s="10">
         <v>2050</v>
@@ -9546,33 +9860,36 @@
       <c r="Q113" s="40"/>
       <c r="R113" s="40"/>
       <c r="S113" s="40"/>
-      <c r="T113" s="85"/>
+      <c r="T113" s="85">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U113" s="40"/>
       <c r="V113" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W113" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X113" s="87" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Y113" s="87" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AA113" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="84" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B114" s="90" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>76</v>
@@ -9580,22 +9897,22 @@
       <c r="E114" s="5"/>
       <c r="F114" s="4"/>
       <c r="G114" s="10" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M114" s="10">
         <v>2045</v>
@@ -9609,36 +9926,39 @@
       <c r="Q114" s="34"/>
       <c r="R114" s="34"/>
       <c r="S114" s="34"/>
-      <c r="T114" s="86"/>
+      <c r="T114" s="86">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U114" s="34"/>
       <c r="V114" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W114" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X114" s="87" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Y114" s="87" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AA114" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B115" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="106" t="s">
-        <v>111</v>
-      </c>
       <c r="D115" s="106" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E115" s="34">
         <v>528</v>
@@ -9647,22 +9967,22 @@
         <v>17</v>
       </c>
       <c r="G115" s="34" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H115" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I115" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J115" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K115" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L115" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M115" s="34"/>
       <c r="N115" s="34"/>
@@ -9671,30 +9991,33 @@
       <c r="Q115" s="34"/>
       <c r="R115" s="34"/>
       <c r="S115" s="34"/>
-      <c r="T115" s="34"/>
+      <c r="T115" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U115" s="34"/>
       <c r="V115" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W115" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA115" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B116" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="C116" s="106" t="s">
-        <v>111</v>
-      </c>
       <c r="D116" s="106" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E116" s="34">
         <v>528</v>
@@ -9703,22 +10026,22 @@
         <v>17</v>
       </c>
       <c r="G116" s="34" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H116" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I116" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J116" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K116" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L116" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M116" s="34"/>
       <c r="N116" s="34"/>
@@ -9727,21 +10050,24 @@
       <c r="Q116" s="34"/>
       <c r="R116" s="34"/>
       <c r="S116" s="34"/>
-      <c r="T116" s="34"/>
+      <c r="T116" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U116" s="34"/>
       <c r="V116" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W116" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA116" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="34" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B117" s="47" t="s">
         <v>14</v>
@@ -9759,22 +10085,22 @@
         <v>35</v>
       </c>
       <c r="G117" s="34" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H117" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J117" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K117" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L117" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M117" s="34"/>
       <c r="N117" s="35">
@@ -9785,89 +10111,86 @@
       <c r="Q117" s="34"/>
       <c r="R117" s="34"/>
       <c r="S117" s="34"/>
-      <c r="T117" s="34"/>
+      <c r="T117" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U117" s="34"/>
       <c r="V117" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W117" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA117" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E118" s="35">
-        <v>7405</v>
-      </c>
-      <c r="F118" s="23">
-        <v>11</v>
-      </c>
-      <c r="G118" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="H118" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="I118" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="J118" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="K118" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="L118" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="M118" s="34"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21">
-        <f>125900000/35</f>
-        <v>3597142.8571428573</v>
-      </c>
-      <c r="U118" s="21"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="E118" s="45">
+        <v>100</v>
+      </c>
+      <c r="F118" s="8">
+        <v>34</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="5"/>
       <c r="V118" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X118" s="87" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y118" s="87" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z118" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA118" s="87" t="s">
-        <v>328</v>
+        <v>303</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B119" s="45" t="s">
         <v>23</v>
@@ -9876,7 +10199,7 @@
         <v>65</v>
       </c>
       <c r="D119" s="43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E119" s="45">
         <v>100</v>
@@ -9885,22 +10208,22 @@
         <v>34</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -9909,24 +10232,27 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
       <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
+      <c r="T119" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U119" s="5"/>
       <c r="V119" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W119" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X119" s="87" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AA119" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B120" s="45" t="s">
         <v>23</v>
@@ -9935,7 +10261,7 @@
         <v>65</v>
       </c>
       <c r="D120" s="43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E120" s="45">
         <v>100</v>
@@ -9944,22 +10270,22 @@
         <v>34</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -9968,81 +10294,94 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
       <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
+      <c r="T120" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U120" s="5"/>
       <c r="V120" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W120" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X120" s="87" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AA120" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B121" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="E121" s="45">
-        <v>100</v>
-      </c>
-      <c r="F121" s="8">
-        <v>34</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K121" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5"/>
+      <c r="A121" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="66">
+        <v>37.99</v>
+      </c>
+      <c r="F121" s="67">
+        <v>39</v>
+      </c>
+      <c r="G121" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="H121" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="I121" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="J121" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="K121" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="L121" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="M121" s="66">
+        <v>2050</v>
+      </c>
+      <c r="N121" s="66"/>
+      <c r="O121" s="66"/>
+      <c r="P121" s="34"/>
+      <c r="Q121" s="66"/>
+      <c r="R121" s="66"/>
+      <c r="S121" s="66"/>
+      <c r="T121" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="66" t="s">
+        <v>238</v>
+      </c>
       <c r="V121" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W121" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X121" s="87" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="Y121" s="87" t="s">
+        <v>308</v>
       </c>
       <c r="AA121" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A122" s="34" t="s">
         <v>46</v>
       </c>
@@ -10062,22 +10401,22 @@
         <v>39</v>
       </c>
       <c r="G122" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="H122" s="66" t="s">
-        <v>123</v>
+        <v>233</v>
+      </c>
+      <c r="H122" s="34" t="s">
+        <v>121</v>
       </c>
       <c r="I122" s="66" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J122" s="66" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K122" s="81" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L122" s="81" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M122" s="66">
         <v>2050</v>
@@ -10088,90 +10427,27 @@
       <c r="Q122" s="66"/>
       <c r="R122" s="66"/>
       <c r="S122" s="66"/>
-      <c r="T122" s="66"/>
+      <c r="T122" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="U122" s="66" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V122" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W122" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="X122" s="87" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Y122" s="87" t="s">
         <v>315</v>
       </c>
       <c r="AA122" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A123" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B123" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D123" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="E123" s="66">
-        <v>37.99</v>
-      </c>
-      <c r="F123" s="67">
-        <v>39</v>
-      </c>
-      <c r="G123" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="H123" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="I123" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="J123" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="K123" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="L123" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="M123" s="66">
-        <v>2050</v>
-      </c>
-      <c r="N123" s="66"/>
-      <c r="O123" s="66"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="66"/>
-      <c r="R123" s="66"/>
-      <c r="S123" s="66"/>
-      <c r="T123" s="66"/>
-      <c r="U123" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="V123" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="W123" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="X123" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y123" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA123" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -10218,135 +10494,135 @@
         <v>69</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G1" s="84" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I1" s="84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K1" s="84" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L1" s="84" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M1" s="84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N1" s="84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O1" s="84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="84" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R1" s="84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S1" s="84" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="T1" s="84" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="U1" s="84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V1" s="84" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W1" s="84" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="84" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="I2" s="84" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="K2" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="84" t="s">
+      <c r="L2" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="M2" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="N2" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="O2" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="P2" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="J2" s="84" t="s">
+      <c r="Q2" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="R2" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="T2" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="M2" s="84" t="s">
-        <v>355</v>
-      </c>
-      <c r="N2" s="84" t="s">
+      <c r="U2" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="V2" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="W2" s="84" t="s">
         <v>358</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>359</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="T2" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="W2" s="84" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="84" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid_health_outcome.xlsx
+++ b/data/extraction_grid_health_outcome.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="378">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1341,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1585,12 +1585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1664,32 +1658,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -2197,37 +2166,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:W122" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:W122"/>
-  <sortState ref="A2:W111">
-    <sortCondition ref="P1:P111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:V122" totalsRowShown="0" dataDxfId="20">
+  <autoFilter ref="A1:V122"/>
+  <sortState ref="A2:V122">
+    <sortCondition ref="P1:P122"/>
   </sortState>
-  <tableColumns count="23">
-    <tableColumn id="18" name="author_date" dataDxfId="20"/>
-    <tableColumn id="1" name="title" dataDxfId="19"/>
-    <tableColumn id="3" name="Geographical scale" dataDxfId="18"/>
+  <tableColumns count="22">
+    <tableColumn id="18" name="author_date" dataDxfId="19"/>
+    <tableColumn id="1" name="title" dataDxfId="18"/>
+    <tableColumn id="3" name="Geographical scale" dataDxfId="17"/>
     <tableColumn id="26" name="geo_scale"/>
-    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="17"/>
-    <tableColumn id="22" name="rank_pop" dataDxfId="16"/>
-    <tableColumn id="4" name="scenario" dataDxfId="15"/>
-    <tableColumn id="5" name="scenario_cat" dataDxfId="14"/>
-    <tableColumn id="8" name="emission_sector" dataDxfId="13"/>
+    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="16"/>
+    <tableColumn id="22" name="rank_pop" dataDxfId="15"/>
+    <tableColumn id="4" name="scenario" dataDxfId="14"/>
+    <tableColumn id="5" name="scenario_cat" dataDxfId="13"/>
+    <tableColumn id="8" name="emission_sector" dataDxfId="12"/>
     <tableColumn id="20" name="emission_sector_cat"/>
-    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="12"/>
-    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="11"/>
-    <tableColumn id="6" name="scenario_yr" dataDxfId="10"/>
-    <tableColumn id="2" name="n_prev" dataDxfId="9"/>
-    <tableColumn id="17" name="n_death" dataDxfId="8"/>
-    <tableColumn id="16" name="mortality_proj" dataDxfId="7"/>
-    <tableColumn id="24" name="conversion_factor" dataDxfId="6"/>
-    <tableColumn id="12" name="lifexp_months" dataDxfId="5"/>
-    <tableColumn id="11" name="yll" dataDxfId="4"/>
-    <tableColumn id="25" name="DALYs" dataDxfId="0">
-      <calculatedColumnFormula>T2:T61</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="3"/>
-    <tableColumn id="23" name="HIA_type" dataDxfId="2"/>
-    <tableColumn id="27" name="include_mortality" dataDxfId="1"/>
+    <tableColumn id="9" name="pathway_co_benefits" dataDxfId="11"/>
+    <tableColumn id="7" name="pathway_co_benefits2" dataDxfId="10"/>
+    <tableColumn id="6" name="scenario_yr" dataDxfId="9"/>
+    <tableColumn id="2" name="n_prev" dataDxfId="8"/>
+    <tableColumn id="17" name="n_death" dataDxfId="7"/>
+    <tableColumn id="16" name="mortality_proj" dataDxfId="6"/>
+    <tableColumn id="24" name="conversion_factor" dataDxfId="5"/>
+    <tableColumn id="12" name="lifexp_months" dataDxfId="4"/>
+    <tableColumn id="11" name="yll" dataDxfId="3"/>
+    <tableColumn id="13" name="monetary_bilions ($)" dataDxfId="2"/>
+    <tableColumn id="23" name="HIA_type" dataDxfId="1"/>
+    <tableColumn id="27" name="include_mortality" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2496,11 +2462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA122"/>
+  <dimension ref="A1:Z122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T5" sqref="T5:T6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,14 +2477,14 @@
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
     <col min="6" max="13" width="22.6640625" customWidth="1"/>
     <col min="14" max="16" width="26.21875" style="1" customWidth="1"/>
-    <col min="17" max="21" width="32.33203125" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="24" max="24" width="69.88671875" customWidth="1"/>
-    <col min="25" max="25" width="47.6640625" customWidth="1"/>
-    <col min="26" max="26" width="23.6640625" customWidth="1"/>
+    <col min="17" max="20" width="32.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="23" max="23" width="69.88671875" customWidth="1"/>
+    <col min="24" max="24" width="47.6640625" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2577,19 +2543,16 @@
         <v>208</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="U1" t="s">
+        <v>263</v>
+      </c>
       <c r="V1" t="s">
-        <v>263</v>
-      </c>
-      <c r="W1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="30" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="30" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>71</v>
       </c>
@@ -2646,19 +2609,15 @@
         <f>-(1122000/(2154-2011))</f>
         <v>-7846.1538461538457</v>
       </c>
-      <c r="T2" s="34">
-        <f t="shared" ref="T2:T33" ca="1" si="0">T2:T61</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="4" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W2" s="83" t="s">
+      <c r="V2" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>71</v>
       </c>
@@ -2715,23 +2674,19 @@
         <f>-(472000/(2154-2011))</f>
         <v>-3300.6993006993007</v>
       </c>
-      <c r="T3" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="34"/>
-      <c r="V3" s="4" t="s">
+      <c r="T3" s="34"/>
+      <c r="U3" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W3" s="83" t="s">
+      <c r="V3" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2786,25 +2741,21 @@
         <f>1200-109</f>
         <v>1091</v>
       </c>
-      <c r="T4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="V4" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="30" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="30" customFormat="1" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2859,21 +2810,17 @@
         <f>1200-68</f>
         <v>1132</v>
       </c>
-      <c r="T5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W5" s="83" t="s">
+      <c r="V5" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="30" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="30" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
         <v>242</v>
       </c>
@@ -2932,19 +2879,15 @@
         <f>124609/30</f>
         <v>4153.6333333333332</v>
       </c>
-      <c r="T6" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="77"/>
-      <c r="V6" s="4" t="s">
+      <c r="T6" s="77"/>
+      <c r="U6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W6" s="83" t="s">
+      <c r="V6" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="30" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="30" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -2998,20 +2941,16 @@
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
       <c r="T7" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="29">
         <v>10</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W7" s="83" t="s">
+      <c r="V7" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="27" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="27" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>35</v>
       </c>
@@ -3070,19 +3009,15 @@
         <f>286595/30</f>
         <v>9553.1666666666661</v>
       </c>
-      <c r="T8" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="77"/>
-      <c r="V8" s="4" t="s">
+      <c r="T8" s="77"/>
+      <c r="U8" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W8" s="83" t="s">
+      <c r="V8" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="76" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="76" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>45</v>
       </c>
@@ -3138,19 +3073,15 @@
       <c r="S9" s="5">
         <v>3389</v>
       </c>
-      <c r="T9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="4" t="s">
+      <c r="T9" s="5"/>
+      <c r="U9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W9" s="83" t="s">
+      <c r="V9" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="76" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="76" customFormat="1" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>242</v>
       </c>
@@ -3209,19 +3140,15 @@
         <f>412452/30</f>
         <v>13748.4</v>
       </c>
-      <c r="T10" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="77"/>
-      <c r="V10" s="4" t="s">
+      <c r="T10" s="77"/>
+      <c r="U10" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W10" s="83" t="s">
+      <c r="V10" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="76" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="76" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>96</v>
       </c>
@@ -3274,19 +3201,15 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="4" t="s">
+      <c r="T11" s="5"/>
+      <c r="U11" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W11" s="83" t="s">
+      <c r="V11" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="76" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="76" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
         <v>35</v>
       </c>
@@ -3345,19 +3268,15 @@
         <f>489015/30</f>
         <v>16300.5</v>
       </c>
-      <c r="T12" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="77"/>
-      <c r="V12" s="4" t="s">
+      <c r="T12" s="77"/>
+      <c r="U12" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W12" s="83" t="s">
+      <c r="V12" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="76" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="76" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>87</v>
       </c>
@@ -3411,19 +3330,15 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="4" t="s">
+      <c r="T13" s="21"/>
+      <c r="U13" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W13" s="83" t="s">
+      <c r="V13" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>87</v>
       </c>
@@ -3477,19 +3392,15 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="4" t="s">
+      <c r="T14" s="21"/>
+      <c r="U14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W14" s="83" t="s">
+      <c r="V14" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="27" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="27" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>259</v>
       </c>
@@ -3544,19 +3455,15 @@
         <v>218</v>
       </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="4" t="s">
+      <c r="T15" s="5"/>
+      <c r="U15" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W15" s="83" t="s">
+      <c r="V15" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
         <v>242</v>
       </c>
@@ -3615,19 +3522,15 @@
         <f>734160/30</f>
         <v>24472</v>
       </c>
-      <c r="T16" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="77"/>
-      <c r="V16" s="4" t="s">
+      <c r="T16" s="77"/>
+      <c r="U16" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W16" s="83" t="s">
+      <c r="V16" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
         <v>35</v>
       </c>
@@ -3686,19 +3589,15 @@
         <f>835882/30</f>
         <v>27862.733333333334</v>
       </c>
-      <c r="T17" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="77"/>
-      <c r="V17" s="4" t="s">
+      <c r="T17" s="77"/>
+      <c r="U17" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W17" s="83" t="s">
+      <c r="V17" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
         <v>35</v>
       </c>
@@ -3757,19 +3656,15 @@
         <f>891345/30</f>
         <v>29711.5</v>
       </c>
-      <c r="T18" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="77"/>
-      <c r="V18" s="4" t="s">
+      <c r="T18" s="77"/>
+      <c r="U18" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W18" s="83" t="s">
+      <c r="V18" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
         <v>35</v>
       </c>
@@ -3828,19 +3723,15 @@
         <f>909426/30</f>
         <v>30314.2</v>
       </c>
-      <c r="T19" s="79">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="77"/>
-      <c r="V19" s="4" t="s">
+      <c r="T19" s="77"/>
+      <c r="U19" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W19" s="83" t="s">
+      <c r="V19" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>42</v>
       </c>
@@ -3894,19 +3785,15 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="25"/>
-      <c r="V20" s="4" t="s">
+      <c r="T20" s="25"/>
+      <c r="U20" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W20" s="83" t="s">
+      <c r="V20" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>42</v>
       </c>
@@ -3960,19 +3847,15 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="25"/>
-      <c r="V21" s="4" t="s">
+      <c r="T21" s="25"/>
+      <c r="U21" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W21" s="83" t="s">
+      <c r="V21" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="37" customFormat="1" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>53</v>
       </c>
@@ -4027,19 +3910,15 @@
       <c r="S22" s="34">
         <v>8</v>
       </c>
-      <c r="T22" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="34"/>
-      <c r="V22" s="4" t="s">
+      <c r="T22" s="34"/>
+      <c r="U22" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W22" s="83" t="s">
+      <c r="V22" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>49</v>
       </c>
@@ -4092,19 +3971,15 @@
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
-      <c r="T23" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="34"/>
-      <c r="V23" s="4" t="s">
+      <c r="T23" s="34"/>
+      <c r="U23" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W23" s="83" t="s">
+      <c r="V23" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>46</v>
       </c>
@@ -4163,25 +4038,21 @@
         <f>218415-184257</f>
         <v>34158</v>
       </c>
-      <c r="T24" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="66" t="s">
+      <c r="T24" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="U24" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W24" s="83" t="s">
+      <c r="V24" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="84" t="s">
         <v>328</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="86" t="s">
         <v>298</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4226,23 +4097,19 @@
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
       <c r="S25" s="40"/>
-      <c r="T25" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="4" t="s">
+      <c r="T25" s="40"/>
+      <c r="U25" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W25" s="83" t="s">
+      <c r="V25" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="86" t="s">
         <v>300</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -4288,19 +4155,15 @@
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
-      <c r="T26" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="40"/>
-      <c r="V26" s="4" t="s">
+      <c r="T26" s="40"/>
+      <c r="U26" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W26" s="83" t="s">
+      <c r="V26" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="30" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="30" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>42</v>
       </c>
@@ -4354,19 +4217,15 @@
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
-      <c r="T27" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="25"/>
-      <c r="V27" s="4" t="s">
+      <c r="T27" s="25"/>
+      <c r="U27" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W27" s="83" t="s">
+      <c r="V27" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="30" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="30" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -4419,23 +4278,19 @@
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
-      <c r="T28" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="29"/>
-      <c r="V28" s="4" t="s">
+      <c r="T28" s="29"/>
+      <c r="U28" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W28" s="83" t="s">
+      <c r="V28" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="86" t="s">
         <v>300</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4481,19 +4336,15 @@
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
-      <c r="T29" s="86">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="34"/>
-      <c r="V29" s="4" t="s">
+      <c r="T29" s="34"/>
+      <c r="U29" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W29" s="83" t="s">
+      <c r="V29" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="30" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="30" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>42</v>
       </c>
@@ -4547,19 +4398,15 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="4" t="s">
+      <c r="T30" s="21"/>
+      <c r="U30" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W30" s="83" t="s">
+      <c r="V30" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
@@ -4613,19 +4460,15 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="5"/>
-      <c r="V31" s="4" t="s">
+      <c r="T31" s="5"/>
+      <c r="U31" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W31" s="83" t="s">
+      <c r="V31" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>117</v>
       </c>
@@ -4679,19 +4522,15 @@
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="34"/>
-      <c r="V32" s="4" t="s">
+      <c r="T32" s="34"/>
+      <c r="U32" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W32" s="83" t="s">
+      <c r="V32" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="70" t="s">
         <v>214</v>
       </c>
@@ -4747,19 +4586,15 @@
         <v>240</v>
       </c>
       <c r="S33" s="70"/>
-      <c r="T33" s="70">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="70"/>
-      <c r="V33" s="4" t="s">
+      <c r="T33" s="70"/>
+      <c r="U33" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W33" s="83" t="s">
+      <c r="V33" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>326</v>
       </c>
@@ -4813,20 +4648,16 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
       <c r="T34" s="29">
-        <f t="shared" ref="T34:T65" ca="1" si="1">T34:T93</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="29">
         <v>1294</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="U34" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W34" s="83" t="s">
+      <c r="V34" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58" t="s">
         <v>58</v>
       </c>
@@ -4879,21 +4710,17 @@
       <c r="Q35" s="61"/>
       <c r="R35" s="61"/>
       <c r="S35" s="61"/>
-      <c r="T35" s="61">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W35" s="83" t="s">
+      <c r="V35" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>37</v>
       </c>
@@ -4947,19 +4774,15 @@
       <c r="Q36" s="34"/>
       <c r="R36" s="34"/>
       <c r="S36" s="34"/>
-      <c r="T36" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="34"/>
-      <c r="V36" s="4" t="s">
+      <c r="T36" s="34"/>
+      <c r="U36" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W36" s="83" t="s">
+      <c r="V36" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="76" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>326</v>
       </c>
@@ -5013,20 +4836,16 @@
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
       <c r="T37" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="29">
         <v>1425</v>
       </c>
-      <c r="V37" s="4" t="s">
+      <c r="U37" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W37" s="83" t="s">
+      <c r="V37" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="76" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" s="76" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>42</v>
       </c>
@@ -5080,19 +4899,15 @@
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
-      <c r="T38" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="25"/>
-      <c r="V38" s="4" t="s">
+      <c r="T38" s="25"/>
+      <c r="U38" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W38" s="83" t="s">
+      <c r="V38" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>51</v>
       </c>
@@ -5146,21 +4961,17 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="21" t="s">
+      <c r="T39" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="U39" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W39" s="83" t="s">
+      <c r="V39" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
@@ -5213,19 +5024,15 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="5"/>
-      <c r="V40" s="4" t="s">
+      <c r="T40" s="5"/>
+      <c r="U40" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W40" s="83" t="s">
+      <c r="V40" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>50</v>
       </c>
@@ -5278,32 +5085,28 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
-      <c r="T41" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="35"/>
-      <c r="V41" s="4" t="s">
+      <c r="T41" s="35"/>
+      <c r="U41" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W41" s="83" t="s">
+      <c r="V41" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="89" t="s">
+      <c r="D42" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="108">
+      <c r="E42" s="106">
         <v>1380</v>
       </c>
       <c r="F42" s="23">
@@ -5343,21 +5146,17 @@
       <c r="Q42" s="47"/>
       <c r="R42" s="47"/>
       <c r="S42" s="47"/>
-      <c r="T42" s="47">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="47" t="s">
+      <c r="T42" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="U42" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W42" s="83" t="s">
+      <c r="V42" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
         <v>102</v>
       </c>
@@ -5410,19 +5209,15 @@
         <f>0.1095+0.0872</f>
         <v>0.19669999999999999</v>
       </c>
-      <c r="T43" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="21"/>
-      <c r="V43" s="4" t="s">
+      <c r="T43" s="21"/>
+      <c r="U43" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W43" s="83" t="s">
+      <c r="V43" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" s="27" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>39</v>
       </c>
@@ -5479,21 +5274,17 @@
       <c r="S44" s="45">
         <v>204000</v>
       </c>
-      <c r="T44" s="45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="45" t="s">
+      <c r="T44" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="U44" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W44" s="83" t="s">
+      <c r="V44" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>50</v>
       </c>
@@ -5546,19 +5337,15 @@
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
-      <c r="T45" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="35"/>
-      <c r="V45" s="4" t="s">
+      <c r="T45" s="35"/>
+      <c r="U45" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W45" s="83" t="s">
+      <c r="V45" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>50</v>
       </c>
@@ -5611,19 +5398,15 @@
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
-      <c r="T46" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="35"/>
-      <c r="V46" s="4" t="s">
+      <c r="T46" s="35"/>
+      <c r="U46" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W46" s="83" t="s">
+      <c r="V46" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>50</v>
       </c>
@@ -5676,19 +5459,15 @@
       <c r="Q47" s="25"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
-      <c r="T47" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="35"/>
-      <c r="V47" s="4" t="s">
+      <c r="T47" s="35"/>
+      <c r="U47" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W47" s="83" t="s">
+      <c r="V47" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>49</v>
       </c>
@@ -5741,19 +5520,15 @@
       <c r="Q48" s="34"/>
       <c r="R48" s="34"/>
       <c r="S48" s="34"/>
-      <c r="T48" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="34"/>
-      <c r="V48" s="4" t="s">
+      <c r="T48" s="34"/>
+      <c r="U48" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W48" s="83" t="s">
+      <c r="V48" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>87</v>
       </c>
@@ -5807,19 +5582,15 @@
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
-      <c r="T49" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="21"/>
-      <c r="V49" s="4" t="s">
+      <c r="T49" s="21"/>
+      <c r="U49" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W49" s="83" t="s">
+      <c r="V49" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>52</v>
       </c>
@@ -5872,21 +5643,17 @@
       <c r="Q50" s="45"/>
       <c r="R50" s="45"/>
       <c r="S50" s="45"/>
-      <c r="T50" s="45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="45" t="s">
+      <c r="T50" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="U50" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W50" s="83" t="s">
+      <c r="V50" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>42</v>
       </c>
@@ -5940,19 +5707,15 @@
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
-      <c r="T51" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="25"/>
-      <c r="V51" s="4" t="s">
+      <c r="T51" s="25"/>
+      <c r="U51" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W51" s="83" t="s">
+      <c r="V51" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>117</v>
       </c>
@@ -6006,19 +5769,15 @@
       <c r="Q52" s="34"/>
       <c r="R52" s="34"/>
       <c r="S52" s="34"/>
-      <c r="T52" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="34"/>
-      <c r="V52" s="4" t="s">
+      <c r="T52" s="34"/>
+      <c r="U52" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W52" s="83" t="s">
+      <c r="V52" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="30" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" s="30" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="58" t="s">
         <v>58</v>
       </c>
@@ -6071,21 +5830,17 @@
       <c r="Q53" s="61"/>
       <c r="R53" s="61"/>
       <c r="S53" s="61"/>
-      <c r="T53" s="61">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="5" t="s">
+      <c r="T53" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="V53" s="4" t="s">
+      <c r="U53" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W53" s="83" t="s">
+      <c r="V53" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="30" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" s="30" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>49</v>
       </c>
@@ -6138,19 +5893,15 @@
       <c r="Q54" s="34"/>
       <c r="R54" s="34"/>
       <c r="S54" s="34"/>
-      <c r="T54" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="34"/>
-      <c r="V54" s="4" t="s">
+      <c r="T54" s="34"/>
+      <c r="U54" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W54" s="83" t="s">
+      <c r="V54" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>89</v>
       </c>
@@ -6204,19 +5955,15 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="5"/>
-      <c r="V55" s="4" t="s">
+      <c r="T55" s="5"/>
+      <c r="U55" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W55" s="83" t="s">
+      <c r="V55" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="27" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" s="27" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
         <v>117</v>
       </c>
@@ -6270,19 +6017,15 @@
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
       <c r="S56" s="34"/>
-      <c r="T56" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="34"/>
-      <c r="V56" s="4" t="s">
+      <c r="T56" s="34"/>
+      <c r="U56" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W56" s="83" t="s">
+      <c r="V56" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="27" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" s="27" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="70" t="s">
         <v>214</v>
       </c>
@@ -6338,32 +6081,28 @@
         <v>240</v>
       </c>
       <c r="S57" s="70"/>
-      <c r="T57" s="70">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="70"/>
-      <c r="V57" s="4" t="s">
+      <c r="T57" s="70"/>
+      <c r="U57" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W57" s="83" t="s">
+      <c r="V57" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="70" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="91" t="s">
+      <c r="C58" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="91" t="s">
+      <c r="D58" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="109">
+      <c r="E58" s="107">
         <v>7821</v>
       </c>
       <c r="F58" s="74">
@@ -6404,19 +6143,15 @@
       <c r="Q58" s="77"/>
       <c r="R58" s="77"/>
       <c r="S58" s="77"/>
-      <c r="T58" s="77">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="77"/>
-      <c r="V58" s="4" t="s">
+      <c r="T58" s="77"/>
+      <c r="U58" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W58" s="83" t="s">
+      <c r="V58" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="27" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" s="27" customFormat="1" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
         <v>58</v>
       </c>
@@ -6469,21 +6204,17 @@
       <c r="Q59" s="61"/>
       <c r="R59" s="61"/>
       <c r="S59" s="61"/>
-      <c r="T59" s="61">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="5" t="s">
+      <c r="T59" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="V59" s="4" t="s">
+      <c r="U59" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W59" s="83" t="s">
+      <c r="V59" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
@@ -6536,21 +6267,17 @@
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
-      <c r="T60" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="29" t="s">
+      <c r="T60" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="V60" s="43" t="s">
+      <c r="U60" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="W60" s="83" t="s">
+      <c r="V60" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>89</v>
       </c>
@@ -6604,19 +6331,15 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U61" s="5"/>
-      <c r="V61" s="4" t="s">
+      <c r="T61" s="5"/>
+      <c r="U61" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W61" s="83" t="s">
+      <c r="V61" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
         <v>87</v>
       </c>
@@ -6670,19 +6393,15 @@
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
-      <c r="T62" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U62" s="21"/>
-      <c r="V62" s="4" t="s">
+      <c r="T62" s="21"/>
+      <c r="U62" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W62" s="83" t="s">
+      <c r="V62" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="18" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" s="18" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>87</v>
       </c>
@@ -6736,19 +6455,15 @@
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
       <c r="S63" s="21"/>
-      <c r="T63" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="21"/>
-      <c r="V63" s="4" t="s">
+      <c r="T63" s="21"/>
+      <c r="U63" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W63" s="83" t="s">
+      <c r="V63" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>117</v>
       </c>
@@ -6802,19 +6517,15 @@
       <c r="Q64" s="34"/>
       <c r="R64" s="34"/>
       <c r="S64" s="34"/>
-      <c r="T64" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="34"/>
-      <c r="V64" s="4" t="s">
+      <c r="T64" s="34"/>
+      <c r="U64" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W64" s="83" t="s">
+      <c r="V64" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
         <v>36</v>
       </c>
@@ -6867,19 +6578,15 @@
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
       <c r="S65" s="21"/>
-      <c r="T65" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="21"/>
-      <c r="V65" s="4" t="s">
+      <c r="T65" s="21"/>
+      <c r="U65" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W65" s="83" t="s">
+      <c r="V65" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="34" t="s">
         <v>36</v>
       </c>
@@ -6932,29 +6639,25 @@
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
-      <c r="T66" s="21">
-        <f t="shared" ref="T66:T97" ca="1" si="2">T66:T125</f>
-        <v>0</v>
-      </c>
-      <c r="U66" s="21"/>
-      <c r="V66" s="4" t="s">
+      <c r="T66" s="21"/>
+      <c r="U66" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W66" s="83" t="s">
+      <c r="V66" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="94" t="s">
+      <c r="C67" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="94" t="s">
+      <c r="D67" s="92" t="s">
         <v>29</v>
       </c>
       <c r="E67" s="7">
@@ -6999,19 +6702,15 @@
         <v>226</v>
       </c>
       <c r="S67" s="5"/>
-      <c r="T67" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="5"/>
-      <c r="V67" s="4" t="s">
+      <c r="T67" s="5"/>
+      <c r="U67" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W67" s="83" t="s">
+      <c r="V67" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>75</v>
       </c>
@@ -7064,19 +6763,15 @@
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
-      <c r="T68" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="21"/>
-      <c r="V68" s="4" t="s">
+      <c r="T68" s="21"/>
+      <c r="U68" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W68" s="83" t="s">
+      <c r="V68" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="29" t="s">
         <v>44</v>
       </c>
@@ -7129,19 +6824,15 @@
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
-      <c r="T69" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="29"/>
-      <c r="V69" s="4" t="s">
+      <c r="T69" s="29"/>
+      <c r="U69" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W69" s="83" t="s">
+      <c r="V69" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>51</v>
       </c>
@@ -7195,19 +6886,15 @@
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
       <c r="S70" s="21"/>
-      <c r="T70" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="21"/>
-      <c r="V70" s="4" t="s">
+      <c r="T70" s="21"/>
+      <c r="U70" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W70" s="83" t="s">
+      <c r="V70" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="29" t="s">
         <v>100</v>
       </c>
@@ -7261,19 +6948,15 @@
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
-      <c r="T71" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="29"/>
-      <c r="V71" s="4" t="s">
+      <c r="T71" s="29"/>
+      <c r="U71" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W71" s="83" t="s">
+      <c r="V71" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>113</v>
       </c>
@@ -7327,23 +7010,19 @@
       <c r="Q72" s="56"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
-      <c r="T72" s="56">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="56"/>
-      <c r="V72" s="4" t="s">
+      <c r="T72" s="56"/>
+      <c r="U72" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W72" s="83" t="s">
+      <c r="V72" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="103" t="s">
+      <c r="B73" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -7370,10 +7049,10 @@
       <c r="J73" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K73" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="L73" s="92" t="s">
+      <c r="K73" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="L73" s="90" t="s">
         <v>201</v>
       </c>
       <c r="M73" s="17">
@@ -7392,23 +7071,19 @@
       <c r="Q73" s="17"/>
       <c r="R73" s="17"/>
       <c r="S73" s="17"/>
-      <c r="T73" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="17"/>
-      <c r="V73" s="4" t="s">
+      <c r="T73" s="17"/>
+      <c r="U73" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W73" s="83" t="s">
+      <c r="V73" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="103" t="s">
+      <c r="B74" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -7435,10 +7110,10 @@
       <c r="J74" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K74" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="L74" s="92" t="s">
+      <c r="K74" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="L74" s="90" t="s">
         <v>201</v>
       </c>
       <c r="M74" s="17">
@@ -7458,19 +7133,15 @@
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
       <c r="S74" s="17"/>
-      <c r="T74" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="17"/>
-      <c r="V74" s="4" t="s">
+      <c r="T74" s="17"/>
+      <c r="U74" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W74" s="83" t="s">
+      <c r="V74" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>54</v>
       </c>
@@ -7523,21 +7194,17 @@
       <c r="Q75" s="47"/>
       <c r="R75" s="47"/>
       <c r="S75" s="47"/>
-      <c r="T75" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="46">
+      <c r="T75" s="46">
         <v>23000</v>
       </c>
-      <c r="V75" s="4" t="s">
+      <c r="U75" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W75" s="83" t="s">
+      <c r="V75" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
         <v>36</v>
       </c>
@@ -7590,29 +7257,25 @@
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
       <c r="S76" s="21"/>
-      <c r="T76" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U76" s="21"/>
-      <c r="V76" s="4" t="s">
+      <c r="T76" s="21"/>
+      <c r="U76" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W76" s="83" t="s">
+      <c r="V76" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="C77" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="92" t="s">
+      <c r="D77" s="90" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="15">
@@ -7633,10 +7296,10 @@
       <c r="J77" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K77" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="L77" s="92" t="s">
+      <c r="K77" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="L77" s="90" t="s">
         <v>201</v>
       </c>
       <c r="M77" s="17">
@@ -7655,19 +7318,15 @@
       <c r="Q77" s="17"/>
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
-      <c r="T77" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="17"/>
-      <c r="V77" s="4" t="s">
+      <c r="T77" s="17"/>
+      <c r="U77" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W77" s="83" t="s">
+      <c r="V77" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="65" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" s="65" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>47</v>
       </c>
@@ -7680,7 +7339,7 @@
       <c r="D78" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="98">
+      <c r="E78" s="96">
         <v>7821</v>
       </c>
       <c r="F78" s="14">
@@ -7698,10 +7357,10 @@
       <c r="J78" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K78" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="L78" s="92" t="s">
+      <c r="K78" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="L78" s="90" t="s">
         <v>201</v>
       </c>
       <c r="M78" s="17">
@@ -7721,19 +7380,15 @@
       <c r="Q78" s="17"/>
       <c r="R78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="17"/>
-      <c r="V78" s="4" t="s">
+      <c r="T78" s="17"/>
+      <c r="U78" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W78" s="83" t="s">
+      <c r="V78" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
         <v>37</v>
       </c>
@@ -7787,19 +7442,15 @@
       <c r="Q79" s="34"/>
       <c r="R79" s="34"/>
       <c r="S79" s="34"/>
-      <c r="T79" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="34"/>
-      <c r="V79" s="4" t="s">
+      <c r="T79" s="34"/>
+      <c r="U79" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W79" s="83" t="s">
+      <c r="V79" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="30" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" s="30" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>87</v>
       </c>
@@ -7853,29 +7504,25 @@
       <c r="Q80" s="21"/>
       <c r="R80" s="21"/>
       <c r="S80" s="21"/>
-      <c r="T80" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="21"/>
-      <c r="V80" s="4" t="s">
+      <c r="T80" s="21"/>
+      <c r="U80" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W80" s="83" t="s">
+      <c r="V80" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="30" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" s="30" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="70" t="s">
         <v>214</v>
       </c>
       <c r="B81" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="105" t="s">
+      <c r="C81" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="105" t="s">
+      <c r="D81" s="103" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="79">
@@ -7896,10 +7543,10 @@
       <c r="J81" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="K81" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="L81" s="95" t="s">
+      <c r="K81" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="L81" s="93" t="s">
         <v>201</v>
       </c>
       <c r="M81" s="70">
@@ -7921,29 +7568,25 @@
         <v>240</v>
       </c>
       <c r="S81" s="70"/>
-      <c r="T81" s="70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U81" s="70"/>
-      <c r="V81" s="4" t="s">
+      <c r="T81" s="70"/>
+      <c r="U81" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W81" s="83" t="s">
+      <c r="V81" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
         <v>214</v>
       </c>
       <c r="B82" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="105" t="s">
+      <c r="C82" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="105" t="s">
+      <c r="D82" s="103" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="79">
@@ -7964,10 +7607,10 @@
       <c r="J82" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="L82" s="95" t="s">
+      <c r="K82" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="L82" s="93" t="s">
         <v>201</v>
       </c>
       <c r="M82" s="70">
@@ -7989,19 +7632,15 @@
         <v>240</v>
       </c>
       <c r="S82" s="70"/>
-      <c r="T82" s="70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U82" s="70"/>
-      <c r="V82" s="4" t="s">
+      <c r="T82" s="70"/>
+      <c r="U82" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W82" s="83" t="s">
+      <c r="V82" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="30" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" s="30" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
         <v>36</v>
       </c>
@@ -8054,19 +7693,15 @@
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
       <c r="S83" s="21"/>
-      <c r="T83" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="21"/>
-      <c r="V83" s="4" t="s">
+      <c r="T83" s="21"/>
+      <c r="U83" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W83" s="83" t="s">
+      <c r="V83" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="27" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" s="27" customFormat="1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>38</v>
       </c>
@@ -8120,19 +7755,15 @@
       <c r="Q84" s="29"/>
       <c r="R84" s="29"/>
       <c r="S84" s="29"/>
-      <c r="T84" s="29">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="29"/>
-      <c r="V84" s="4" t="s">
+      <c r="T84" s="29"/>
+      <c r="U84" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W84" s="83" t="s">
+      <c r="V84" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="68" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" s="68" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
         <v>40</v>
       </c>
@@ -8185,19 +7816,15 @@
       <c r="Q85" s="47"/>
       <c r="R85" s="47"/>
       <c r="S85" s="47"/>
-      <c r="T85" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U85" s="47"/>
-      <c r="V85" s="4" t="s">
+      <c r="T85" s="47"/>
+      <c r="U85" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W85" s="83" t="s">
+      <c r="V85" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="68" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" s="68" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
         <v>40</v>
       </c>
@@ -8250,29 +7877,25 @@
       <c r="Q86" s="47"/>
       <c r="R86" s="47"/>
       <c r="S86" s="47"/>
-      <c r="T86" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U86" s="47"/>
-      <c r="V86" s="4" t="s">
+      <c r="T86" s="47"/>
+      <c r="U86" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W86" s="83" t="s">
+      <c r="V86" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="97" t="s">
+      <c r="C87" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="97" t="s">
+      <c r="D87" s="95" t="s">
         <v>29</v>
       </c>
       <c r="E87" s="9">
@@ -8317,19 +7940,15 @@
         <v>227</v>
       </c>
       <c r="S87" s="5"/>
-      <c r="T87" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U87" s="5"/>
-      <c r="V87" s="4" t="s">
+      <c r="T87" s="5"/>
+      <c r="U87" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W87" s="83" t="s">
+      <c r="V87" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
         <v>51</v>
       </c>
@@ -8383,21 +8002,17 @@
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
-      <c r="T88" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="21" t="s">
+      <c r="T88" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="V88" s="4" t="s">
+      <c r="U88" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W88" s="83" t="s">
+      <c r="V88" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
         <v>85</v>
       </c>
@@ -8450,21 +8065,17 @@
       <c r="Q89" s="34"/>
       <c r="R89" s="34"/>
       <c r="S89" s="34"/>
-      <c r="T89" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="34" t="s">
+      <c r="T89" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="V89" s="4" t="s">
+      <c r="U89" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W89" s="83" t="s">
+      <c r="V89" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>91</v>
       </c>
@@ -8518,29 +8129,25 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
-      <c r="T90" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="5"/>
-      <c r="V90" s="4" t="s">
+      <c r="T90" s="5"/>
+      <c r="U90" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W90" s="83" t="s">
+      <c r="V90" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="104" t="s">
+      <c r="C91" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D91" s="104" t="s">
+      <c r="D91" s="102" t="s">
         <v>29</v>
       </c>
       <c r="E91" s="9">
@@ -8585,23 +8192,19 @@
         <v>228</v>
       </c>
       <c r="S91" s="5"/>
-      <c r="T91" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="5"/>
-      <c r="V91" s="4" t="s">
+      <c r="T91" s="5"/>
+      <c r="U91" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W91" s="83" t="s">
+      <c r="V91" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="88" t="s">
         <v>304</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -8647,19 +8250,15 @@
       <c r="Q92" s="34"/>
       <c r="R92" s="34"/>
       <c r="S92" s="34"/>
-      <c r="T92" s="86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="34"/>
-      <c r="V92" s="4" t="s">
+      <c r="T92" s="34"/>
+      <c r="U92" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W92" s="83" t="s">
+      <c r="V92" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="34" t="s">
         <v>36</v>
       </c>
@@ -8712,19 +8311,15 @@
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
       <c r="S93" s="21"/>
-      <c r="T93" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="21"/>
-      <c r="V93" s="4" t="s">
+      <c r="T93" s="21"/>
+      <c r="U93" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W93" s="83" t="s">
+      <c r="V93" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
         <v>36</v>
       </c>
@@ -8777,23 +8372,19 @@
       <c r="Q94" s="21"/>
       <c r="R94" s="21"/>
       <c r="S94" s="21"/>
-      <c r="T94" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="21"/>
-      <c r="V94" s="4" t="s">
+      <c r="T94" s="21"/>
+      <c r="U94" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W94" s="83" t="s">
+      <c r="V94" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="90" t="s">
+      <c r="B95" s="88" t="s">
         <v>285</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -8810,7 +8401,7 @@
       <c r="H95" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I95" s="90" t="s">
+      <c r="I95" s="88" t="s">
         <v>287</v>
       </c>
       <c r="J95" s="66" t="s">
@@ -8838,19 +8429,15 @@
       <c r="Q95" s="40"/>
       <c r="R95" s="40"/>
       <c r="S95" s="40"/>
-      <c r="T95" s="85">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="40"/>
-      <c r="V95" s="4" t="s">
+      <c r="T95" s="40"/>
+      <c r="U95" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W95" s="83" t="s">
+      <c r="V95" s="83" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>105</v>
       </c>
@@ -8896,19 +8483,15 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="T96" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="5"/>
-      <c r="V96" s="4" t="s">
+      <c r="T96" s="5"/>
+      <c r="U96" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W96" s="83" t="s">
+      <c r="V96" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>105</v>
       </c>
@@ -8954,19 +8537,15 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
-      <c r="T97" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="5"/>
-      <c r="V97" s="4" t="s">
+      <c r="T97" s="5"/>
+      <c r="U97" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W97" s="83" t="s">
+      <c r="V97" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>105</v>
       </c>
@@ -9012,19 +8591,15 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
-      <c r="T98" s="5">
-        <f t="shared" ref="T98:T129" ca="1" si="3">T98:T157</f>
-        <v>0</v>
-      </c>
-      <c r="U98" s="5"/>
-      <c r="V98" s="4" t="s">
+      <c r="T98" s="5"/>
+      <c r="U98" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W98" s="83" t="s">
+      <c r="V98" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" s="30" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>105</v>
       </c>
@@ -9070,23 +8645,19 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
-      <c r="T99" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U99" s="5"/>
-      <c r="V99" s="4" t="s">
+      <c r="T99" s="5"/>
+      <c r="U99" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W99" s="83" t="s">
+      <c r="V99" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="101" t="s">
+      <c r="B100" s="99" t="s">
         <v>19</v>
       </c>
       <c r="C100" s="64" t="s">
@@ -9095,7 +8666,7 @@
       <c r="D100" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E100" s="107">
+      <c r="E100" s="105">
         <v>1241</v>
       </c>
       <c r="F100" s="23">
@@ -9126,23 +8697,19 @@
       <c r="Q100" s="47"/>
       <c r="R100" s="47"/>
       <c r="S100" s="47"/>
-      <c r="T100" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U100" s="47"/>
-      <c r="V100" s="4" t="s">
+      <c r="T100" s="47"/>
+      <c r="U100" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="W100" s="83" t="s">
+      <c r="V100" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="101" t="s">
+      <c r="B101" s="99" t="s">
         <v>19</v>
       </c>
       <c r="C101" s="64" t="s">
@@ -9151,7 +8718,7 @@
       <c r="D101" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="107">
+      <c r="E101" s="105">
         <v>1241</v>
       </c>
       <c r="F101" s="23">
@@ -9182,23 +8749,19 @@
       <c r="Q101" s="47"/>
       <c r="R101" s="47"/>
       <c r="S101" s="47"/>
-      <c r="T101" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U101" s="47"/>
-      <c r="V101" s="4" t="s">
+      <c r="T101" s="47"/>
+      <c r="U101" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="W101" s="83" t="s">
+      <c r="V101" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="101" t="s">
+      <c r="B102" s="99" t="s">
         <v>19</v>
       </c>
       <c r="C102" s="64" t="s">
@@ -9207,7 +8770,7 @@
       <c r="D102" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="107">
+      <c r="E102" s="105">
         <v>1241</v>
       </c>
       <c r="F102" s="23">
@@ -9238,23 +8801,19 @@
       <c r="Q102" s="47"/>
       <c r="R102" s="47"/>
       <c r="S102" s="47"/>
-      <c r="T102" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U102" s="47"/>
-      <c r="V102" s="4" t="s">
+      <c r="T102" s="47"/>
+      <c r="U102" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="W102" s="83" t="s">
+      <c r="V102" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="101" t="s">
+      <c r="B103" s="99" t="s">
         <v>19</v>
       </c>
       <c r="C103" s="64" t="s">
@@ -9263,7 +8822,7 @@
       <c r="D103" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E103" s="107">
+      <c r="E103" s="105">
         <v>1241</v>
       </c>
       <c r="F103" s="23">
@@ -9294,23 +8853,19 @@
       <c r="Q103" s="47"/>
       <c r="R103" s="47"/>
       <c r="S103" s="47"/>
-      <c r="T103" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U103" s="47"/>
-      <c r="V103" s="4" t="s">
+      <c r="T103" s="47"/>
+      <c r="U103" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="W103" s="83" t="s">
+      <c r="V103" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="B104" s="99" t="s">
+      <c r="B104" s="97" t="s">
         <v>282</v>
       </c>
       <c r="C104" s="8" t="s">
@@ -9348,23 +8903,19 @@
       <c r="Q104" s="40"/>
       <c r="R104" s="40"/>
       <c r="S104" s="40"/>
-      <c r="T104" s="85">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U104" s="40"/>
-      <c r="V104" s="4" t="s">
+      <c r="T104" s="40"/>
+      <c r="U104" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="W104" s="83" t="s">
+      <c r="V104" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="100" t="s">
+      <c r="B105" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="23" t="s">
@@ -9404,23 +8955,19 @@
       <c r="Q105" s="47"/>
       <c r="R105" s="47"/>
       <c r="S105" s="47"/>
-      <c r="T105" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U105" s="47"/>
-      <c r="V105" s="4" t="s">
+      <c r="T105" s="47"/>
+      <c r="U105" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W105" s="83" t="s">
+      <c r="V105" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A106" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B106" s="100" t="s">
+      <c r="B106" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="23" t="s">
@@ -9460,23 +9007,19 @@
       <c r="Q106" s="47"/>
       <c r="R106" s="47"/>
       <c r="S106" s="47"/>
-      <c r="T106" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="47"/>
-      <c r="V106" s="4" t="s">
+      <c r="T106" s="47"/>
+      <c r="U106" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W106" s="83" t="s">
+      <c r="V106" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A107" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B107" s="100" t="s">
+      <c r="B107" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -9516,23 +9059,19 @@
       <c r="Q107" s="47"/>
       <c r="R107" s="47"/>
       <c r="S107" s="47"/>
-      <c r="T107" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="47"/>
-      <c r="V107" s="4" t="s">
+      <c r="T107" s="47"/>
+      <c r="U107" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W107" s="83" t="s">
+      <c r="V107" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" s="27" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A108" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="100" t="s">
+      <c r="B108" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -9572,19 +9111,15 @@
       <c r="Q108" s="47"/>
       <c r="R108" s="47"/>
       <c r="S108" s="47"/>
-      <c r="T108" s="47">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="47"/>
-      <c r="V108" s="4" t="s">
+      <c r="T108" s="47"/>
+      <c r="U108" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W108" s="83" t="s">
+      <c r="V108" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="58" t="s">
         <v>60</v>
       </c>
@@ -9630,23 +9165,19 @@
       <c r="Q109" s="29"/>
       <c r="R109" s="29"/>
       <c r="S109" s="29"/>
-      <c r="T109" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="29"/>
-      <c r="V109" s="4" t="s">
+      <c r="T109" s="29"/>
+      <c r="U109" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W109" s="83" t="s">
+      <c r="V109" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="110" spans="1:27" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="B110" s="90" t="s">
+      <c r="B110" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -9684,19 +9215,15 @@
       <c r="Q110" s="40"/>
       <c r="R110" s="40"/>
       <c r="S110" s="40"/>
-      <c r="T110" s="85">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="40"/>
-      <c r="V110" s="4" t="s">
+      <c r="T110" s="40"/>
+      <c r="U110" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W110" s="83" t="s">
+      <c r="V110" s="83" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>92</v>
       </c>
@@ -9738,26 +9265,22 @@
       <c r="Q111" s="29"/>
       <c r="R111" s="29"/>
       <c r="S111" s="29"/>
-      <c r="T111" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V111" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W111" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AA111" t="s">
+      <c r="Z111" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="B112" s="90" t="s">
+      <c r="B112" s="88" t="s">
         <v>291</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -9797,29 +9320,25 @@
       <c r="Q112" s="40"/>
       <c r="R112" s="40"/>
       <c r="S112" s="40"/>
-      <c r="T112" s="85">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="40"/>
+      <c r="T112" s="40"/>
+      <c r="U112" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V112" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W112" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X112" t="s">
+      <c r="W112" t="s">
         <v>289</v>
       </c>
-      <c r="AA112" t="s">
+      <c r="Z112" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="B113" s="90" t="s">
+      <c r="B113" s="88" t="s">
         <v>291</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -9860,32 +9379,28 @@
       <c r="Q113" s="40"/>
       <c r="R113" s="40"/>
       <c r="S113" s="40"/>
-      <c r="T113" s="85">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U113" s="40"/>
+      <c r="T113" s="40"/>
+      <c r="U113" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V113" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W113" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X113" s="87" t="s">
+      <c r="W113" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="Y113" s="87" t="s">
+      <c r="X113" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="AA113" t="s">
+      <c r="Z113" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="72" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="B114" s="90" t="s">
+      <c r="B114" s="88" t="s">
         <v>311</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -9926,38 +9441,34 @@
       <c r="Q114" s="34"/>
       <c r="R114" s="34"/>
       <c r="S114" s="34"/>
-      <c r="T114" s="86">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U114" s="34"/>
+      <c r="T114" s="34"/>
+      <c r="U114" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V114" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W114" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X114" s="87" t="s">
+      <c r="W114" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="Y114" s="87" t="s">
+      <c r="X114" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="AA114" t="s">
+      <c r="Z114" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="34" t="s">
         <v>108</v>
       </c>
       <c r="B115" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C115" s="106" t="s">
+      <c r="C115" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="106" t="s">
+      <c r="D115" s="104" t="s">
         <v>332</v>
       </c>
       <c r="E115" s="34">
@@ -9991,32 +9502,28 @@
       <c r="Q115" s="34"/>
       <c r="R115" s="34"/>
       <c r="S115" s="34"/>
-      <c r="T115" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U115" s="34"/>
+      <c r="T115" s="34"/>
+      <c r="U115" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V115" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W115" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AA115" t="s">
+      <c r="Z115" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="34" t="s">
         <v>108</v>
       </c>
       <c r="B116" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="106" t="s">
+      <c r="C116" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="D116" s="106" t="s">
+      <c r="D116" s="104" t="s">
         <v>332</v>
       </c>
       <c r="E116" s="34">
@@ -10050,22 +9557,18 @@
       <c r="Q116" s="34"/>
       <c r="R116" s="34"/>
       <c r="S116" s="34"/>
-      <c r="T116" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="34"/>
+      <c r="T116" s="34"/>
+      <c r="U116" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V116" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W116" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AA116" t="s">
+      <c r="Z116" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="34" t="s">
         <v>329</v>
       </c>
@@ -10111,22 +9614,18 @@
       <c r="Q117" s="34"/>
       <c r="R117" s="34"/>
       <c r="S117" s="34"/>
-      <c r="T117" s="34">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U117" s="34"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V117" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W117" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AA117" t="s">
+      <c r="Z117" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>325</v>
       </c>
@@ -10170,25 +9669,21 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
-      <c r="T118" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V118" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W118" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X118" s="87" t="s">
+      <c r="W118" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="AA118" t="s">
+      <c r="Z118" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>325</v>
       </c>
@@ -10232,25 +9727,21 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
       <c r="S119" s="5"/>
-      <c r="T119" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V119" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W119" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X119" s="87" t="s">
+      <c r="W119" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="AA119" t="s">
+      <c r="Z119" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>325</v>
       </c>
@@ -10294,25 +9785,21 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
       <c r="S120" s="5"/>
-      <c r="T120" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V120" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W120" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X120" s="87" t="s">
+      <c r="W120" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="AA120" t="s">
+      <c r="Z120" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="34" t="s">
         <v>46</v>
       </c>
@@ -10358,30 +9845,26 @@
       <c r="Q121" s="66"/>
       <c r="R121" s="66"/>
       <c r="S121" s="66"/>
-      <c r="T121" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U121" s="66" t="s">
+      <c r="T121" s="66" t="s">
         <v>238</v>
       </c>
+      <c r="U121" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V121" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W121" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X121" s="87" t="s">
+      <c r="W121" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="Y121" s="87" t="s">
+      <c r="X121" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="AA121" t="s">
+      <c r="Z121" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A122" s="34" t="s">
         <v>46</v>
       </c>
@@ -10427,26 +9910,22 @@
       <c r="Q122" s="66"/>
       <c r="R122" s="66"/>
       <c r="S122" s="66"/>
-      <c r="T122" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U122" s="66" t="s">
+      <c r="T122" s="66" t="s">
         <v>237</v>
       </c>
+      <c r="U122" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="V122" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="W122" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="X122" s="87" t="s">
+      <c r="W122" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="Y122" s="87" t="s">
+      <c r="X122" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="AA122" t="s">
+      <c r="Z122" t="s">
         <v>323</v>
       </c>
     </row>
@@ -10627,7 +10106,7 @@
     </row>
     <row r="4" spans="1:23" s="84" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:23" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
